--- a/CountryReconciler/reconciler/files/country_list.xlsx
+++ b/CountryReconciler/reconciler/files/country_list.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlos\Documents\projects\landbook-importers\CountryReconciler\reconciler\files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-435" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="-432" windowWidth="20736" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="BL260" authorId="0">
+    <comment ref="BL260" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -6666,8 +6671,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="39">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -7642,10 +7647,11 @@
     <cellStyle name="60% - Énfasis4" xfId="178" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis5" xfId="182" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis6" xfId="186" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Buena" xfId="152" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="152" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Cálculo" xfId="157" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Celda de comprobación" xfId="159" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Celda vinculada" xfId="158" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Encabezado 1" xfId="148" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Encabezado 4" xfId="151" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Énfasis1" xfId="163" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Énfasis2" xfId="167" builtinId="33" customBuiltin="1"/>
@@ -7809,7 +7815,6 @@
     <cellStyle name="Texto de advertencia" xfId="160" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Texto explicativo" xfId="161" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Título" xfId="147" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 1" xfId="148" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Título 2" xfId="149" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Título 3" xfId="150" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="162" builtinId="25" customBuiltin="1"/>
@@ -7822,6 +7827,14 @@
       <color rgb="FF00FF00"/>
     </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -8424,6 +8437,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>777240</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12694920" cy="12847320"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8470,7 +8531,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8502,9 +8563,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8536,6 +8598,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -8711,63 +8774,63 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL261"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C236" sqref="C236"/>
+      <pane ySplit="1" topLeftCell="A150" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F157" sqref="F157"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="36.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="36.44140625" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="6" max="7" width="32.140625" customWidth="1"/>
-    <col min="8" max="8" width="28.140625" customWidth="1"/>
-    <col min="9" max="9" width="32.7109375" customWidth="1"/>
-    <col min="10" max="10" width="30.28515625" customWidth="1"/>
-    <col min="11" max="11" width="36.42578125" customWidth="1"/>
-    <col min="12" max="12" width="19.42578125" customWidth="1"/>
+    <col min="6" max="7" width="32.109375" customWidth="1"/>
+    <col min="8" max="8" width="28.109375" customWidth="1"/>
+    <col min="9" max="9" width="32.6640625" customWidth="1"/>
+    <col min="10" max="10" width="30.33203125" customWidth="1"/>
+    <col min="11" max="11" width="36.44140625" customWidth="1"/>
+    <col min="12" max="12" width="19.44140625" customWidth="1"/>
     <col min="13" max="13" width="6" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" customWidth="1"/>
-    <col min="15" max="15" width="10.28515625" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" customWidth="1"/>
+    <col min="15" max="15" width="10.33203125" customWidth="1"/>
+    <col min="16" max="16" width="11.44140625" customWidth="1"/>
     <col min="17" max="17" width="11" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" customWidth="1"/>
-    <col min="19" max="19" width="9.42578125" customWidth="1"/>
-    <col min="20" max="20" width="10.7109375" customWidth="1"/>
-    <col min="21" max="22" width="5.42578125" customWidth="1"/>
-    <col min="23" max="23" width="24.140625" customWidth="1"/>
-    <col min="24" max="24" width="22.85546875" customWidth="1"/>
-    <col min="25" max="25" width="4.140625" customWidth="1"/>
-    <col min="26" max="26" width="11.42578125" customWidth="1"/>
-    <col min="27" max="27" width="9.85546875" customWidth="1"/>
+    <col min="18" max="18" width="11.44140625" customWidth="1"/>
+    <col min="19" max="19" width="9.44140625" customWidth="1"/>
+    <col min="20" max="20" width="10.6640625" customWidth="1"/>
+    <col min="21" max="22" width="5.44140625" customWidth="1"/>
+    <col min="23" max="23" width="24.109375" customWidth="1"/>
+    <col min="24" max="24" width="22.88671875" customWidth="1"/>
+    <col min="25" max="25" width="4.109375" customWidth="1"/>
+    <col min="26" max="26" width="11.44140625" customWidth="1"/>
+    <col min="27" max="27" width="9.88671875" customWidth="1"/>
     <col min="28" max="28" width="6" customWidth="1"/>
-    <col min="29" max="29" width="10.42578125" customWidth="1"/>
-    <col min="30" max="30" width="11.140625" customWidth="1"/>
-    <col min="31" max="31" width="10.42578125" customWidth="1"/>
-    <col min="32" max="32" width="10.7109375" customWidth="1"/>
-    <col min="33" max="33" width="9.42578125" customWidth="1"/>
-    <col min="34" max="34" width="11.42578125" customWidth="1"/>
-    <col min="35" max="35" width="14.42578125" customWidth="1"/>
-    <col min="36" max="36" width="8.7109375" customWidth="1"/>
-    <col min="37" max="37" width="9.42578125" customWidth="1"/>
-    <col min="38" max="39" width="22.140625" customWidth="1"/>
-    <col min="40" max="40" width="23.28515625" customWidth="1"/>
-    <col min="41" max="41" width="23.140625" customWidth="1"/>
-    <col min="42" max="42" width="13.28515625" customWidth="1"/>
-    <col min="43" max="43" width="10.42578125" customWidth="1"/>
-    <col min="44" max="44" width="8.85546875" customWidth="1"/>
-    <col min="45" max="45" width="11.42578125" customWidth="1"/>
-    <col min="46" max="46" width="11.85546875" customWidth="1"/>
-    <col min="47" max="47" width="15.28515625" customWidth="1"/>
-    <col min="48" max="48" width="14.42578125" customWidth="1"/>
+    <col min="29" max="29" width="10.44140625" customWidth="1"/>
+    <col min="30" max="30" width="11.109375" customWidth="1"/>
+    <col min="31" max="31" width="10.44140625" customWidth="1"/>
+    <col min="32" max="32" width="10.6640625" customWidth="1"/>
+    <col min="33" max="33" width="9.44140625" customWidth="1"/>
+    <col min="34" max="34" width="11.44140625" customWidth="1"/>
+    <col min="35" max="35" width="14.44140625" customWidth="1"/>
+    <col min="36" max="36" width="8.6640625" customWidth="1"/>
+    <col min="37" max="37" width="9.44140625" customWidth="1"/>
+    <col min="38" max="39" width="22.109375" customWidth="1"/>
+    <col min="40" max="40" width="23.33203125" customWidth="1"/>
+    <col min="41" max="41" width="23.109375" customWidth="1"/>
+    <col min="42" max="42" width="13.33203125" customWidth="1"/>
+    <col min="43" max="43" width="10.44140625" customWidth="1"/>
+    <col min="44" max="44" width="8.88671875" customWidth="1"/>
+    <col min="45" max="45" width="11.44140625" customWidth="1"/>
+    <col min="46" max="46" width="11.88671875" customWidth="1"/>
+    <col min="47" max="47" width="15.33203125" customWidth="1"/>
+    <col min="48" max="48" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" ht="12.75" customHeight="1">
+    <row r="1" spans="1:48" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -8913,7 +8976,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="2" spans="1:48" ht="12.75" customHeight="1">
+    <row r="2" spans="1:48" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>45</v>
       </c>
@@ -9057,7 +9120,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:48" ht="12.75" customHeight="1">
+    <row r="3" spans="1:48" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>57</v>
       </c>
@@ -9201,7 +9264,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:48" ht="12.75" customHeight="1">
+    <row r="4" spans="1:48" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>72</v>
       </c>
@@ -9345,7 +9408,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:48" ht="12.75" customHeight="1">
+    <row r="5" spans="1:48" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>84</v>
       </c>
@@ -9489,7 +9552,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="6" spans="1:48" ht="12.75" customHeight="1">
+    <row r="6" spans="1:48" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>91</v>
       </c>
@@ -9633,7 +9696,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:48" ht="12.75" customHeight="1">
+    <row r="7" spans="1:48" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>104</v>
       </c>
@@ -9773,7 +9836,7 @@
       </c>
       <c r="AV7" s="22"/>
     </row>
-    <row r="8" spans="1:48" ht="12.75" customHeight="1">
+    <row r="8" spans="1:48" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>114</v>
       </c>
@@ -9917,7 +9980,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:48" ht="12.75" customHeight="1">
+    <row r="9" spans="1:48" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>124</v>
       </c>
@@ -10061,7 +10124,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="10" spans="1:48" ht="12.75" customHeight="1">
+    <row r="10" spans="1:48" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>136</v>
       </c>
@@ -10205,7 +10268,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:48" ht="12.75" customHeight="1">
+    <row r="11" spans="1:48" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>147</v>
       </c>
@@ -10349,7 +10412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:48" ht="12.75" customHeight="1">
+    <row r="12" spans="1:48" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>156</v>
       </c>
@@ -10493,7 +10556,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:48" ht="12.75" customHeight="1">
+    <row r="13" spans="1:48" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>168</v>
       </c>
@@ -10635,7 +10698,7 @@
       </c>
       <c r="AV13" s="12"/>
     </row>
-    <row r="14" spans="1:48" ht="12.75" customHeight="1">
+    <row r="14" spans="1:48" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>177</v>
       </c>
@@ -10775,7 +10838,7 @@
       </c>
       <c r="AV14" s="22"/>
     </row>
-    <row r="15" spans="1:48" ht="12.75" customHeight="1">
+    <row r="15" spans="1:48" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>184</v>
       </c>
@@ -10915,7 +10978,7 @@
       </c>
       <c r="AV15" s="22"/>
     </row>
-    <row r="16" spans="1:48" ht="12.75" customHeight="1">
+    <row r="16" spans="1:48" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>191</v>
       </c>
@@ -11059,7 +11122,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:48" ht="12.75" customHeight="1">
+    <row r="17" spans="1:48" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>177</v>
       </c>
@@ -11203,7 +11266,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:48" ht="12.75" customHeight="1">
+    <row r="18" spans="1:48" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>202</v>
       </c>
@@ -11347,7 +11410,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:48" ht="12.75" customHeight="1">
+    <row r="19" spans="1:48" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>213</v>
       </c>
@@ -11491,7 +11554,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:48" ht="12.75" customHeight="1">
+    <row r="20" spans="1:48" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>223</v>
       </c>
@@ -11635,7 +11698,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:48" ht="12.75" customHeight="1">
+    <row r="21" spans="1:48" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>232</v>
       </c>
@@ -11779,7 +11842,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="22" spans="1:48" ht="12.75" customHeight="1">
+    <row r="22" spans="1:48" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>243</v>
       </c>
@@ -11923,7 +11986,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:48" ht="12.75" customHeight="1">
+    <row r="23" spans="1:48" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>252</v>
       </c>
@@ -12067,7 +12130,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="24" spans="1:48" ht="12.75" customHeight="1">
+    <row r="24" spans="1:48" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>258</v>
       </c>
@@ -12211,7 +12274,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:48" ht="12.75" customHeight="1">
+    <row r="25" spans="1:48" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>266</v>
       </c>
@@ -12355,7 +12418,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:48" ht="12.75" customHeight="1">
+    <row r="26" spans="1:48" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>276</v>
       </c>
@@ -12499,7 +12562,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:48" ht="12.75" customHeight="1">
+    <row r="27" spans="1:48" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>286</v>
       </c>
@@ -12643,7 +12706,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:48" ht="12.75" customHeight="1">
+    <row r="28" spans="1:48" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>295</v>
       </c>
@@ -12787,7 +12850,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:48">
+    <row r="29" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>184</v>
       </c>
@@ -12929,7 +12992,7 @@
       </c>
       <c r="AV29" s="11"/>
     </row>
-    <row r="30" spans="1:48">
+    <row r="30" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>314</v>
       </c>
@@ -13073,7 +13136,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:48">
+    <row r="31" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>324</v>
       </c>
@@ -13217,7 +13280,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:48">
+    <row r="32" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
         <v>84</v>
       </c>
@@ -13361,7 +13424,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:48" ht="25.5">
+    <row r="33" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>340</v>
       </c>
@@ -13505,7 +13568,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:48" ht="25.5">
+    <row r="34" spans="1:48" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>348</v>
       </c>
@@ -13649,7 +13712,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:48">
+    <row r="35" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>358</v>
       </c>
@@ -13793,7 +13856,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:48">
+    <row r="36" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>365</v>
       </c>
@@ -13937,7 +14000,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:48">
+    <row r="37" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>373</v>
       </c>
@@ -14081,7 +14144,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:48">
+    <row r="38" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>382</v>
       </c>
@@ -14225,7 +14288,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:48">
+    <row r="39" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>391</v>
       </c>
@@ -14369,7 +14432,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:48">
+    <row r="40" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
         <v>401</v>
       </c>
@@ -14513,7 +14576,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:48">
+    <row r="41" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
         <v>410</v>
       </c>
@@ -14657,7 +14720,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="42" spans="1:48">
+    <row r="42" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
         <v>420</v>
       </c>
@@ -14801,7 +14864,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:48">
+    <row r="43" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
         <v>428</v>
       </c>
@@ -14945,7 +15008,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="44" spans="1:48">
+    <row r="44" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
         <v>437</v>
       </c>
@@ -15089,7 +15152,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="45" spans="1:48">
+    <row r="45" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
         <v>447</v>
       </c>
@@ -15233,7 +15296,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="1:48" ht="25.5">
+    <row r="46" spans="1:48" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
         <v>457</v>
       </c>
@@ -15377,7 +15440,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="47" spans="1:48">
+    <row r="47" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
         <v>470</v>
       </c>
@@ -15521,7 +15584,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:48">
+    <row r="48" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
         <v>479</v>
       </c>
@@ -15665,7 +15728,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:48">
+    <row r="49" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
         <v>490</v>
       </c>
@@ -15809,7 +15872,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:48">
+    <row r="50" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
         <v>499</v>
       </c>
@@ -15953,7 +16016,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="1:48">
+    <row r="51" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
         <v>509</v>
       </c>
@@ -16097,7 +16160,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="52" spans="1:48">
+    <row r="52" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
         <v>519</v>
       </c>
@@ -16241,7 +16304,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="53" spans="1:48">
+    <row r="53" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
         <v>527</v>
       </c>
@@ -16385,7 +16448,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="54" spans="1:48">
+    <row r="54" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>45</v>
       </c>
@@ -16527,7 +16590,7 @@
       </c>
       <c r="AV54" s="11"/>
     </row>
-    <row r="55" spans="1:48">
+    <row r="55" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
         <v>84</v>
       </c>
@@ -16671,7 +16734,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="1:48" ht="25.5">
+    <row r="56" spans="1:48" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A56" s="19" t="s">
         <v>548</v>
       </c>
@@ -16811,7 +16874,7 @@
       </c>
       <c r="AV56" s="22"/>
     </row>
-    <row r="57" spans="1:48">
+    <row r="57" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
         <v>552</v>
       </c>
@@ -16955,7 +17018,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="1:48">
+    <row r="58" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
         <v>561</v>
       </c>
@@ -17099,7 +17162,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="59" spans="1:48" ht="25.5">
+    <row r="59" spans="1:48" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
         <v>571</v>
       </c>
@@ -17243,7 +17306,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="60" spans="1:48">
+    <row r="60" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
         <v>582</v>
       </c>
@@ -17387,7 +17450,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="61" spans="1:48">
+    <row r="61" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
         <v>590</v>
       </c>
@@ -17531,7 +17594,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="1:48">
+    <row r="62" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
         <v>599</v>
       </c>
@@ -17675,7 +17738,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="63" spans="1:48">
+    <row r="63" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
         <v>609</v>
       </c>
@@ -17819,7 +17882,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="64" spans="1:48" ht="25.5">
+    <row r="64" spans="1:48" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
         <v>619</v>
       </c>
@@ -17963,7 +18026,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:48">
+    <row r="65" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
         <v>630</v>
       </c>
@@ -18107,7 +18170,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="66" spans="1:48">
+    <row r="66" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
         <v>639</v>
       </c>
@@ -18251,7 +18314,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="67" spans="1:48">
+    <row r="67" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
         <v>648</v>
       </c>
@@ -18395,7 +18458,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="68" spans="1:48">
+    <row r="68" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
         <v>655</v>
       </c>
@@ -18539,7 +18602,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="69" spans="1:48">
+    <row r="69" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
         <v>666</v>
       </c>
@@ -18683,7 +18746,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="70" spans="1:48" ht="25.5">
+    <row r="70" spans="1:48" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
         <v>675</v>
       </c>
@@ -18827,7 +18890,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="71" spans="1:48">
+    <row r="71" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
         <v>104</v>
       </c>
@@ -18971,7 +19034,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="72" spans="1:48">
+    <row r="72" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
         <v>694</v>
       </c>
@@ -19115,7 +19178,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="73" spans="1:48" ht="25.5">
+    <row r="73" spans="1:48" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
         <v>84</v>
       </c>
@@ -19259,7 +19322,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="74" spans="1:48">
+    <row r="74" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
         <v>184</v>
       </c>
@@ -19403,7 +19466,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="75" spans="1:48">
+    <row r="75" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
         <v>599</v>
       </c>
@@ -19547,7 +19610,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="76" spans="1:48" ht="25.5">
+    <row r="76" spans="1:48" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
         <v>732</v>
       </c>
@@ -19691,7 +19754,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="77" spans="1:48">
+    <row r="77" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="s">
         <v>742</v>
       </c>
@@ -19835,7 +19898,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="78" spans="1:48" ht="25.5">
+    <row r="78" spans="1:48" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
         <v>84</v>
       </c>
@@ -19979,7 +20042,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="79" spans="1:48">
+    <row r="79" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="s">
         <v>759</v>
       </c>
@@ -20123,7 +20186,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="80" spans="1:48">
+    <row r="80" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A80" s="19" t="s">
         <v>84</v>
       </c>
@@ -20263,7 +20326,7 @@
       </c>
       <c r="AV80" s="22"/>
     </row>
-    <row r="81" spans="1:48">
+    <row r="81" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
         <v>773</v>
       </c>
@@ -20407,7 +20470,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="82" spans="1:48">
+    <row r="82" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A82" s="27"/>
       <c r="B82" s="27"/>
       <c r="C82" s="27"/>
@@ -20475,7 +20538,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="83" spans="1:48">
+    <row r="83" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="s">
         <v>782</v>
       </c>
@@ -20619,7 +20682,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="84" spans="1:48">
+    <row r="84" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A84" s="27"/>
       <c r="B84" s="27"/>
       <c r="C84" s="27"/>
@@ -20687,7 +20750,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="85" spans="1:48">
+    <row r="85" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="s">
         <v>795</v>
       </c>
@@ -20831,7 +20894,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="86" spans="1:48">
+    <row r="86" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="s">
         <v>804</v>
       </c>
@@ -20975,7 +21038,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="87" spans="1:48" ht="25.5">
+    <row r="87" spans="1:48" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A87" s="13" t="s">
         <v>814</v>
       </c>
@@ -21119,7 +21182,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="88" spans="1:48">
+    <row r="88" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A88" s="13" t="s">
         <v>824</v>
       </c>
@@ -21263,7 +21326,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="89" spans="1:48">
+    <row r="89" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A89" s="13" t="s">
         <v>833</v>
       </c>
@@ -21407,7 +21470,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="90" spans="1:48">
+    <row r="90" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A90" s="19" t="s">
         <v>599</v>
       </c>
@@ -21549,7 +21612,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="91" spans="1:48">
+    <row r="91" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A91" s="13" t="s">
         <v>846</v>
       </c>
@@ -21693,7 +21756,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:48">
+    <row r="92" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="s">
         <v>156</v>
       </c>
@@ -21837,7 +21900,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="93" spans="1:48">
+    <row r="93" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A93" s="34"/>
       <c r="B93" s="34"/>
       <c r="C93" s="34"/>
@@ -21905,7 +21968,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="94" spans="1:48">
+    <row r="94" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A94" s="13" t="s">
         <v>863</v>
       </c>
@@ -22049,7 +22112,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="95" spans="1:48" ht="38.25">
+    <row r="95" spans="1:48" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A95" s="19" t="s">
         <v>428</v>
       </c>
@@ -22189,7 +22252,7 @@
       </c>
       <c r="AV95" s="22"/>
     </row>
-    <row r="96" spans="1:48">
+    <row r="96" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A96" s="19" t="s">
         <v>177</v>
       </c>
@@ -22329,7 +22392,7 @@
       </c>
       <c r="AV96" s="22"/>
     </row>
-    <row r="97" spans="1:48">
+    <row r="97" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A97" s="13" t="s">
         <v>883</v>
       </c>
@@ -22473,7 +22536,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:48">
+    <row r="98" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A98" s="13" t="s">
         <v>891</v>
       </c>
@@ -22617,7 +22680,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="99" spans="1:48">
+    <row r="99" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A99" s="13" t="s">
         <v>901</v>
       </c>
@@ -22761,7 +22824,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="100" spans="1:48">
+    <row r="100" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A100" s="13" t="s">
         <v>910</v>
       </c>
@@ -22905,7 +22968,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="101" spans="1:48">
+    <row r="101" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A101" s="13" t="s">
         <v>918</v>
       </c>
@@ -23049,7 +23112,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="102" spans="1:48">
+    <row r="102" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A102" s="19" t="s">
         <v>84</v>
       </c>
@@ -23191,7 +23254,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="103" spans="1:48">
+    <row r="103" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A103" s="13" t="s">
         <v>935</v>
       </c>
@@ -23335,7 +23398,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="104" spans="1:48">
+    <row r="104" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A104" s="19" t="s">
         <v>177</v>
       </c>
@@ -23475,7 +23538,7 @@
       </c>
       <c r="AV104" s="22"/>
     </row>
-    <row r="105" spans="1:48" ht="25.5">
+    <row r="105" spans="1:48" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A105" s="19" t="s">
         <v>84</v>
       </c>
@@ -23615,7 +23678,7 @@
       </c>
       <c r="AV105" s="22"/>
     </row>
-    <row r="106" spans="1:48">
+    <row r="106" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A106" s="13" t="s">
         <v>951</v>
       </c>
@@ -23759,7 +23822,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="107" spans="1:48">
+    <row r="107" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A107" s="13" t="s">
         <v>959</v>
       </c>
@@ -23903,7 +23966,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="108" spans="1:48">
+    <row r="108" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A108" s="13" t="s">
         <v>967</v>
       </c>
@@ -24047,7 +24110,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="109" spans="1:48">
+    <row r="109" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A109" s="13" t="s">
         <v>975</v>
       </c>
@@ -24191,7 +24254,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="110" spans="1:48">
+    <row r="110" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A110" s="13" t="s">
         <v>984</v>
       </c>
@@ -24335,7 +24398,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="111" spans="1:48">
+    <row r="111" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A111" s="13" t="s">
         <v>993</v>
       </c>
@@ -24479,7 +24542,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="112" spans="1:48">
+    <row r="112" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A112" s="13" t="s">
         <v>1003</v>
       </c>
@@ -24623,7 +24686,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="113" spans="1:48">
+    <row r="113" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A113" s="19" t="s">
         <v>84</v>
       </c>
@@ -24763,7 +24826,7 @@
       </c>
       <c r="AV113" s="22"/>
     </row>
-    <row r="114" spans="1:48" ht="25.5">
+    <row r="114" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A114" s="13" t="s">
         <v>1016</v>
       </c>
@@ -24907,7 +24970,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="115" spans="1:48">
+    <row r="115" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A115" s="13" t="s">
         <v>1026</v>
       </c>
@@ -25051,7 +25114,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="116" spans="1:48">
+    <row r="116" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A116" s="19" t="s">
         <v>1034</v>
       </c>
@@ -25191,7 +25254,7 @@
       </c>
       <c r="AV116" s="22"/>
     </row>
-    <row r="117" spans="1:48">
+    <row r="117" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A117" s="13" t="s">
         <v>1039</v>
       </c>
@@ -25335,7 +25398,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="118" spans="1:48">
+    <row r="118" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A118" s="13" t="s">
         <v>1049</v>
       </c>
@@ -25479,7 +25542,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="119" spans="1:48">
+    <row r="119" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A119" s="13" t="s">
         <v>1057</v>
       </c>
@@ -25623,7 +25686,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="120" spans="1:48">
+    <row r="120" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A120" s="13" t="s">
         <v>1067</v>
       </c>
@@ -25767,7 +25830,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="121" spans="1:48">
+    <row r="121" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A121" s="13" t="s">
         <v>1077</v>
       </c>
@@ -25911,7 +25974,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="122" spans="1:48">
+    <row r="122" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A122" s="13" t="s">
         <v>1085</v>
       </c>
@@ -26055,7 +26118,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="123" spans="1:48">
+    <row r="123" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A123" s="13" t="s">
         <v>1092</v>
       </c>
@@ -26199,7 +26262,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="124" spans="1:48">
+    <row r="124" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A124" s="19" t="s">
         <v>1103</v>
       </c>
@@ -26339,7 +26402,7 @@
       </c>
       <c r="AV124" s="22"/>
     </row>
-    <row r="125" spans="1:48">
+    <row r="125" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A125" s="13" t="s">
         <v>1110</v>
       </c>
@@ -26483,7 +26546,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="126" spans="1:48" ht="25.5">
+    <row r="126" spans="1:48" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A126" s="13" t="s">
         <v>1119</v>
       </c>
@@ -26627,7 +26690,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="127" spans="1:48">
+    <row r="127" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A127" s="13" t="s">
         <v>1128</v>
       </c>
@@ -26771,7 +26834,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="128" spans="1:48">
+    <row r="128" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A128" s="13" t="s">
         <v>1138</v>
       </c>
@@ -26915,7 +26978,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="129" spans="1:48">
+    <row r="129" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A129" s="13" t="s">
         <v>1146</v>
       </c>
@@ -27059,7 +27122,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="130" spans="1:48">
+    <row r="130" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A130" s="13" t="s">
         <v>1152</v>
       </c>
@@ -27203,7 +27266,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="131" spans="1:48">
+    <row r="131" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A131" s="13" t="s">
         <v>1159</v>
       </c>
@@ -27347,7 +27410,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="132" spans="1:48" ht="25.5">
+    <row r="132" spans="1:48" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A132" s="13" t="s">
         <v>1168</v>
       </c>
@@ -27491,7 +27554,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="133" spans="1:48">
+    <row r="133" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A133" s="13" t="s">
         <v>1176</v>
       </c>
@@ -27635,7 +27698,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="134" spans="1:48">
+    <row r="134" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A134" s="13" t="s">
         <v>1184</v>
       </c>
@@ -27779,7 +27842,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="135" spans="1:48">
+    <row r="135" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A135" s="13" t="s">
         <v>1194</v>
       </c>
@@ -27923,7 +27986,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="136" spans="1:48">
+    <row r="136" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A136" s="13" t="s">
         <v>1204</v>
       </c>
@@ -28067,7 +28130,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="137" spans="1:48">
+    <row r="137" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A137" s="19" t="s">
         <v>428</v>
       </c>
@@ -28207,7 +28270,7 @@
       </c>
       <c r="AV137" s="22"/>
     </row>
-    <row r="138" spans="1:48" s="12" customFormat="1">
+    <row r="138" spans="1:48" s="12" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
         <v>184</v>
       </c>
@@ -28349,7 +28412,7 @@
       </c>
       <c r="AV138" s="11"/>
     </row>
-    <row r="139" spans="1:48">
+    <row r="139" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A139" s="13" t="s">
         <v>1229</v>
       </c>
@@ -28493,7 +28556,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="140" spans="1:48">
+    <row r="140" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A140" s="13" t="s">
         <v>1239</v>
       </c>
@@ -28637,7 +28700,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="141" spans="1:48">
+    <row r="141" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A141" s="13" t="s">
         <v>1248</v>
       </c>
@@ -28781,7 +28844,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="142" spans="1:48">
+    <row r="142" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A142" s="13" t="s">
         <v>1256</v>
       </c>
@@ -28925,7 +28988,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="143" spans="1:48">
+    <row r="143" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A143" s="13" t="s">
         <v>1264</v>
       </c>
@@ -29069,7 +29132,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="144" spans="1:48">
+    <row r="144" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A144" s="13" t="s">
         <v>1274</v>
       </c>
@@ -29213,7 +29276,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="145" spans="1:48" ht="25.5">
+    <row r="145" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A145" s="13" t="s">
         <v>1284</v>
       </c>
@@ -29357,7 +29420,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="146" spans="1:48" ht="25.5">
+    <row r="146" spans="1:48" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A146" s="13" t="s">
         <v>1294</v>
       </c>
@@ -29501,7 +29564,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="147" spans="1:48">
+    <row r="147" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A147" s="13" t="s">
         <v>1303</v>
       </c>
@@ -29645,7 +29708,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="148" spans="1:48">
+    <row r="148" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A148" s="13" t="s">
         <v>1311</v>
       </c>
@@ -29789,7 +29852,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="149" spans="1:48" ht="25.5">
+    <row r="149" spans="1:48" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A149" s="13" t="s">
         <v>1320</v>
       </c>
@@ -29933,7 +29996,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="150" spans="1:48">
+    <row r="150" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A150" s="13" t="s">
         <v>1328</v>
       </c>
@@ -30077,7 +30140,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="151" spans="1:48">
+    <row r="151" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A151" s="13" t="s">
         <v>1335</v>
       </c>
@@ -30221,7 +30284,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="152" spans="1:48">
+    <row r="152" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A152" s="19" t="s">
         <v>156</v>
       </c>
@@ -30363,7 +30426,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="153" spans="1:48">
+    <row r="153" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A153" s="13" t="s">
         <v>1347</v>
       </c>
@@ -30507,7 +30570,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="154" spans="1:48" ht="25.5">
+    <row r="154" spans="1:48" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A154" s="13" t="s">
         <v>1355</v>
       </c>
@@ -30651,7 +30714,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="155" spans="1:48">
+    <row r="155" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A155" s="13" t="s">
         <v>84</v>
       </c>
@@ -30795,7 +30858,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="156" spans="1:48">
+    <row r="156" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A156" s="27"/>
       <c r="B156" s="27"/>
       <c r="C156" s="27"/>
@@ -30863,7 +30926,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="157" spans="1:48">
+    <row r="157" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A157" s="13" t="s">
         <v>1373</v>
       </c>
@@ -30879,8 +30942,8 @@
       <c r="E157" s="13" t="s">
         <v>1374</v>
       </c>
-      <c r="F157" s="18" t="s">
-        <v>1370</v>
+      <c r="F157" s="12" t="s">
+        <v>1373</v>
       </c>
       <c r="G157" s="12" t="s">
         <v>1373</v>
@@ -31007,7 +31070,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="158" spans="1:48">
+    <row r="158" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A158" s="13" t="s">
         <v>1382</v>
       </c>
@@ -31151,7 +31214,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="159" spans="1:48">
+    <row r="159" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A159" s="13" t="s">
         <v>1390</v>
       </c>
@@ -31295,7 +31358,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="160" spans="1:48">
+    <row r="160" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A160" s="13" t="s">
         <v>1398</v>
       </c>
@@ -31439,7 +31502,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="161" spans="1:48">
+    <row r="161" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A161" s="13" t="s">
         <v>184</v>
       </c>
@@ -31583,7 +31646,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="162" spans="1:48">
+    <row r="162" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A162" s="13" t="s">
         <v>1415</v>
       </c>
@@ -31727,7 +31790,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="163" spans="1:48">
+    <row r="163" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A163" s="19" t="s">
         <v>177</v>
       </c>
@@ -31869,7 +31932,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="164" spans="1:48">
+    <row r="164" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A164" s="13" t="s">
         <v>1428</v>
       </c>
@@ -32013,7 +32076,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="165" spans="1:48">
+    <row r="165" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A165" s="13" t="s">
         <v>1436</v>
       </c>
@@ -32157,7 +32220,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="166" spans="1:48">
+    <row r="166" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A166" s="13" t="s">
         <v>479</v>
       </c>
@@ -32301,7 +32364,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="167" spans="1:48">
+    <row r="167" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A167" s="13" t="s">
         <v>45</v>
       </c>
@@ -32445,7 +32508,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="168" spans="1:48">
+    <row r="168" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A168" s="13" t="s">
         <v>1461</v>
       </c>
@@ -32589,7 +32652,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="169" spans="1:48" ht="25.5">
+    <row r="169" spans="1:48" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A169" s="13" t="s">
         <v>1472</v>
       </c>
@@ -32733,7 +32796,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="170" spans="1:48">
+    <row r="170" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A170" s="13" t="s">
         <v>1480</v>
       </c>
@@ -32877,7 +32940,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="171" spans="1:48">
+    <row r="171" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A171" s="13" t="s">
         <v>479</v>
       </c>
@@ -33021,7 +33084,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="172" spans="1:48">
+    <row r="172" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A172" s="13" t="s">
         <v>1494</v>
       </c>
@@ -33165,7 +33228,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="173" spans="1:48" ht="25.5">
+    <row r="173" spans="1:48" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A173" s="13" t="s">
         <v>1502</v>
       </c>
@@ -33309,7 +33372,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="174" spans="1:48">
+    <row r="174" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A174" s="13" t="s">
         <v>1511</v>
       </c>
@@ -33453,7 +33516,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="175" spans="1:48">
+    <row r="175" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A175" s="19" t="s">
         <v>84</v>
       </c>
@@ -33595,7 +33658,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="176" spans="1:48">
+    <row r="176" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A176" s="13" t="s">
         <v>1525</v>
       </c>
@@ -33739,7 +33802,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="177" spans="1:48">
+    <row r="177" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A177" s="13" t="s">
         <v>1534</v>
       </c>
@@ -33883,7 +33946,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="178" spans="1:48">
+    <row r="178" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A178" s="13" t="s">
         <v>1543</v>
       </c>
@@ -34027,7 +34090,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="179" spans="1:48">
+    <row r="179" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A179" s="13" t="s">
         <v>1551</v>
       </c>
@@ -34171,7 +34234,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="180" spans="1:48">
+    <row r="180" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A180" s="13" t="s">
         <v>1559</v>
       </c>
@@ -34315,7 +34378,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="181" spans="1:48" ht="25.5">
+    <row r="181" spans="1:48" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A181" s="13" t="s">
         <v>156</v>
       </c>
@@ -34459,7 +34522,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="182" spans="1:48" ht="25.5">
+    <row r="182" spans="1:48" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A182" s="13" t="s">
         <v>1578</v>
       </c>
@@ -34603,7 +34666,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="183" spans="1:48">
+    <row r="183" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A183" s="13" t="s">
         <v>1589</v>
       </c>
@@ -34747,7 +34810,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="184" spans="1:48">
+    <row r="184" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A184" s="13" t="s">
         <v>1598</v>
       </c>
@@ -34891,7 +34954,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="185" spans="1:48">
+    <row r="185" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A185" s="19" t="s">
         <v>984</v>
       </c>
@@ -35031,7 +35094,7 @@
       </c>
       <c r="AV185" s="22"/>
     </row>
-    <row r="186" spans="1:48">
+    <row r="186" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A186" s="13" t="s">
         <v>184</v>
       </c>
@@ -35175,7 +35238,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="187" spans="1:48">
+    <row r="187" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A187" s="13" t="s">
         <v>1624</v>
       </c>
@@ -35319,7 +35382,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="188" spans="1:48">
+    <row r="188" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A188" s="27"/>
       <c r="B188" s="27"/>
       <c r="C188" s="27"/>
@@ -35387,7 +35450,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="189" spans="1:48">
+    <row r="189" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A189" s="13" t="s">
         <v>1635</v>
       </c>
@@ -35531,7 +35594,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="190" spans="1:48">
+    <row r="190" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A190" s="13" t="s">
         <v>1645</v>
       </c>
@@ -35675,7 +35738,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="191" spans="1:48">
+    <row r="191" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A191" s="13" t="s">
         <v>1656</v>
       </c>
@@ -35819,7 +35882,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="192" spans="1:48">
+    <row r="192" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A192" s="19" t="s">
         <v>1664</v>
       </c>
@@ -35961,7 +36024,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="193" spans="1:48">
+    <row r="193" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A193" s="13" t="s">
         <v>1671</v>
       </c>
@@ -36105,7 +36168,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="194" spans="1:48">
+    <row r="194" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A194" s="13" t="s">
         <v>1681</v>
       </c>
@@ -36249,7 +36312,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="195" spans="1:48">
+    <row r="195" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A195" s="13" t="s">
         <v>1690</v>
       </c>
@@ -36393,7 +36456,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="196" spans="1:48">
+    <row r="196" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A196" s="13" t="s">
         <v>1699</v>
       </c>
@@ -36537,7 +36600,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="197" spans="1:48" ht="25.5">
+    <row r="197" spans="1:48" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A197" s="19" t="s">
         <v>84</v>
       </c>
@@ -36677,7 +36740,7 @@
       </c>
       <c r="AV197" s="22"/>
     </row>
-    <row r="198" spans="1:48" ht="25.5">
+    <row r="198" spans="1:48" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A198" s="13" t="s">
         <v>84</v>
       </c>
@@ -36821,7 +36884,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="199" spans="1:48">
+    <row r="199" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A199" s="13" t="s">
         <v>1721</v>
       </c>
@@ -36965,7 +37028,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="200" spans="1:48">
+    <row r="200" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A200" s="13" t="s">
         <v>1730</v>
       </c>
@@ -37109,7 +37172,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="201" spans="1:48">
+    <row r="201" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A201" s="13" t="s">
         <v>1738</v>
       </c>
@@ -37253,7 +37316,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="202" spans="1:48">
+    <row r="202" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A202" s="13" t="s">
         <v>1746</v>
       </c>
@@ -37397,7 +37460,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="203" spans="1:48">
+    <row r="203" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A203" s="19" t="s">
         <v>1756</v>
       </c>
@@ -37537,7 +37600,7 @@
       </c>
       <c r="AV203" s="22"/>
     </row>
-    <row r="204" spans="1:48">
+    <row r="204" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A204" s="13" t="s">
         <v>1760</v>
       </c>
@@ -37681,7 +37744,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="205" spans="1:48">
+    <row r="205" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A205" s="13" t="s">
         <v>184</v>
       </c>
@@ -37825,7 +37888,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="206" spans="1:48">
+    <row r="206" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A206" s="13" t="s">
         <v>1775</v>
       </c>
@@ -37969,7 +38032,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="207" spans="1:48">
+    <row r="207" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A207" s="14" t="s">
         <v>1785</v>
       </c>
@@ -38111,7 +38174,7 @@
       </c>
       <c r="AV207" s="40"/>
     </row>
-    <row r="208" spans="1:48" ht="25.5">
+    <row r="208" spans="1:48" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A208" s="13" t="s">
         <v>1796</v>
       </c>
@@ -38255,7 +38318,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="209" spans="1:48">
+    <row r="209" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A209" s="13" t="s">
         <v>1807</v>
       </c>
@@ -38399,7 +38462,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="210" spans="1:48">
+    <row r="210" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A210" s="13" t="s">
         <v>1815</v>
       </c>
@@ -38543,7 +38606,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="211" spans="1:48">
+    <row r="211" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A211" s="13" t="s">
         <v>1825</v>
       </c>
@@ -38687,7 +38750,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="212" spans="1:48">
+    <row r="212" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A212" s="13" t="s">
         <v>1836</v>
       </c>
@@ -38831,7 +38894,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="213" spans="1:48">
+    <row r="213" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A213" s="13" t="s">
         <v>1847</v>
       </c>
@@ -38975,7 +39038,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="214" spans="1:48" ht="25.5">
+    <row r="214" spans="1:48" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A214" s="5" t="s">
         <v>45</v>
       </c>
@@ -39117,7 +39180,7 @@
       </c>
       <c r="AV214" s="11"/>
     </row>
-    <row r="215" spans="1:48">
+    <row r="215" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A215" s="13" t="s">
         <v>1864</v>
       </c>
@@ -39261,7 +39324,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="216" spans="1:48">
+    <row r="216" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A216" s="13" t="s">
         <v>1872</v>
       </c>
@@ -39405,7 +39468,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="217" spans="1:48">
+    <row r="217" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A217" s="13" t="s">
         <v>84</v>
       </c>
@@ -39549,7 +39612,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="218" spans="1:48">
+    <row r="218" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A218" s="13" t="s">
         <v>1889</v>
       </c>
@@ -39693,7 +39756,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="219" spans="1:48">
+    <row r="219" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A219" s="13" t="s">
         <v>1897</v>
       </c>
@@ -39837,7 +39900,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="220" spans="1:48">
+    <row r="220" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A220" s="13" t="s">
         <v>1904</v>
       </c>
@@ -39981,7 +40044,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="221" spans="1:48">
+    <row r="221" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A221" s="13" t="s">
         <v>1914</v>
       </c>
@@ -40125,7 +40188,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="222" spans="1:48" s="52" customFormat="1">
+    <row r="222" spans="1:48" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A222" s="46" t="s">
         <v>479</v>
       </c>
@@ -40269,7 +40332,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="223" spans="1:48">
+    <row r="223" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A223" s="13" t="s">
         <v>1927</v>
       </c>
@@ -40413,7 +40476,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="224" spans="1:48" ht="25.5">
+    <row r="224" spans="1:48" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A224" s="13" t="s">
         <v>1935</v>
       </c>
@@ -40557,7 +40620,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="225" spans="1:48">
+    <row r="225" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A225" s="13" t="s">
         <v>1946</v>
       </c>
@@ -40701,7 +40764,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="226" spans="1:48" ht="25.5">
+    <row r="226" spans="1:48" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A226" s="13" t="s">
         <v>1954</v>
       </c>
@@ -40845,7 +40908,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="227" spans="1:48">
+    <row r="227" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A227" s="13" t="s">
         <v>1964</v>
       </c>
@@ -40989,7 +41052,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="228" spans="1:48">
+    <row r="228" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A228" s="13" t="s">
         <v>1974</v>
       </c>
@@ -41133,7 +41196,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="229" spans="1:48" s="52" customFormat="1">
+    <row r="229" spans="1:48" s="52" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A229" s="46" t="s">
         <v>1987</v>
       </c>
@@ -41277,7 +41340,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="230" spans="1:48" s="3" customFormat="1">
+    <row r="230" spans="1:48" s="3" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A230" s="47" t="s">
         <v>1984</v>
       </c>
@@ -41416,7 +41479,7 @@
       </c>
       <c r="AV230" s="22"/>
     </row>
-    <row r="231" spans="1:48">
+    <row r="231" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A231" s="13" t="s">
         <v>1990</v>
       </c>
@@ -41560,7 +41623,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="232" spans="1:48">
+    <row r="232" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A232" s="13" t="s">
         <v>2001</v>
       </c>
@@ -41704,7 +41767,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="233" spans="1:48">
+    <row r="233" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A233" s="13" t="s">
         <v>2010</v>
       </c>
@@ -41848,7 +41911,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="234" spans="1:48" ht="25.5">
+    <row r="234" spans="1:48" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A234" s="13" t="s">
         <v>2017</v>
       </c>
@@ -41992,7 +42055,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="235" spans="1:48">
+    <row r="235" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A235" s="13" t="s">
         <v>156</v>
       </c>
@@ -42136,7 +42199,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="236" spans="1:48">
+    <row r="236" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A236" s="13" t="s">
         <v>2035</v>
       </c>
@@ -42280,7 +42343,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="237" spans="1:48">
+    <row r="237" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A237" s="13" t="s">
         <v>2045</v>
       </c>
@@ -42424,7 +42487,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="238" spans="1:48">
+    <row r="238" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A238" s="13" t="s">
         <v>2056</v>
       </c>
@@ -42568,7 +42631,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="239" spans="1:48" ht="25.5">
+    <row r="239" spans="1:48" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A239" s="13" t="s">
         <v>2063</v>
       </c>
@@ -42712,7 +42775,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="240" spans="1:48">
+    <row r="240" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A240" s="13" t="s">
         <v>84</v>
       </c>
@@ -42856,7 +42919,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="241" spans="1:48" ht="25.5">
+    <row r="241" spans="1:48" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A241" s="19" t="s">
         <v>156</v>
       </c>
@@ -42998,7 +43061,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="242" spans="1:48" ht="25.5">
+    <row r="242" spans="1:48" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A242" s="13" t="s">
         <v>2086</v>
       </c>
@@ -43142,7 +43205,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="243" spans="1:48">
+    <row r="243" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A243" s="13" t="s">
         <v>2095</v>
       </c>
@@ -43286,7 +43349,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="244" spans="1:48">
+    <row r="244" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A244" s="13" t="s">
         <v>184</v>
       </c>
@@ -43430,7 +43493,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="245" spans="1:48" ht="25.5">
+    <row r="245" spans="1:48" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A245" s="13" t="s">
         <v>2112</v>
       </c>
@@ -43574,7 +43637,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="246" spans="1:48">
+    <row r="246" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A246" s="13" t="s">
         <v>2118</v>
       </c>
@@ -43718,7 +43781,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="247" spans="1:48">
+    <row r="247" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A247" s="13" t="s">
         <v>2129</v>
       </c>
@@ -43862,7 +43925,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="248" spans="1:48">
+    <row r="248" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A248" s="13" t="s">
         <v>2139</v>
       </c>
@@ -44006,7 +44069,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="249" spans="1:48">
+    <row r="249" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A249" s="13" t="s">
         <v>2147</v>
       </c>
@@ -44150,7 +44213,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="250" spans="1:48">
+    <row r="250" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A250" s="27"/>
       <c r="B250" s="27"/>
       <c r="C250" s="27"/>
@@ -44216,7 +44279,7 @@
       <c r="AU250" s="27"/>
       <c r="AV250" s="29"/>
     </row>
-    <row r="251" spans="1:48">
+    <row r="251" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -44264,7 +44327,7 @@
       <c r="AS251" s="2"/>
       <c r="AT251" s="2"/>
     </row>
-    <row r="252" spans="1:48">
+    <row r="252" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -44312,7 +44375,7 @@
       <c r="AS252" s="2"/>
       <c r="AT252" s="2"/>
     </row>
-    <row r="253" spans="1:48">
+    <row r="253" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -44360,7 +44423,7 @@
       <c r="AS253" s="2"/>
       <c r="AT253" s="2"/>
     </row>
-    <row r="254" spans="1:48">
+    <row r="254" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -44408,7 +44471,7 @@
       <c r="AS254" s="2"/>
       <c r="AT254" s="2"/>
     </row>
-    <row r="255" spans="1:48">
+    <row r="255" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
@@ -44456,7 +44519,7 @@
       <c r="AS255" s="2"/>
       <c r="AT255" s="2"/>
     </row>
-    <row r="256" spans="1:48">
+    <row r="256" spans="1:48" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -44504,7 +44567,7 @@
       <c r="AS256" s="2"/>
       <c r="AT256" s="2"/>
     </row>
-    <row r="257" spans="1:64">
+    <row r="257" spans="1:64" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
@@ -44552,7 +44615,7 @@
       <c r="AS257" s="2"/>
       <c r="AT257" s="2"/>
     </row>
-    <row r="258" spans="1:64">
+    <row r="258" spans="1:64" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
@@ -44600,7 +44663,7 @@
       <c r="AS258" s="2"/>
       <c r="AT258" s="2"/>
     </row>
-    <row r="259" spans="1:64">
+    <row r="259" spans="1:64" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
@@ -44648,7 +44711,7 @@
       <c r="AS259" s="2"/>
       <c r="AT259" s="2"/>
     </row>
-    <row r="260" spans="1:64">
+    <row r="260" spans="1:64" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -44696,7 +44759,7 @@
       <c r="AS260" s="2"/>
       <c r="AT260" s="2"/>
     </row>
-    <row r="261" spans="1:64">
+    <row r="261" spans="1:64" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>

--- a/CountryReconciler/reconciler/files/country_list.xlsx
+++ b/CountryReconciler/reconciler/files/country_list.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6870" uniqueCount="2208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6871" uniqueCount="2209">
   <si>
     <t>sovereignt,C,254</t>
   </si>
@@ -6666,6 +6666,9 @@
   </si>
   <si>
     <t>772</t>
+  </si>
+  <si>
+    <t>GI</t>
   </si>
 </sst>
 </file>
@@ -7505,7 +7508,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -7627,6 +7630,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="189">
     <cellStyle name="20% - Énfasis1" xfId="164" builtinId="30" customBuiltin="1"/>
@@ -8485,6 +8489,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>777240</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12694920" cy="12847320"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8778,8 +8830,8 @@
   <dimension ref="A1:BL261"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A150" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F157" sqref="F157"/>
+      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -20474,7 +20526,9 @@
       <c r="A82" s="27"/>
       <c r="B82" s="27"/>
       <c r="C82" s="27"/>
-      <c r="D82" s="27"/>
+      <c r="D82" s="55" t="s">
+        <v>2208</v>
+      </c>
       <c r="E82" s="27" t="s">
         <v>780</v>
       </c>

--- a/CountryReconciler/reconciler/files/country_list.xlsx
+++ b/CountryReconciler/reconciler/files/country_list.xlsx
@@ -14,6 +14,7 @@
   <sheets>
     <sheet name="Hoja1" sheetId="3" r:id="rId1"/>
     <sheet name="old" sheetId="1" r:id="rId2"/>
+    <sheet name="Hoja2" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="sparql__5_." localSheetId="0">Hoja1!#REF!</definedName>
@@ -28,7 +29,31 @@
     <author>carlos</author>
   </authors>
   <commentList>
-    <comment ref="M13" authorId="0" shapeId="0">
+    <comment ref="H22" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>carlos:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+missed ISO3 code in ontology</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -52,175 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J22" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>carlos:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-missed ISO3 code in ontology</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M22" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>carlos:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-missed value in the ontology</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J56" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>carlos:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-missed ISO3 in ontology</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M56" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>carlos:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-missed value in the ontology</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J138" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>carlos:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-missed ISO3 code in ontology</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M138" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>carlos:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-missed value in the ontology</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M207" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>carlos:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-missed value in the ontology</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J214" authorId="0" shapeId="0">
+    <comment ref="H214" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -241,30 +98,6 @@
           </rPr>
           <t xml:space="preserve">
 missing ISO3 code in ontology</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M214" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>carlos:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-missed value in the ontology</t>
         </r>
       </text>
     </comment>
@@ -297,7 +130,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9953" uniqueCount="2226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9563" uniqueCount="2227">
   <si>
     <t>sovereignt,C,254</t>
   </si>
@@ -6884,12 +6717,6 @@
     <t>ISO3_code</t>
   </si>
   <si>
-    <t>alternative name 2</t>
-  </si>
-  <si>
-    <t>alternativ name 1</t>
-  </si>
-  <si>
     <t>region UN M49</t>
   </si>
   <si>
@@ -6975,6 +6802,15 @@
   </si>
   <si>
     <t>Île Christmas</t>
+  </si>
+  <si>
+    <t>Democratic People's Republic of Korea</t>
+  </si>
+  <si>
+    <t>Moldavia</t>
+  </si>
+  <si>
+    <t>alternative EN name 1</t>
   </si>
 </sst>
 </file>
@@ -7861,7 +7697,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -8030,6 +7866,7 @@
     <xf numFmtId="0" fontId="42" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="189">
     <cellStyle name="20% - Énfasis1" xfId="164" builtinId="30" customBuiltin="1"/>
@@ -9610,23 +9447,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O278"/>
+  <dimension ref="A1:L250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B211" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.44140625" customWidth="1"/>
-    <col min="8" max="8" width="17.21875" customWidth="1"/>
-    <col min="9" max="9" width="32.6640625" customWidth="1"/>
-    <col min="13" max="13" width="13" customWidth="1"/>
-    <col min="14" max="14" width="14.6640625" customWidth="1"/>
-    <col min="15" max="16" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="68.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="73" t="s">
         <v>2194</v>
       </c>
@@ -9649,28 +9492,22 @@
         <v>9</v>
       </c>
       <c r="H1" s="73" t="s">
-        <v>2196</v>
+        <v>4</v>
       </c>
       <c r="I1" s="73" t="s">
+        <v>2211</v>
+      </c>
+      <c r="J1" s="73" t="s">
+        <v>2212</v>
+      </c>
+      <c r="K1" s="74" t="s">
+        <v>2138</v>
+      </c>
+      <c r="L1" s="73" t="s">
         <v>2195</v>
       </c>
-      <c r="J1" s="73" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="73" t="s">
-        <v>2213</v>
-      </c>
-      <c r="L1" s="73" t="s">
-        <v>2214</v>
-      </c>
-      <c r="M1" s="74" t="s">
-        <v>2138</v>
-      </c>
-      <c r="N1" s="73" t="s">
-        <v>2197</v>
-      </c>
     </row>
-    <row r="2" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="71" t="s">
         <v>48</v>
       </c>
@@ -9692,29 +9529,23 @@
       <c r="G2" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="67" t="s">
-        <v>47</v>
-      </c>
-      <c r="I2" s="67" t="s">
-        <v>47</v>
-      </c>
-      <c r="J2" s="66" t="s">
+      <c r="H2" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="K2" s="68" t="s">
+      <c r="I2" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="L2" s="70" t="s">
+      <c r="J2" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="M2" s="67">
+      <c r="K2" s="67">
         <v>22</v>
       </c>
-      <c r="N2" s="67" t="s">
+      <c r="L2" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="71" t="s">
         <v>59</v>
       </c>
@@ -9737,28 +9568,22 @@
         <v>57</v>
       </c>
       <c r="H3" s="67" t="s">
-        <v>57</v>
-      </c>
-      <c r="I3" s="67" t="s">
-        <v>57</v>
-      </c>
-      <c r="J3" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="K3" s="68" t="s">
+      <c r="I3" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="L3" s="70" t="s">
+      <c r="J3" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="M3" s="67">
+      <c r="K3" s="67">
         <v>2</v>
       </c>
-      <c r="N3" s="67" t="s">
+      <c r="L3" s="67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="71" t="s">
         <v>73</v>
       </c>
@@ -9781,28 +9606,22 @@
         <v>72</v>
       </c>
       <c r="H4" s="67" t="s">
-        <v>72</v>
-      </c>
-      <c r="I4" s="67" t="s">
-        <v>72</v>
-      </c>
-      <c r="J4" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="I4" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="L4" s="70" t="s">
+      <c r="J4" s="70" t="s">
         <v>80</v>
       </c>
-      <c r="M4" s="67">
+      <c r="K4" s="67">
         <v>7</v>
       </c>
-      <c r="N4" s="67" t="s">
+      <c r="L4" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="71" t="s">
         <v>87</v>
       </c>
@@ -9825,28 +9644,22 @@
         <v>86</v>
       </c>
       <c r="H5" s="67" t="s">
-        <v>86</v>
-      </c>
-      <c r="I5" s="67" t="s">
-        <v>86</v>
-      </c>
-      <c r="J5" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="K5" s="68" t="s">
+      <c r="I5" s="68" t="s">
         <v>88</v>
       </c>
-      <c r="L5" s="70" t="s">
+      <c r="J5" s="70" t="s">
         <v>89</v>
       </c>
-      <c r="M5" s="67">
+      <c r="K5" s="67">
         <v>258</v>
       </c>
-      <c r="N5" s="67" t="s">
+      <c r="L5" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="71" t="s">
         <v>111</v>
       </c>
@@ -9869,24 +9682,22 @@
         <v>2140</v>
       </c>
       <c r="H6" s="67" t="s">
-        <v>105</v>
-      </c>
-      <c r="I6" s="67" t="s">
-        <v>107</v>
-      </c>
-      <c r="J6" s="69"/>
-      <c r="K6" s="68" t="s">
+        <v>111</v>
+      </c>
+      <c r="I6" s="68" t="s">
         <v>110</v>
       </c>
-      <c r="L6" s="70" t="s">
+      <c r="J6" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="M6" s="69"/>
-      <c r="N6" s="67" t="s">
+      <c r="K6" s="76">
+        <v>284</v>
+      </c>
+      <c r="L6" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="71" t="s">
         <v>92</v>
       </c>
@@ -9909,28 +9720,22 @@
         <v>96</v>
       </c>
       <c r="H7" s="67" t="s">
-        <v>91</v>
-      </c>
-      <c r="I7" s="67" t="s">
-        <v>91</v>
-      </c>
-      <c r="J7" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="K7" s="68" t="s">
+      <c r="I7" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="L7" s="70" t="s">
+      <c r="J7" s="70" t="s">
         <v>100</v>
       </c>
-      <c r="M7" s="67">
+      <c r="K7" s="67">
         <v>3</v>
       </c>
-      <c r="N7" s="67" t="s">
+      <c r="L7" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="71" t="s">
         <v>115</v>
       </c>
@@ -9953,28 +9758,22 @@
         <v>119</v>
       </c>
       <c r="H8" s="67" t="s">
-        <v>114</v>
-      </c>
-      <c r="I8" s="67" t="s">
-        <v>114</v>
-      </c>
-      <c r="J8" s="67" t="s">
         <v>115</v>
       </c>
-      <c r="K8" s="68" t="s">
+      <c r="I8" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="L8" s="70" t="s">
+      <c r="J8" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="M8" s="67">
+      <c r="K8" s="67">
         <v>6</v>
       </c>
-      <c r="N8" s="67" t="s">
+      <c r="L8" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="71" t="s">
         <v>125</v>
       </c>
@@ -9997,28 +9796,22 @@
         <v>130</v>
       </c>
       <c r="H9" s="67" t="s">
-        <v>124</v>
-      </c>
-      <c r="I9" s="67" t="s">
-        <v>124</v>
-      </c>
-      <c r="J9" s="67" t="s">
         <v>125</v>
       </c>
-      <c r="K9" s="68" t="s">
+      <c r="I9" s="68" t="s">
         <v>132</v>
       </c>
-      <c r="L9" s="70" t="s">
+      <c r="J9" s="70" t="s">
         <v>133</v>
       </c>
-      <c r="M9" s="67">
+      <c r="K9" s="67">
         <v>225</v>
       </c>
-      <c r="N9" s="67" t="s">
+      <c r="L9" s="67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="71" t="s">
         <v>137</v>
       </c>
@@ -10041,28 +9834,22 @@
         <v>141</v>
       </c>
       <c r="H10" s="67" t="s">
-        <v>136</v>
-      </c>
-      <c r="I10" s="67" t="s">
-        <v>136</v>
-      </c>
-      <c r="J10" s="67" t="s">
         <v>137</v>
       </c>
-      <c r="K10" s="68" t="s">
+      <c r="I10" s="68" t="s">
         <v>143</v>
       </c>
-      <c r="L10" s="70" t="s">
+      <c r="J10" s="70" t="s">
         <v>145</v>
       </c>
-      <c r="M10" s="67">
+      <c r="K10" s="67">
         <v>9</v>
       </c>
-      <c r="N10" s="67" t="s">
+      <c r="L10" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="71" t="s">
         <v>148</v>
       </c>
@@ -10085,28 +9872,22 @@
         <v>152</v>
       </c>
       <c r="H11" s="67" t="s">
-        <v>147</v>
-      </c>
-      <c r="I11" s="67" t="s">
-        <v>147</v>
-      </c>
-      <c r="J11" s="67" t="s">
         <v>148</v>
       </c>
-      <c r="K11" s="68" t="s">
+      <c r="I11" s="68" t="s">
         <v>154</v>
       </c>
-      <c r="L11" s="70" t="s">
+      <c r="J11" s="70" t="s">
         <v>155</v>
       </c>
-      <c r="M11" s="67">
+      <c r="K11" s="67">
         <v>1</v>
       </c>
-      <c r="N11" s="67" t="s">
+      <c r="L11" s="67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="71" t="s">
         <v>158</v>
       </c>
@@ -10129,28 +9910,22 @@
         <v>161</v>
       </c>
       <c r="H12" s="67" t="s">
-        <v>157</v>
-      </c>
-      <c r="I12" s="67" t="s">
-        <v>157</v>
-      </c>
-      <c r="J12" s="67" t="s">
         <v>158</v>
       </c>
-      <c r="K12" s="68" t="s">
+      <c r="I12" s="68" t="s">
         <v>163</v>
       </c>
-      <c r="L12" s="70" t="s">
+      <c r="J12" s="70" t="s">
         <v>164</v>
       </c>
-      <c r="M12" s="67">
+      <c r="K12" s="67">
         <v>5</v>
       </c>
-      <c r="N12" s="67" t="s">
+      <c r="L12" s="67" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="71" t="s">
         <v>170</v>
       </c>
@@ -10172,27 +9947,23 @@
       <c r="G13" s="67" t="s">
         <v>172</v>
       </c>
-      <c r="H13" s="67" t="s">
+      <c r="H13" s="66" t="s">
+        <v>170</v>
+      </c>
+      <c r="I13" s="68" t="s">
+        <v>174</v>
+      </c>
+      <c r="J13" s="70" t="s">
+        <v>175</v>
+      </c>
+      <c r="K13" s="67">
+        <v>30</v>
+      </c>
+      <c r="L13" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="I13" s="67" t="s">
-        <v>168</v>
-      </c>
-      <c r="J13" s="66" t="s">
-        <v>170</v>
-      </c>
-      <c r="K13" s="68" t="s">
-        <v>174</v>
-      </c>
-      <c r="L13" s="70" t="s">
-        <v>175</v>
-      </c>
-      <c r="M13" s="69"/>
-      <c r="N13" s="67" t="s">
-        <v>168</v>
-      </c>
     </row>
-    <row r="14" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="71" t="s">
         <v>183</v>
       </c>
@@ -10214,25 +9985,23 @@
       <c r="G14" s="67" t="s">
         <v>2142</v>
       </c>
-      <c r="H14" s="67" t="s">
-        <v>182</v>
-      </c>
-      <c r="I14" s="67" t="s">
-        <v>182</v>
-      </c>
-      <c r="J14" s="69"/>
-      <c r="K14" s="68" t="s">
+      <c r="H14" s="66" t="s">
+        <v>183</v>
+      </c>
+      <c r="I14" s="68" t="s">
         <v>185</v>
       </c>
-      <c r="L14" s="70">
+      <c r="J14" s="70">
         <v>260</v>
       </c>
-      <c r="M14" s="69"/>
-      <c r="N14" s="67" t="s">
+      <c r="K14" s="67">
+        <v>71</v>
+      </c>
+      <c r="L14" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="71" t="s">
         <v>189</v>
       </c>
@@ -10255,28 +10024,22 @@
         <v>191</v>
       </c>
       <c r="H15" s="67" t="s">
-        <v>188</v>
-      </c>
-      <c r="I15" s="67" t="s">
-        <v>188</v>
-      </c>
-      <c r="J15" s="67" t="s">
         <v>189</v>
       </c>
-      <c r="K15" s="68" t="s">
+      <c r="I15" s="68" t="s">
         <v>193</v>
       </c>
-      <c r="L15" s="70" t="s">
+      <c r="J15" s="70" t="s">
         <v>194</v>
       </c>
-      <c r="M15" s="67">
+      <c r="K15" s="67">
         <v>8</v>
       </c>
-      <c r="N15" s="67" t="s">
+      <c r="L15" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="71" t="s">
         <v>179</v>
       </c>
@@ -10299,28 +10062,22 @@
         <v>196</v>
       </c>
       <c r="H16" s="67" t="s">
-        <v>177</v>
-      </c>
-      <c r="I16" s="67" t="s">
-        <v>177</v>
-      </c>
-      <c r="J16" s="67" t="s">
         <v>179</v>
       </c>
-      <c r="K16" s="68" t="s">
+      <c r="I16" s="68" t="s">
         <v>178</v>
       </c>
-      <c r="L16" s="70" t="s">
+      <c r="J16" s="70" t="s">
         <v>198</v>
       </c>
-      <c r="M16" s="67">
+      <c r="K16" s="67">
         <v>10</v>
       </c>
-      <c r="N16" s="67" t="s">
+      <c r="L16" s="67" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="17" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="71" t="s">
         <v>200</v>
       </c>
@@ -10343,28 +10100,22 @@
         <v>204</v>
       </c>
       <c r="H17" s="67" t="s">
-        <v>199</v>
-      </c>
-      <c r="I17" s="67" t="s">
-        <v>199</v>
-      </c>
-      <c r="J17" s="67" t="s">
         <v>200</v>
       </c>
-      <c r="K17" s="68" t="s">
+      <c r="I17" s="68" t="s">
         <v>207</v>
       </c>
-      <c r="L17" s="70" t="s">
+      <c r="J17" s="70" t="s">
         <v>208</v>
       </c>
-      <c r="M17" s="67">
+      <c r="K17" s="67">
         <v>11</v>
       </c>
-      <c r="N17" s="67" t="s">
+      <c r="L17" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="71" t="s">
         <v>211</v>
       </c>
@@ -10387,28 +10138,22 @@
         <v>216</v>
       </c>
       <c r="H18" s="67" t="s">
-        <v>210</v>
-      </c>
-      <c r="I18" s="67" t="s">
-        <v>210</v>
-      </c>
-      <c r="J18" s="67" t="s">
         <v>211</v>
       </c>
-      <c r="K18" s="68" t="s">
+      <c r="I18" s="68" t="s">
         <v>218</v>
       </c>
-      <c r="L18" s="70" t="s">
+      <c r="J18" s="70" t="s">
         <v>219</v>
       </c>
-      <c r="M18" s="67">
+      <c r="K18" s="67">
         <v>52</v>
       </c>
-      <c r="N18" s="67" t="s">
+      <c r="L18" s="67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="71" t="s">
         <v>221</v>
       </c>
@@ -10431,28 +10176,22 @@
         <v>220</v>
       </c>
       <c r="H19" s="67" t="s">
-        <v>220</v>
-      </c>
-      <c r="I19" s="67" t="s">
-        <v>220</v>
-      </c>
-      <c r="J19" s="67" t="s">
         <v>221</v>
       </c>
-      <c r="K19" s="68" t="s">
+      <c r="I19" s="68" t="s">
         <v>226</v>
       </c>
-      <c r="L19" s="70" t="s">
+      <c r="J19" s="70" t="s">
         <v>227</v>
       </c>
-      <c r="M19" s="67">
+      <c r="K19" s="67">
         <v>29</v>
       </c>
-      <c r="N19" s="67" t="s">
+      <c r="L19" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="71" t="s">
         <v>230</v>
       </c>
@@ -10475,28 +10214,22 @@
         <v>235</v>
       </c>
       <c r="H20" s="67" t="s">
-        <v>229</v>
-      </c>
-      <c r="I20" s="67" t="s">
-        <v>229</v>
-      </c>
-      <c r="J20" s="67" t="s">
         <v>230</v>
       </c>
-      <c r="K20" s="68" t="s">
+      <c r="I20" s="68" t="s">
         <v>238</v>
       </c>
-      <c r="L20" s="70" t="s">
+      <c r="J20" s="70" t="s">
         <v>239</v>
       </c>
-      <c r="M20" s="67">
+      <c r="K20" s="67">
         <v>255</v>
       </c>
-      <c r="N20" s="67" t="s">
+      <c r="L20" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="71" t="s">
         <v>241</v>
       </c>
@@ -10519,28 +10252,22 @@
         <v>245</v>
       </c>
       <c r="H21" s="67" t="s">
-        <v>240</v>
-      </c>
-      <c r="I21" s="67" t="s">
-        <v>240</v>
-      </c>
-      <c r="J21" s="67" t="s">
         <v>241</v>
       </c>
-      <c r="K21" s="68" t="s">
+      <c r="I21" s="68" t="s">
         <v>246</v>
       </c>
-      <c r="L21" s="70" t="s">
+      <c r="J21" s="70" t="s">
         <v>247</v>
       </c>
-      <c r="M21" s="67">
+      <c r="K21" s="67">
         <v>53</v>
       </c>
-      <c r="N21" s="67" t="s">
+      <c r="L21" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="71" t="s">
         <v>2131</v>
       </c>
@@ -10562,22 +10289,19 @@
       <c r="G22" s="67" t="s">
         <v>2134</v>
       </c>
-      <c r="H22" s="67" t="s">
-        <v>2132</v>
-      </c>
-      <c r="J22" s="69"/>
-      <c r="K22" s="68" t="s">
-        <v>2198</v>
-      </c>
-      <c r="L22" s="68" t="s">
-        <v>2223</v>
-      </c>
-      <c r="M22" s="69"/>
-      <c r="N22" s="67" t="s">
+      <c r="H22" s="69"/>
+      <c r="I22" s="68" t="s">
+        <v>2196</v>
+      </c>
+      <c r="J22" s="68" t="s">
+        <v>2221</v>
+      </c>
+      <c r="K22" s="69"/>
+      <c r="L22" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="71" t="s">
         <v>250</v>
       </c>
@@ -10600,28 +10324,22 @@
         <v>249</v>
       </c>
       <c r="H23" s="67" t="s">
-        <v>249</v>
-      </c>
-      <c r="I23" s="67" t="s">
-        <v>249</v>
-      </c>
-      <c r="J23" s="67" t="s">
         <v>250</v>
       </c>
-      <c r="K23" s="68" t="s">
+      <c r="I23" s="68" t="s">
         <v>253</v>
       </c>
-      <c r="L23" s="70" t="s">
+      <c r="J23" s="70" t="s">
         <v>254</v>
       </c>
-      <c r="M23" s="67">
+      <c r="K23" s="67">
         <v>233</v>
       </c>
-      <c r="N23" s="67" t="s">
+      <c r="L23" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="71" t="s">
         <v>256</v>
       </c>
@@ -10644,28 +10362,22 @@
         <v>255</v>
       </c>
       <c r="H24" s="67" t="s">
-        <v>255</v>
-      </c>
-      <c r="I24" s="67" t="s">
-        <v>255</v>
-      </c>
-      <c r="J24" s="67" t="s">
         <v>256</v>
       </c>
-      <c r="K24" s="68" t="s">
+      <c r="I24" s="68" t="s">
         <v>261</v>
       </c>
-      <c r="L24" s="70" t="s">
+      <c r="J24" s="70" t="s">
         <v>262</v>
       </c>
-      <c r="M24" s="67">
+      <c r="K24" s="67">
         <v>16</v>
       </c>
-      <c r="N24" s="67" t="s">
+      <c r="L24" s="67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="71" t="s">
         <v>264</v>
       </c>
@@ -10688,28 +10400,22 @@
         <v>268</v>
       </c>
       <c r="H25" s="67" t="s">
-        <v>263</v>
-      </c>
-      <c r="I25" s="67" t="s">
-        <v>263</v>
-      </c>
-      <c r="J25" s="67" t="s">
         <v>264</v>
       </c>
-      <c r="K25" s="68" t="s">
+      <c r="I25" s="68" t="s">
         <v>270</v>
       </c>
-      <c r="L25" s="70" t="s">
+      <c r="J25" s="70" t="s">
         <v>271</v>
       </c>
-      <c r="M25" s="67">
+      <c r="K25" s="67">
         <v>27</v>
       </c>
-      <c r="N25" s="67" t="s">
+      <c r="L25" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="71" t="s">
         <v>274</v>
       </c>
@@ -10732,28 +10438,22 @@
         <v>279</v>
       </c>
       <c r="H26" s="67" t="s">
-        <v>273</v>
-      </c>
-      <c r="I26" s="67" t="s">
-        <v>273</v>
-      </c>
-      <c r="J26" s="67" t="s">
         <v>274</v>
       </c>
-      <c r="K26" s="68" t="s">
+      <c r="I26" s="68" t="s">
         <v>281</v>
       </c>
-      <c r="L26" s="70" t="s">
+      <c r="J26" s="70" t="s">
         <v>282</v>
       </c>
-      <c r="M26" s="67">
+      <c r="K26" s="67">
         <v>13</v>
       </c>
-      <c r="N26" s="67" t="s">
+      <c r="L26" s="67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="71" t="s">
         <v>284</v>
       </c>
@@ -10776,28 +10476,22 @@
         <v>287</v>
       </c>
       <c r="H27" s="67" t="s">
-        <v>283</v>
-      </c>
-      <c r="I27" s="67" t="s">
-        <v>287</v>
-      </c>
-      <c r="J27" s="67" t="s">
         <v>284</v>
       </c>
-      <c r="K27" s="68" t="s">
+      <c r="I27" s="68" t="s">
         <v>290</v>
       </c>
-      <c r="L27" s="70" t="s">
+      <c r="J27" s="70" t="s">
         <v>291</v>
       </c>
-      <c r="M27" s="67">
+      <c r="K27" s="67">
         <v>12</v>
       </c>
-      <c r="N27" s="67" t="s">
+      <c r="L27" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="71" t="s">
         <v>293</v>
       </c>
@@ -10820,28 +10514,22 @@
         <v>296</v>
       </c>
       <c r="H28" s="67" t="s">
-        <v>292</v>
-      </c>
-      <c r="I28" s="67" t="s">
-        <v>292</v>
-      </c>
-      <c r="J28" s="67" t="s">
         <v>293</v>
       </c>
-      <c r="K28" s="68" t="s">
+      <c r="I28" s="68" t="s">
         <v>299</v>
       </c>
-      <c r="L28" s="70" t="s">
+      <c r="J28" s="70" t="s">
         <v>300</v>
       </c>
-      <c r="M28" s="67">
+      <c r="K28" s="67">
         <v>80</v>
       </c>
-      <c r="N28" s="67" t="s">
+      <c r="L28" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="71" t="s">
         <v>302</v>
       </c>
@@ -10863,25 +10551,19 @@
       <c r="G29" s="67" t="s">
         <v>305</v>
       </c>
-      <c r="H29" s="67" t="s">
-        <v>301</v>
-      </c>
-      <c r="I29" s="67" t="s">
-        <v>306</v>
-      </c>
-      <c r="J29" s="69"/>
-      <c r="K29" s="68" t="s">
+      <c r="H29" s="69"/>
+      <c r="I29" s="68" t="s">
         <v>308</v>
       </c>
-      <c r="L29" s="70" t="s">
+      <c r="J29" s="70" t="s">
         <v>309</v>
       </c>
-      <c r="M29" s="69"/>
-      <c r="N29" s="67" t="s">
+      <c r="K29" s="69"/>
+      <c r="L29" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="71" t="s">
         <v>311</v>
       </c>
@@ -10904,28 +10586,22 @@
         <v>316</v>
       </c>
       <c r="H30" s="67" t="s">
-        <v>310</v>
-      </c>
-      <c r="I30" s="67" t="s">
-        <v>310</v>
-      </c>
-      <c r="J30" s="67" t="s">
         <v>311</v>
       </c>
-      <c r="K30" s="68" t="s">
+      <c r="I30" s="68" t="s">
         <v>318</v>
       </c>
-      <c r="L30" s="70" t="s">
+      <c r="J30" s="70" t="s">
         <v>319</v>
       </c>
-      <c r="M30" s="67">
+      <c r="K30" s="67">
         <v>57</v>
       </c>
-      <c r="N30" s="67" t="s">
+      <c r="L30" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="31" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31" s="71" t="s">
         <v>321</v>
       </c>
@@ -10948,28 +10624,22 @@
         <v>320</v>
       </c>
       <c r="H31" s="67" t="s">
-        <v>320</v>
-      </c>
-      <c r="I31" s="67" t="s">
-        <v>320</v>
-      </c>
-      <c r="J31" s="67" t="s">
         <v>321</v>
       </c>
-      <c r="K31" s="68" t="s">
+      <c r="I31" s="68" t="s">
         <v>324</v>
       </c>
-      <c r="L31" s="70" t="s">
+      <c r="J31" s="70" t="s">
         <v>325</v>
       </c>
-      <c r="M31" s="67">
+      <c r="K31" s="67">
         <v>23</v>
       </c>
-      <c r="N31" s="67" t="s">
+      <c r="L31" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32" s="71" t="s">
         <v>328</v>
       </c>
@@ -10992,28 +10662,22 @@
         <v>331</v>
       </c>
       <c r="H32" s="67" t="s">
-        <v>327</v>
-      </c>
-      <c r="I32" s="67" t="s">
-        <v>327</v>
-      </c>
-      <c r="J32" s="67" t="s">
         <v>328</v>
       </c>
-      <c r="K32" s="68" t="s">
+      <c r="I32" s="68" t="s">
         <v>333</v>
       </c>
-      <c r="L32" s="70" t="s">
+      <c r="J32" s="70" t="s">
         <v>334</v>
       </c>
-      <c r="M32" s="67">
+      <c r="K32" s="67">
         <v>17</v>
       </c>
-      <c r="N32" s="67" t="s">
+      <c r="L32" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" s="71" t="s">
         <v>337</v>
       </c>
@@ -11036,28 +10700,22 @@
         <v>341</v>
       </c>
       <c r="H33" s="67" t="s">
-        <v>336</v>
-      </c>
-      <c r="I33" s="67" t="s">
-        <v>336</v>
-      </c>
-      <c r="J33" s="67" t="s">
         <v>337</v>
       </c>
-      <c r="K33" s="68" t="s">
+      <c r="I33" s="68" t="s">
         <v>342</v>
       </c>
-      <c r="L33" s="70" t="s">
+      <c r="J33" s="70" t="s">
         <v>343</v>
       </c>
-      <c r="M33" s="67">
+      <c r="K33" s="67">
         <v>19</v>
       </c>
-      <c r="N33" s="67" t="s">
+      <c r="L33" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A34" s="71" t="s">
         <v>345</v>
       </c>
@@ -11080,28 +10738,22 @@
         <v>350</v>
       </c>
       <c r="H34" s="67" t="s">
-        <v>344</v>
-      </c>
-      <c r="I34" s="67" t="s">
-        <v>344</v>
-      </c>
-      <c r="J34" s="67" t="s">
         <v>345</v>
       </c>
-      <c r="K34" s="68" t="s">
+      <c r="I34" s="68" t="s">
         <v>351</v>
       </c>
-      <c r="L34" s="70" t="s">
+      <c r="J34" s="70" t="s">
         <v>353</v>
       </c>
-      <c r="M34" s="67">
+      <c r="K34" s="67">
         <v>21</v>
       </c>
-      <c r="N34" s="67" t="s">
+      <c r="L34" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A35" s="71" t="s">
         <v>355</v>
       </c>
@@ -11124,28 +10776,22 @@
         <v>357</v>
       </c>
       <c r="H35" s="67" t="s">
-        <v>354</v>
-      </c>
-      <c r="I35" s="67" t="s">
-        <v>354</v>
-      </c>
-      <c r="J35" s="67" t="s">
         <v>355</v>
       </c>
-      <c r="K35" s="68" t="s">
+      <c r="I35" s="68" t="s">
         <v>359</v>
       </c>
-      <c r="L35" s="70" t="s">
+      <c r="J35" s="70" t="s">
         <v>360</v>
       </c>
-      <c r="M35" s="67">
+      <c r="K35" s="67">
         <v>14</v>
       </c>
-      <c r="N35" s="67" t="s">
+      <c r="L35" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A36" s="71" t="s">
         <v>362</v>
       </c>
@@ -11168,28 +10814,22 @@
         <v>365</v>
       </c>
       <c r="H36" s="67" t="s">
-        <v>361</v>
-      </c>
-      <c r="I36" s="67" t="s">
-        <v>363</v>
-      </c>
-      <c r="J36" s="67" t="s">
         <v>362</v>
       </c>
-      <c r="K36" s="68" t="s">
+      <c r="I36" s="68" t="s">
         <v>366</v>
       </c>
-      <c r="L36" s="70" t="s">
+      <c r="J36" s="70" t="s">
         <v>367</v>
       </c>
-      <c r="M36" s="67">
+      <c r="K36" s="67">
         <v>26</v>
       </c>
-      <c r="N36" s="67" t="s">
+      <c r="L36" s="67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A37" s="71" t="s">
         <v>370</v>
       </c>
@@ -11212,28 +10852,22 @@
         <v>375</v>
       </c>
       <c r="H37" s="67" t="s">
-        <v>369</v>
-      </c>
-      <c r="I37" s="67" t="s">
-        <v>369</v>
-      </c>
-      <c r="J37" s="67" t="s">
         <v>370</v>
       </c>
-      <c r="K37" s="68" t="s">
+      <c r="I37" s="68" t="s">
         <v>376</v>
       </c>
-      <c r="L37" s="70" t="s">
+      <c r="J37" s="70" t="s">
         <v>377</v>
       </c>
-      <c r="M37" s="67">
+      <c r="K37" s="67">
         <v>18</v>
       </c>
-      <c r="N37" s="67" t="s">
+      <c r="L37" s="67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A38" s="71" t="s">
         <v>2174</v>
       </c>
@@ -11255,16 +10889,23 @@
       <c r="G38" s="67" t="s">
         <v>2177</v>
       </c>
-      <c r="J38" s="69"/>
-      <c r="K38" s="68" t="s">
-        <v>2199</v>
-      </c>
-      <c r="L38" s="70" t="s">
-        <v>2210</v>
-      </c>
-      <c r="M38" s="69"/>
+      <c r="H38" s="67" t="s">
+        <v>2174</v>
+      </c>
+      <c r="I38" s="68" t="s">
+        <v>2197</v>
+      </c>
+      <c r="J38" s="70" t="s">
+        <v>2208</v>
+      </c>
+      <c r="K38" s="67">
+        <v>31</v>
+      </c>
+      <c r="L38" s="67" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="39" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A39" s="71" t="s">
         <v>379</v>
       </c>
@@ -11287,28 +10928,22 @@
         <v>378</v>
       </c>
       <c r="H39" s="67" t="s">
-        <v>378</v>
-      </c>
-      <c r="I39" s="67" t="s">
-        <v>378</v>
-      </c>
-      <c r="J39" s="67" t="s">
         <v>379</v>
       </c>
-      <c r="K39" s="68" t="s">
+      <c r="I39" s="68" t="s">
         <v>384</v>
       </c>
-      <c r="L39" s="70" t="s">
+      <c r="J39" s="70" t="s">
         <v>385</v>
       </c>
-      <c r="M39" s="67">
+      <c r="K39" s="67">
         <v>20</v>
       </c>
-      <c r="N39" s="67" t="s">
+      <c r="L39" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A40" s="71" t="s">
         <v>388</v>
       </c>
@@ -11331,28 +10966,22 @@
         <v>393</v>
       </c>
       <c r="H40" s="67" t="s">
-        <v>387</v>
-      </c>
-      <c r="I40" s="67" t="s">
-        <v>387</v>
-      </c>
-      <c r="J40" s="67" t="s">
         <v>388</v>
       </c>
-      <c r="K40" s="68" t="s">
+      <c r="I40" s="68" t="s">
         <v>395</v>
       </c>
-      <c r="L40" s="70" t="s">
+      <c r="J40" s="70" t="s">
         <v>396</v>
       </c>
-      <c r="M40" s="67">
+      <c r="K40" s="67">
         <v>37</v>
       </c>
-      <c r="N40" s="67" t="s">
+      <c r="L40" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A41" s="71" t="s">
         <v>398</v>
       </c>
@@ -11375,28 +11004,22 @@
         <v>397</v>
       </c>
       <c r="H41" s="67" t="s">
-        <v>397</v>
-      </c>
-      <c r="I41" s="67" t="s">
-        <v>397</v>
-      </c>
-      <c r="J41" s="67" t="s">
         <v>398</v>
       </c>
-      <c r="K41" s="68" t="s">
+      <c r="I41" s="68" t="s">
         <v>403</v>
       </c>
-      <c r="L41" s="70" t="s">
+      <c r="J41" s="70" t="s">
         <v>405</v>
       </c>
-      <c r="M41" s="67">
+      <c r="K41" s="67">
         <v>33</v>
       </c>
-      <c r="N41" s="67" t="s">
+      <c r="L41" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A42" s="71" t="s">
         <v>2178</v>
       </c>
@@ -11418,16 +11041,23 @@
       <c r="G42" s="67" t="s">
         <v>2180</v>
       </c>
-      <c r="J42" s="69"/>
-      <c r="K42" s="68" t="s">
-        <v>2200</v>
-      </c>
-      <c r="L42" s="70" t="s">
-        <v>2211</v>
-      </c>
-      <c r="M42" s="69"/>
+      <c r="H42" s="67" t="s">
+        <v>2178</v>
+      </c>
+      <c r="I42" s="68" t="s">
+        <v>2198</v>
+      </c>
+      <c r="J42" s="70" t="s">
+        <v>2209</v>
+      </c>
+      <c r="K42" s="67">
+        <v>43</v>
+      </c>
+      <c r="L42" s="67" t="s">
+        <v>165</v>
+      </c>
     </row>
-    <row r="43" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A43" s="71" t="s">
         <v>407</v>
       </c>
@@ -11450,28 +11080,22 @@
         <v>412</v>
       </c>
       <c r="H43" s="67" t="s">
-        <v>406</v>
-      </c>
-      <c r="I43" s="67" t="s">
-        <v>406</v>
-      </c>
-      <c r="J43" s="67" t="s">
         <v>407</v>
       </c>
-      <c r="K43" s="68" t="s">
+      <c r="I43" s="68" t="s">
         <v>414</v>
       </c>
-      <c r="L43" s="70" t="s">
+      <c r="J43" s="70" t="s">
         <v>415</v>
       </c>
-      <c r="M43" s="67">
+      <c r="K43" s="67">
         <v>211</v>
       </c>
-      <c r="N43" s="67" t="s">
+      <c r="L43" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="44" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A44" s="71" t="s">
         <v>417</v>
       </c>
@@ -11494,28 +11118,22 @@
         <v>421</v>
       </c>
       <c r="H44" s="67" t="s">
-        <v>416</v>
-      </c>
-      <c r="I44" s="67" t="s">
-        <v>416</v>
-      </c>
-      <c r="J44" s="67" t="s">
         <v>417</v>
       </c>
-      <c r="K44" s="68" t="s">
+      <c r="I44" s="68" t="s">
         <v>422</v>
       </c>
-      <c r="L44" s="70" t="s">
+      <c r="J44" s="70" t="s">
         <v>423</v>
       </c>
-      <c r="M44" s="67">
+      <c r="K44" s="67">
         <v>40</v>
       </c>
-      <c r="N44" s="67" t="s">
+      <c r="L44" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="45" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A45" s="71" t="s">
         <v>425</v>
       </c>
@@ -11538,28 +11156,22 @@
         <v>429</v>
       </c>
       <c r="H45" s="67" t="s">
-        <v>424</v>
-      </c>
-      <c r="I45" s="67" t="s">
-        <v>424</v>
-      </c>
-      <c r="J45" s="67" t="s">
         <v>425</v>
       </c>
-      <c r="K45" s="68" t="s">
+      <c r="I45" s="68" t="s">
         <v>430</v>
       </c>
-      <c r="L45" s="70" t="s">
+      <c r="J45" s="70" t="s">
         <v>431</v>
       </c>
-      <c r="M45" s="67">
+      <c r="K45" s="67">
         <v>351</v>
       </c>
-      <c r="N45" s="67" t="s">
+      <c r="L45" s="67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A46" s="71" t="s">
         <v>434</v>
       </c>
@@ -11582,28 +11194,22 @@
         <v>437</v>
       </c>
       <c r="H46" s="67" t="s">
-        <v>433</v>
-      </c>
-      <c r="I46" s="67" t="s">
-        <v>439</v>
-      </c>
-      <c r="J46" s="67" t="s">
         <v>434</v>
       </c>
-      <c r="K46" s="68" t="s">
+      <c r="I46" s="68" t="s">
         <v>441</v>
       </c>
-      <c r="L46" s="70" t="s">
+      <c r="J46" s="70" t="s">
         <v>442</v>
       </c>
-      <c r="M46" s="67">
+      <c r="K46" s="67">
         <v>107</v>
       </c>
-      <c r="N46" s="67" t="s">
+      <c r="L46" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="47" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A47" s="71" t="s">
         <v>444</v>
       </c>
@@ -11626,28 +11232,22 @@
         <v>449</v>
       </c>
       <c r="H47" s="67" t="s">
-        <v>443</v>
-      </c>
-      <c r="I47" s="67" t="s">
-        <v>443</v>
-      </c>
-      <c r="J47" s="67" t="s">
         <v>444</v>
       </c>
-      <c r="K47" s="68" t="s">
+      <c r="I47" s="68" t="s">
         <v>451</v>
       </c>
-      <c r="L47" s="70" t="s">
+      <c r="J47" s="70" t="s">
         <v>452</v>
       </c>
-      <c r="M47" s="67">
+      <c r="K47" s="67">
         <v>32</v>
       </c>
-      <c r="N47" s="67" t="s">
+      <c r="L47" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="48" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A48" s="71" t="s">
         <v>454</v>
       </c>
@@ -11670,28 +11270,22 @@
         <v>459</v>
       </c>
       <c r="H48" s="67" t="s">
-        <v>453</v>
-      </c>
-      <c r="I48" s="67" t="s">
-        <v>453</v>
-      </c>
-      <c r="J48" s="67" t="s">
         <v>454</v>
       </c>
-      <c r="K48" s="68" t="s">
+      <c r="I48" s="68" t="s">
         <v>462</v>
       </c>
-      <c r="L48" s="70" t="s">
+      <c r="J48" s="70" t="s">
         <v>463</v>
       </c>
-      <c r="M48" s="67">
+      <c r="K48" s="67">
         <v>250</v>
       </c>
-      <c r="N48" s="67" t="s">
+      <c r="L48" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="49" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A49" s="71" t="s">
         <v>467</v>
       </c>
@@ -11714,28 +11308,22 @@
         <v>470</v>
       </c>
       <c r="H49" s="67" t="s">
-        <v>466</v>
-      </c>
-      <c r="I49" s="67" t="s">
-        <v>466</v>
-      </c>
-      <c r="J49" s="67" t="s">
         <v>467</v>
       </c>
-      <c r="K49" s="68" t="s">
+      <c r="I49" s="68" t="s">
         <v>473</v>
       </c>
-      <c r="L49" s="70" t="s">
+      <c r="J49" s="70" t="s">
         <v>474</v>
       </c>
-      <c r="M49" s="67">
+      <c r="K49" s="67">
         <v>46</v>
       </c>
-      <c r="N49" s="67" t="s">
+      <c r="L49" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="50" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A50" s="71" t="s">
         <v>477</v>
       </c>
@@ -11758,28 +11346,22 @@
         <v>482</v>
       </c>
       <c r="H50" s="67" t="s">
-        <v>476</v>
-      </c>
-      <c r="I50" s="67" t="s">
-        <v>476</v>
-      </c>
-      <c r="J50" s="67" t="s">
         <v>477</v>
       </c>
-      <c r="K50" s="68" t="s">
+      <c r="I50" s="68" t="s">
         <v>484</v>
       </c>
-      <c r="L50" s="70" t="s">
+      <c r="J50" s="70" t="s">
         <v>485</v>
       </c>
-      <c r="M50" s="67">
+      <c r="K50" s="67">
         <v>47</v>
       </c>
-      <c r="N50" s="67" t="s">
+      <c r="L50" s="67" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="51" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A51" s="71" t="s">
         <v>487</v>
       </c>
@@ -11802,28 +11384,22 @@
         <v>491</v>
       </c>
       <c r="H51" s="67" t="s">
-        <v>486</v>
-      </c>
-      <c r="I51" s="67" t="s">
-        <v>486</v>
-      </c>
-      <c r="J51" s="67" t="s">
         <v>487</v>
       </c>
-      <c r="K51" s="68" t="s">
+      <c r="I51" s="68" t="s">
         <v>493</v>
       </c>
-      <c r="L51" s="70" t="s">
+      <c r="J51" s="70" t="s">
         <v>494</v>
       </c>
-      <c r="M51" s="67">
+      <c r="K51" s="67">
         <v>44</v>
       </c>
-      <c r="N51" s="67" t="s">
+      <c r="L51" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A52" s="71" t="s">
         <v>496</v>
       </c>
@@ -11846,28 +11422,22 @@
         <v>501</v>
       </c>
       <c r="H52" s="67" t="s">
-        <v>495</v>
-      </c>
-      <c r="I52" s="67" t="s">
-        <v>495</v>
-      </c>
-      <c r="J52" s="67" t="s">
         <v>496</v>
       </c>
-      <c r="K52" s="68" t="s">
+      <c r="I52" s="68" t="s">
         <v>503</v>
       </c>
-      <c r="L52" s="70" t="s">
+      <c r="J52" s="70" t="s">
         <v>504</v>
       </c>
-      <c r="M52" s="67">
+      <c r="K52" s="67">
         <v>45</v>
       </c>
-      <c r="N52" s="67" t="s">
+      <c r="L52" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A53" s="71" t="s">
         <v>506</v>
       </c>
@@ -11890,28 +11460,22 @@
         <v>511</v>
       </c>
       <c r="H53" s="67" t="s">
-        <v>505</v>
-      </c>
-      <c r="I53" s="67" t="s">
-        <v>505</v>
-      </c>
-      <c r="J53" s="67" t="s">
         <v>506</v>
       </c>
-      <c r="K53" s="68" t="s">
+      <c r="I53" s="68" t="s">
         <v>513</v>
       </c>
-      <c r="L53" s="70" t="s">
+      <c r="J53" s="70" t="s">
         <v>514</v>
       </c>
-      <c r="M53" s="67">
+      <c r="K53" s="67">
         <v>35</v>
       </c>
-      <c r="N53" s="67" t="s">
+      <c r="L53" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="54" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A54" s="71" t="s">
         <v>516</v>
       </c>
@@ -11934,28 +11498,22 @@
         <v>515</v>
       </c>
       <c r="H54" s="67" t="s">
-        <v>515</v>
-      </c>
-      <c r="I54" s="67" t="s">
-        <v>515</v>
-      </c>
-      <c r="J54" s="67" t="s">
         <v>516</v>
       </c>
-      <c r="K54" s="68" t="s">
+      <c r="I54" s="68" t="s">
         <v>521</v>
       </c>
-      <c r="L54" s="70" t="s">
+      <c r="J54" s="70" t="s">
         <v>522</v>
       </c>
-      <c r="M54" s="67">
+      <c r="K54" s="67">
         <v>48</v>
       </c>
-      <c r="N54" s="67" t="s">
+      <c r="L54" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A55" s="71" t="s">
         <v>524</v>
       </c>
@@ -11978,28 +11536,22 @@
         <v>523</v>
       </c>
       <c r="H55" s="67" t="s">
-        <v>523</v>
-      </c>
-      <c r="I55" s="67" t="s">
-        <v>523</v>
-      </c>
-      <c r="J55" s="67" t="s">
         <v>524</v>
       </c>
-      <c r="K55" s="68" t="s">
+      <c r="I55" s="68" t="s">
         <v>528</v>
       </c>
-      <c r="L55" s="70" t="s">
+      <c r="J55" s="70" t="s">
         <v>529</v>
       </c>
-      <c r="M55" s="67">
+      <c r="K55" s="67">
         <v>49</v>
       </c>
-      <c r="N55" s="67" t="s">
+      <c r="L55" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A56" s="71" t="s">
         <v>530</v>
       </c>
@@ -12022,24 +11574,22 @@
         <v>531</v>
       </c>
       <c r="H56" s="67" t="s">
-        <v>531</v>
-      </c>
-      <c r="I56" s="67" t="s">
-        <v>531</v>
-      </c>
-      <c r="J56" s="69"/>
-      <c r="K56" s="68" t="s">
+        <v>530</v>
+      </c>
+      <c r="I56" s="68" t="s">
         <v>533</v>
       </c>
-      <c r="L56" s="70" t="s">
+      <c r="J56" s="70" t="s">
         <v>534</v>
       </c>
-      <c r="M56" s="69"/>
-      <c r="N56" s="67" t="s">
+      <c r="K56" s="67">
+        <v>279</v>
+      </c>
+      <c r="L56" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A57" s="71" t="s">
         <v>2182</v>
       </c>
@@ -12050,29 +11600,34 @@
         <v>2183</v>
       </c>
       <c r="D57" s="66" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
       <c r="E57" s="66" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
       <c r="F57" s="66" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
       <c r="G57" s="66" t="s">
-        <v>2225</v>
-      </c>
-      <c r="H57" s="66"/>
-      <c r="I57" s="66"/>
-      <c r="J57" s="69"/>
-      <c r="K57" s="68" t="s">
-        <v>2201</v>
-      </c>
-      <c r="L57" s="70" t="s">
-        <v>2212</v>
-      </c>
-      <c r="M57" s="69"/>
+        <v>2223</v>
+      </c>
+      <c r="H57" s="67" t="s">
+        <v>2182</v>
+      </c>
+      <c r="I57" s="68" t="s">
+        <v>2199</v>
+      </c>
+      <c r="J57" s="70" t="s">
+        <v>2210</v>
+      </c>
+      <c r="K57" s="67">
+        <v>42</v>
+      </c>
+      <c r="L57" s="67" t="s">
+        <v>165</v>
+      </c>
     </row>
-    <row r="58" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A58" s="71" t="s">
         <v>536</v>
       </c>
@@ -12095,28 +11650,22 @@
         <v>539</v>
       </c>
       <c r="H58" s="67" t="s">
-        <v>535</v>
-      </c>
-      <c r="I58" s="67" t="s">
-        <v>535</v>
-      </c>
-      <c r="J58" s="67" t="s">
         <v>536</v>
       </c>
-      <c r="K58" s="68" t="s">
+      <c r="I58" s="68" t="s">
         <v>541</v>
       </c>
-      <c r="L58" s="70" t="s">
+      <c r="J58" s="70" t="s">
         <v>542</v>
       </c>
-      <c r="M58" s="67">
+      <c r="K58" s="67">
         <v>36</v>
       </c>
-      <c r="N58" s="67" t="s">
+      <c r="L58" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A59" s="71" t="s">
         <v>543</v>
       </c>
@@ -12139,28 +11688,22 @@
         <v>549</v>
       </c>
       <c r="H59" s="67" t="s">
-        <v>544</v>
-      </c>
-      <c r="I59" s="67" t="s">
-        <v>544</v>
-      </c>
-      <c r="J59" s="67" t="s">
         <v>543</v>
       </c>
-      <c r="K59" s="68" t="s">
+      <c r="I59" s="68" t="s">
         <v>551</v>
       </c>
-      <c r="L59" s="70" t="s">
+      <c r="J59" s="70" t="s">
         <v>552</v>
       </c>
-      <c r="M59" s="67">
+      <c r="K59" s="67">
         <v>50</v>
       </c>
-      <c r="N59" s="67" t="s">
+      <c r="L59" s="67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="60" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A60" s="71" t="s">
         <v>554</v>
       </c>
@@ -12183,28 +11726,22 @@
         <v>559</v>
       </c>
       <c r="H60" s="67" t="s">
-        <v>553</v>
-      </c>
-      <c r="I60" s="67" t="s">
-        <v>553</v>
-      </c>
-      <c r="J60" s="67" t="s">
         <v>554</v>
       </c>
-      <c r="K60" s="68" t="s">
+      <c r="I60" s="68" t="s">
         <v>561</v>
       </c>
-      <c r="L60" s="70" t="s">
+      <c r="J60" s="70" t="s">
         <v>562</v>
       </c>
-      <c r="M60" s="67">
+      <c r="K60" s="67">
         <v>167</v>
       </c>
-      <c r="N60" s="67" t="s">
+      <c r="L60" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="61" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A61" s="71" t="s">
         <v>564</v>
       </c>
@@ -12227,28 +11764,22 @@
         <v>569</v>
       </c>
       <c r="H61" s="67" t="s">
-        <v>563</v>
-      </c>
-      <c r="I61" s="67" t="s">
-        <v>563</v>
-      </c>
-      <c r="J61" s="67" t="s">
         <v>564</v>
       </c>
-      <c r="K61" s="68" t="s">
+      <c r="I61" s="68" t="s">
         <v>572</v>
       </c>
-      <c r="L61" s="70" t="s">
+      <c r="J61" s="70" t="s">
         <v>573</v>
       </c>
-      <c r="M61" s="67">
+      <c r="K61" s="67">
         <v>79</v>
       </c>
-      <c r="N61" s="67" t="s">
+      <c r="L61" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="62" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A62" s="71" t="s">
         <v>575</v>
       </c>
@@ -12271,28 +11802,22 @@
         <v>574</v>
       </c>
       <c r="H62" s="67" t="s">
-        <v>574</v>
-      </c>
-      <c r="I62" s="67" t="s">
-        <v>574</v>
-      </c>
-      <c r="J62" s="67" t="s">
         <v>575</v>
       </c>
-      <c r="K62" s="68" t="s">
+      <c r="I62" s="68" t="s">
         <v>580</v>
       </c>
-      <c r="L62" s="70" t="s">
+      <c r="J62" s="70" t="s">
         <v>581</v>
       </c>
-      <c r="M62" s="67">
+      <c r="K62" s="67">
         <v>72</v>
       </c>
-      <c r="N62" s="67" t="s">
+      <c r="L62" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="63" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A63" s="71" t="s">
         <v>583</v>
       </c>
@@ -12315,28 +11840,22 @@
         <v>587</v>
       </c>
       <c r="H63" s="67" t="s">
-        <v>582</v>
-      </c>
-      <c r="I63" s="67" t="s">
-        <v>582</v>
-      </c>
-      <c r="J63" s="67" t="s">
         <v>583</v>
       </c>
-      <c r="K63" s="68" t="s">
+      <c r="I63" s="68" t="s">
         <v>589</v>
       </c>
-      <c r="L63" s="70" t="s">
+      <c r="J63" s="70" t="s">
         <v>590</v>
       </c>
-      <c r="M63" s="67">
+      <c r="K63" s="67">
         <v>55</v>
       </c>
-      <c r="N63" s="67" t="s">
+      <c r="L63" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="64" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A64" s="71" t="s">
         <v>592</v>
       </c>
@@ -12359,28 +11878,22 @@
         <v>597</v>
       </c>
       <c r="H64" s="67" t="s">
-        <v>591</v>
-      </c>
-      <c r="I64" s="67" t="s">
-        <v>591</v>
-      </c>
-      <c r="J64" s="67" t="s">
         <v>592</v>
       </c>
-      <c r="K64" s="68" t="s">
+      <c r="I64" s="68" t="s">
         <v>599</v>
       </c>
-      <c r="L64" s="70" t="s">
+      <c r="J64" s="70" t="s">
         <v>600</v>
       </c>
-      <c r="M64" s="67">
+      <c r="K64" s="67">
         <v>54</v>
       </c>
-      <c r="N64" s="67" t="s">
+      <c r="L64" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="65" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A65" s="71" t="s">
         <v>602</v>
       </c>
@@ -12403,28 +11916,22 @@
         <v>607</v>
       </c>
       <c r="H65" s="67" t="s">
-        <v>601</v>
-      </c>
-      <c r="I65" s="67" t="s">
-        <v>601</v>
-      </c>
-      <c r="J65" s="67" t="s">
         <v>602</v>
       </c>
-      <c r="K65" s="68" t="s">
+      <c r="I65" s="68" t="s">
         <v>609</v>
       </c>
-      <c r="L65" s="70" t="s">
+      <c r="J65" s="70" t="s">
         <v>610</v>
       </c>
-      <c r="M65" s="67">
+      <c r="K65" s="67">
         <v>56</v>
       </c>
-      <c r="N65" s="67" t="s">
+      <c r="L65" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="66" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A66" s="71" t="s">
         <v>612</v>
       </c>
@@ -12447,28 +11954,22 @@
         <v>617</v>
       </c>
       <c r="H66" s="67" t="s">
-        <v>611</v>
-      </c>
-      <c r="I66" s="67" t="s">
-        <v>611</v>
-      </c>
-      <c r="J66" s="67" t="s">
         <v>612</v>
       </c>
-      <c r="K66" s="68" t="s">
+      <c r="I66" s="68" t="s">
         <v>619</v>
       </c>
-      <c r="L66" s="70" t="s">
+      <c r="J66" s="70" t="s">
         <v>620</v>
       </c>
-      <c r="M66" s="67">
+      <c r="K66" s="67">
         <v>4</v>
       </c>
-      <c r="N66" s="67" t="s">
+      <c r="L66" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="67" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A67" s="71" t="s">
         <v>623</v>
       </c>
@@ -12491,28 +11992,22 @@
         <v>627</v>
       </c>
       <c r="H67" s="67" t="s">
-        <v>622</v>
-      </c>
-      <c r="I67" s="67" t="s">
-        <v>622</v>
-      </c>
-      <c r="J67" s="67" t="s">
         <v>623</v>
       </c>
-      <c r="K67" s="68" t="s">
+      <c r="I67" s="68" t="s">
         <v>629</v>
       </c>
-      <c r="L67" s="70" t="s">
+      <c r="J67" s="70" t="s">
         <v>630</v>
       </c>
-      <c r="M67" s="67">
+      <c r="K67" s="67">
         <v>58</v>
       </c>
-      <c r="N67" s="67" t="s">
+      <c r="L67" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="68" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A68" s="71" t="s">
         <v>632</v>
       </c>
@@ -12535,28 +12030,22 @@
         <v>637</v>
       </c>
       <c r="H68" s="67" t="s">
-        <v>631</v>
-      </c>
-      <c r="I68" s="67" t="s">
-        <v>631</v>
-      </c>
-      <c r="J68" s="67" t="s">
         <v>632</v>
       </c>
-      <c r="K68" s="68" t="s">
+      <c r="I68" s="68" t="s">
         <v>638</v>
       </c>
-      <c r="L68" s="70" t="s">
+      <c r="J68" s="70" t="s">
         <v>639</v>
       </c>
-      <c r="M68" s="67">
+      <c r="K68" s="67">
         <v>59</v>
       </c>
-      <c r="N68" s="67" t="s">
+      <c r="L68" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="69" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A69" s="71" t="s">
         <v>641</v>
       </c>
@@ -12579,28 +12068,22 @@
         <v>643</v>
       </c>
       <c r="H69" s="67" t="s">
-        <v>640</v>
-      </c>
-      <c r="I69" s="67" t="s">
-        <v>640</v>
-      </c>
-      <c r="J69" s="67" t="s">
         <v>641</v>
       </c>
-      <c r="K69" s="68" t="s">
+      <c r="I69" s="68" t="s">
         <v>645</v>
       </c>
-      <c r="L69" s="70" t="s">
+      <c r="J69" s="70" t="s">
         <v>646</v>
       </c>
-      <c r="M69" s="67">
+      <c r="K69" s="67">
         <v>178</v>
       </c>
-      <c r="N69" s="67" t="s">
+      <c r="L69" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="70" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A70" s="71" t="s">
         <v>1648</v>
       </c>
@@ -12623,24 +12106,22 @@
         <v>2162</v>
       </c>
       <c r="H70" s="67" t="s">
-        <v>1643</v>
-      </c>
-      <c r="I70" s="67" t="s">
-        <v>1643</v>
-      </c>
-      <c r="J70" s="69"/>
-      <c r="K70" s="68" t="s">
+        <v>1648</v>
+      </c>
+      <c r="I70" s="68" t="s">
         <v>1647</v>
       </c>
-      <c r="L70" s="70" t="s">
+      <c r="J70" s="70" t="s">
         <v>1649</v>
       </c>
-      <c r="M70" s="69"/>
-      <c r="N70" s="67" t="s">
+      <c r="K70" s="67">
+        <v>205</v>
+      </c>
+      <c r="L70" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="71" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A71" s="71" t="s">
         <v>648</v>
       </c>
@@ -12663,28 +12144,22 @@
         <v>653</v>
       </c>
       <c r="H71" s="67" t="s">
-        <v>647</v>
-      </c>
-      <c r="I71" s="67" t="s">
-        <v>647</v>
-      </c>
-      <c r="J71" s="67" t="s">
         <v>648</v>
       </c>
-      <c r="K71" s="68" t="s">
+      <c r="I71" s="68" t="s">
         <v>656</v>
       </c>
-      <c r="L71" s="70" t="s">
+      <c r="J71" s="70" t="s">
         <v>657</v>
       </c>
-      <c r="M71" s="67">
+      <c r="K71" s="67">
         <v>203</v>
       </c>
-      <c r="N71" s="67" t="s">
+      <c r="L71" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="72" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A72" s="71" t="s">
         <v>659</v>
       </c>
@@ -12707,28 +12182,22 @@
         <v>663</v>
       </c>
       <c r="H72" s="67" t="s">
-        <v>658</v>
-      </c>
-      <c r="I72" s="67" t="s">
-        <v>658</v>
-      </c>
-      <c r="J72" s="67" t="s">
         <v>659</v>
       </c>
-      <c r="K72" s="68" t="s">
+      <c r="I72" s="68" t="s">
         <v>665</v>
       </c>
-      <c r="L72" s="70" t="s">
+      <c r="J72" s="70" t="s">
         <v>666</v>
       </c>
-      <c r="M72" s="67">
+      <c r="K72" s="67">
         <v>63</v>
       </c>
-      <c r="N72" s="67" t="s">
+      <c r="L72" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="73" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A73" s="71" t="s">
         <v>668</v>
       </c>
@@ -12751,28 +12220,22 @@
         <v>673</v>
       </c>
       <c r="H73" s="67" t="s">
-        <v>667</v>
-      </c>
-      <c r="I73" s="67" t="s">
-        <v>667</v>
-      </c>
-      <c r="J73" s="67" t="s">
         <v>668</v>
       </c>
-      <c r="K73" s="68" t="s">
+      <c r="I73" s="68" t="s">
         <v>675</v>
       </c>
-      <c r="L73" s="70" t="s">
+      <c r="J73" s="70" t="s">
         <v>676</v>
       </c>
-      <c r="M73" s="67">
+      <c r="K73" s="67">
         <v>238</v>
       </c>
-      <c r="N73" s="67" t="s">
+      <c r="L73" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="74" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A74" s="71" t="s">
         <v>677</v>
       </c>
@@ -12795,28 +12258,22 @@
         <v>682</v>
       </c>
       <c r="H74" s="67" t="s">
-        <v>104</v>
-      </c>
-      <c r="I74" s="67" t="s">
-        <v>104</v>
-      </c>
-      <c r="J74" s="67" t="s">
         <v>677</v>
       </c>
-      <c r="K74" s="68" t="s">
+      <c r="I74" s="68" t="s">
         <v>684</v>
       </c>
-      <c r="L74" s="70" t="s">
+      <c r="J74" s="70" t="s">
         <v>685</v>
       </c>
-      <c r="M74" s="67">
+      <c r="K74" s="67">
         <v>67</v>
       </c>
-      <c r="N74" s="67" t="s">
+      <c r="L74" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="75" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A75" s="71" t="s">
         <v>687</v>
       </c>
@@ -12839,28 +12296,22 @@
         <v>691</v>
       </c>
       <c r="H75" s="67" t="s">
-        <v>686</v>
-      </c>
-      <c r="I75" s="67" t="s">
-        <v>686</v>
-      </c>
-      <c r="J75" s="67" t="s">
         <v>687</v>
       </c>
-      <c r="K75" s="68" t="s">
+      <c r="I75" s="68" t="s">
         <v>692</v>
       </c>
-      <c r="L75" s="70" t="s">
+      <c r="J75" s="70" t="s">
         <v>693</v>
       </c>
-      <c r="M75" s="67">
+      <c r="K75" s="67">
         <v>66</v>
       </c>
-      <c r="N75" s="67" t="s">
+      <c r="L75" s="67" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="76" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A76" s="71" t="s">
         <v>696</v>
       </c>
@@ -12883,28 +12334,22 @@
         <v>701</v>
       </c>
       <c r="H76" s="67" t="s">
-        <v>695</v>
-      </c>
-      <c r="I76" s="67" t="s">
-        <v>695</v>
-      </c>
-      <c r="J76" s="67" t="s">
         <v>696</v>
       </c>
-      <c r="K76" s="68" t="s">
+      <c r="I76" s="68" t="s">
         <v>703</v>
       </c>
-      <c r="L76" s="70" t="s">
+      <c r="J76" s="70" t="s">
         <v>704</v>
       </c>
-      <c r="M76" s="67">
+      <c r="K76" s="67">
         <v>65</v>
       </c>
-      <c r="N76" s="67" t="s">
+      <c r="L76" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="77" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A77" s="71" t="s">
         <v>705</v>
       </c>
@@ -12927,28 +12372,22 @@
         <v>181</v>
       </c>
       <c r="H77" s="67" t="s">
-        <v>181</v>
-      </c>
-      <c r="I77" s="67" t="s">
-        <v>181</v>
-      </c>
-      <c r="J77" s="67" t="s">
         <v>705</v>
       </c>
-      <c r="K77" s="68" t="s">
+      <c r="I77" s="68" t="s">
         <v>712</v>
       </c>
-      <c r="L77" s="70" t="s">
+      <c r="J77" s="70" t="s">
         <v>713</v>
       </c>
-      <c r="M77" s="67">
+      <c r="K77" s="67">
         <v>68</v>
       </c>
-      <c r="N77" s="67" t="s">
+      <c r="L77" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="78" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A78" s="71" t="s">
         <v>715</v>
       </c>
@@ -12971,28 +12410,22 @@
         <v>719</v>
       </c>
       <c r="H78" s="67" t="s">
-        <v>714</v>
-      </c>
-      <c r="I78" s="67" t="s">
-        <v>720</v>
-      </c>
-      <c r="J78" s="67" t="s">
         <v>715</v>
       </c>
-      <c r="K78" s="68" t="s">
+      <c r="I78" s="68" t="s">
         <v>722</v>
       </c>
-      <c r="L78" s="70" t="s">
+      <c r="J78" s="70" t="s">
         <v>723</v>
       </c>
-      <c r="M78" s="67">
+      <c r="K78" s="67">
         <v>64</v>
       </c>
-      <c r="N78" s="67" t="s">
+      <c r="L78" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="79" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A79" s="71" t="s">
         <v>725</v>
       </c>
@@ -13015,28 +12448,22 @@
         <v>730</v>
       </c>
       <c r="H79" s="67" t="s">
-        <v>724</v>
-      </c>
-      <c r="I79" s="67" t="s">
-        <v>724</v>
-      </c>
-      <c r="J79" s="67" t="s">
         <v>725</v>
       </c>
-      <c r="K79" s="68" t="s">
+      <c r="I79" s="68" t="s">
         <v>732</v>
       </c>
-      <c r="L79" s="70" t="s">
+      <c r="J79" s="70" t="s">
         <v>733</v>
       </c>
-      <c r="M79" s="67">
+      <c r="K79" s="67">
         <v>145</v>
       </c>
-      <c r="N79" s="67" t="s">
+      <c r="L79" s="67" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="80" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A80" s="71" t="s">
         <v>735</v>
       </c>
@@ -13059,28 +12486,22 @@
         <v>734</v>
       </c>
       <c r="H80" s="67" t="s">
-        <v>734</v>
-      </c>
-      <c r="I80" s="67" t="s">
-        <v>734</v>
-      </c>
-      <c r="J80" s="67" t="s">
         <v>735</v>
       </c>
-      <c r="K80" s="68" t="s">
+      <c r="I80" s="68" t="s">
         <v>740</v>
       </c>
-      <c r="L80" s="70" t="s">
+      <c r="J80" s="70" t="s">
         <v>741</v>
       </c>
-      <c r="M80" s="67">
+      <c r="K80" s="67">
         <v>74</v>
       </c>
-      <c r="N80" s="67" t="s">
+      <c r="L80" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="81" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A81" s="71" t="s">
         <v>742</v>
       </c>
@@ -13103,28 +12524,22 @@
         <v>747</v>
       </c>
       <c r="H81" s="67" t="s">
-        <v>84</v>
-      </c>
-      <c r="I81" s="67" t="s">
-        <v>84</v>
-      </c>
-      <c r="J81" s="67" t="s">
         <v>742</v>
       </c>
-      <c r="K81" s="68" t="s">
+      <c r="I81" s="68" t="s">
         <v>749</v>
       </c>
-      <c r="L81" s="70" t="s">
+      <c r="J81" s="70" t="s">
         <v>750</v>
       </c>
-      <c r="M81" s="67">
+      <c r="K81" s="67">
         <v>229</v>
       </c>
-      <c r="N81" s="67" t="s">
+      <c r="L81" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="82" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A82" s="71" t="s">
         <v>752</v>
       </c>
@@ -13147,28 +12562,22 @@
         <v>754</v>
       </c>
       <c r="H82" s="67" t="s">
-        <v>751</v>
-      </c>
-      <c r="I82" s="67" t="s">
-        <v>751</v>
-      </c>
-      <c r="J82" s="67" t="s">
         <v>752</v>
       </c>
-      <c r="K82" s="68" t="s">
+      <c r="I82" s="68" t="s">
         <v>756</v>
       </c>
-      <c r="L82" s="70" t="s">
+      <c r="J82" s="70" t="s">
         <v>757</v>
       </c>
-      <c r="M82" s="67">
+      <c r="K82" s="67">
         <v>73</v>
       </c>
-      <c r="N82" s="67" t="s">
+      <c r="L82" s="67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="83" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A83" s="71" t="s">
         <v>759</v>
       </c>
@@ -13190,25 +12599,19 @@
       <c r="G83" s="67" t="s">
         <v>2143</v>
       </c>
-      <c r="H83" s="67" t="s">
-        <v>758</v>
-      </c>
-      <c r="I83" s="67" t="s">
-        <v>758</v>
-      </c>
-      <c r="J83" s="69"/>
-      <c r="K83" s="68" t="s">
+      <c r="H83" s="69"/>
+      <c r="I83" s="68" t="s">
         <v>761</v>
       </c>
-      <c r="L83" s="70" t="s">
+      <c r="J83" s="70" t="s">
         <v>762</v>
       </c>
-      <c r="M83" s="69"/>
-      <c r="N83" s="67" t="s">
+      <c r="K83" s="69"/>
+      <c r="L83" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="84" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A84" s="71" t="s">
         <v>766</v>
       </c>
@@ -13231,28 +12634,22 @@
         <v>765</v>
       </c>
       <c r="H84" s="67" t="s">
-        <v>765</v>
-      </c>
-      <c r="I84" s="67" t="s">
-        <v>765</v>
-      </c>
-      <c r="J84" s="67" t="s">
         <v>766</v>
       </c>
-      <c r="K84" s="68" t="s">
+      <c r="I84" s="68" t="s">
         <v>770</v>
       </c>
-      <c r="L84" s="70" t="s">
+      <c r="J84" s="70" t="s">
         <v>771</v>
       </c>
-      <c r="M84" s="67">
+      <c r="K84" s="67">
         <v>81</v>
       </c>
-      <c r="N84" s="67" t="s">
+      <c r="L84" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="85" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A85" s="71" t="s">
         <v>772</v>
       </c>
@@ -13274,23 +12671,23 @@
       <c r="G85" s="67" t="s">
         <v>773</v>
       </c>
-      <c r="J85" s="67" t="s">
+      <c r="H85" s="67" t="s">
         <v>772</v>
       </c>
-      <c r="K85" s="68" t="s">
-        <v>2202</v>
-      </c>
-      <c r="L85" s="70" t="s">
-        <v>2215</v>
-      </c>
-      <c r="M85" s="67">
+      <c r="I85" s="68" t="s">
+        <v>2200</v>
+      </c>
+      <c r="J85" s="70" t="s">
+        <v>2213</v>
+      </c>
+      <c r="K85" s="67">
         <v>82</v>
       </c>
-      <c r="N85" s="67" t="s">
+      <c r="L85" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="86" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A86" s="71" t="s">
         <v>775</v>
       </c>
@@ -13313,28 +12710,22 @@
         <v>779</v>
       </c>
       <c r="H86" s="67" t="s">
-        <v>774</v>
-      </c>
-      <c r="I86" s="67" t="s">
-        <v>774</v>
-      </c>
-      <c r="J86" s="67" t="s">
         <v>775</v>
       </c>
-      <c r="K86" s="68" t="s">
+      <c r="I86" s="68" t="s">
         <v>781</v>
       </c>
-      <c r="L86" s="70" t="s">
+      <c r="J86" s="70" t="s">
         <v>782</v>
       </c>
-      <c r="M86" s="67">
+      <c r="K86" s="67">
         <v>90</v>
       </c>
-      <c r="N86" s="67" t="s">
+      <c r="L86" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="87" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A87" s="71" t="s">
         <v>783</v>
       </c>
@@ -13356,23 +12747,23 @@
       <c r="G87" s="67" t="s">
         <v>784</v>
       </c>
-      <c r="J87" s="67" t="s">
+      <c r="H87" s="67" t="s">
         <v>783</v>
       </c>
-      <c r="K87" s="68" t="s">
-        <v>2203</v>
-      </c>
-      <c r="L87" s="70" t="s">
-        <v>2216</v>
-      </c>
-      <c r="M87" s="67">
+      <c r="I87" s="68" t="s">
+        <v>2201</v>
+      </c>
+      <c r="J87" s="70" t="s">
+        <v>2214</v>
+      </c>
+      <c r="K87" s="67">
         <v>87</v>
       </c>
-      <c r="N87" s="67" t="s">
+      <c r="L87" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="88" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A88" s="71" t="s">
         <v>788</v>
       </c>
@@ -13395,28 +12786,22 @@
         <v>792</v>
       </c>
       <c r="H88" s="67" t="s">
-        <v>787</v>
-      </c>
-      <c r="I88" s="67" t="s">
-        <v>793</v>
-      </c>
-      <c r="J88" s="67" t="s">
         <v>788</v>
       </c>
-      <c r="K88" s="68" t="s">
+      <c r="I88" s="68" t="s">
         <v>794</v>
       </c>
-      <c r="L88" s="70" t="s">
+      <c r="J88" s="70" t="s">
         <v>795</v>
       </c>
-      <c r="M88" s="67">
+      <c r="K88" s="67">
         <v>75</v>
       </c>
-      <c r="N88" s="67" t="s">
+      <c r="L88" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="89" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A89" s="71" t="s">
         <v>797</v>
       </c>
@@ -13439,28 +12824,22 @@
         <v>802</v>
       </c>
       <c r="H89" s="67" t="s">
-        <v>796</v>
-      </c>
-      <c r="I89" s="67" t="s">
-        <v>800</v>
-      </c>
-      <c r="J89" s="67" t="s">
         <v>797</v>
       </c>
-      <c r="K89" s="68" t="s">
+      <c r="I89" s="68" t="s">
         <v>804</v>
       </c>
-      <c r="L89" s="70" t="s">
+      <c r="J89" s="70" t="s">
         <v>805</v>
       </c>
-      <c r="M89" s="67">
+      <c r="K89" s="67">
         <v>175</v>
       </c>
-      <c r="N89" s="67" t="s">
+      <c r="L89" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="90" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A90" s="71" t="s">
         <v>807</v>
       </c>
@@ -13483,28 +12862,22 @@
         <v>812</v>
       </c>
       <c r="H90" s="67" t="s">
-        <v>806</v>
-      </c>
-      <c r="I90" s="67" t="s">
-        <v>806</v>
-      </c>
-      <c r="J90" s="67" t="s">
         <v>807</v>
       </c>
-      <c r="K90" s="68" t="s">
+      <c r="I90" s="68" t="s">
         <v>814</v>
       </c>
-      <c r="L90" s="70" t="s">
+      <c r="J90" s="70" t="s">
         <v>815</v>
       </c>
-      <c r="M90" s="67">
+      <c r="K90" s="67">
         <v>61</v>
       </c>
-      <c r="N90" s="67" t="s">
+      <c r="L90" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="91" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A91" s="71" t="s">
         <v>817</v>
       </c>
@@ -13527,28 +12900,22 @@
         <v>822</v>
       </c>
       <c r="H91" s="67" t="s">
-        <v>816</v>
-      </c>
-      <c r="I91" s="67" t="s">
-        <v>816</v>
-      </c>
-      <c r="J91" s="67" t="s">
         <v>817</v>
       </c>
-      <c r="K91" s="68" t="s">
+      <c r="I91" s="68" t="s">
         <v>823</v>
       </c>
-      <c r="L91" s="70" t="s">
+      <c r="J91" s="70" t="s">
         <v>824</v>
       </c>
-      <c r="M91" s="67">
+      <c r="K91" s="67">
         <v>84</v>
       </c>
-      <c r="N91" s="67" t="s">
+      <c r="L91" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="92" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A92" s="71" t="s">
         <v>826</v>
       </c>
@@ -13571,28 +12938,22 @@
         <v>829</v>
       </c>
       <c r="H92" s="67" t="s">
-        <v>825</v>
-      </c>
-      <c r="I92" s="67" t="s">
-        <v>825</v>
-      </c>
-      <c r="J92" s="67" t="s">
         <v>826</v>
       </c>
-      <c r="K92" s="68" t="s">
+      <c r="I92" s="68" t="s">
         <v>831</v>
       </c>
-      <c r="L92" s="70" t="s">
+      <c r="J92" s="70" t="s">
         <v>832</v>
       </c>
-      <c r="M92" s="67">
+      <c r="K92" s="67">
         <v>86</v>
       </c>
-      <c r="N92" s="67" t="s">
+      <c r="L92" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="93" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A93" s="71" t="s">
         <v>834</v>
       </c>
@@ -13615,24 +12976,22 @@
         <v>2145</v>
       </c>
       <c r="H93" s="67" t="s">
-        <v>833</v>
-      </c>
-      <c r="I93" s="67" t="s">
-        <v>833</v>
-      </c>
-      <c r="J93" s="69"/>
-      <c r="K93" s="68" t="s">
+        <v>834</v>
+      </c>
+      <c r="I93" s="68" t="s">
         <v>836</v>
       </c>
-      <c r="L93" s="70" t="s">
+      <c r="J93" s="70" t="s">
         <v>837</v>
       </c>
-      <c r="M93" s="69"/>
-      <c r="N93" s="67" t="s">
+      <c r="K93" s="67">
+        <v>85</v>
+      </c>
+      <c r="L93" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="94" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A94" s="71" t="s">
         <v>839</v>
       </c>
@@ -13655,28 +13014,22 @@
         <v>838</v>
       </c>
       <c r="H94" s="67" t="s">
-        <v>838</v>
-      </c>
-      <c r="I94" s="67" t="s">
-        <v>838</v>
-      </c>
-      <c r="J94" s="67" t="s">
         <v>839</v>
       </c>
-      <c r="K94" s="68" t="s">
+      <c r="I94" s="68" t="s">
         <v>844</v>
       </c>
-      <c r="L94" s="70" t="s">
+      <c r="J94" s="70" t="s">
         <v>845</v>
       </c>
-      <c r="M94" s="67">
+      <c r="K94" s="67">
         <v>89</v>
       </c>
-      <c r="N94" s="67" t="s">
+      <c r="L94" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="95" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A95" s="71" t="s">
         <v>853</v>
       </c>
@@ -13698,23 +13051,23 @@
       <c r="G95" s="67" t="s">
         <v>850</v>
       </c>
-      <c r="J95" s="67" t="s">
+      <c r="H95" s="67" t="s">
         <v>853</v>
       </c>
-      <c r="K95" s="68" t="s">
-        <v>2204</v>
-      </c>
-      <c r="L95" s="70" t="s">
-        <v>2217</v>
-      </c>
-      <c r="M95" s="67">
+      <c r="I95" s="68" t="s">
+        <v>2202</v>
+      </c>
+      <c r="J95" s="70" t="s">
+        <v>2215</v>
+      </c>
+      <c r="K95" s="67">
         <v>69</v>
       </c>
-      <c r="N95" s="67" t="s">
+      <c r="L95" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="96" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A96" s="71" t="s">
         <v>847</v>
       </c>
@@ -13737,28 +13090,22 @@
         <v>846</v>
       </c>
       <c r="H96" s="67" t="s">
-        <v>846</v>
-      </c>
-      <c r="I96" s="67" t="s">
-        <v>846</v>
-      </c>
-      <c r="J96" s="67" t="s">
         <v>847</v>
       </c>
-      <c r="K96" s="68" t="s">
+      <c r="I96" s="68" t="s">
         <v>851</v>
       </c>
-      <c r="L96" s="70" t="s">
+      <c r="J96" s="70" t="s">
         <v>852</v>
       </c>
-      <c r="M96" s="67">
+      <c r="K96" s="67">
         <v>88</v>
       </c>
-      <c r="N96" s="67" t="s">
+      <c r="L96" s="67" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="97" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A97" s="71" t="s">
         <v>856</v>
       </c>
@@ -13781,28 +13128,22 @@
         <v>855</v>
       </c>
       <c r="H97" s="67" t="s">
-        <v>855</v>
-      </c>
-      <c r="I97" s="67" t="s">
-        <v>855</v>
-      </c>
-      <c r="J97" s="67" t="s">
         <v>856</v>
       </c>
-      <c r="K97" s="68" t="s">
+      <c r="I97" s="68" t="s">
         <v>861</v>
       </c>
-      <c r="L97" s="70" t="s">
+      <c r="J97" s="70" t="s">
         <v>862</v>
       </c>
-      <c r="M97" s="67">
+      <c r="K97" s="67">
         <v>91</v>
       </c>
-      <c r="N97" s="67" t="s">
+      <c r="L97" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="98" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A98" s="71" t="s">
         <v>864</v>
       </c>
@@ -13825,24 +13166,22 @@
         <v>865</v>
       </c>
       <c r="H98" s="67" t="s">
-        <v>863</v>
-      </c>
-      <c r="I98" s="67" t="s">
-        <v>865</v>
-      </c>
-      <c r="J98" s="69"/>
-      <c r="K98" s="68" t="s">
+        <v>864</v>
+      </c>
+      <c r="I98" s="68" t="s">
         <v>867</v>
       </c>
-      <c r="L98" s="70" t="s">
+      <c r="J98" s="70" t="s">
         <v>868</v>
       </c>
-      <c r="M98" s="69"/>
-      <c r="N98" s="67" t="s">
+      <c r="K98" s="67">
+        <v>96</v>
+      </c>
+      <c r="L98" s="67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="99" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A99" s="71" t="s">
         <v>870</v>
       </c>
@@ -13865,24 +13204,22 @@
         <v>2149</v>
       </c>
       <c r="H99" s="67" t="s">
-        <v>869</v>
-      </c>
-      <c r="I99" s="67" t="s">
-        <v>871</v>
-      </c>
-      <c r="J99" s="69"/>
-      <c r="K99" s="68" t="s">
+        <v>870</v>
+      </c>
+      <c r="I99" s="68" t="s">
         <v>873</v>
       </c>
-      <c r="L99" s="70" t="s">
+      <c r="J99" s="70" t="s">
         <v>874</v>
       </c>
-      <c r="M99" s="69"/>
-      <c r="N99" s="67" t="s">
+      <c r="K99" s="67">
+        <v>92</v>
+      </c>
+      <c r="L99" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="100" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A100" s="71" t="s">
         <v>876</v>
       </c>
@@ -13905,28 +13242,22 @@
         <v>875</v>
       </c>
       <c r="H100" s="67" t="s">
-        <v>875</v>
-      </c>
-      <c r="I100" s="67" t="s">
-        <v>875</v>
-      </c>
-      <c r="J100" s="67" t="s">
         <v>876</v>
       </c>
-      <c r="K100" s="68" t="s">
+      <c r="I100" s="68" t="s">
         <v>881</v>
       </c>
-      <c r="L100" s="70" t="s">
+      <c r="J100" s="70" t="s">
         <v>882</v>
       </c>
-      <c r="M100" s="67">
+      <c r="K100" s="67">
         <v>95</v>
       </c>
-      <c r="N100" s="67" t="s">
+      <c r="L100" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="101" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A101" s="71" t="s">
         <v>884</v>
       </c>
@@ -13949,28 +13280,22 @@
         <v>889</v>
       </c>
       <c r="H101" s="67" t="s">
-        <v>883</v>
-      </c>
-      <c r="I101" s="67" t="s">
-        <v>883</v>
-      </c>
-      <c r="J101" s="67" t="s">
         <v>884</v>
       </c>
-      <c r="K101" s="68" t="s">
+      <c r="I101" s="68" t="s">
         <v>891</v>
       </c>
-      <c r="L101" s="70" t="s">
+      <c r="J101" s="70" t="s">
         <v>892</v>
       </c>
-      <c r="M101" s="67">
+      <c r="K101" s="67">
         <v>98</v>
       </c>
-      <c r="N101" s="67" t="s">
+      <c r="L101" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="102" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A102" s="71" t="s">
         <v>894</v>
       </c>
@@ -13993,28 +13318,22 @@
         <v>899</v>
       </c>
       <c r="H102" s="67" t="s">
-        <v>893</v>
-      </c>
-      <c r="I102" s="67" t="s">
-        <v>893</v>
-      </c>
-      <c r="J102" s="67" t="s">
         <v>894</v>
       </c>
-      <c r="K102" s="68" t="s">
+      <c r="I102" s="68" t="s">
         <v>900</v>
       </c>
-      <c r="L102" s="70" t="s">
+      <c r="J102" s="70" t="s">
         <v>901</v>
       </c>
-      <c r="M102" s="67">
+      <c r="K102" s="67">
         <v>93</v>
       </c>
-      <c r="N102" s="67" t="s">
+      <c r="L102" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="103" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A103" s="71" t="s">
         <v>903</v>
       </c>
@@ -14037,28 +13356,22 @@
         <v>906</v>
       </c>
       <c r="H103" s="67" t="s">
-        <v>902</v>
-      </c>
-      <c r="I103" s="67" t="s">
-        <v>902</v>
-      </c>
-      <c r="J103" s="67" t="s">
         <v>903</v>
       </c>
-      <c r="K103" s="68" t="s">
+      <c r="I103" s="68" t="s">
         <v>908</v>
       </c>
-      <c r="L103" s="70" t="s">
+      <c r="J103" s="70" t="s">
         <v>909</v>
       </c>
-      <c r="M103" s="67">
+      <c r="K103" s="67">
         <v>97</v>
       </c>
-      <c r="N103" s="67" t="s">
+      <c r="L103" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="104" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A104" s="71" t="s">
         <v>911</v>
       </c>
@@ -14081,28 +13394,22 @@
         <v>915</v>
       </c>
       <c r="H104" s="67" t="s">
-        <v>910</v>
-      </c>
-      <c r="I104" s="67" t="s">
-        <v>910</v>
-      </c>
-      <c r="J104" s="67" t="s">
         <v>911</v>
       </c>
-      <c r="K104" s="68" t="s">
+      <c r="I104" s="68" t="s">
         <v>919</v>
       </c>
-      <c r="L104" s="70" t="s">
+      <c r="J104" s="70" t="s">
         <v>920</v>
       </c>
-      <c r="M104" s="67">
+      <c r="K104" s="67">
         <v>101</v>
       </c>
-      <c r="N104" s="67" t="s">
+      <c r="L104" s="67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="105" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A105" s="71" t="s">
         <v>922</v>
       </c>
@@ -14125,24 +13432,22 @@
         <v>2151</v>
       </c>
       <c r="H105" s="67" t="s">
-        <v>921</v>
-      </c>
-      <c r="I105" s="67" t="s">
-        <v>921</v>
-      </c>
-      <c r="J105" s="69"/>
-      <c r="K105" s="68" t="s">
+        <v>922</v>
+      </c>
+      <c r="I105" s="68" t="s">
         <v>924</v>
       </c>
-      <c r="L105" s="70" t="s">
+      <c r="J105" s="70" t="s">
         <v>925</v>
       </c>
-      <c r="M105" s="69"/>
-      <c r="N105" s="67" t="s">
+      <c r="K105" s="67">
+        <v>264</v>
+      </c>
+      <c r="L105" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="106" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A106" s="71" t="s">
         <v>928</v>
       </c>
@@ -14165,28 +13470,22 @@
         <v>932</v>
       </c>
       <c r="H106" s="67" t="s">
-        <v>927</v>
-      </c>
-      <c r="I106" s="67" t="s">
-        <v>927</v>
-      </c>
-      <c r="J106" s="67" t="s">
         <v>928</v>
       </c>
-      <c r="K106" s="68" t="s">
+      <c r="I106" s="68" t="s">
         <v>933</v>
       </c>
-      <c r="L106" s="70" t="s">
+      <c r="J106" s="70" t="s">
         <v>934</v>
       </c>
-      <c r="M106" s="67">
+      <c r="K106" s="67">
         <v>100</v>
       </c>
-      <c r="N106" s="67" t="s">
+      <c r="L106" s="67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="107" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A107" s="71" t="s">
         <v>935</v>
       </c>
@@ -14209,24 +13508,22 @@
         <v>2153</v>
       </c>
       <c r="H107" s="67" t="s">
-        <v>936</v>
-      </c>
-      <c r="I107" s="67" t="s">
-        <v>936</v>
-      </c>
-      <c r="J107" s="69"/>
-      <c r="K107" s="68" t="s">
+        <v>935</v>
+      </c>
+      <c r="I107" s="68" t="s">
         <v>938</v>
       </c>
-      <c r="L107" s="70" t="s">
+      <c r="J107" s="70" t="s">
         <v>939</v>
       </c>
-      <c r="M107" s="69"/>
-      <c r="N107" s="67" t="s">
+      <c r="K107" s="67">
+        <v>24</v>
+      </c>
+      <c r="L107" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="108" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A108" s="71" t="s">
         <v>941</v>
       </c>
@@ -14249,28 +13546,22 @@
         <v>944</v>
       </c>
       <c r="H108" s="67" t="s">
-        <v>940</v>
-      </c>
-      <c r="I108" s="67" t="s">
-        <v>940</v>
-      </c>
-      <c r="J108" s="67" t="s">
         <v>941</v>
       </c>
-      <c r="K108" s="68" t="s">
+      <c r="I108" s="68" t="s">
         <v>946</v>
       </c>
-      <c r="L108" s="70" t="s">
+      <c r="J108" s="70" t="s">
         <v>947</v>
       </c>
-      <c r="M108" s="67">
+      <c r="K108" s="67">
         <v>104</v>
       </c>
-      <c r="N108" s="67" t="s">
+      <c r="L108" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="109" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A109" s="71" t="s">
         <v>949</v>
       </c>
@@ -14293,28 +13584,22 @@
         <v>948</v>
       </c>
       <c r="H109" s="67" t="s">
-        <v>948</v>
-      </c>
-      <c r="I109" s="67" t="s">
-        <v>948</v>
-      </c>
-      <c r="J109" s="67" t="s">
         <v>949</v>
       </c>
-      <c r="K109" s="68" t="s">
+      <c r="I109" s="68" t="s">
         <v>954</v>
       </c>
-      <c r="L109" s="70" t="s">
+      <c r="J109" s="70" t="s">
         <v>955</v>
       </c>
-      <c r="M109" s="67">
+      <c r="K109" s="67">
         <v>102</v>
       </c>
-      <c r="N109" s="67" t="s">
+      <c r="L109" s="67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="110" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A110" s="71" t="s">
         <v>957</v>
       </c>
@@ -14337,28 +13622,22 @@
         <v>956</v>
       </c>
       <c r="H110" s="67" t="s">
-        <v>956</v>
-      </c>
-      <c r="I110" s="67" t="s">
-        <v>956</v>
-      </c>
-      <c r="J110" s="67" t="s">
         <v>957</v>
       </c>
-      <c r="K110" s="68" t="s">
+      <c r="I110" s="68" t="s">
         <v>962</v>
       </c>
-      <c r="L110" s="70" t="s">
+      <c r="J110" s="70" t="s">
         <v>963</v>
       </c>
-      <c r="M110" s="67">
+      <c r="K110" s="67">
         <v>103</v>
       </c>
-      <c r="N110" s="67" t="s">
+      <c r="L110" s="67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="111" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A111" s="71" t="s">
         <v>965</v>
       </c>
@@ -14381,28 +13660,22 @@
         <v>970</v>
       </c>
       <c r="H111" s="67" t="s">
-        <v>964</v>
-      </c>
-      <c r="I111" s="67" t="s">
-        <v>964</v>
-      </c>
-      <c r="J111" s="67" t="s">
         <v>965</v>
       </c>
-      <c r="K111" s="68" t="s">
+      <c r="I111" s="68" t="s">
         <v>971</v>
       </c>
-      <c r="L111" s="70" t="s">
+      <c r="J111" s="70" t="s">
         <v>972</v>
       </c>
-      <c r="M111" s="67">
+      <c r="K111" s="67">
         <v>99</v>
       </c>
-      <c r="N111" s="67" t="s">
+      <c r="L111" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="112" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A112" s="71" t="s">
         <v>974</v>
       </c>
@@ -14425,28 +13698,22 @@
         <v>978</v>
       </c>
       <c r="H112" s="67" t="s">
-        <v>973</v>
-      </c>
-      <c r="I112" s="67" t="s">
-        <v>973</v>
-      </c>
-      <c r="J112" s="67" t="s">
         <v>974</v>
       </c>
-      <c r="K112" s="68" t="s">
+      <c r="I112" s="68" t="s">
         <v>980</v>
       </c>
-      <c r="L112" s="70" t="s">
+      <c r="J112" s="70" t="s">
         <v>981</v>
       </c>
-      <c r="M112" s="67">
+      <c r="K112" s="67">
         <v>105</v>
       </c>
-      <c r="N112" s="67" t="s">
+      <c r="L112" s="67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="113" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A113" s="71" t="s">
         <v>983</v>
       </c>
@@ -14469,28 +13736,22 @@
         <v>988</v>
       </c>
       <c r="H113" s="67" t="s">
-        <v>982</v>
-      </c>
-      <c r="I113" s="67" t="s">
-        <v>982</v>
-      </c>
-      <c r="J113" s="67" t="s">
         <v>983</v>
       </c>
-      <c r="K113" s="68" t="s">
+      <c r="I113" s="68" t="s">
         <v>990</v>
       </c>
-      <c r="L113" s="70" t="s">
+      <c r="J113" s="70" t="s">
         <v>991</v>
       </c>
-      <c r="M113" s="67">
+      <c r="K113" s="67">
         <v>106</v>
       </c>
-      <c r="N113" s="67" t="s">
+      <c r="L113" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="114" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A114" s="71" t="s">
         <v>993</v>
       </c>
@@ -14513,28 +13774,22 @@
         <v>995</v>
       </c>
       <c r="H114" s="67" t="s">
-        <v>992</v>
-      </c>
-      <c r="I114" s="67" t="s">
-        <v>992</v>
-      </c>
-      <c r="J114" s="67" t="s">
         <v>993</v>
       </c>
-      <c r="K114" s="68" t="s">
+      <c r="I114" s="68" t="s">
         <v>998</v>
       </c>
-      <c r="L114" s="70" t="s">
+      <c r="J114" s="70" t="s">
         <v>999</v>
       </c>
-      <c r="M114" s="67">
+      <c r="K114" s="67">
         <v>109</v>
       </c>
-      <c r="N114" s="67" t="s">
+      <c r="L114" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="115" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A115" s="71" t="s">
         <v>1001</v>
       </c>
@@ -14557,24 +13812,22 @@
         <v>1000</v>
       </c>
       <c r="H115" s="67" t="s">
-        <v>1000</v>
-      </c>
-      <c r="I115" s="67" t="s">
-        <v>1000</v>
-      </c>
-      <c r="J115" s="69"/>
-      <c r="K115" s="68" t="s">
+        <v>1001</v>
+      </c>
+      <c r="I115" s="68" t="s">
         <v>1003</v>
       </c>
-      <c r="L115" s="70" t="s">
+      <c r="J115" s="70" t="s">
         <v>1004</v>
       </c>
-      <c r="M115" s="69"/>
-      <c r="N115" s="67" t="s">
+      <c r="K115" s="67">
+        <v>283</v>
+      </c>
+      <c r="L115" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="116" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A116" s="71" t="s">
         <v>1006</v>
       </c>
@@ -14597,28 +13850,22 @@
         <v>1011</v>
       </c>
       <c r="H116" s="67" t="s">
-        <v>1005</v>
-      </c>
-      <c r="I116" s="67" t="s">
-        <v>1005</v>
-      </c>
-      <c r="J116" s="67" t="s">
         <v>1006</v>
       </c>
-      <c r="K116" s="68" t="s">
+      <c r="I116" s="68" t="s">
         <v>1013</v>
       </c>
-      <c r="L116" s="70" t="s">
+      <c r="J116" s="70" t="s">
         <v>1014</v>
       </c>
-      <c r="M116" s="67">
+      <c r="K116" s="67">
         <v>112</v>
       </c>
-      <c r="N116" s="67" t="s">
+      <c r="L116" s="67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="117" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A117" s="71" t="s">
         <v>1016</v>
       </c>
@@ -14641,28 +13888,22 @@
         <v>1020</v>
       </c>
       <c r="H117" s="67" t="s">
-        <v>1015</v>
-      </c>
-      <c r="I117" s="67" t="s">
-        <v>1015</v>
-      </c>
-      <c r="J117" s="67" t="s">
         <v>1016</v>
       </c>
-      <c r="K117" s="68" t="s">
+      <c r="I117" s="68" t="s">
         <v>1021</v>
       </c>
-      <c r="L117" s="70" t="s">
+      <c r="J117" s="70" t="s">
         <v>1022</v>
       </c>
-      <c r="M117" s="67">
+      <c r="K117" s="67">
         <v>110</v>
       </c>
-      <c r="N117" s="67" t="s">
+      <c r="L117" s="67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="118" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A118" s="71" t="s">
         <v>1025</v>
       </c>
@@ -14685,28 +13926,22 @@
         <v>1024</v>
       </c>
       <c r="H118" s="67" t="s">
-        <v>1024</v>
-      </c>
-      <c r="I118" s="67" t="s">
-        <v>1024</v>
-      </c>
-      <c r="J118" s="67" t="s">
         <v>1025</v>
       </c>
-      <c r="K118" s="68" t="s">
+      <c r="I118" s="68" t="s">
         <v>1031</v>
       </c>
-      <c r="L118" s="70" t="s">
+      <c r="J118" s="70" t="s">
         <v>1032</v>
       </c>
-      <c r="M118" s="67">
+      <c r="K118" s="67">
         <v>108</v>
       </c>
-      <c r="N118" s="67" t="s">
+      <c r="L118" s="67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="119" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A119" s="71" t="s">
         <v>1035</v>
       </c>
@@ -14729,28 +13964,22 @@
         <v>1034</v>
       </c>
       <c r="H119" s="67" t="s">
-        <v>1034</v>
-      </c>
-      <c r="I119" s="67" t="s">
-        <v>1034</v>
-      </c>
-      <c r="J119" s="67" t="s">
         <v>1035</v>
       </c>
-      <c r="K119" s="68" t="s">
+      <c r="I119" s="68" t="s">
         <v>1040</v>
       </c>
-      <c r="L119" s="70" t="s">
+      <c r="J119" s="70" t="s">
         <v>1041</v>
       </c>
-      <c r="M119" s="67">
+      <c r="K119" s="67">
         <v>114</v>
       </c>
-      <c r="N119" s="67" t="s">
+      <c r="L119" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="120" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A120" s="71" t="s">
         <v>1043</v>
       </c>
@@ -14773,28 +14002,22 @@
         <v>1048</v>
       </c>
       <c r="H120" s="67" t="s">
-        <v>1042</v>
-      </c>
-      <c r="I120" s="67" t="s">
-        <v>1042</v>
-      </c>
-      <c r="J120" s="67" t="s">
         <v>1043</v>
       </c>
-      <c r="K120" s="68" t="s">
+      <c r="I120" s="68" t="s">
         <v>1050</v>
       </c>
-      <c r="L120" s="70" t="s">
+      <c r="J120" s="70" t="s">
         <v>1051</v>
       </c>
-      <c r="M120" s="67">
+      <c r="K120" s="67">
         <v>113</v>
       </c>
-      <c r="N120" s="67" t="s">
+      <c r="L120" s="67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="121" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A121" s="71" t="s">
         <v>1053</v>
       </c>
@@ -14817,28 +14040,22 @@
         <v>1058</v>
       </c>
       <c r="H121" s="67" t="s">
-        <v>1052</v>
-      </c>
-      <c r="I121" s="67" t="s">
-        <v>1052</v>
-      </c>
-      <c r="J121" s="67" t="s">
         <v>1053</v>
       </c>
-      <c r="K121" s="68" t="s">
+      <c r="I121" s="68" t="s">
         <v>1060</v>
       </c>
-      <c r="L121" s="70" t="s">
+      <c r="J121" s="70" t="s">
         <v>1061</v>
       </c>
-      <c r="M121" s="67">
+      <c r="K121" s="67">
         <v>115</v>
       </c>
-      <c r="N121" s="67" t="s">
+      <c r="L121" s="67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="122" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A122" s="71" t="s">
         <v>1063</v>
       </c>
@@ -14861,28 +14078,22 @@
         <v>1062</v>
       </c>
       <c r="H122" s="67" t="s">
-        <v>1062</v>
-      </c>
-      <c r="I122" s="67" t="s">
-        <v>1062</v>
-      </c>
-      <c r="J122" s="67" t="s">
         <v>1063</v>
       </c>
-      <c r="K122" s="68" t="s">
+      <c r="I122" s="68" t="s">
         <v>1068</v>
       </c>
-      <c r="L122" s="70" t="s">
+      <c r="J122" s="70" t="s">
         <v>1069</v>
       </c>
-      <c r="M122" s="67">
+      <c r="K122" s="67">
         <v>83</v>
       </c>
-      <c r="N122" s="67" t="s">
+      <c r="L122" s="67" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="123" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A123" s="71" t="s">
         <v>1071</v>
       </c>
@@ -14905,28 +14116,22 @@
         <v>1073</v>
       </c>
       <c r="H123" s="67" t="s">
-        <v>1070</v>
-      </c>
-      <c r="I123" s="67" t="s">
-        <v>1070</v>
-      </c>
-      <c r="J123" s="67" t="s">
         <v>1071</v>
       </c>
-      <c r="K123" s="68" t="s">
+      <c r="I123" s="68" t="s">
         <v>1075</v>
       </c>
-      <c r="L123" s="70" t="s">
+      <c r="J123" s="70" t="s">
         <v>1076</v>
       </c>
-      <c r="M123" s="67">
+      <c r="K123" s="67">
         <v>188</v>
       </c>
-      <c r="N123" s="67" t="s">
+      <c r="L123" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="124" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A124" s="71" t="s">
         <v>1078</v>
       </c>
@@ -14949,28 +14154,22 @@
         <v>1083</v>
       </c>
       <c r="H124" s="67" t="s">
-        <v>1077</v>
-      </c>
-      <c r="I124" s="67" t="s">
-        <v>1084</v>
-      </c>
-      <c r="J124" s="67" t="s">
         <v>1078</v>
       </c>
-      <c r="K124" s="68" t="s">
+      <c r="I124" s="68" t="s">
         <v>1086</v>
       </c>
-      <c r="L124" s="70" t="s">
+      <c r="J124" s="70" t="s">
         <v>1087</v>
       </c>
-      <c r="M124" s="67">
+      <c r="K124" s="67">
         <v>117</v>
       </c>
-      <c r="N124" s="67" t="s">
+      <c r="L124" s="67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="125" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A125" s="71" t="s">
         <v>1090</v>
       </c>
@@ -14993,28 +14192,22 @@
         <v>1094</v>
       </c>
       <c r="H125" s="67" t="s">
-        <v>1089</v>
-      </c>
-      <c r="I125" s="67" t="s">
-        <v>1089</v>
-      </c>
-      <c r="J125" s="67" t="s">
         <v>1090</v>
       </c>
-      <c r="K125" s="68" t="s">
+      <c r="I125" s="68" t="s">
         <v>1096</v>
       </c>
-      <c r="L125" s="70" t="s">
+      <c r="J125" s="70" t="s">
         <v>1097</v>
       </c>
-      <c r="M125" s="67">
+      <c r="K125" s="67">
         <v>118</v>
       </c>
-      <c r="N125" s="67" t="s">
+      <c r="L125" s="67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="126" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A126" s="71" t="s">
         <v>1099</v>
       </c>
@@ -15037,28 +14230,22 @@
         <v>1102</v>
       </c>
       <c r="H126" s="67" t="s">
-        <v>1098</v>
-      </c>
-      <c r="I126" s="67" t="s">
-        <v>1104</v>
-      </c>
-      <c r="J126" s="67" t="s">
         <v>1099</v>
       </c>
-      <c r="K126" s="68" t="s">
+      <c r="I126" s="68" t="s">
         <v>1105</v>
       </c>
-      <c r="L126" s="70" t="s">
+      <c r="J126" s="70" t="s">
         <v>1106</v>
       </c>
-      <c r="M126" s="67">
+      <c r="K126" s="67">
         <v>120</v>
       </c>
-      <c r="N126" s="67" t="s">
+      <c r="L126" s="67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="127" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A127" s="71" t="s">
         <v>1108</v>
       </c>
@@ -15081,28 +14268,22 @@
         <v>1113</v>
       </c>
       <c r="H127" s="67" t="s">
-        <v>1107</v>
-      </c>
-      <c r="I127" s="67" t="s">
-        <v>1107</v>
-      </c>
-      <c r="J127" s="67" t="s">
         <v>1108</v>
       </c>
-      <c r="K127" s="68" t="s">
+      <c r="I127" s="68" t="s">
         <v>1115</v>
       </c>
-      <c r="L127" s="70" t="s">
+      <c r="J127" s="70" t="s">
         <v>1116</v>
       </c>
-      <c r="M127" s="67">
+      <c r="K127" s="67">
         <v>121</v>
       </c>
-      <c r="N127" s="67" t="s">
+      <c r="L127" s="67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="128" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A128" s="71" t="s">
         <v>1118</v>
       </c>
@@ -15125,28 +14306,22 @@
         <v>1122</v>
       </c>
       <c r="H128" s="67" t="s">
-        <v>1117</v>
-      </c>
-      <c r="I128" s="67" t="s">
-        <v>1117</v>
-      </c>
-      <c r="J128" s="67" t="s">
         <v>1118</v>
       </c>
-      <c r="K128" s="68" t="s">
+      <c r="I128" s="68" t="s">
         <v>1123</v>
       </c>
-      <c r="L128" s="70" t="s">
+      <c r="J128" s="70" t="s">
         <v>1124</v>
       </c>
-      <c r="M128" s="67">
+      <c r="K128" s="67">
         <v>123</v>
       </c>
-      <c r="N128" s="67" t="s">
+      <c r="L128" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="129" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A129" s="71" t="s">
         <v>1126</v>
       </c>
@@ -15169,28 +14344,22 @@
         <v>1128</v>
       </c>
       <c r="H129" s="67" t="s">
-        <v>1125</v>
-      </c>
-      <c r="I129" s="67" t="s">
-        <v>1125</v>
-      </c>
-      <c r="J129" s="67" t="s">
         <v>1126</v>
       </c>
-      <c r="K129" s="68" t="s">
+      <c r="I129" s="68" t="s">
         <v>1129</v>
       </c>
-      <c r="L129" s="70" t="s">
+      <c r="J129" s="70" t="s">
         <v>1130</v>
       </c>
-      <c r="M129" s="67">
+      <c r="K129" s="67">
         <v>124</v>
       </c>
-      <c r="N129" s="67" t="s">
+      <c r="L129" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="130" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A130" s="71" t="s">
         <v>1132</v>
       </c>
@@ -15213,28 +14382,22 @@
         <v>1134</v>
       </c>
       <c r="H130" s="67" t="s">
-        <v>1131</v>
-      </c>
-      <c r="I130" s="67" t="s">
-        <v>1131</v>
-      </c>
-      <c r="J130" s="67" t="s">
         <v>1132</v>
       </c>
-      <c r="K130" s="68" t="s">
+      <c r="I130" s="68" t="s">
         <v>1136</v>
       </c>
-      <c r="L130" s="70" t="s">
+      <c r="J130" s="70" t="s">
         <v>1137</v>
       </c>
-      <c r="M130" s="67">
+      <c r="K130" s="67">
         <v>189</v>
       </c>
-      <c r="N130" s="67" t="s">
+      <c r="L130" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="131" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A131" s="71" t="s">
         <v>1139</v>
       </c>
@@ -15257,28 +14420,22 @@
         <v>1138</v>
       </c>
       <c r="H131" s="67" t="s">
-        <v>1138</v>
-      </c>
-      <c r="I131" s="67" t="s">
-        <v>1138</v>
-      </c>
-      <c r="J131" s="67" t="s">
         <v>1139</v>
       </c>
-      <c r="K131" s="68" t="s">
+      <c r="I131" s="68" t="s">
         <v>1145</v>
       </c>
-      <c r="L131" s="70" t="s">
+      <c r="J131" s="70" t="s">
         <v>1146</v>
       </c>
-      <c r="M131" s="67">
+      <c r="K131" s="67">
         <v>125</v>
       </c>
-      <c r="N131" s="67" t="s">
+      <c r="L131" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="132" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A132" s="71" t="s">
         <v>1148</v>
       </c>
@@ -15301,28 +14458,22 @@
         <v>1147</v>
       </c>
       <c r="H132" s="67" t="s">
-        <v>1147</v>
-      </c>
-      <c r="I132" s="67" t="s">
-        <v>1147</v>
-      </c>
-      <c r="J132" s="67" t="s">
         <v>1148</v>
       </c>
-      <c r="K132" s="68" t="s">
+      <c r="I132" s="68" t="s">
         <v>1153</v>
       </c>
-      <c r="L132" s="70" t="s">
+      <c r="J132" s="70" t="s">
         <v>1154</v>
       </c>
-      <c r="M132" s="67">
+      <c r="K132" s="67">
         <v>38</v>
       </c>
-      <c r="N132" s="67" t="s">
+      <c r="L132" s="67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="133" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A133" s="71" t="s">
         <v>1156</v>
       </c>
@@ -15345,28 +14496,22 @@
         <v>1155</v>
       </c>
       <c r="H133" s="67" t="s">
-        <v>1155</v>
-      </c>
-      <c r="I133" s="67" t="s">
-        <v>1155</v>
-      </c>
-      <c r="J133" s="67" t="s">
         <v>1156</v>
       </c>
-      <c r="K133" s="68" t="s">
+      <c r="I133" s="68" t="s">
         <v>1161</v>
       </c>
-      <c r="L133" s="70" t="s">
+      <c r="J133" s="70" t="s">
         <v>1162</v>
       </c>
-      <c r="M133" s="67">
+      <c r="K133" s="67">
         <v>122</v>
       </c>
-      <c r="N133" s="67" t="s">
+      <c r="L133" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="134" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A134" s="71" t="s">
         <v>1164</v>
       </c>
@@ -15389,28 +14534,22 @@
         <v>1169</v>
       </c>
       <c r="H134" s="67" t="s">
-        <v>1163</v>
-      </c>
-      <c r="I134" s="67" t="s">
-        <v>1163</v>
-      </c>
-      <c r="J134" s="67" t="s">
         <v>1164</v>
       </c>
-      <c r="K134" s="68" t="s">
+      <c r="I134" s="68" t="s">
         <v>1171</v>
       </c>
-      <c r="L134" s="70" t="s">
+      <c r="J134" s="70" t="s">
         <v>1172</v>
       </c>
-      <c r="M134" s="67">
+      <c r="K134" s="67">
         <v>126</v>
       </c>
-      <c r="N134" s="67" t="s">
+      <c r="L134" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="135" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A135" s="71" t="s">
         <v>1174</v>
       </c>
@@ -15433,28 +14572,22 @@
         <v>1173</v>
       </c>
       <c r="H135" s="67" t="s">
-        <v>1173</v>
-      </c>
-      <c r="I135" s="67" t="s">
-        <v>1173</v>
-      </c>
-      <c r="J135" s="67" t="s">
         <v>1174</v>
       </c>
-      <c r="K135" s="68" t="s">
+      <c r="I135" s="68" t="s">
         <v>1181</v>
       </c>
-      <c r="L135" s="70" t="s">
+      <c r="J135" s="70" t="s">
         <v>1182</v>
       </c>
-      <c r="M135" s="67">
+      <c r="K135" s="67">
         <v>256</v>
       </c>
-      <c r="N135" s="67" t="s">
+      <c r="L135" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="136" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A136" s="71" t="s">
         <v>1184</v>
       </c>
@@ -15477,28 +14610,22 @@
         <v>1189</v>
       </c>
       <c r="H136" s="67" t="s">
-        <v>1183</v>
-      </c>
-      <c r="I136" s="67" t="s">
-        <v>1183</v>
-      </c>
-      <c r="J136" s="67" t="s">
         <v>1184</v>
       </c>
-      <c r="K136" s="68" t="s">
+      <c r="I136" s="68" t="s">
         <v>1191</v>
       </c>
-      <c r="L136" s="70" t="s">
+      <c r="J136" s="70" t="s">
         <v>1192</v>
       </c>
-      <c r="M136" s="67">
+      <c r="K136" s="67">
         <v>119</v>
       </c>
-      <c r="N136" s="67" t="s">
+      <c r="L136" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="137" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A137" s="71" t="s">
         <v>1194</v>
       </c>
@@ -15521,24 +14648,22 @@
         <v>1195</v>
       </c>
       <c r="H137" s="67" t="s">
-        <v>1193</v>
-      </c>
-      <c r="I137" s="67" t="s">
-        <v>1195</v>
-      </c>
-      <c r="J137" s="69"/>
-      <c r="K137" s="68" t="s">
+        <v>1194</v>
+      </c>
+      <c r="I137" s="68" t="s">
         <v>1197</v>
       </c>
-      <c r="L137" s="70" t="s">
+      <c r="J137" s="70" t="s">
         <v>1198</v>
       </c>
-      <c r="M137" s="69"/>
-      <c r="N137" s="67" t="s">
+      <c r="K137" s="67">
+        <v>128</v>
+      </c>
+      <c r="L137" s="67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="138" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A138" s="71" t="s">
         <v>1200</v>
       </c>
@@ -15561,24 +14686,22 @@
         <v>1203</v>
       </c>
       <c r="H138" s="67" t="s">
-        <v>1199</v>
-      </c>
-      <c r="I138" s="67" t="s">
-        <v>1203</v>
-      </c>
-      <c r="J138" s="69"/>
-      <c r="K138" s="68" t="s">
+        <v>1200</v>
+      </c>
+      <c r="I138" s="68" t="s">
         <v>1206</v>
       </c>
-      <c r="L138" s="70" t="s">
+      <c r="J138" s="70" t="s">
         <v>1207</v>
       </c>
-      <c r="M138" s="69"/>
-      <c r="N138" s="67" t="s">
+      <c r="K138" s="67">
+        <v>281</v>
+      </c>
+      <c r="L138" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="139" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A139" s="71" t="s">
         <v>1209</v>
       </c>
@@ -15601,28 +14724,22 @@
         <v>1214</v>
       </c>
       <c r="H139" s="67" t="s">
-        <v>1208</v>
-      </c>
-      <c r="I139" s="67" t="s">
-        <v>1208</v>
-      </c>
-      <c r="J139" s="67" t="s">
         <v>1209</v>
       </c>
-      <c r="K139" s="68" t="s">
+      <c r="I139" s="68" t="s">
         <v>1216</v>
       </c>
-      <c r="L139" s="70" t="s">
+      <c r="J139" s="70" t="s">
         <v>1217</v>
       </c>
-      <c r="M139" s="67">
+      <c r="K139" s="67">
         <v>143</v>
       </c>
-      <c r="N139" s="67" t="s">
+      <c r="L139" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="140" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A140" s="71" t="s">
         <v>1219</v>
       </c>
@@ -15645,28 +14762,22 @@
         <v>1218</v>
       </c>
       <c r="H140" s="67" t="s">
-        <v>1218</v>
-      </c>
-      <c r="I140" s="67" t="s">
-        <v>1218</v>
-      </c>
-      <c r="J140" s="67" t="s">
         <v>1219</v>
       </c>
-      <c r="K140" s="68" t="s">
+      <c r="I140" s="68" t="s">
         <v>1225</v>
       </c>
-      <c r="L140" s="70" t="s">
+      <c r="J140" s="70" t="s">
         <v>1226</v>
       </c>
-      <c r="M140" s="67">
+      <c r="K140" s="67">
         <v>140</v>
       </c>
-      <c r="N140" s="67" t="s">
+      <c r="L140" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="141" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A141" s="71" t="s">
         <v>1228</v>
       </c>
@@ -15689,28 +14800,22 @@
         <v>1227</v>
       </c>
       <c r="H141" s="67" t="s">
-        <v>1227</v>
-      </c>
-      <c r="I141" s="67" t="s">
-        <v>1227</v>
-      </c>
-      <c r="J141" s="67" t="s">
         <v>1228</v>
       </c>
-      <c r="K141" s="68" t="s">
+      <c r="I141" s="68" t="s">
         <v>1233</v>
       </c>
-      <c r="L141" s="70" t="s">
+      <c r="J141" s="70" t="s">
         <v>1234</v>
       </c>
-      <c r="M141" s="67">
+      <c r="K141" s="67">
         <v>146</v>
       </c>
-      <c r="N141" s="67" t="s">
+      <c r="L141" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="142" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A142" s="71" t="s">
         <v>1236</v>
       </c>
@@ -15733,28 +14838,22 @@
         <v>1235</v>
       </c>
       <c r="H142" s="67" t="s">
-        <v>1235</v>
-      </c>
-      <c r="I142" s="67" t="s">
-        <v>1235</v>
-      </c>
-      <c r="J142" s="67" t="s">
         <v>1236</v>
       </c>
-      <c r="K142" s="68" t="s">
+      <c r="I142" s="68" t="s">
         <v>1241</v>
       </c>
-      <c r="L142" s="70" t="s">
+      <c r="J142" s="70" t="s">
         <v>1242</v>
       </c>
-      <c r="M142" s="67">
+      <c r="K142" s="67">
         <v>129</v>
       </c>
-      <c r="N142" s="67" t="s">
+      <c r="L142" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="143" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A143" s="71" t="s">
         <v>1244</v>
       </c>
@@ -15777,28 +14876,22 @@
         <v>1243</v>
       </c>
       <c r="H143" s="67" t="s">
-        <v>1243</v>
-      </c>
-      <c r="I143" s="67" t="s">
-        <v>1243</v>
-      </c>
-      <c r="J143" s="67" t="s">
         <v>1244</v>
       </c>
-      <c r="K143" s="68" t="s">
+      <c r="I143" s="68" t="s">
         <v>1250</v>
       </c>
-      <c r="L143" s="70" t="s">
+      <c r="J143" s="70" t="s">
         <v>1251</v>
       </c>
-      <c r="M143" s="67">
+      <c r="K143" s="67">
         <v>132</v>
       </c>
-      <c r="N143" s="67" t="s">
+      <c r="L143" s="67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="144" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A144" s="71" t="s">
         <v>1254</v>
       </c>
@@ -15821,28 +14914,22 @@
         <v>1259</v>
       </c>
       <c r="H144" s="67" t="s">
-        <v>1253</v>
-      </c>
-      <c r="I144" s="67" t="s">
-        <v>1253</v>
-      </c>
-      <c r="J144" s="67" t="s">
         <v>1254</v>
       </c>
-      <c r="K144" s="68" t="s">
+      <c r="I144" s="68" t="s">
         <v>1261</v>
       </c>
-      <c r="L144" s="70" t="s">
+      <c r="J144" s="70" t="s">
         <v>1262</v>
       </c>
-      <c r="M144" s="67">
+      <c r="K144" s="67">
         <v>138</v>
       </c>
-      <c r="N144" s="67" t="s">
+      <c r="L144" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="145" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A145" s="71" t="s">
         <v>1264</v>
       </c>
@@ -15865,28 +14952,22 @@
         <v>1269</v>
       </c>
       <c r="H145" s="67" t="s">
-        <v>1263</v>
-      </c>
-      <c r="I145" s="67" t="s">
-        <v>1263</v>
-      </c>
-      <c r="J145" s="67" t="s">
         <v>1264</v>
       </c>
-      <c r="K145" s="68" t="s">
+      <c r="I145" s="68" t="s">
         <v>1271</v>
       </c>
-      <c r="L145" s="70" t="s">
+      <c r="J145" s="70" t="s">
         <v>1272</v>
       </c>
-      <c r="M145" s="67">
+      <c r="K145" s="67">
         <v>127</v>
       </c>
-      <c r="N145" s="67" t="s">
+      <c r="L145" s="67" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="146" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A146" s="71" t="s">
         <v>1274</v>
       </c>
@@ -15909,28 +14990,22 @@
         <v>1278</v>
       </c>
       <c r="H146" s="67" t="s">
-        <v>1273</v>
-      </c>
-      <c r="I146" s="67" t="s">
-        <v>1273</v>
-      </c>
-      <c r="J146" s="67" t="s">
         <v>1274</v>
       </c>
-      <c r="K146" s="68" t="s">
+      <c r="I146" s="68" t="s">
         <v>1280</v>
       </c>
-      <c r="L146" s="70" t="s">
+      <c r="J146" s="70" t="s">
         <v>1281</v>
       </c>
-      <c r="M146" s="67">
+      <c r="K146" s="67">
         <v>154</v>
       </c>
-      <c r="N146" s="67" t="s">
+      <c r="L146" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="147" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A147" s="71" t="s">
         <v>1283</v>
       </c>
@@ -15953,28 +15028,22 @@
         <v>1282</v>
       </c>
       <c r="H147" s="67" t="s">
-        <v>1282</v>
-      </c>
-      <c r="I147" s="67" t="s">
-        <v>1282</v>
-      </c>
-      <c r="J147" s="67" t="s">
         <v>1283</v>
       </c>
-      <c r="K147" s="68" t="s">
+      <c r="I147" s="68" t="s">
         <v>1288</v>
       </c>
-      <c r="L147" s="70" t="s">
+      <c r="J147" s="70" t="s">
         <v>1289</v>
       </c>
-      <c r="M147" s="67">
+      <c r="K147" s="67">
         <v>133</v>
       </c>
-      <c r="N147" s="67" t="s">
+      <c r="L147" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="148" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A148" s="71" t="s">
         <v>1291</v>
       </c>
@@ -15997,28 +15066,22 @@
         <v>1295</v>
       </c>
       <c r="H148" s="67" t="s">
-        <v>1290</v>
-      </c>
-      <c r="I148" s="67" t="s">
-        <v>1290</v>
-      </c>
-      <c r="J148" s="67" t="s">
         <v>1291</v>
       </c>
-      <c r="K148" s="68" t="s">
+      <c r="I148" s="68" t="s">
         <v>1297</v>
       </c>
-      <c r="L148" s="70" t="s">
+      <c r="J148" s="70" t="s">
         <v>1298</v>
       </c>
-      <c r="M148" s="67">
+      <c r="K148" s="67">
         <v>134</v>
       </c>
-      <c r="N148" s="67" t="s">
+      <c r="L148" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="149" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A149" s="71" t="s">
         <v>1300</v>
       </c>
@@ -16041,28 +15104,22 @@
         <v>1299</v>
       </c>
       <c r="H149" s="67" t="s">
-        <v>1299</v>
-      </c>
-      <c r="I149" s="67" t="s">
-        <v>1299</v>
-      </c>
-      <c r="J149" s="67" t="s">
         <v>1300</v>
       </c>
-      <c r="K149" s="68" t="s">
+      <c r="I149" s="68" t="s">
         <v>1305</v>
       </c>
-      <c r="L149" s="70" t="s">
+      <c r="J149" s="70" t="s">
         <v>1306</v>
       </c>
-      <c r="M149" s="67">
+      <c r="K149" s="67">
         <v>28</v>
       </c>
-      <c r="N149" s="67" t="s">
+      <c r="L149" s="67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="150" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A150" s="71" t="s">
         <v>1308</v>
       </c>
@@ -16085,28 +15142,22 @@
         <v>1310</v>
       </c>
       <c r="H150" s="67" t="s">
-        <v>1307</v>
-      </c>
-      <c r="I150" s="67" t="s">
-        <v>1307</v>
-      </c>
-      <c r="J150" s="67" t="s">
         <v>1308</v>
       </c>
-      <c r="K150" s="68" t="s">
+      <c r="I150" s="68" t="s">
         <v>1312</v>
       </c>
-      <c r="L150" s="70" t="s">
+      <c r="J150" s="70" t="s">
         <v>1313</v>
       </c>
-      <c r="M150" s="67">
+      <c r="K150" s="67">
         <v>273</v>
       </c>
-      <c r="N150" s="67" t="s">
+      <c r="L150" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="151" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A151" s="71" t="s">
         <v>1315</v>
       </c>
@@ -16129,28 +15180,22 @@
         <v>1317</v>
       </c>
       <c r="H151" s="67" t="s">
-        <v>1314</v>
-      </c>
-      <c r="I151" s="67" t="s">
-        <v>1314</v>
-      </c>
-      <c r="J151" s="67" t="s">
         <v>1315</v>
       </c>
-      <c r="K151" s="68" t="s">
+      <c r="I151" s="68" t="s">
         <v>1319</v>
       </c>
-      <c r="L151" s="70" t="s">
+      <c r="J151" s="70" t="s">
         <v>1320</v>
       </c>
-      <c r="M151" s="67">
+      <c r="K151" s="67">
         <v>141</v>
       </c>
-      <c r="N151" s="67" t="s">
+      <c r="L151" s="67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="152" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A152" s="71" t="s">
         <v>1322</v>
       </c>
@@ -16173,24 +15218,22 @@
         <v>2155</v>
       </c>
       <c r="H152" s="67" t="s">
-        <v>1321</v>
-      </c>
-      <c r="I152" s="67" t="s">
-        <v>1321</v>
-      </c>
-      <c r="J152" s="69"/>
-      <c r="K152" s="68" t="s">
+        <v>1322</v>
+      </c>
+      <c r="I152" s="68" t="s">
         <v>1324</v>
       </c>
-      <c r="L152" s="70" t="s">
+      <c r="J152" s="70" t="s">
         <v>1325</v>
       </c>
-      <c r="M152" s="69"/>
-      <c r="N152" s="67" t="s">
+      <c r="K152" s="67">
+        <v>163</v>
+      </c>
+      <c r="L152" s="67" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="153" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A153" s="71" t="s">
         <v>1327</v>
       </c>
@@ -16213,28 +15256,22 @@
         <v>1326</v>
       </c>
       <c r="H153" s="67" t="s">
-        <v>1326</v>
-      </c>
-      <c r="I153" s="67" t="s">
-        <v>1326</v>
-      </c>
-      <c r="J153" s="67" t="s">
         <v>1327</v>
       </c>
-      <c r="K153" s="68" t="s">
+      <c r="I153" s="68" t="s">
         <v>1332</v>
       </c>
-      <c r="L153" s="70" t="s">
+      <c r="J153" s="70" t="s">
         <v>1333</v>
       </c>
-      <c r="M153" s="67">
+      <c r="K153" s="67">
         <v>144</v>
       </c>
-      <c r="N153" s="67" t="s">
+      <c r="L153" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="154" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A154" s="71" t="s">
         <v>1335</v>
       </c>
@@ -16257,28 +15294,22 @@
         <v>1339</v>
       </c>
       <c r="H154" s="67" t="s">
-        <v>1334</v>
-      </c>
-      <c r="I154" s="67" t="s">
-        <v>1334</v>
-      </c>
-      <c r="J154" s="67" t="s">
         <v>1335</v>
       </c>
-      <c r="K154" s="68" t="s">
+      <c r="I154" s="68" t="s">
         <v>1341</v>
       </c>
-      <c r="L154" s="70" t="s">
+      <c r="J154" s="70" t="s">
         <v>1342</v>
       </c>
-      <c r="M154" s="67">
+      <c r="K154" s="67">
         <v>136</v>
       </c>
-      <c r="N154" s="67" t="s">
+      <c r="L154" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="155" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A155" s="71" t="s">
         <v>1344</v>
       </c>
@@ -16301,28 +15332,22 @@
         <v>1343</v>
       </c>
       <c r="H155" s="67" t="s">
-        <v>1343</v>
-      </c>
-      <c r="I155" s="67" t="s">
-        <v>1343</v>
-      </c>
-      <c r="J155" s="67" t="s">
         <v>1344</v>
       </c>
-      <c r="K155" s="68" t="s">
+      <c r="I155" s="68" t="s">
         <v>1346</v>
       </c>
-      <c r="L155" s="70" t="s">
+      <c r="J155" s="70" t="s">
         <v>1347</v>
       </c>
-      <c r="M155" s="67">
+      <c r="K155" s="67">
         <v>142</v>
       </c>
-      <c r="N155" s="67" t="s">
+      <c r="L155" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="156" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A156" s="71" t="s">
         <v>1348</v>
       </c>
@@ -16344,23 +15369,23 @@
       <c r="G156" s="67" t="s">
         <v>1349</v>
       </c>
-      <c r="J156" s="67" t="s">
+      <c r="H156" s="67" t="s">
         <v>1348</v>
       </c>
-      <c r="K156" s="68" t="s">
-        <v>2205</v>
-      </c>
-      <c r="L156" s="70" t="s">
-        <v>2218</v>
-      </c>
-      <c r="M156" s="67">
+      <c r="I156" s="68" t="s">
+        <v>2203</v>
+      </c>
+      <c r="J156" s="70" t="s">
+        <v>2216</v>
+      </c>
+      <c r="K156" s="67">
         <v>135</v>
       </c>
-      <c r="N156" s="67" t="s">
+      <c r="L156" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="157" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A157" s="71" t="s">
         <v>1353</v>
       </c>
@@ -16383,28 +15408,22 @@
         <v>1357</v>
       </c>
       <c r="H157" s="67" t="s">
-        <v>1352</v>
-      </c>
-      <c r="I157" s="67" t="s">
-        <v>1352</v>
-      </c>
-      <c r="J157" s="67" t="s">
         <v>1353</v>
       </c>
-      <c r="K157" s="68" t="s">
+      <c r="I157" s="68" t="s">
         <v>1359</v>
       </c>
-      <c r="L157" s="70" t="s">
+      <c r="J157" s="70" t="s">
         <v>1360</v>
       </c>
-      <c r="M157" s="67">
+      <c r="K157" s="67">
         <v>137</v>
       </c>
-      <c r="N157" s="67" t="s">
+      <c r="L157" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="158" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A158" s="71" t="s">
         <v>1362</v>
       </c>
@@ -16427,28 +15446,22 @@
         <v>1361</v>
       </c>
       <c r="H158" s="67" t="s">
-        <v>1361</v>
-      </c>
-      <c r="I158" s="67" t="s">
-        <v>1361</v>
-      </c>
-      <c r="J158" s="67" t="s">
         <v>1362</v>
       </c>
-      <c r="K158" s="68" t="s">
+      <c r="I158" s="68" t="s">
         <v>1367</v>
       </c>
-      <c r="L158" s="70" t="s">
+      <c r="J158" s="70" t="s">
         <v>1368</v>
       </c>
-      <c r="M158" s="67">
+      <c r="K158" s="67">
         <v>130</v>
       </c>
-      <c r="N158" s="67" t="s">
+      <c r="L158" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="159" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A159" s="71" t="s">
         <v>1370</v>
       </c>
@@ -16471,28 +15484,22 @@
         <v>1373</v>
       </c>
       <c r="H159" s="67" t="s">
-        <v>1369</v>
-      </c>
-      <c r="I159" s="67" t="s">
-        <v>1369</v>
-      </c>
-      <c r="J159" s="67" t="s">
         <v>1370</v>
       </c>
-      <c r="K159" s="68" t="s">
+      <c r="I159" s="68" t="s">
         <v>1375</v>
       </c>
-      <c r="L159" s="70" t="s">
+      <c r="J159" s="70" t="s">
         <v>1376</v>
       </c>
-      <c r="M159" s="67">
+      <c r="K159" s="67">
         <v>131</v>
       </c>
-      <c r="N159" s="67" t="s">
+      <c r="L159" s="67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="160" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A160" s="71" t="s">
         <v>2184</v>
       </c>
@@ -16514,16 +15521,23 @@
       <c r="G160" s="67" t="s">
         <v>2185</v>
       </c>
-      <c r="J160" s="69"/>
-      <c r="K160" s="68" t="s">
-        <v>2206</v>
-      </c>
-      <c r="L160" s="70" t="s">
-        <v>2219</v>
-      </c>
-      <c r="M160" s="69"/>
+      <c r="H160" s="67" t="s">
+        <v>2184</v>
+      </c>
+      <c r="I160" s="68" t="s">
+        <v>2204</v>
+      </c>
+      <c r="J160" s="70" t="s">
+        <v>2217</v>
+      </c>
+      <c r="K160" s="67">
+        <v>270</v>
+      </c>
+      <c r="L160" s="67" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="161" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A161" s="71" t="s">
         <v>1378</v>
       </c>
@@ -16546,28 +15560,22 @@
         <v>1382</v>
       </c>
       <c r="H161" s="67" t="s">
-        <v>1377</v>
-      </c>
-      <c r="I161" s="67" t="s">
-        <v>1377</v>
-      </c>
-      <c r="J161" s="67" t="s">
         <v>1378</v>
       </c>
-      <c r="K161" s="68" t="s">
+      <c r="I161" s="68" t="s">
         <v>1384</v>
       </c>
-      <c r="L161" s="70" t="s">
+      <c r="J161" s="70" t="s">
         <v>1385</v>
       </c>
-      <c r="M161" s="67">
+      <c r="K161" s="67">
         <v>147</v>
       </c>
-      <c r="N161" s="67" t="s">
+      <c r="L161" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="162" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A162" s="71" t="s">
         <v>1387</v>
       </c>
@@ -16590,28 +15598,22 @@
         <v>1390</v>
       </c>
       <c r="H162" s="67" t="s">
-        <v>1386</v>
-      </c>
-      <c r="I162" s="67" t="s">
-        <v>1386</v>
-      </c>
-      <c r="J162" s="67" t="s">
         <v>1387</v>
       </c>
-      <c r="K162" s="68" t="s">
+      <c r="I162" s="68" t="s">
         <v>1392</v>
       </c>
-      <c r="L162" s="70" t="s">
+      <c r="J162" s="70" t="s">
         <v>1393</v>
       </c>
-      <c r="M162" s="67">
+      <c r="K162" s="67">
         <v>153</v>
       </c>
-      <c r="N162" s="67" t="s">
+      <c r="L162" s="67" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="163" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A163" s="71" t="s">
         <v>1395</v>
       </c>
@@ -16634,28 +15636,22 @@
         <v>1394</v>
       </c>
       <c r="H163" s="67" t="s">
-        <v>1394</v>
-      </c>
-      <c r="I163" s="67" t="s">
-        <v>1394</v>
-      </c>
-      <c r="J163" s="67" t="s">
         <v>1395</v>
       </c>
-      <c r="K163" s="68" t="s">
+      <c r="I163" s="68" t="s">
         <v>1400</v>
       </c>
-      <c r="L163" s="70" t="s">
+      <c r="J163" s="70" t="s">
         <v>1401</v>
       </c>
-      <c r="M163" s="67">
+      <c r="K163" s="67">
         <v>158</v>
       </c>
-      <c r="N163" s="67" t="s">
+      <c r="L163" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="164" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A164" s="71" t="s">
         <v>1403</v>
       </c>
@@ -16678,26 +15674,22 @@
         <v>2157</v>
       </c>
       <c r="H164" s="67" t="s">
-        <v>1402</v>
-      </c>
-      <c r="I164" s="67" t="s">
-        <v>1402</v>
-      </c>
-      <c r="J164" s="69"/>
-      <c r="K164" s="68" t="s">
+        <v>1403</v>
+      </c>
+      <c r="I164" s="68" t="s">
         <v>1405</v>
       </c>
-      <c r="L164" s="70" t="s">
+      <c r="J164" s="70" t="s">
         <v>1406</v>
       </c>
-      <c r="M164" s="67">
+      <c r="K164" s="67">
         <v>161</v>
       </c>
-      <c r="N164" s="67" t="s">
+      <c r="L164" s="67" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="165" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A165" s="71" t="s">
         <v>1408</v>
       </c>
@@ -16720,28 +15712,22 @@
         <v>1412</v>
       </c>
       <c r="H165" s="67" t="s">
-        <v>1407</v>
-      </c>
-      <c r="I165" s="67" t="s">
-        <v>1407</v>
-      </c>
-      <c r="J165" s="67" t="s">
         <v>1408</v>
       </c>
-      <c r="K165" s="68" t="s">
+      <c r="I165" s="68" t="s">
         <v>1413</v>
       </c>
-      <c r="L165" s="70" t="s">
+      <c r="J165" s="70" t="s">
         <v>1414</v>
       </c>
-      <c r="M165" s="67">
+      <c r="K165" s="67">
         <v>159</v>
       </c>
-      <c r="N165" s="67" t="s">
+      <c r="L165" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="166" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A166" s="71" t="s">
         <v>1416</v>
       </c>
@@ -16764,28 +15750,22 @@
         <v>1415</v>
       </c>
       <c r="H166" s="67" t="s">
-        <v>1415</v>
-      </c>
-      <c r="I166" s="67" t="s">
-        <v>1415</v>
-      </c>
-      <c r="J166" s="67" t="s">
         <v>1416</v>
       </c>
-      <c r="K166" s="68" t="s">
+      <c r="I166" s="68" t="s">
         <v>1421</v>
       </c>
-      <c r="L166" s="70" t="s">
+      <c r="J166" s="70" t="s">
         <v>1422</v>
       </c>
-      <c r="M166" s="67">
+      <c r="K166" s="67">
         <v>157</v>
       </c>
-      <c r="N166" s="67" t="s">
+      <c r="L166" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="167" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A167" s="71" t="s">
         <v>1424</v>
       </c>
@@ -16808,28 +15788,22 @@
         <v>1428</v>
       </c>
       <c r="H167" s="67" t="s">
-        <v>1423</v>
-      </c>
-      <c r="I167" s="67" t="s">
-        <v>1423</v>
-      </c>
-      <c r="J167" s="67" t="s">
         <v>1424</v>
       </c>
-      <c r="K167" s="68" t="s">
+      <c r="I167" s="68" t="s">
         <v>1429</v>
       </c>
-      <c r="L167" s="70" t="s">
+      <c r="J167" s="70" t="s">
         <v>1430</v>
       </c>
-      <c r="M167" s="67">
+      <c r="K167" s="67">
         <v>160</v>
       </c>
-      <c r="N167" s="67" t="s">
+      <c r="L167" s="67" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="168" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A168" s="71" t="s">
         <v>1431</v>
       </c>
@@ -16852,28 +15826,22 @@
         <v>1436</v>
       </c>
       <c r="H168" s="67" t="s">
-        <v>45</v>
-      </c>
-      <c r="I168" s="67" t="s">
-        <v>45</v>
-      </c>
-      <c r="J168" s="67" t="s">
         <v>1431</v>
       </c>
-      <c r="K168" s="68" t="s">
+      <c r="I168" s="68" t="s">
         <v>1438</v>
       </c>
-      <c r="L168" s="70" t="s">
+      <c r="J168" s="70" t="s">
         <v>1439</v>
       </c>
-      <c r="M168" s="67">
+      <c r="K168" s="67">
         <v>150</v>
       </c>
-      <c r="N168" s="67" t="s">
+      <c r="L168" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="169" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A169" s="71" t="s">
         <v>1441</v>
       </c>
@@ -16896,28 +15864,22 @@
         <v>1446</v>
       </c>
       <c r="H169" s="67" t="s">
-        <v>1440</v>
-      </c>
-      <c r="I169" s="67" t="s">
-        <v>1440</v>
-      </c>
-      <c r="J169" s="67" t="s">
         <v>1441</v>
       </c>
-      <c r="K169" s="68" t="s">
+      <c r="I169" s="68" t="s">
         <v>1449</v>
       </c>
-      <c r="L169" s="70" t="s">
+      <c r="J169" s="70" t="s">
         <v>1450</v>
       </c>
-      <c r="M169" s="67">
+      <c r="K169" s="67">
         <v>162</v>
       </c>
-      <c r="N169" s="67" t="s">
+      <c r="L169" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="170" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A170" s="71" t="s">
         <v>1452</v>
       </c>
@@ -16940,28 +15902,22 @@
         <v>1456</v>
       </c>
       <c r="H170" s="67" t="s">
-        <v>1451</v>
-      </c>
-      <c r="I170" s="67" t="s">
-        <v>1451</v>
-      </c>
-      <c r="J170" s="67" t="s">
         <v>1452</v>
       </c>
-      <c r="K170" s="68" t="s">
+      <c r="I170" s="68" t="s">
         <v>1457</v>
       </c>
-      <c r="L170" s="70" t="s">
+      <c r="J170" s="70" t="s">
         <v>1458</v>
       </c>
-      <c r="M170" s="67">
+      <c r="K170" s="67">
         <v>149</v>
       </c>
-      <c r="N170" s="67" t="s">
+      <c r="L170" s="67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="171" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A171" s="71" t="s">
         <v>1460</v>
       </c>
@@ -16984,28 +15940,22 @@
         <v>1459</v>
       </c>
       <c r="H171" s="67" t="s">
-        <v>1459</v>
-      </c>
-      <c r="I171" s="67" t="s">
-        <v>1459</v>
-      </c>
-      <c r="J171" s="67" t="s">
         <v>1460</v>
       </c>
-      <c r="K171" s="68" t="s">
+      <c r="I171" s="68" t="s">
         <v>1464</v>
       </c>
-      <c r="L171" s="70" t="s">
+      <c r="J171" s="70" t="s">
         <v>1465</v>
       </c>
-      <c r="M171" s="67">
+      <c r="K171" s="67">
         <v>148</v>
       </c>
-      <c r="N171" s="67" t="s">
+      <c r="L171" s="67" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="172" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A172" s="71" t="s">
         <v>1466</v>
       </c>
@@ -17028,28 +15978,22 @@
         <v>1469</v>
       </c>
       <c r="H172" s="67" t="s">
-        <v>475</v>
-      </c>
-      <c r="I172" s="67" t="s">
-        <v>475</v>
-      </c>
-      <c r="J172" s="67" t="s">
         <v>1466</v>
       </c>
-      <c r="K172" s="68" t="s">
+      <c r="I172" s="68" t="s">
         <v>1471</v>
       </c>
-      <c r="L172" s="70" t="s">
+      <c r="J172" s="70" t="s">
         <v>1472</v>
       </c>
-      <c r="M172" s="67">
+      <c r="K172" s="67">
         <v>156</v>
       </c>
-      <c r="N172" s="67" t="s">
+      <c r="L172" s="67" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="173" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A173" s="71" t="s">
         <v>1474</v>
       </c>
@@ -17072,28 +16016,22 @@
         <v>1473</v>
       </c>
       <c r="H173" s="67" t="s">
-        <v>1473</v>
-      </c>
-      <c r="I173" s="67" t="s">
-        <v>1473</v>
-      </c>
-      <c r="J173" s="67" t="s">
         <v>1474</v>
       </c>
-      <c r="K173" s="68" t="s">
+      <c r="I173" s="68" t="s">
         <v>1479</v>
       </c>
-      <c r="L173" s="70" t="s">
+      <c r="J173" s="70" t="s">
         <v>1480</v>
       </c>
-      <c r="M173" s="67">
+      <c r="K173" s="67">
         <v>221</v>
       </c>
-      <c r="N173" s="67" t="s">
+      <c r="L173" s="67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="174" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A174" s="71" t="s">
         <v>1482</v>
       </c>
@@ -17116,28 +16054,22 @@
         <v>1481</v>
       </c>
       <c r="H174" s="67" t="s">
-        <v>1481</v>
-      </c>
-      <c r="I174" s="67" t="s">
-        <v>1481</v>
-      </c>
-      <c r="J174" s="67" t="s">
         <v>1482</v>
       </c>
-      <c r="K174" s="68" t="s">
+      <c r="I174" s="68" t="s">
         <v>1488</v>
       </c>
-      <c r="L174" s="70" t="s">
+      <c r="J174" s="70" t="s">
         <v>1489</v>
       </c>
-      <c r="M174" s="67">
+      <c r="K174" s="67">
         <v>165</v>
       </c>
-      <c r="N174" s="67" t="s">
+      <c r="L174" s="67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="175" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A175" s="71" t="s">
         <v>1491</v>
       </c>
@@ -17160,28 +16092,22 @@
         <v>1490</v>
       </c>
       <c r="H175" s="67" t="s">
-        <v>1490</v>
-      </c>
-      <c r="I175" s="67" t="s">
-        <v>1490</v>
-      </c>
-      <c r="J175" s="67" t="s">
         <v>1491</v>
       </c>
-      <c r="K175" s="68" t="s">
+      <c r="I175" s="68" t="s">
         <v>1497</v>
       </c>
-      <c r="L175" s="70" t="s">
+      <c r="J175" s="70" t="s">
         <v>1498</v>
       </c>
-      <c r="M175" s="67">
+      <c r="K175" s="67">
         <v>166</v>
       </c>
-      <c r="N175" s="67" t="s">
+      <c r="L175" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="176" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A176" s="71" t="s">
         <v>1500</v>
       </c>
@@ -17204,24 +16130,22 @@
         <v>2159</v>
       </c>
       <c r="H176" s="67" t="s">
-        <v>1499</v>
-      </c>
-      <c r="I176" s="67" t="s">
-        <v>1499</v>
-      </c>
-      <c r="J176" s="69"/>
-      <c r="K176" s="68" t="s">
+        <v>1500</v>
+      </c>
+      <c r="I176" s="68" t="s">
         <v>1502</v>
       </c>
-      <c r="L176" s="70" t="s">
+      <c r="J176" s="70" t="s">
         <v>1503</v>
       </c>
-      <c r="M176" s="69"/>
-      <c r="N176" s="67" t="s">
+      <c r="K176" s="67">
+        <v>172</v>
+      </c>
+      <c r="L176" s="67" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="177" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A177" s="71" t="s">
         <v>1505</v>
       </c>
@@ -17244,28 +16168,22 @@
         <v>1510</v>
       </c>
       <c r="H177" s="67" t="s">
-        <v>1504</v>
-      </c>
-      <c r="I177" s="67" t="s">
-        <v>1504</v>
-      </c>
-      <c r="J177" s="67" t="s">
         <v>1505</v>
       </c>
-      <c r="K177" s="68" t="s">
+      <c r="I177" s="68" t="s">
         <v>1511</v>
       </c>
-      <c r="L177" s="70" t="s">
+      <c r="J177" s="70" t="s">
         <v>1512</v>
       </c>
-      <c r="M177" s="67">
+      <c r="K177" s="67">
         <v>170</v>
       </c>
-      <c r="N177" s="67" t="s">
+      <c r="L177" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="178" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A178" s="71" t="s">
         <v>1514</v>
       </c>
@@ -17288,28 +16206,22 @@
         <v>1513</v>
       </c>
       <c r="H178" s="67" t="s">
-        <v>1513</v>
-      </c>
-      <c r="I178" s="67" t="s">
-        <v>1513</v>
-      </c>
-      <c r="J178" s="67" t="s">
         <v>1514</v>
       </c>
-      <c r="K178" s="68" t="s">
+      <c r="I178" s="68" t="s">
         <v>1520</v>
       </c>
-      <c r="L178" s="70" t="s">
+      <c r="J178" s="70" t="s">
         <v>1521</v>
       </c>
-      <c r="M178" s="67">
+      <c r="K178" s="67">
         <v>171</v>
       </c>
-      <c r="N178" s="67" t="s">
+      <c r="L178" s="67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="179" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A179" s="71" t="s">
         <v>1523</v>
       </c>
@@ -17332,28 +16244,22 @@
         <v>1527</v>
       </c>
       <c r="H179" s="67" t="s">
-        <v>1522</v>
-      </c>
-      <c r="I179" s="67" t="s">
-        <v>1522</v>
-      </c>
-      <c r="J179" s="67" t="s">
         <v>1523</v>
       </c>
-      <c r="K179" s="68" t="s">
+      <c r="I179" s="68" t="s">
         <v>1528</v>
       </c>
-      <c r="L179" s="70" t="s">
+      <c r="J179" s="70" t="s">
         <v>1529</v>
       </c>
-      <c r="M179" s="67">
+      <c r="K179" s="67">
         <v>180</v>
       </c>
-      <c r="N179" s="67" t="s">
+      <c r="L179" s="67" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="180" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A180" s="71" t="s">
         <v>1531</v>
       </c>
@@ -17376,28 +16282,22 @@
         <v>1534</v>
       </c>
       <c r="H180" s="67" t="s">
-        <v>1530</v>
-      </c>
-      <c r="I180" s="67" t="s">
-        <v>1530</v>
-      </c>
-      <c r="J180" s="67" t="s">
         <v>1531</v>
       </c>
-      <c r="K180" s="68" t="s">
+      <c r="I180" s="68" t="s">
         <v>1536</v>
       </c>
-      <c r="L180" s="70" t="s">
+      <c r="J180" s="70" t="s">
         <v>1537</v>
       </c>
-      <c r="M180" s="67">
+      <c r="K180" s="67">
         <v>168</v>
       </c>
-      <c r="N180" s="67" t="s">
+      <c r="L180" s="67" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="181" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A181" s="71" t="s">
         <v>1539</v>
       </c>
@@ -17420,28 +16320,22 @@
         <v>1544</v>
       </c>
       <c r="H181" s="67" t="s">
-        <v>1538</v>
-      </c>
-      <c r="I181" s="67" t="s">
-        <v>1538</v>
-      </c>
-      <c r="J181" s="67" t="s">
         <v>1539</v>
       </c>
-      <c r="K181" s="68" t="s">
+      <c r="I181" s="68" t="s">
         <v>1546</v>
       </c>
-      <c r="L181" s="70" t="s">
+      <c r="J181" s="70" t="s">
         <v>1547</v>
       </c>
-      <c r="M181" s="67">
+      <c r="K181" s="67">
         <v>173</v>
       </c>
-      <c r="N181" s="67" t="s">
+      <c r="L181" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="182" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A182" s="71" t="s">
         <v>1549</v>
       </c>
@@ -17464,28 +16358,22 @@
         <v>1553</v>
       </c>
       <c r="H182" s="67" t="s">
-        <v>1548</v>
-      </c>
-      <c r="I182" s="67" t="s">
-        <v>1548</v>
-      </c>
-      <c r="J182" s="67" t="s">
         <v>1549</v>
       </c>
-      <c r="K182" s="68" t="s">
+      <c r="I182" s="68" t="s">
         <v>1555</v>
       </c>
-      <c r="L182" s="70" t="s">
+      <c r="J182" s="70" t="s">
         <v>1556</v>
       </c>
-      <c r="M182" s="67">
+      <c r="K182" s="67">
         <v>177</v>
       </c>
-      <c r="N182" s="67" t="s">
+      <c r="L182" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="183" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A183" s="71" t="s">
         <v>1558</v>
       </c>
@@ -17508,28 +16396,22 @@
         <v>1563</v>
       </c>
       <c r="H183" s="67" t="s">
-        <v>1557</v>
-      </c>
-      <c r="I183" s="67" t="s">
-        <v>1564</v>
-      </c>
-      <c r="J183" s="67" t="s">
         <v>1558</v>
       </c>
-      <c r="K183" s="68" t="s">
+      <c r="I183" s="68" t="s">
         <v>1566</v>
       </c>
-      <c r="L183" s="70" t="s">
+      <c r="J183" s="70" t="s">
         <v>1567</v>
       </c>
-      <c r="M183" s="67">
+      <c r="K183" s="67">
         <v>116</v>
       </c>
-      <c r="N183" s="67" t="s">
+      <c r="L183" s="67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="184" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A184" s="71" t="s">
         <v>1569</v>
       </c>
@@ -17552,28 +16434,22 @@
         <v>1568</v>
       </c>
       <c r="H184" s="67" t="s">
-        <v>1568</v>
-      </c>
-      <c r="I184" s="67" t="s">
-        <v>1568</v>
-      </c>
-      <c r="J184" s="67" t="s">
         <v>1569</v>
       </c>
-      <c r="K184" s="68" t="s">
+      <c r="I184" s="68" t="s">
         <v>1575</v>
       </c>
-      <c r="L184" s="70" t="s">
+      <c r="J184" s="70" t="s">
         <v>1576</v>
       </c>
-      <c r="M184" s="67">
+      <c r="K184" s="67">
         <v>174</v>
       </c>
-      <c r="N184" s="67" t="s">
+      <c r="L184" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="185" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A185" s="71" t="s">
         <v>1578</v>
       </c>
@@ -17596,28 +16472,22 @@
         <v>1577</v>
       </c>
       <c r="H185" s="67" t="s">
-        <v>1577</v>
-      </c>
-      <c r="I185" s="67" t="s">
-        <v>1577</v>
-      </c>
-      <c r="J185" s="67" t="s">
         <v>1578</v>
       </c>
-      <c r="K185" s="68" t="s">
+      <c r="I185" s="68" t="s">
         <v>1583</v>
       </c>
-      <c r="L185" s="70" t="s">
+      <c r="J185" s="70" t="s">
         <v>1584</v>
       </c>
-      <c r="M185" s="67">
+      <c r="K185" s="67">
         <v>169</v>
       </c>
-      <c r="N185" s="67" t="s">
+      <c r="L185" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="186" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A186" s="71" t="s">
         <v>1591</v>
       </c>
@@ -17640,24 +16510,22 @@
         <v>1586</v>
       </c>
       <c r="H186" s="67" t="s">
-        <v>1586</v>
-      </c>
-      <c r="I186" s="67" t="s">
-        <v>1586</v>
-      </c>
-      <c r="J186" s="69"/>
-      <c r="K186" s="68" t="s">
+        <v>1591</v>
+      </c>
+      <c r="I186" s="68" t="s">
         <v>1590</v>
       </c>
-      <c r="L186" s="70" t="s">
+      <c r="J186" s="70" t="s">
         <v>1592</v>
       </c>
-      <c r="M186" s="69"/>
-      <c r="N186" s="67" t="s">
+      <c r="K186" s="67">
+        <v>299</v>
+      </c>
+      <c r="L186" s="67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="187" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A187" s="71" t="s">
         <v>1596</v>
       </c>
@@ -17680,28 +16548,22 @@
         <v>1599</v>
       </c>
       <c r="H187" s="67" t="s">
-        <v>1595</v>
-      </c>
-      <c r="I187" s="67" t="s">
-        <v>1595</v>
-      </c>
-      <c r="J187" s="67" t="s">
         <v>1596</v>
       </c>
-      <c r="K187" s="68" t="s">
+      <c r="I187" s="68" t="s">
         <v>1601</v>
       </c>
-      <c r="L187" s="70" t="s">
+      <c r="J187" s="70" t="s">
         <v>1602</v>
       </c>
-      <c r="M187" s="67">
+      <c r="K187" s="67">
         <v>70</v>
       </c>
-      <c r="N187" s="67" t="s">
+      <c r="L187" s="67" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="188" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A188" s="71" t="s">
         <v>1604</v>
       </c>
@@ -17724,28 +16586,22 @@
         <v>1603</v>
       </c>
       <c r="H188" s="67" t="s">
-        <v>1603</v>
-      </c>
-      <c r="I188" s="67" t="s">
-        <v>1603</v>
-      </c>
-      <c r="J188" s="67" t="s">
         <v>1604</v>
       </c>
-      <c r="K188" s="68" t="s">
+      <c r="I188" s="68" t="s">
         <v>1608</v>
       </c>
-      <c r="L188" s="70" t="s">
+      <c r="J188" s="70" t="s">
         <v>1609</v>
       </c>
-      <c r="M188" s="67">
+      <c r="K188" s="67">
         <v>179</v>
       </c>
-      <c r="N188" s="67" t="s">
+      <c r="L188" s="67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="189" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A189" s="71" t="s">
         <v>1610</v>
       </c>
@@ -17767,23 +16623,23 @@
       <c r="G189" s="67" t="s">
         <v>1611</v>
       </c>
-      <c r="J189" s="67" t="s">
+      <c r="H189" s="67" t="s">
         <v>1610</v>
       </c>
-      <c r="K189" s="68" t="s">
-        <v>2207</v>
-      </c>
-      <c r="L189" s="70" t="s">
-        <v>2220</v>
-      </c>
-      <c r="M189" s="67">
+      <c r="I189" s="68" t="s">
+        <v>2205</v>
+      </c>
+      <c r="J189" s="70" t="s">
+        <v>2218</v>
+      </c>
+      <c r="K189" s="67">
         <v>182</v>
       </c>
-      <c r="N189" s="67" t="s">
+      <c r="L189" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="190" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A190" s="71" t="s">
         <v>1615</v>
       </c>
@@ -17806,28 +16662,22 @@
         <v>1619</v>
       </c>
       <c r="H190" s="67" t="s">
-        <v>1614</v>
-      </c>
-      <c r="I190" s="67" t="s">
-        <v>1614</v>
-      </c>
-      <c r="J190" s="67" t="s">
         <v>1615</v>
       </c>
-      <c r="K190" s="68" t="s">
+      <c r="I190" s="68" t="s">
         <v>1621</v>
       </c>
-      <c r="L190" s="70" t="s">
+      <c r="J190" s="70" t="s">
         <v>1622</v>
       </c>
-      <c r="M190" s="67">
+      <c r="K190" s="67">
         <v>183</v>
       </c>
-      <c r="N190" s="67" t="s">
+      <c r="L190" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="191" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A191" s="71" t="s">
         <v>1625</v>
       </c>
@@ -17850,28 +16700,22 @@
         <v>1630</v>
       </c>
       <c r="H191" s="67" t="s">
-        <v>1624</v>
-      </c>
-      <c r="I191" s="67" t="s">
-        <v>1631</v>
-      </c>
-      <c r="J191" s="67" t="s">
         <v>1625</v>
       </c>
-      <c r="K191" s="68" t="s">
+      <c r="I191" s="68" t="s">
         <v>1633</v>
       </c>
-      <c r="L191" s="70" t="s">
+      <c r="J191" s="70" t="s">
         <v>1634</v>
       </c>
-      <c r="M191" s="67">
+      <c r="K191" s="67">
         <v>185</v>
       </c>
-      <c r="N191" s="67" t="s">
+      <c r="L191" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="192" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A192" s="71" t="s">
         <v>1636</v>
       </c>
@@ -17894,28 +16738,22 @@
         <v>1635</v>
       </c>
       <c r="H192" s="67" t="s">
-        <v>1635</v>
-      </c>
-      <c r="I192" s="67" t="s">
-        <v>1635</v>
-      </c>
-      <c r="J192" s="67" t="s">
         <v>1636</v>
       </c>
-      <c r="K192" s="68" t="s">
+      <c r="I192" s="68" t="s">
         <v>1641</v>
       </c>
-      <c r="L192" s="70" t="s">
+      <c r="J192" s="70" t="s">
         <v>1642</v>
       </c>
-      <c r="M192" s="67">
+      <c r="K192" s="67">
         <v>184</v>
       </c>
-      <c r="N192" s="67" t="s">
+      <c r="L192" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="193" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A193" s="71" t="s">
         <v>1651</v>
       </c>
@@ -17938,28 +16776,22 @@
         <v>1656</v>
       </c>
       <c r="H193" s="67" t="s">
-        <v>1650</v>
-      </c>
-      <c r="I193" s="67" t="s">
-        <v>1650</v>
-      </c>
-      <c r="J193" s="67" t="s">
         <v>1651</v>
       </c>
-      <c r="K193" s="68" t="s">
+      <c r="I193" s="68" t="s">
         <v>1658</v>
       </c>
-      <c r="L193" s="70" t="s">
+      <c r="J193" s="70" t="s">
         <v>1659</v>
       </c>
-      <c r="M193" s="67">
+      <c r="K193" s="67">
         <v>194</v>
       </c>
-      <c r="N193" s="67" t="s">
+      <c r="L193" s="67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="194" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A194" s="71" t="s">
         <v>1661</v>
       </c>
@@ -17982,28 +16814,22 @@
         <v>1666</v>
       </c>
       <c r="H194" s="67" t="s">
-        <v>1660</v>
-      </c>
-      <c r="I194" s="67" t="s">
-        <v>1660</v>
-      </c>
-      <c r="J194" s="67" t="s">
         <v>1661</v>
       </c>
-      <c r="K194" s="68" t="s">
+      <c r="I194" s="68" t="s">
         <v>1667</v>
       </c>
-      <c r="L194" s="68" t="s">
+      <c r="J194" s="68" t="s">
         <v>1668</v>
       </c>
-      <c r="M194" s="67">
-        <v>206</v>
-      </c>
-      <c r="N194" s="67" t="s">
+      <c r="K194" s="67">
+        <v>276</v>
+      </c>
+      <c r="L194" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="195" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A195" s="71" t="s">
         <v>1670</v>
       </c>
@@ -18026,28 +16852,22 @@
         <v>1674</v>
       </c>
       <c r="H195" s="67" t="s">
-        <v>1669</v>
-      </c>
-      <c r="I195" s="67" t="s">
-        <v>1669</v>
-      </c>
-      <c r="J195" s="67" t="s">
         <v>1670</v>
       </c>
-      <c r="K195" s="68" t="s">
+      <c r="I195" s="68" t="s">
         <v>1676</v>
       </c>
-      <c r="L195" s="70" t="s">
+      <c r="J195" s="70" t="s">
         <v>1677</v>
       </c>
-      <c r="M195" s="67">
+      <c r="K195" s="67">
         <v>195</v>
       </c>
-      <c r="N195" s="67" t="s">
+      <c r="L195" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="196" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A196" s="71" t="s">
         <v>1679</v>
       </c>
@@ -18070,28 +16890,22 @@
         <v>1684</v>
       </c>
       <c r="H196" s="67" t="s">
-        <v>1678</v>
-      </c>
-      <c r="I196" s="72" t="s">
-        <v>1678</v>
-      </c>
-      <c r="J196" s="67" t="s">
         <v>1679</v>
       </c>
-      <c r="K196" s="68" t="s">
+      <c r="I196" s="68" t="s">
         <v>1023</v>
       </c>
-      <c r="L196" s="70" t="s">
+      <c r="J196" s="70" t="s">
         <v>1686</v>
       </c>
-      <c r="M196" s="67">
+      <c r="K196" s="67">
         <v>200</v>
       </c>
-      <c r="N196" s="67" t="s">
+      <c r="L196" s="67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="197" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A197" s="71" t="s">
         <v>1688</v>
       </c>
@@ -18114,24 +16928,22 @@
         <v>2164</v>
       </c>
       <c r="H197" s="67" t="s">
-        <v>1687</v>
-      </c>
-      <c r="I197" s="67" t="s">
-        <v>1687</v>
-      </c>
-      <c r="J197" s="69"/>
-      <c r="K197" s="68" t="s">
+        <v>1688</v>
+      </c>
+      <c r="I197" s="68" t="s">
         <v>1690</v>
       </c>
-      <c r="L197" s="70" t="s">
+      <c r="J197" s="70" t="s">
         <v>1691</v>
       </c>
-      <c r="M197" s="69"/>
-      <c r="N197" s="67" t="s">
+      <c r="K197" s="67">
+        <v>271</v>
+      </c>
+      <c r="L197" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="198" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A198" s="71" t="s">
         <v>1693</v>
       </c>
@@ -18154,28 +16966,22 @@
         <v>1696</v>
       </c>
       <c r="H198" s="67" t="s">
-        <v>1692</v>
-      </c>
-      <c r="I198" s="67" t="s">
-        <v>1692</v>
-      </c>
-      <c r="J198" s="67" t="s">
         <v>1693</v>
       </c>
-      <c r="K198" s="68" t="s">
+      <c r="I198" s="68" t="s">
         <v>1698</v>
       </c>
-      <c r="L198" s="70" t="s">
+      <c r="J198" s="70" t="s">
         <v>1699</v>
       </c>
-      <c r="M198" s="67">
+      <c r="K198" s="67">
         <v>187</v>
       </c>
-      <c r="N198" s="67" t="s">
+      <c r="L198" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="199" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A199" s="71" t="s">
         <v>2186</v>
       </c>
@@ -18197,16 +17003,23 @@
       <c r="G199" s="67" t="s">
         <v>2189</v>
       </c>
-      <c r="J199" s="69"/>
-      <c r="K199" s="68" t="s">
-        <v>2208</v>
-      </c>
-      <c r="L199" s="70" t="s">
-        <v>2221</v>
-      </c>
-      <c r="M199" s="69"/>
+      <c r="H199" s="67" t="s">
+        <v>2186</v>
+      </c>
+      <c r="I199" s="68" t="s">
+        <v>2206</v>
+      </c>
+      <c r="J199" s="70" t="s">
+        <v>2219</v>
+      </c>
+      <c r="K199" s="67">
+        <v>260</v>
+      </c>
+      <c r="L199" s="67" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="200" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A200" s="71" t="s">
         <v>1701</v>
       </c>
@@ -18229,28 +17042,22 @@
         <v>1705</v>
       </c>
       <c r="H200" s="67" t="s">
-        <v>1700</v>
-      </c>
-      <c r="I200" s="67" t="s">
-        <v>1700</v>
-      </c>
-      <c r="J200" s="67" t="s">
         <v>1701</v>
       </c>
-      <c r="K200" s="68" t="s">
+      <c r="I200" s="68" t="s">
         <v>1707</v>
       </c>
-      <c r="L200" s="70" t="s">
+      <c r="J200" s="70" t="s">
         <v>1708</v>
       </c>
-      <c r="M200" s="67">
+      <c r="K200" s="67">
         <v>25</v>
       </c>
-      <c r="N200" s="67" t="s">
+      <c r="L200" s="67" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="201" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A201" s="71" t="s">
         <v>1710</v>
       </c>
@@ -18273,28 +17080,22 @@
         <v>1709</v>
       </c>
       <c r="H201" s="67" t="s">
-        <v>1709</v>
-      </c>
-      <c r="I201" s="67" t="s">
-        <v>1709</v>
-      </c>
-      <c r="J201" s="67" t="s">
         <v>1710</v>
       </c>
-      <c r="K201" s="68" t="s">
+      <c r="I201" s="68" t="s">
         <v>1715</v>
       </c>
-      <c r="L201" s="70" t="s">
+      <c r="J201" s="70" t="s">
         <v>1716</v>
       </c>
-      <c r="M201" s="67">
+      <c r="K201" s="67">
         <v>197</v>
       </c>
-      <c r="N201" s="67" t="s">
+      <c r="L201" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="202" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A202" s="71" t="s">
         <v>1718</v>
       </c>
@@ -18317,28 +17118,22 @@
         <v>1717</v>
       </c>
       <c r="H202" s="67" t="s">
-        <v>1717</v>
-      </c>
-      <c r="I202" s="67" t="s">
-        <v>1717</v>
-      </c>
-      <c r="J202" s="67" t="s">
         <v>1718</v>
       </c>
-      <c r="K202" s="68" t="s">
+      <c r="I202" s="68" t="s">
         <v>1723</v>
       </c>
-      <c r="L202" s="70" t="s">
+      <c r="J202" s="70" t="s">
         <v>1724</v>
       </c>
-      <c r="M202" s="67">
+      <c r="K202" s="67">
         <v>60</v>
       </c>
-      <c r="N202" s="67" t="s">
+      <c r="L202" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="203" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A203" s="71" t="s">
         <v>1726</v>
       </c>
@@ -18361,28 +17156,22 @@
         <v>1730</v>
       </c>
       <c r="H203" s="67" t="s">
-        <v>1725</v>
-      </c>
-      <c r="I203" s="67" t="s">
-        <v>1725</v>
-      </c>
-      <c r="J203" s="67" t="s">
         <v>1726</v>
       </c>
-      <c r="K203" s="68" t="s">
+      <c r="I203" s="68" t="s">
         <v>1733</v>
       </c>
-      <c r="L203" s="70" t="s">
+      <c r="J203" s="70" t="s">
         <v>1734</v>
       </c>
-      <c r="M203" s="67">
+      <c r="K203" s="67">
         <v>192</v>
       </c>
-      <c r="N203" s="67" t="s">
+      <c r="L203" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="204" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A204" s="71" t="s">
         <v>1735</v>
       </c>
@@ -18405,28 +17194,22 @@
         <v>1740</v>
       </c>
       <c r="H204" s="67" t="s">
-        <v>1736</v>
-      </c>
-      <c r="I204" s="67" t="s">
-        <v>1736</v>
-      </c>
-      <c r="J204" s="67" t="s">
         <v>1735</v>
       </c>
-      <c r="K204" s="68" t="s">
+      <c r="I204" s="68" t="s">
         <v>1742</v>
       </c>
-      <c r="L204" s="70" t="s">
+      <c r="J204" s="70" t="s">
         <v>1743</v>
       </c>
-      <c r="M204" s="67">
+      <c r="K204" s="67">
         <v>201</v>
       </c>
-      <c r="N204" s="67" t="s">
+      <c r="L204" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="205" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A205" s="71" t="s">
         <v>1745</v>
       </c>
@@ -18449,28 +17232,22 @@
         <v>1747</v>
       </c>
       <c r="H205" s="67" t="s">
-        <v>1744</v>
-      </c>
-      <c r="I205" s="67" t="s">
-        <v>1744</v>
-      </c>
-      <c r="J205" s="67" t="s">
         <v>1745</v>
       </c>
-      <c r="K205" s="68" t="s">
+      <c r="I205" s="68" t="s">
         <v>1749</v>
       </c>
-      <c r="L205" s="70" t="s">
+      <c r="J205" s="70" t="s">
         <v>1750</v>
       </c>
-      <c r="M205" s="67">
+      <c r="K205" s="67">
         <v>190</v>
       </c>
-      <c r="N205" s="67" t="s">
+      <c r="L205" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="206" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A206" s="71" t="s">
         <v>1088</v>
       </c>
@@ -18493,28 +17270,22 @@
         <v>1756</v>
       </c>
       <c r="H206" s="67" t="s">
-        <v>1751</v>
-      </c>
-      <c r="I206" s="67" t="s">
-        <v>1754</v>
-      </c>
-      <c r="J206" s="67" t="s">
         <v>1088</v>
       </c>
-      <c r="K206" s="68" t="s">
+      <c r="I206" s="68" t="s">
         <v>1758</v>
       </c>
-      <c r="L206" s="70" t="s">
+      <c r="J206" s="70" t="s">
         <v>1759</v>
       </c>
-      <c r="M206" s="67">
+      <c r="K206" s="67">
         <v>272</v>
       </c>
-      <c r="N206" s="67" t="s">
+      <c r="L206" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="207" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A207" s="71" t="s">
         <v>1762</v>
       </c>
@@ -18537,26 +17308,22 @@
         <v>1767</v>
       </c>
       <c r="H207" s="67" t="s">
-        <v>1761</v>
-      </c>
-      <c r="I207" s="67" t="s">
-        <v>1761</v>
-      </c>
-      <c r="J207" s="67" t="s">
         <v>1762</v>
       </c>
-      <c r="K207" s="68" t="s">
+      <c r="I207" s="68" t="s">
         <v>1769</v>
       </c>
-      <c r="L207" s="70" t="s">
+      <c r="J207" s="70" t="s">
         <v>1770</v>
       </c>
-      <c r="M207" s="69"/>
-      <c r="N207" s="67" t="s">
+      <c r="K207" s="67">
+        <v>277</v>
+      </c>
+      <c r="L207" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="208" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A208" s="71" t="s">
         <v>1773</v>
       </c>
@@ -18579,28 +17346,22 @@
         <v>1778</v>
       </c>
       <c r="H208" s="67" t="s">
-        <v>1772</v>
-      </c>
-      <c r="I208" s="67" t="s">
-        <v>1779</v>
-      </c>
-      <c r="J208" s="67" t="s">
         <v>1773</v>
       </c>
-      <c r="K208" s="68" t="s">
+      <c r="I208" s="68" t="s">
         <v>1781</v>
       </c>
-      <c r="L208" s="70" t="s">
+      <c r="J208" s="70" t="s">
         <v>1782</v>
       </c>
-      <c r="M208" s="67">
+      <c r="K208" s="67">
         <v>193</v>
       </c>
-      <c r="N208" s="67" t="s">
+      <c r="L208" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="209" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A209" s="71" t="s">
         <v>1784</v>
       </c>
@@ -18623,28 +17384,22 @@
         <v>1783</v>
       </c>
       <c r="H209" s="67" t="s">
-        <v>1783</v>
-      </c>
-      <c r="I209" s="67" t="s">
-        <v>1783</v>
-      </c>
-      <c r="J209" s="67" t="s">
         <v>1784</v>
       </c>
-      <c r="K209" s="68" t="s">
+      <c r="I209" s="68" t="s">
         <v>1789</v>
       </c>
-      <c r="L209" s="70" t="s">
+      <c r="J209" s="70" t="s">
         <v>1790</v>
       </c>
-      <c r="M209" s="67">
+      <c r="K209" s="67">
         <v>207</v>
       </c>
-      <c r="N209" s="67" t="s">
+      <c r="L209" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="210" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A210" s="71" t="s">
         <v>1792</v>
       </c>
@@ -18667,28 +17422,22 @@
         <v>1797</v>
       </c>
       <c r="H210" s="67" t="s">
-        <v>1791</v>
-      </c>
-      <c r="I210" s="67" t="s">
-        <v>1791</v>
-      </c>
-      <c r="J210" s="67" t="s">
         <v>1792</v>
       </c>
-      <c r="K210" s="68" t="s">
+      <c r="I210" s="68" t="s">
         <v>1799</v>
       </c>
-      <c r="L210" s="70" t="s">
+      <c r="J210" s="70" t="s">
         <v>1800</v>
       </c>
-      <c r="M210" s="67">
+      <c r="K210" s="67">
         <v>199</v>
       </c>
-      <c r="N210" s="67" t="s">
+      <c r="L210" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="211" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A211" s="71" t="s">
         <v>1802</v>
       </c>
@@ -18711,28 +17460,22 @@
         <v>1807</v>
       </c>
       <c r="H211" s="67" t="s">
-        <v>1801</v>
-      </c>
-      <c r="I211" s="67" t="s">
-        <v>1801</v>
-      </c>
-      <c r="J211" s="67" t="s">
         <v>1802</v>
       </c>
-      <c r="K211" s="68" t="s">
+      <c r="I211" s="68" t="s">
         <v>1810</v>
       </c>
-      <c r="L211" s="70" t="s">
+      <c r="J211" s="70" t="s">
         <v>1811</v>
       </c>
-      <c r="M211" s="67">
+      <c r="K211" s="67">
         <v>198</v>
       </c>
-      <c r="N211" s="67" t="s">
+      <c r="L211" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="212" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A212" s="71" t="s">
         <v>1813</v>
       </c>
@@ -18755,28 +17498,22 @@
         <v>1818</v>
       </c>
       <c r="H212" s="67" t="s">
-        <v>1812</v>
-      </c>
-      <c r="I212" s="67" t="s">
-        <v>1812</v>
-      </c>
-      <c r="J212" s="67" t="s">
         <v>1813</v>
       </c>
-      <c r="K212" s="68" t="s">
+      <c r="I212" s="68" t="s">
         <v>1821</v>
       </c>
-      <c r="L212" s="70" t="s">
+      <c r="J212" s="70" t="s">
         <v>1822</v>
       </c>
-      <c r="M212" s="67">
+      <c r="K212" s="67">
         <v>210</v>
       </c>
-      <c r="N212" s="67" t="s">
+      <c r="L212" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="213" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A213" s="71" t="s">
         <v>1824</v>
       </c>
@@ -18799,28 +17536,22 @@
         <v>1823</v>
       </c>
       <c r="H213" s="67" t="s">
-        <v>1823</v>
-      </c>
-      <c r="I213" s="67" t="s">
-        <v>1823</v>
-      </c>
-      <c r="J213" s="67" t="s">
         <v>1824</v>
       </c>
-      <c r="K213" s="68" t="s">
+      <c r="I213" s="68" t="s">
         <v>1831</v>
       </c>
-      <c r="L213" s="70" t="s">
+      <c r="J213" s="70" t="s">
         <v>1832</v>
       </c>
-      <c r="M213" s="67">
+      <c r="K213" s="67">
         <v>209</v>
       </c>
-      <c r="N213" s="67" t="s">
+      <c r="L213" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="214" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A214" s="71" t="s">
         <v>1834</v>
       </c>
@@ -18843,24 +17574,22 @@
         <v>1833</v>
       </c>
       <c r="H214" s="67" t="s">
-        <v>1833</v>
-      </c>
-      <c r="I214" s="67" t="s">
-        <v>1833</v>
-      </c>
-      <c r="J214" s="69"/>
-      <c r="K214" s="68" t="s">
+        <v>1834</v>
+      </c>
+      <c r="I214" s="68" t="s">
         <v>1838</v>
       </c>
-      <c r="L214" s="70" t="s">
+      <c r="J214" s="70" t="s">
         <v>1839</v>
       </c>
-      <c r="M214" s="69"/>
-      <c r="N214" s="67" t="s">
+      <c r="K214" s="67">
+        <v>280</v>
+      </c>
+      <c r="L214" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="215" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A215" s="71" t="s">
         <v>1841</v>
       </c>
@@ -18883,28 +17612,22 @@
         <v>1840</v>
       </c>
       <c r="H215" s="67" t="s">
-        <v>1840</v>
-      </c>
-      <c r="I215" s="67" t="s">
-        <v>1840</v>
-      </c>
-      <c r="J215" s="67" t="s">
         <v>1841</v>
       </c>
-      <c r="K215" s="68" t="s">
+      <c r="I215" s="68" t="s">
         <v>1846</v>
       </c>
-      <c r="L215" s="70" t="s">
+      <c r="J215" s="70" t="s">
         <v>1847</v>
       </c>
-      <c r="M215" s="67">
+      <c r="K215" s="67">
         <v>196</v>
       </c>
-      <c r="N215" s="67" t="s">
+      <c r="L215" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="216" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A216" s="71" t="s">
         <v>1849</v>
       </c>
@@ -18927,28 +17650,22 @@
         <v>1854</v>
       </c>
       <c r="H216" s="67" t="s">
-        <v>1848</v>
-      </c>
-      <c r="I216" s="67" t="s">
-        <v>1848</v>
-      </c>
-      <c r="J216" s="67" t="s">
         <v>1849</v>
       </c>
-      <c r="K216" s="68" t="s">
+      <c r="I216" s="68" t="s">
         <v>1855</v>
       </c>
-      <c r="L216" s="70" t="s">
+      <c r="J216" s="70" t="s">
         <v>1856</v>
       </c>
-      <c r="M216" s="67">
+      <c r="K216" s="67">
         <v>212</v>
       </c>
-      <c r="N216" s="67" t="s">
+      <c r="L216" s="67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="217" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A217" s="71" t="s">
         <v>1858</v>
       </c>
@@ -18971,28 +17688,22 @@
         <v>1861</v>
       </c>
       <c r="H217" s="67" t="s">
-        <v>1857</v>
-      </c>
-      <c r="I217" s="67" t="s">
-        <v>1857</v>
-      </c>
-      <c r="J217" s="67" t="s">
         <v>1858</v>
       </c>
-      <c r="K217" s="68" t="s">
+      <c r="I217" s="68" t="s">
         <v>1863</v>
       </c>
-      <c r="L217" s="70" t="s">
+      <c r="J217" s="70" t="s">
         <v>1864</v>
       </c>
-      <c r="M217" s="67">
+      <c r="K217" s="67">
         <v>224</v>
       </c>
-      <c r="N217" s="67" t="s">
+      <c r="L217" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="218" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A218" s="71" t="s">
         <v>1866</v>
       </c>
@@ -19015,28 +17726,22 @@
         <v>1870</v>
       </c>
       <c r="H218" s="67" t="s">
-        <v>1865</v>
-      </c>
-      <c r="I218" s="67" t="s">
-        <v>1865</v>
-      </c>
-      <c r="J218" s="67" t="s">
         <v>1866</v>
       </c>
-      <c r="K218" s="68" t="s">
+      <c r="I218" s="68" t="s">
         <v>1871</v>
       </c>
-      <c r="L218" s="70" t="s">
+      <c r="J218" s="70" t="s">
         <v>1872</v>
       </c>
-      <c r="M218" s="67">
+      <c r="K218" s="67">
         <v>39</v>
       </c>
-      <c r="N218" s="67" t="s">
+      <c r="L218" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="219" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A219" s="71" t="s">
         <v>1874</v>
       </c>
@@ -19059,28 +17764,22 @@
         <v>1873</v>
       </c>
       <c r="H219" s="67" t="s">
-        <v>1873</v>
-      </c>
-      <c r="I219" s="67" t="s">
-        <v>1873</v>
-      </c>
-      <c r="J219" s="67" t="s">
         <v>1874</v>
       </c>
-      <c r="K219" s="68" t="s">
+      <c r="I219" s="68" t="s">
         <v>1878</v>
       </c>
-      <c r="L219" s="70" t="s">
+      <c r="J219" s="70" t="s">
         <v>1879</v>
       </c>
-      <c r="M219" s="67">
+      <c r="K219" s="67">
         <v>217</v>
       </c>
-      <c r="N219" s="67" t="s">
+      <c r="L219" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="220" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A220" s="71" t="s">
         <v>1881</v>
       </c>
@@ -19103,28 +17802,22 @@
         <v>1886</v>
       </c>
       <c r="H220" s="67" t="s">
-        <v>1880</v>
-      </c>
-      <c r="I220" s="67" t="s">
-        <v>1880</v>
-      </c>
-      <c r="J220" s="67" t="s">
         <v>1881</v>
       </c>
-      <c r="K220" s="68" t="s">
+      <c r="I220" s="68" t="s">
         <v>1888</v>
       </c>
-      <c r="L220" s="70" t="s">
+      <c r="J220" s="70" t="s">
         <v>1889</v>
       </c>
-      <c r="M220" s="67">
+      <c r="K220" s="67">
         <v>216</v>
       </c>
-      <c r="N220" s="67" t="s">
+      <c r="L220" s="67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="221" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A221" s="71" t="s">
         <v>1891</v>
       </c>
@@ -19147,28 +17840,22 @@
         <v>1896</v>
       </c>
       <c r="H221" s="67" t="s">
-        <v>1890</v>
-      </c>
-      <c r="I221" s="67" t="s">
-        <v>1890</v>
-      </c>
-      <c r="J221" s="67" t="s">
         <v>1891</v>
       </c>
-      <c r="K221" s="68" t="s">
+      <c r="I221" s="68" t="s">
         <v>1898</v>
       </c>
-      <c r="L221" s="70" t="s">
+      <c r="J221" s="70" t="s">
         <v>1899</v>
       </c>
-      <c r="M221" s="67">
+      <c r="K221" s="67">
         <v>208</v>
       </c>
-      <c r="N221" s="67" t="s">
+      <c r="L221" s="67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="222" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A222" s="71" t="s">
         <v>1900</v>
       </c>
@@ -19191,28 +17878,22 @@
         <v>1902</v>
       </c>
       <c r="H222" s="67" t="s">
-        <v>475</v>
-      </c>
-      <c r="I222" s="67" t="s">
-        <v>1901</v>
-      </c>
-      <c r="J222" s="67" t="s">
         <v>1900</v>
       </c>
-      <c r="K222" s="68" t="s">
+      <c r="I222" s="68" t="s">
         <v>2172</v>
       </c>
-      <c r="L222" s="70" t="s">
+      <c r="J222" s="70" t="s">
         <v>2173</v>
       </c>
-      <c r="M222" s="67">
+      <c r="K222" s="67">
         <v>218</v>
       </c>
-      <c r="N222" s="67" t="s">
+      <c r="L222" s="67" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="223" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A223" s="71" t="s">
         <v>1904</v>
       </c>
@@ -19235,28 +17916,22 @@
         <v>1907</v>
       </c>
       <c r="H223" s="67" t="s">
-        <v>1903</v>
-      </c>
-      <c r="I223" s="67" t="s">
-        <v>1903</v>
-      </c>
-      <c r="J223" s="67" t="s">
         <v>1904</v>
       </c>
-      <c r="K223" s="68" t="s">
+      <c r="I223" s="68" t="s">
         <v>1909</v>
       </c>
-      <c r="L223" s="70" t="s">
+      <c r="J223" s="70" t="s">
         <v>1910</v>
       </c>
-      <c r="M223" s="67">
+      <c r="K223" s="67">
         <v>213</v>
       </c>
-      <c r="N223" s="67" t="s">
+      <c r="L223" s="67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="224" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A224" s="71" t="s">
         <v>1912</v>
       </c>
@@ -19279,28 +17954,22 @@
         <v>1915</v>
       </c>
       <c r="H224" s="67" t="s">
-        <v>1911</v>
-      </c>
-      <c r="I224" s="67" t="s">
-        <v>1915</v>
-      </c>
-      <c r="J224" s="67" t="s">
         <v>1912</v>
       </c>
-      <c r="K224" s="68" t="s">
+      <c r="I224" s="68" t="s">
         <v>1918</v>
       </c>
-      <c r="L224" s="70" t="s">
+      <c r="J224" s="70" t="s">
         <v>1919</v>
       </c>
-      <c r="M224" s="67">
+      <c r="K224" s="67">
         <v>176</v>
       </c>
-      <c r="N224" s="67" t="s">
+      <c r="L224" s="67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="225" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A225" s="71" t="s">
         <v>1923</v>
       </c>
@@ -19323,28 +17992,22 @@
         <v>1922</v>
       </c>
       <c r="H225" s="67" t="s">
-        <v>1922</v>
-      </c>
-      <c r="I225" s="67" t="s">
-        <v>1922</v>
-      </c>
-      <c r="J225" s="67" t="s">
         <v>1923</v>
       </c>
-      <c r="K225" s="68" t="s">
+      <c r="I225" s="68" t="s">
         <v>1928</v>
       </c>
-      <c r="L225" s="70" t="s">
+      <c r="J225" s="70" t="s">
         <v>1929</v>
       </c>
-      <c r="M225" s="67">
+      <c r="K225" s="67">
         <v>219</v>
       </c>
-      <c r="N225" s="67" t="s">
+      <c r="L225" s="67" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="226" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A226" s="71" t="s">
         <v>1931</v>
       </c>
@@ -19367,28 +18030,22 @@
         <v>1936</v>
       </c>
       <c r="H226" s="67" t="s">
-        <v>1930</v>
-      </c>
-      <c r="I226" s="67" t="s">
-        <v>1930</v>
-      </c>
-      <c r="J226" s="67" t="s">
         <v>1931</v>
       </c>
-      <c r="K226" s="68" t="s">
+      <c r="I226" s="68" t="s">
         <v>1938</v>
       </c>
-      <c r="L226" s="70" t="s">
+      <c r="J226" s="70" t="s">
         <v>1939</v>
       </c>
-      <c r="M226" s="67">
+      <c r="K226" s="67">
         <v>220</v>
       </c>
-      <c r="N226" s="67" t="s">
+      <c r="L226" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="227" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A227" s="71" t="s">
         <v>1941</v>
       </c>
@@ -19411,28 +18068,22 @@
         <v>1946</v>
       </c>
       <c r="H227" s="67" t="s">
-        <v>1940</v>
-      </c>
-      <c r="I227" s="67" t="s">
-        <v>1940</v>
-      </c>
-      <c r="J227" s="67" t="s">
         <v>1941</v>
       </c>
-      <c r="K227" s="68" t="s">
+      <c r="I227" s="68" t="s">
         <v>1948</v>
       </c>
-      <c r="L227" s="70" t="s">
+      <c r="J227" s="70" t="s">
         <v>1949</v>
       </c>
-      <c r="M227" s="67">
+      <c r="K227" s="67">
         <v>222</v>
       </c>
-      <c r="N227" s="67" t="s">
+      <c r="L227" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="228" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A228" s="71" t="s">
         <v>1951</v>
       </c>
@@ -19455,28 +18106,22 @@
         <v>1956</v>
       </c>
       <c r="H228" s="67" t="s">
-        <v>1950</v>
-      </c>
-      <c r="I228" s="67" t="s">
-        <v>1950</v>
-      </c>
-      <c r="J228" s="67" t="s">
         <v>1951</v>
       </c>
-      <c r="K228" s="68" t="s">
+      <c r="I228" s="68" t="s">
         <v>1958</v>
       </c>
-      <c r="L228" s="70" t="s">
+      <c r="J228" s="70" t="s">
         <v>1959</v>
       </c>
-      <c r="M228" s="67">
+      <c r="K228" s="67">
         <v>223</v>
       </c>
-      <c r="N228" s="67" t="s">
+      <c r="L228" s="67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="229" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A229" s="71" t="s">
         <v>1962</v>
       </c>
@@ -19499,28 +18144,22 @@
         <v>1963</v>
       </c>
       <c r="H229" s="67" t="s">
-        <v>1963</v>
-      </c>
-      <c r="I229" s="67" t="s">
-        <v>1963</v>
-      </c>
-      <c r="J229" s="67" t="s">
         <v>1962</v>
       </c>
-      <c r="K229" s="68" t="s">
+      <c r="I229" s="68" t="s">
         <v>2167</v>
       </c>
-      <c r="L229" s="70" t="s">
+      <c r="J229" s="70" t="s">
         <v>2169</v>
       </c>
-      <c r="M229" s="67">
+      <c r="K229" s="67">
         <v>227</v>
       </c>
-      <c r="N229" s="67" t="s">
+      <c r="L229" s="67" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="230" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A230" s="71" t="s">
         <v>1961</v>
       </c>
@@ -19543,24 +18182,22 @@
         <v>1960</v>
       </c>
       <c r="H230" s="67" t="s">
-        <v>1960</v>
-      </c>
-      <c r="I230" s="67" t="s">
-        <v>1960</v>
-      </c>
-      <c r="J230" s="69"/>
-      <c r="K230" s="68" t="s">
+        <v>1961</v>
+      </c>
+      <c r="I230" s="68" t="s">
         <v>1964</v>
       </c>
-      <c r="L230" s="70" t="s">
+      <c r="J230" s="70" t="s">
         <v>1965</v>
       </c>
-      <c r="M230" s="69"/>
-      <c r="N230" s="67" t="s">
+      <c r="K230" s="67">
+        <v>214</v>
+      </c>
+      <c r="L230" s="67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="231" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A231" s="71" t="s">
         <v>1967</v>
       </c>
@@ -19583,28 +18220,22 @@
         <v>1972</v>
       </c>
       <c r="H231" s="67" t="s">
-        <v>1966</v>
-      </c>
-      <c r="I231" s="67" t="s">
-        <v>1973</v>
-      </c>
-      <c r="J231" s="67" t="s">
         <v>1967</v>
       </c>
-      <c r="K231" s="68" t="s">
+      <c r="I231" s="68" t="s">
         <v>1975</v>
       </c>
-      <c r="L231" s="70" t="s">
+      <c r="J231" s="70" t="s">
         <v>1976</v>
       </c>
-      <c r="M231" s="67">
+      <c r="K231" s="67">
         <v>215</v>
       </c>
-      <c r="N231" s="67" t="s">
+      <c r="L231" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="232" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A232" s="71" t="s">
         <v>1978</v>
       </c>
@@ -19627,28 +18258,22 @@
         <v>1982</v>
       </c>
       <c r="H232" s="67" t="s">
-        <v>1977</v>
-      </c>
-      <c r="I232" s="67" t="s">
-        <v>1977</v>
-      </c>
-      <c r="J232" s="67" t="s">
         <v>1978</v>
       </c>
-      <c r="K232" s="68" t="s">
+      <c r="I232" s="68" t="s">
         <v>1984</v>
       </c>
-      <c r="L232" s="70" t="s">
+      <c r="J232" s="70" t="s">
         <v>1985</v>
       </c>
-      <c r="M232" s="67">
+      <c r="K232" s="67">
         <v>226</v>
       </c>
-      <c r="N232" s="67" t="s">
+      <c r="L232" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="233" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A233" s="71" t="s">
         <v>1987</v>
       </c>
@@ -19671,28 +18296,22 @@
         <v>1986</v>
       </c>
       <c r="H233" s="67" t="s">
-        <v>1986</v>
-      </c>
-      <c r="I233" s="67" t="s">
-        <v>1986</v>
-      </c>
-      <c r="J233" s="67" t="s">
         <v>1987</v>
       </c>
-      <c r="K233" s="68" t="s">
+      <c r="I233" s="68" t="s">
         <v>1991</v>
       </c>
-      <c r="L233" s="70" t="s">
+      <c r="J233" s="70" t="s">
         <v>1992</v>
       </c>
-      <c r="M233" s="67">
+      <c r="K233" s="67">
         <v>230</v>
       </c>
-      <c r="N233" s="67" t="s">
+      <c r="L233" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="234" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A234" s="71" t="s">
         <v>2190</v>
       </c>
@@ -19714,16 +18333,23 @@
       <c r="G234" s="67" t="s">
         <v>2192</v>
       </c>
-      <c r="J234" s="69"/>
-      <c r="K234" s="68" t="s">
-        <v>2209</v>
-      </c>
-      <c r="L234" s="70" t="s">
-        <v>2222</v>
-      </c>
-      <c r="M234" s="69"/>
+      <c r="H234" s="67" t="s">
+        <v>2190</v>
+      </c>
+      <c r="I234" s="68" t="s">
+        <v>2207</v>
+      </c>
+      <c r="J234" s="70" t="s">
+        <v>2220</v>
+      </c>
+      <c r="K234" s="67">
+        <v>232</v>
+      </c>
+      <c r="L234" s="67" t="s">
+        <v>165</v>
+      </c>
     </row>
-    <row r="235" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A235" s="71" t="s">
         <v>1994</v>
       </c>
@@ -19746,28 +18372,22 @@
         <v>1993</v>
       </c>
       <c r="H235" s="67" t="s">
-        <v>1993</v>
-      </c>
-      <c r="I235" s="67" t="s">
-        <v>1993</v>
-      </c>
-      <c r="J235" s="67" t="s">
         <v>1994</v>
       </c>
-      <c r="K235" s="68" t="s">
+      <c r="I235" s="68" t="s">
         <v>1999</v>
       </c>
-      <c r="L235" s="70" t="s">
+      <c r="J235" s="70" t="s">
         <v>2000</v>
       </c>
-      <c r="M235" s="67">
+      <c r="K235" s="67">
         <v>234</v>
       </c>
-      <c r="N235" s="67" t="s">
+      <c r="L235" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="236" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A236" s="71" t="s">
         <v>2001</v>
       </c>
@@ -19790,28 +18410,22 @@
         <v>2006</v>
       </c>
       <c r="H236" s="67" t="s">
-        <v>156</v>
-      </c>
-      <c r="I236" s="67" t="s">
-        <v>2007</v>
-      </c>
-      <c r="J236" s="67" t="s">
         <v>2001</v>
       </c>
-      <c r="K236" s="68" t="s">
+      <c r="I236" s="68" t="s">
         <v>2009</v>
       </c>
-      <c r="L236" s="70" t="s">
+      <c r="J236" s="70" t="s">
         <v>2010</v>
       </c>
-      <c r="M236" s="67">
+      <c r="K236" s="67">
         <v>231</v>
       </c>
-      <c r="N236" s="67" t="s">
+      <c r="L236" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="237" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A237" s="71" t="s">
         <v>2012</v>
       </c>
@@ -19834,28 +18448,22 @@
         <v>2017</v>
       </c>
       <c r="H237" s="67" t="s">
-        <v>2011</v>
-      </c>
-      <c r="I237" s="67" t="s">
-        <v>2011</v>
-      </c>
-      <c r="J237" s="67" t="s">
         <v>2012</v>
       </c>
-      <c r="K237" s="68" t="s">
+      <c r="I237" s="68" t="s">
         <v>2019</v>
       </c>
-      <c r="L237" s="70" t="s">
+      <c r="J237" s="70" t="s">
         <v>2020</v>
       </c>
-      <c r="M237" s="67">
+      <c r="K237" s="67">
         <v>235</v>
       </c>
-      <c r="N237" s="67" t="s">
+      <c r="L237" s="67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="238" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A238" s="71" t="s">
         <v>2022</v>
       </c>
@@ -19878,28 +18486,22 @@
         <v>2027</v>
       </c>
       <c r="H238" s="67" t="s">
-        <v>2021</v>
-      </c>
-      <c r="I238" s="67" t="s">
-        <v>2021</v>
-      </c>
-      <c r="J238" s="67" t="s">
         <v>2022</v>
       </c>
-      <c r="K238" s="68" t="s">
+      <c r="I238" s="68" t="s">
         <v>2030</v>
       </c>
-      <c r="L238" s="70" t="s">
+      <c r="J238" s="70" t="s">
         <v>2031</v>
       </c>
-      <c r="M238" s="67">
+      <c r="K238" s="67">
         <v>94</v>
       </c>
-      <c r="N238" s="67" t="s">
+      <c r="L238" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="239" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A239" s="71" t="s">
         <v>2033</v>
       </c>
@@ -19922,28 +18524,22 @@
         <v>2035</v>
       </c>
       <c r="H239" s="67" t="s">
-        <v>2032</v>
-      </c>
-      <c r="I239" s="67" t="s">
-        <v>2032</v>
-      </c>
-      <c r="J239" s="67" t="s">
         <v>2033</v>
       </c>
-      <c r="K239" s="68" t="s">
+      <c r="I239" s="68" t="s">
         <v>2037</v>
       </c>
-      <c r="L239" s="70" t="s">
+      <c r="J239" s="70" t="s">
         <v>2038</v>
       </c>
-      <c r="M239" s="67">
+      <c r="K239" s="67">
         <v>191</v>
       </c>
-      <c r="N239" s="67" t="s">
+      <c r="L239" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="240" spans="1:14" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A240" s="71" t="s">
         <v>2040</v>
       </c>
@@ -19966,28 +18562,22 @@
         <v>2039</v>
       </c>
       <c r="H240" s="67" t="s">
-        <v>2039</v>
-      </c>
-      <c r="I240" s="67" t="s">
-        <v>2039</v>
-      </c>
-      <c r="J240" s="67" t="s">
         <v>2040</v>
       </c>
-      <c r="K240" s="68" t="s">
+      <c r="I240" s="68" t="s">
         <v>2045</v>
       </c>
-      <c r="L240" s="70" t="s">
+      <c r="J240" s="70" t="s">
         <v>2046</v>
       </c>
-      <c r="M240" s="67">
+      <c r="K240" s="67">
         <v>236</v>
       </c>
-      <c r="N240" s="67" t="s">
+      <c r="L240" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="241" spans="1:15" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A241" s="71" t="s">
         <v>2048</v>
       </c>
@@ -20010,28 +18600,22 @@
         <v>2053</v>
       </c>
       <c r="H241" s="67" t="s">
-        <v>2047</v>
-      </c>
-      <c r="I241" s="67" t="s">
-        <v>2047</v>
-      </c>
-      <c r="J241" s="67" t="s">
         <v>2048</v>
       </c>
-      <c r="K241" s="68" t="s">
+      <c r="I241" s="68" t="s">
         <v>2055</v>
       </c>
-      <c r="L241" s="70" t="s">
+      <c r="J241" s="70" t="s">
         <v>2056</v>
       </c>
-      <c r="M241" s="67">
+      <c r="K241" s="67">
         <v>239</v>
       </c>
-      <c r="N241" s="67" t="s">
+      <c r="L241" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="242" spans="1:15" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A242" s="71" t="s">
         <v>2058</v>
       </c>
@@ -20054,28 +18638,22 @@
         <v>2166</v>
       </c>
       <c r="H242" s="67" t="s">
-        <v>2057</v>
-      </c>
-      <c r="I242" s="67" t="s">
-        <v>2057</v>
-      </c>
-      <c r="J242" s="72" t="s">
         <v>2058</v>
       </c>
-      <c r="K242" s="68" t="s">
+      <c r="I242" s="68" t="s">
         <v>2060</v>
       </c>
-      <c r="L242" s="70" t="s">
+      <c r="J242" s="70" t="s">
         <v>2061</v>
       </c>
-      <c r="M242" s="67">
+      <c r="K242" s="67">
         <v>240</v>
       </c>
-      <c r="N242" s="67" t="s">
+      <c r="L242" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="243" spans="1:15" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A243" s="71" t="s">
         <v>2063</v>
       </c>
@@ -20098,28 +18676,22 @@
         <v>2066</v>
       </c>
       <c r="H243" s="67" t="s">
-        <v>2062</v>
-      </c>
-      <c r="I243" s="67" t="s">
-        <v>2062</v>
-      </c>
-      <c r="J243" s="67" t="s">
         <v>2063</v>
       </c>
-      <c r="K243" s="68" t="s">
+      <c r="I243" s="68" t="s">
         <v>2069</v>
       </c>
-      <c r="L243" s="70" t="s">
+      <c r="J243" s="70" t="s">
         <v>2070</v>
       </c>
-      <c r="M243" s="67">
+      <c r="K243" s="67">
         <v>237</v>
       </c>
-      <c r="N243" s="67" t="s">
+      <c r="L243" s="67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="244" spans="1:15" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A244" s="71" t="s">
         <v>2072</v>
       </c>
@@ -20142,28 +18714,22 @@
         <v>2071</v>
       </c>
       <c r="H244" s="67" t="s">
-        <v>2071</v>
-      </c>
-      <c r="I244" s="67" t="s">
-        <v>2071</v>
-      </c>
-      <c r="J244" s="67" t="s">
         <v>2072</v>
       </c>
-      <c r="K244" s="68" t="s">
+      <c r="I244" s="68" t="s">
         <v>2077</v>
       </c>
-      <c r="L244" s="70" t="s">
+      <c r="J244" s="70" t="s">
         <v>2078</v>
       </c>
-      <c r="M244" s="67">
+      <c r="K244" s="67">
         <v>155</v>
       </c>
-      <c r="N244" s="67" t="s">
+      <c r="L244" s="67" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="245" spans="1:15" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A245" s="71" t="s">
         <v>2080</v>
       </c>
@@ -20186,28 +18752,22 @@
         <v>2084</v>
       </c>
       <c r="H245" s="67" t="s">
-        <v>2079</v>
-      </c>
-      <c r="I245" s="67" t="s">
-        <v>2081</v>
-      </c>
-      <c r="J245" s="67" t="s">
         <v>2080</v>
       </c>
-      <c r="K245" s="68" t="s">
+      <c r="I245" s="68" t="s">
         <v>2086</v>
       </c>
-      <c r="L245" s="70" t="s">
+      <c r="J245" s="70" t="s">
         <v>2087</v>
       </c>
-      <c r="M245" s="67">
+      <c r="K245" s="67">
         <v>243</v>
       </c>
-      <c r="N245" s="67" t="s">
+      <c r="L245" s="67" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="246" spans="1:15" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A246" s="71" t="s">
         <v>2089</v>
       </c>
@@ -20230,28 +18790,22 @@
         <v>2088</v>
       </c>
       <c r="H246" s="67" t="s">
-        <v>2088</v>
-      </c>
-      <c r="I246" s="67" t="s">
-        <v>2088</v>
-      </c>
-      <c r="J246" s="67" t="s">
         <v>2089</v>
       </c>
-      <c r="K246" s="68" t="s">
+      <c r="I246" s="68" t="s">
         <v>1646</v>
       </c>
-      <c r="L246" s="70" t="s">
+      <c r="J246" s="70" t="s">
         <v>2093</v>
       </c>
-      <c r="M246" s="67">
+      <c r="K246" s="67">
         <v>244</v>
       </c>
-      <c r="N246" s="67" t="s">
+      <c r="L246" s="67" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="247" spans="1:15" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A247" s="71" t="s">
         <v>2095</v>
       </c>
@@ -20274,28 +18828,22 @@
         <v>2100</v>
       </c>
       <c r="H247" s="67" t="s">
-        <v>2094</v>
-      </c>
-      <c r="I247" s="67" t="s">
-        <v>2094</v>
-      </c>
-      <c r="J247" s="67" t="s">
         <v>2095</v>
       </c>
-      <c r="K247" s="68" t="s">
+      <c r="I247" s="68" t="s">
         <v>2102</v>
       </c>
-      <c r="L247" s="70" t="s">
+      <c r="J247" s="70" t="s">
         <v>2103</v>
       </c>
-      <c r="M247" s="67">
+      <c r="K247" s="67">
         <v>249</v>
       </c>
-      <c r="N247" s="67" t="s">
+      <c r="L247" s="67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="248" spans="1:15" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A248" s="71" t="s">
         <v>2106</v>
       </c>
@@ -20318,28 +18866,22 @@
         <v>2111</v>
       </c>
       <c r="H248" s="67" t="s">
-        <v>2105</v>
-      </c>
-      <c r="I248" s="67" t="s">
-        <v>2105</v>
-      </c>
-      <c r="J248" s="67" t="s">
         <v>2106</v>
       </c>
-      <c r="K248" s="68" t="s">
+      <c r="I248" s="68" t="s">
         <v>2113</v>
       </c>
-      <c r="L248" s="70" t="s">
+      <c r="J248" s="70" t="s">
         <v>2114</v>
       </c>
-      <c r="M248" s="67">
+      <c r="K248" s="67">
         <v>202</v>
       </c>
-      <c r="N248" s="67" t="s">
+      <c r="L248" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="249" spans="1:15" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A249" s="71" t="s">
         <v>2116</v>
       </c>
@@ -20362,28 +18904,22 @@
         <v>2120</v>
       </c>
       <c r="H249" s="67" t="s">
-        <v>2115</v>
-      </c>
-      <c r="I249" s="67" t="s">
-        <v>2115</v>
-      </c>
-      <c r="J249" s="67" t="s">
         <v>2116</v>
       </c>
-      <c r="K249" s="68" t="s">
+      <c r="I249" s="68" t="s">
         <v>2121</v>
       </c>
-      <c r="L249" s="70" t="s">
+      <c r="J249" s="70" t="s">
         <v>2122</v>
       </c>
-      <c r="M249" s="67">
+      <c r="K249" s="67">
         <v>251</v>
       </c>
-      <c r="N249" s="67" t="s">
+      <c r="L249" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="250" spans="1:15" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A250" s="71" t="s">
         <v>2124</v>
       </c>
@@ -20406,110 +18942,20 @@
         <v>2123</v>
       </c>
       <c r="H250" s="67" t="s">
-        <v>2123</v>
-      </c>
-      <c r="I250" s="67" t="s">
-        <v>2123</v>
-      </c>
-      <c r="J250" s="67" t="s">
         <v>2124</v>
       </c>
-      <c r="K250" s="68" t="s">
+      <c r="I250" s="68" t="s">
         <v>2129</v>
       </c>
-      <c r="L250" s="70" t="s">
+      <c r="J250" s="70" t="s">
         <v>2130</v>
       </c>
-      <c r="M250" s="67">
+      <c r="K250" s="67">
         <v>181</v>
       </c>
-      <c r="N250" s="67" t="s">
+      <c r="L250" s="67" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="O251" s="67"/>
-    </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="O252" s="67"/>
-    </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="O253" s="67"/>
-    </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="O254" s="67"/>
-    </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="O255" s="67"/>
-    </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="O256" s="67"/>
-    </row>
-    <row r="257" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O257" s="67"/>
-    </row>
-    <row r="258" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O258" s="67"/>
-    </row>
-    <row r="259" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O259" s="67"/>
-    </row>
-    <row r="260" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O260" s="67"/>
-    </row>
-    <row r="261" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O261" s="67"/>
-    </row>
-    <row r="262" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O262" s="67"/>
-    </row>
-    <row r="263" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O263" s="67"/>
-    </row>
-    <row r="264" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O264" s="67"/>
-    </row>
-    <row r="265" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O265" s="67"/>
-    </row>
-    <row r="266" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O266" s="67"/>
-    </row>
-    <row r="267" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O267" s="67"/>
-    </row>
-    <row r="268" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O268" s="67"/>
-    </row>
-    <row r="269" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O269" s="67"/>
-    </row>
-    <row r="270" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O270" s="67"/>
-    </row>
-    <row r="271" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O271" s="67"/>
-    </row>
-    <row r="272" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O272" s="67"/>
-    </row>
-    <row r="273" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O273" s="67"/>
-    </row>
-    <row r="274" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O274" s="67"/>
-    </row>
-    <row r="275" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O275" s="67"/>
-    </row>
-    <row r="276" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O276" s="67"/>
-    </row>
-    <row r="277" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O277" s="67"/>
-    </row>
-    <row r="278" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O278" s="67"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -56218,4 +54664,250 @@
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="A2:B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="73" t="s">
+        <v>2194</v>
+      </c>
+      <c r="B1" s="73" t="s">
+        <v>2226</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="71" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="67" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="71" t="s">
+        <v>362</v>
+      </c>
+      <c r="B3" s="67" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="71" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B4" s="67" t="s">
+        <v>2224</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="71" t="s">
+        <v>1912</v>
+      </c>
+      <c r="B5" s="67" t="s">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="71" t="s">
+        <v>715</v>
+      </c>
+      <c r="B6" s="67" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="71" t="s">
+        <v>725</v>
+      </c>
+      <c r="B7" s="67" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="71" t="s">
+        <v>870</v>
+      </c>
+      <c r="B8" s="67" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="71" t="s">
+        <v>864</v>
+      </c>
+      <c r="B9" s="67" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="71" t="s">
+        <v>434</v>
+      </c>
+      <c r="B10" s="67" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="71" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B11" s="67" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="71" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B12" s="67" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="71" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B13" s="67" t="s">
+        <v>2225</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="71" t="s">
+        <v>467</v>
+      </c>
+      <c r="B14" s="67" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="71" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B15" s="67" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="71" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B16" s="67" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="71" t="s">
+        <v>302</v>
+      </c>
+      <c r="B17" s="67" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="71" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B18" s="67" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="71" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B19" s="67" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="71" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B20" s="67" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="71" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B21" s="67" t="s">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A22" s="71" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B22" s="67" t="s">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="71" t="s">
+        <v>284</v>
+      </c>
+      <c r="B23" s="67" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A24" s="71" t="s">
+        <v>788</v>
+      </c>
+      <c r="B24" s="67" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A25" s="71" t="s">
+        <v>2001</v>
+      </c>
+      <c r="B25" s="67" t="s">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A26" s="71" t="s">
+        <v>2022</v>
+      </c>
+      <c r="B26" s="67" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A27" s="71" t="s">
+        <v>2063</v>
+      </c>
+      <c r="B27" s="67" t="s">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A28" s="71" t="s">
+        <v>2080</v>
+      </c>
+      <c r="B28" s="67" t="s">
+        <v>2079</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:B250">
+    <sortCondition ref="B2:B250"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/CountryReconciler/reconciler/files/country_list.xlsx
+++ b/CountryReconciler/reconciler/files/country_list.xlsx
@@ -29,31 +29,7 @@
     <author>carlos</author>
   </authors>
   <commentList>
-    <comment ref="H22" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>carlos:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-missed ISO3 code in ontology</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K22" authorId="0" shapeId="0">
+    <comment ref="J22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -74,30 +50,6 @@
           </rPr>
           <t xml:space="preserve">
 missed value in the ontology</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H214" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>carlos:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-missing ISO3 code in ontology</t>
         </r>
       </text>
     </comment>
@@ -130,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9563" uniqueCount="2227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9316" uniqueCount="2227">
   <si>
     <t>sovereignt,C,254</t>
   </si>
@@ -6817,7 +6769,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="43" x14ac:knownFonts="1">
+  <fonts count="44" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -7105,6 +7057,12 @@
       <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="50">
@@ -7844,11 +7802,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" xfId="152"/>
     <xf numFmtId="0" fontId="27" fillId="19" borderId="0" xfId="153" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="18" borderId="0" xfId="152" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="18" borderId="0" xfId="152" applyAlignment="1">
@@ -7867,6 +7821,10 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="152" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="43" fillId="0" borderId="0" xfId="152" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="189">
     <cellStyle name="20% - Énfasis1" xfId="164" builtinId="30" customBuiltin="1"/>
@@ -9447,10 +9405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L250"/>
+  <dimension ref="A1:K250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A214" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C233" sqref="C233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -9462,53 +9420,49 @@
     <col min="5" max="5" width="39.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="68.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="38.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="75" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+    <row r="1" spans="1:11" s="73" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="71" t="s">
         <v>2194</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="73" t="s">
+      <c r="C1" s="71" t="s">
         <v>2135</v>
       </c>
-      <c r="D1" s="73" t="s">
+      <c r="D1" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="73" t="s">
+      <c r="E1" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="73" t="s">
+      <c r="F1" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="73" t="s">
+      <c r="G1" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="73" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="73" t="s">
+      <c r="H1" s="71" t="s">
         <v>2211</v>
       </c>
-      <c r="J1" s="73" t="s">
+      <c r="I1" s="71" t="s">
         <v>2212</v>
       </c>
-      <c r="K1" s="74" t="s">
+      <c r="J1" s="72" t="s">
         <v>2138</v>
       </c>
-      <c r="L1" s="73" t="s">
+      <c r="K1" s="71" t="s">
         <v>2195</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="71" t="s">
+    <row r="2" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="69" t="s">
         <v>48</v>
       </c>
       <c r="B2" s="67" t="s">
@@ -9529,24 +9483,21 @@
       <c r="G2" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="66" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" s="68" t="s">
+      <c r="H2" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="J2" s="70" t="s">
+      <c r="I2" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="K2" s="67">
+      <c r="J2" s="67">
         <v>22</v>
       </c>
-      <c r="L2" s="67" t="s">
+      <c r="K2" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="71" t="s">
+    <row r="3" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="69" t="s">
         <v>59</v>
       </c>
       <c r="B3" s="67" t="s">
@@ -9567,24 +9518,21 @@
       <c r="G3" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="H3" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="I3" s="68" t="s">
+      <c r="H3" s="75" t="s">
         <v>65</v>
       </c>
-      <c r="J3" s="70" t="s">
+      <c r="I3" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="K3" s="67">
+      <c r="J3" s="67">
         <v>2</v>
       </c>
-      <c r="L3" s="67" t="s">
+      <c r="K3" s="67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="71" t="s">
+    <row r="4" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="69" t="s">
         <v>73</v>
       </c>
       <c r="B4" s="67" t="s">
@@ -9605,24 +9553,21 @@
       <c r="G4" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="H4" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="I4" s="68" t="s">
+      <c r="H4" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="J4" s="70" t="s">
+      <c r="I4" s="76" t="s">
         <v>80</v>
       </c>
-      <c r="K4" s="67">
+      <c r="J4" s="67">
         <v>7</v>
       </c>
-      <c r="L4" s="67" t="s">
+      <c r="K4" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="71" t="s">
+    <row r="5" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="69" t="s">
         <v>87</v>
       </c>
       <c r="B5" s="67" t="s">
@@ -9643,24 +9588,21 @@
       <c r="G5" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="H5" s="67" t="s">
-        <v>87</v>
-      </c>
-      <c r="I5" s="68" t="s">
+      <c r="H5" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="J5" s="70" t="s">
+      <c r="I5" s="76" t="s">
         <v>89</v>
       </c>
-      <c r="K5" s="67">
+      <c r="J5" s="67">
         <v>258</v>
       </c>
-      <c r="L5" s="67" t="s">
+      <c r="K5" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="71" t="s">
+    <row r="6" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="69" t="s">
         <v>111</v>
       </c>
       <c r="B6" s="67" t="s">
@@ -9681,24 +9623,21 @@
       <c r="G6" s="67" t="s">
         <v>2140</v>
       </c>
-      <c r="H6" s="67" t="s">
-        <v>111</v>
-      </c>
-      <c r="I6" s="68" t="s">
+      <c r="H6" s="75" t="s">
         <v>110</v>
       </c>
-      <c r="J6" s="70" t="s">
+      <c r="I6" s="76" t="s">
         <v>112</v>
       </c>
-      <c r="K6" s="76">
+      <c r="J6" s="74">
         <v>284</v>
       </c>
-      <c r="L6" s="67" t="s">
+      <c r="K6" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="71" t="s">
+    <row r="7" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="69" t="s">
         <v>92</v>
       </c>
       <c r="B7" s="67" t="s">
@@ -9719,24 +9658,21 @@
       <c r="G7" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="H7" s="67" t="s">
-        <v>92</v>
-      </c>
-      <c r="I7" s="68" t="s">
+      <c r="H7" s="75" t="s">
         <v>98</v>
       </c>
-      <c r="J7" s="70" t="s">
+      <c r="I7" s="76" t="s">
         <v>100</v>
       </c>
-      <c r="K7" s="67">
+      <c r="J7" s="67">
         <v>3</v>
       </c>
-      <c r="L7" s="67" t="s">
+      <c r="K7" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="71" t="s">
+    <row r="8" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="69" t="s">
         <v>115</v>
       </c>
       <c r="B8" s="67" t="s">
@@ -9757,24 +9693,21 @@
       <c r="G8" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="H8" s="67" t="s">
-        <v>115</v>
-      </c>
-      <c r="I8" s="68" t="s">
+      <c r="H8" s="75" t="s">
         <v>121</v>
       </c>
-      <c r="J8" s="70" t="s">
+      <c r="I8" s="76" t="s">
         <v>122</v>
       </c>
-      <c r="K8" s="67">
+      <c r="J8" s="67">
         <v>6</v>
       </c>
-      <c r="L8" s="67" t="s">
+      <c r="K8" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="71" t="s">
+    <row r="9" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="69" t="s">
         <v>125</v>
       </c>
       <c r="B9" s="67" t="s">
@@ -9795,24 +9728,21 @@
       <c r="G9" s="67" t="s">
         <v>130</v>
       </c>
-      <c r="H9" s="67" t="s">
-        <v>125</v>
-      </c>
-      <c r="I9" s="68" t="s">
+      <c r="H9" s="75" t="s">
         <v>132</v>
       </c>
-      <c r="J9" s="70" t="s">
+      <c r="I9" s="76" t="s">
         <v>133</v>
       </c>
-      <c r="K9" s="67">
+      <c r="J9" s="67">
         <v>225</v>
       </c>
-      <c r="L9" s="67" t="s">
+      <c r="K9" s="67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="71" t="s">
+    <row r="10" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="69" t="s">
         <v>137</v>
       </c>
       <c r="B10" s="67" t="s">
@@ -9833,24 +9763,21 @@
       <c r="G10" s="67" t="s">
         <v>141</v>
       </c>
-      <c r="H10" s="67" t="s">
-        <v>137</v>
-      </c>
-      <c r="I10" s="68" t="s">
+      <c r="H10" s="75" t="s">
         <v>143</v>
       </c>
-      <c r="J10" s="70" t="s">
+      <c r="I10" s="76" t="s">
         <v>145</v>
       </c>
-      <c r="K10" s="67">
+      <c r="J10" s="67">
         <v>9</v>
       </c>
-      <c r="L10" s="67" t="s">
+      <c r="K10" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="71" t="s">
+    <row r="11" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="69" t="s">
         <v>148</v>
       </c>
       <c r="B11" s="67" t="s">
@@ -9871,24 +9798,21 @@
       <c r="G11" s="67" t="s">
         <v>152</v>
       </c>
-      <c r="H11" s="67" t="s">
-        <v>148</v>
-      </c>
-      <c r="I11" s="68" t="s">
+      <c r="H11" s="75" t="s">
         <v>154</v>
       </c>
-      <c r="J11" s="70" t="s">
+      <c r="I11" s="76" t="s">
         <v>155</v>
       </c>
-      <c r="K11" s="67">
+      <c r="J11" s="67">
         <v>1</v>
       </c>
-      <c r="L11" s="67" t="s">
+      <c r="K11" s="67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="71" t="s">
+    <row r="12" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="69" t="s">
         <v>158</v>
       </c>
       <c r="B12" s="67" t="s">
@@ -9909,24 +9833,21 @@
       <c r="G12" s="67" t="s">
         <v>161</v>
       </c>
-      <c r="H12" s="67" t="s">
-        <v>158</v>
-      </c>
-      <c r="I12" s="68" t="s">
+      <c r="H12" s="75" t="s">
         <v>163</v>
       </c>
-      <c r="J12" s="70" t="s">
+      <c r="I12" s="76" t="s">
         <v>164</v>
       </c>
-      <c r="K12" s="67">
+      <c r="J12" s="67">
         <v>5</v>
       </c>
-      <c r="L12" s="67" t="s">
+      <c r="K12" s="67" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="71" t="s">
+    <row r="13" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="69" t="s">
         <v>170</v>
       </c>
       <c r="B13" s="67" t="s">
@@ -9947,24 +9868,21 @@
       <c r="G13" s="67" t="s">
         <v>172</v>
       </c>
-      <c r="H13" s="66" t="s">
-        <v>170</v>
-      </c>
-      <c r="I13" s="68" t="s">
+      <c r="H13" s="75" t="s">
         <v>174</v>
       </c>
-      <c r="J13" s="70" t="s">
+      <c r="I13" s="76" t="s">
         <v>175</v>
       </c>
-      <c r="K13" s="67">
+      <c r="J13" s="67">
         <v>30</v>
       </c>
-      <c r="L13" s="67" t="s">
+      <c r="K13" s="67" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="71" t="s">
+    <row r="14" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="69" t="s">
         <v>183</v>
       </c>
       <c r="B14" s="67" t="s">
@@ -9985,24 +9903,21 @@
       <c r="G14" s="67" t="s">
         <v>2142</v>
       </c>
-      <c r="H14" s="66" t="s">
-        <v>183</v>
-      </c>
-      <c r="I14" s="68" t="s">
+      <c r="H14" s="75" t="s">
         <v>185</v>
       </c>
-      <c r="J14" s="70">
+      <c r="I14" s="76">
         <v>260</v>
       </c>
-      <c r="K14" s="67">
+      <c r="J14" s="67">
         <v>71</v>
       </c>
-      <c r="L14" s="67" t="s">
+      <c r="K14" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="71" t="s">
+    <row r="15" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="69" t="s">
         <v>189</v>
       </c>
       <c r="B15" s="67" t="s">
@@ -10023,24 +9938,21 @@
       <c r="G15" s="67" t="s">
         <v>191</v>
       </c>
-      <c r="H15" s="67" t="s">
-        <v>189</v>
-      </c>
-      <c r="I15" s="68" t="s">
+      <c r="H15" s="75" t="s">
         <v>193</v>
       </c>
-      <c r="J15" s="70" t="s">
+      <c r="I15" s="76" t="s">
         <v>194</v>
       </c>
-      <c r="K15" s="67">
+      <c r="J15" s="67">
         <v>8</v>
       </c>
-      <c r="L15" s="67" t="s">
+      <c r="K15" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="71" t="s">
+    <row r="16" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="69" t="s">
         <v>179</v>
       </c>
       <c r="B16" s="67" t="s">
@@ -10061,24 +9973,21 @@
       <c r="G16" s="67" t="s">
         <v>196</v>
       </c>
-      <c r="H16" s="67" t="s">
-        <v>179</v>
-      </c>
-      <c r="I16" s="68" t="s">
+      <c r="H16" s="75" t="s">
         <v>178</v>
       </c>
-      <c r="J16" s="70" t="s">
+      <c r="I16" s="76" t="s">
         <v>198</v>
       </c>
-      <c r="K16" s="67">
+      <c r="J16" s="67">
         <v>10</v>
       </c>
-      <c r="L16" s="67" t="s">
+      <c r="K16" s="67" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="71" t="s">
+    <row r="17" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="69" t="s">
         <v>200</v>
       </c>
       <c r="B17" s="67" t="s">
@@ -10099,24 +10008,21 @@
       <c r="G17" s="67" t="s">
         <v>204</v>
       </c>
-      <c r="H17" s="67" t="s">
-        <v>200</v>
-      </c>
-      <c r="I17" s="68" t="s">
+      <c r="H17" s="75" t="s">
         <v>207</v>
       </c>
-      <c r="J17" s="70" t="s">
+      <c r="I17" s="76" t="s">
         <v>208</v>
       </c>
-      <c r="K17" s="67">
+      <c r="J17" s="67">
         <v>11</v>
       </c>
-      <c r="L17" s="67" t="s">
+      <c r="K17" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="71" t="s">
+    <row r="18" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="69" t="s">
         <v>211</v>
       </c>
       <c r="B18" s="67" t="s">
@@ -10137,24 +10043,21 @@
       <c r="G18" s="67" t="s">
         <v>216</v>
       </c>
-      <c r="H18" s="67" t="s">
-        <v>211</v>
-      </c>
-      <c r="I18" s="68" t="s">
+      <c r="H18" s="75" t="s">
         <v>218</v>
       </c>
-      <c r="J18" s="70" t="s">
+      <c r="I18" s="76" t="s">
         <v>219</v>
       </c>
-      <c r="K18" s="67">
+      <c r="J18" s="67">
         <v>52</v>
       </c>
-      <c r="L18" s="67" t="s">
+      <c r="K18" s="67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="71" t="s">
+    <row r="19" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="69" t="s">
         <v>221</v>
       </c>
       <c r="B19" s="67" t="s">
@@ -10175,24 +10078,21 @@
       <c r="G19" s="67" t="s">
         <v>220</v>
       </c>
-      <c r="H19" s="67" t="s">
-        <v>221</v>
-      </c>
-      <c r="I19" s="68" t="s">
+      <c r="H19" s="75" t="s">
         <v>226</v>
       </c>
-      <c r="J19" s="70" t="s">
+      <c r="I19" s="76" t="s">
         <v>227</v>
       </c>
-      <c r="K19" s="67">
+      <c r="J19" s="67">
         <v>29</v>
       </c>
-      <c r="L19" s="67" t="s">
+      <c r="K19" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="71" t="s">
+    <row r="20" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="69" t="s">
         <v>230</v>
       </c>
       <c r="B20" s="67" t="s">
@@ -10213,24 +10113,21 @@
       <c r="G20" s="67" t="s">
         <v>235</v>
       </c>
-      <c r="H20" s="67" t="s">
-        <v>230</v>
-      </c>
-      <c r="I20" s="68" t="s">
+      <c r="H20" s="75" t="s">
         <v>238</v>
       </c>
-      <c r="J20" s="70" t="s">
+      <c r="I20" s="76" t="s">
         <v>239</v>
       </c>
-      <c r="K20" s="67">
+      <c r="J20" s="67">
         <v>255</v>
       </c>
-      <c r="L20" s="67" t="s">
+      <c r="K20" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="71" t="s">
+    <row r="21" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="69" t="s">
         <v>241</v>
       </c>
       <c r="B21" s="67" t="s">
@@ -10251,24 +10148,21 @@
       <c r="G21" s="67" t="s">
         <v>245</v>
       </c>
-      <c r="H21" s="67" t="s">
-        <v>241</v>
-      </c>
-      <c r="I21" s="68" t="s">
+      <c r="H21" s="75" t="s">
         <v>246</v>
       </c>
-      <c r="J21" s="70" t="s">
+      <c r="I21" s="76" t="s">
         <v>247</v>
       </c>
-      <c r="K21" s="67">
+      <c r="J21" s="67">
         <v>53</v>
       </c>
-      <c r="L21" s="67" t="s">
+      <c r="K21" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="71" t="s">
+    <row r="22" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A22" s="69" t="s">
         <v>2131</v>
       </c>
       <c r="B22" s="67" t="s">
@@ -10289,20 +10183,19 @@
       <c r="G22" s="67" t="s">
         <v>2134</v>
       </c>
-      <c r="H22" s="69"/>
-      <c r="I22" s="68" t="s">
+      <c r="H22" s="75" t="s">
         <v>2196</v>
       </c>
-      <c r="J22" s="68" t="s">
+      <c r="I22" s="75" t="s">
         <v>2221</v>
       </c>
-      <c r="K22" s="69"/>
-      <c r="L22" s="67" t="s">
+      <c r="J22" s="68"/>
+      <c r="K22" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="71" t="s">
+    <row r="23" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="69" t="s">
         <v>250</v>
       </c>
       <c r="B23" s="67" t="s">
@@ -10323,24 +10216,21 @@
       <c r="G23" s="67" t="s">
         <v>249</v>
       </c>
-      <c r="H23" s="67" t="s">
-        <v>250</v>
-      </c>
-      <c r="I23" s="68" t="s">
+      <c r="H23" s="75" t="s">
         <v>253</v>
       </c>
-      <c r="J23" s="70" t="s">
+      <c r="I23" s="76" t="s">
         <v>254</v>
       </c>
-      <c r="K23" s="67">
+      <c r="J23" s="67">
         <v>233</v>
       </c>
-      <c r="L23" s="67" t="s">
+      <c r="K23" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="71" t="s">
+    <row r="24" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A24" s="69" t="s">
         <v>256</v>
       </c>
       <c r="B24" s="67" t="s">
@@ -10361,24 +10251,21 @@
       <c r="G24" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="H24" s="67" t="s">
-        <v>256</v>
-      </c>
-      <c r="I24" s="68" t="s">
+      <c r="H24" s="75" t="s">
         <v>261</v>
       </c>
-      <c r="J24" s="70" t="s">
+      <c r="I24" s="76" t="s">
         <v>262</v>
       </c>
-      <c r="K24" s="67">
+      <c r="J24" s="67">
         <v>16</v>
       </c>
-      <c r="L24" s="67" t="s">
+      <c r="K24" s="67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="71" t="s">
+    <row r="25" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A25" s="69" t="s">
         <v>264</v>
       </c>
       <c r="B25" s="67" t="s">
@@ -10399,24 +10286,21 @@
       <c r="G25" s="67" t="s">
         <v>268</v>
       </c>
-      <c r="H25" s="67" t="s">
-        <v>264</v>
-      </c>
-      <c r="I25" s="68" t="s">
+      <c r="H25" s="75" t="s">
         <v>270</v>
       </c>
-      <c r="J25" s="70" t="s">
+      <c r="I25" s="76" t="s">
         <v>271</v>
       </c>
-      <c r="K25" s="67">
+      <c r="J25" s="67">
         <v>27</v>
       </c>
-      <c r="L25" s="67" t="s">
+      <c r="K25" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="71" t="s">
+    <row r="26" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A26" s="69" t="s">
         <v>274</v>
       </c>
       <c r="B26" s="67" t="s">
@@ -10437,24 +10321,21 @@
       <c r="G26" s="67" t="s">
         <v>279</v>
       </c>
-      <c r="H26" s="67" t="s">
-        <v>274</v>
-      </c>
-      <c r="I26" s="68" t="s">
+      <c r="H26" s="75" t="s">
         <v>281</v>
       </c>
-      <c r="J26" s="70" t="s">
+      <c r="I26" s="76" t="s">
         <v>282</v>
       </c>
-      <c r="K26" s="67">
+      <c r="J26" s="67">
         <v>13</v>
       </c>
-      <c r="L26" s="67" t="s">
+      <c r="K26" s="67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A27" s="71" t="s">
+    <row r="27" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A27" s="69" t="s">
         <v>284</v>
       </c>
       <c r="B27" s="67" t="s">
@@ -10475,24 +10356,21 @@
       <c r="G27" s="67" t="s">
         <v>287</v>
       </c>
-      <c r="H27" s="67" t="s">
-        <v>284</v>
-      </c>
-      <c r="I27" s="68" t="s">
+      <c r="H27" s="75" t="s">
         <v>290</v>
       </c>
-      <c r="J27" s="70" t="s">
+      <c r="I27" s="76" t="s">
         <v>291</v>
       </c>
-      <c r="K27" s="67">
+      <c r="J27" s="67">
         <v>12</v>
       </c>
-      <c r="L27" s="67" t="s">
+      <c r="K27" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="71" t="s">
+    <row r="28" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A28" s="69" t="s">
         <v>293</v>
       </c>
       <c r="B28" s="67" t="s">
@@ -10513,27 +10391,24 @@
       <c r="G28" s="67" t="s">
         <v>296</v>
       </c>
-      <c r="H28" s="67" t="s">
-        <v>293</v>
-      </c>
-      <c r="I28" s="68" t="s">
+      <c r="H28" s="75" t="s">
         <v>299</v>
       </c>
-      <c r="J28" s="70" t="s">
+      <c r="I28" s="76" t="s">
         <v>300</v>
       </c>
-      <c r="K28" s="67">
+      <c r="J28" s="67">
         <v>80</v>
       </c>
-      <c r="L28" s="67" t="s">
+      <c r="K28" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="71" t="s">
+    <row r="29" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A29" s="69" t="s">
         <v>302</v>
       </c>
-      <c r="B29" s="72" t="s">
+      <c r="B29" s="70" t="s">
         <v>303</v>
       </c>
       <c r="C29" s="67" t="s">
@@ -10551,20 +10426,19 @@
       <c r="G29" s="67" t="s">
         <v>305</v>
       </c>
-      <c r="H29" s="69"/>
-      <c r="I29" s="68" t="s">
+      <c r="H29" s="75" t="s">
         <v>308</v>
       </c>
-      <c r="J29" s="70" t="s">
+      <c r="I29" s="76" t="s">
         <v>309</v>
       </c>
-      <c r="K29" s="69"/>
-      <c r="L29" s="67" t="s">
+      <c r="J29" s="68"/>
+      <c r="K29" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A30" s="71" t="s">
+    <row r="30" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A30" s="69" t="s">
         <v>311</v>
       </c>
       <c r="B30" s="67" t="s">
@@ -10585,24 +10459,21 @@
       <c r="G30" s="67" t="s">
         <v>316</v>
       </c>
-      <c r="H30" s="67" t="s">
-        <v>311</v>
-      </c>
-      <c r="I30" s="68" t="s">
+      <c r="H30" s="75" t="s">
         <v>318</v>
       </c>
-      <c r="J30" s="70" t="s">
+      <c r="I30" s="76" t="s">
         <v>319</v>
       </c>
-      <c r="K30" s="67">
+      <c r="J30" s="67">
         <v>57</v>
       </c>
-      <c r="L30" s="67" t="s">
+      <c r="K30" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="31" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A31" s="71" t="s">
+    <row r="31" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A31" s="69" t="s">
         <v>321</v>
       </c>
       <c r="B31" s="67" t="s">
@@ -10623,24 +10494,21 @@
       <c r="G31" s="67" t="s">
         <v>320</v>
       </c>
-      <c r="H31" s="67" t="s">
-        <v>321</v>
-      </c>
-      <c r="I31" s="68" t="s">
+      <c r="H31" s="75" t="s">
         <v>324</v>
       </c>
-      <c r="J31" s="70" t="s">
+      <c r="I31" s="76" t="s">
         <v>325</v>
       </c>
-      <c r="K31" s="67">
+      <c r="J31" s="67">
         <v>23</v>
       </c>
-      <c r="L31" s="67" t="s">
+      <c r="K31" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A32" s="71" t="s">
+    <row r="32" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A32" s="69" t="s">
         <v>328</v>
       </c>
       <c r="B32" s="67" t="s">
@@ -10661,24 +10529,21 @@
       <c r="G32" s="67" t="s">
         <v>331</v>
       </c>
-      <c r="H32" s="67" t="s">
-        <v>328</v>
-      </c>
-      <c r="I32" s="68" t="s">
+      <c r="H32" s="75" t="s">
         <v>333</v>
       </c>
-      <c r="J32" s="70" t="s">
+      <c r="I32" s="76" t="s">
         <v>334</v>
       </c>
-      <c r="K32" s="67">
+      <c r="J32" s="67">
         <v>17</v>
       </c>
-      <c r="L32" s="67" t="s">
+      <c r="K32" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A33" s="71" t="s">
+    <row r="33" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A33" s="69" t="s">
         <v>337</v>
       </c>
       <c r="B33" s="67" t="s">
@@ -10699,24 +10564,21 @@
       <c r="G33" s="67" t="s">
         <v>341</v>
       </c>
-      <c r="H33" s="67" t="s">
-        <v>337</v>
-      </c>
-      <c r="I33" s="68" t="s">
+      <c r="H33" s="75" t="s">
         <v>342</v>
       </c>
-      <c r="J33" s="70" t="s">
+      <c r="I33" s="76" t="s">
         <v>343</v>
       </c>
-      <c r="K33" s="67">
+      <c r="J33" s="67">
         <v>19</v>
       </c>
-      <c r="L33" s="67" t="s">
+      <c r="K33" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A34" s="71" t="s">
+    <row r="34" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A34" s="69" t="s">
         <v>345</v>
       </c>
       <c r="B34" s="67" t="s">
@@ -10737,24 +10599,21 @@
       <c r="G34" s="67" t="s">
         <v>350</v>
       </c>
-      <c r="H34" s="67" t="s">
-        <v>345</v>
-      </c>
-      <c r="I34" s="68" t="s">
+      <c r="H34" s="75" t="s">
         <v>351</v>
       </c>
-      <c r="J34" s="70" t="s">
+      <c r="I34" s="76" t="s">
         <v>353</v>
       </c>
-      <c r="K34" s="67">
+      <c r="J34" s="67">
         <v>21</v>
       </c>
-      <c r="L34" s="67" t="s">
+      <c r="K34" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A35" s="71" t="s">
+    <row r="35" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A35" s="69" t="s">
         <v>355</v>
       </c>
       <c r="B35" s="67" t="s">
@@ -10775,24 +10634,21 @@
       <c r="G35" s="67" t="s">
         <v>357</v>
       </c>
-      <c r="H35" s="67" t="s">
-        <v>355</v>
-      </c>
-      <c r="I35" s="68" t="s">
+      <c r="H35" s="75" t="s">
         <v>359</v>
       </c>
-      <c r="J35" s="70" t="s">
+      <c r="I35" s="76" t="s">
         <v>360</v>
       </c>
-      <c r="K35" s="67">
+      <c r="J35" s="67">
         <v>14</v>
       </c>
-      <c r="L35" s="67" t="s">
+      <c r="K35" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A36" s="71" t="s">
+    <row r="36" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A36" s="69" t="s">
         <v>362</v>
       </c>
       <c r="B36" s="67" t="s">
@@ -10813,24 +10669,21 @@
       <c r="G36" s="67" t="s">
         <v>365</v>
       </c>
-      <c r="H36" s="67" t="s">
-        <v>362</v>
-      </c>
-      <c r="I36" s="68" t="s">
+      <c r="H36" s="75" t="s">
         <v>366</v>
       </c>
-      <c r="J36" s="70" t="s">
+      <c r="I36" s="76" t="s">
         <v>367</v>
       </c>
-      <c r="K36" s="67">
+      <c r="J36" s="67">
         <v>26</v>
       </c>
-      <c r="L36" s="67" t="s">
+      <c r="K36" s="67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A37" s="71" t="s">
+    <row r="37" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A37" s="69" t="s">
         <v>370</v>
       </c>
       <c r="B37" s="67" t="s">
@@ -10851,24 +10704,21 @@
       <c r="G37" s="67" t="s">
         <v>375</v>
       </c>
-      <c r="H37" s="67" t="s">
-        <v>370</v>
-      </c>
-      <c r="I37" s="68" t="s">
+      <c r="H37" s="75" t="s">
         <v>376</v>
       </c>
-      <c r="J37" s="70" t="s">
+      <c r="I37" s="76" t="s">
         <v>377</v>
       </c>
-      <c r="K37" s="67">
+      <c r="J37" s="67">
         <v>18</v>
       </c>
-      <c r="L37" s="67" t="s">
+      <c r="K37" s="67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A38" s="71" t="s">
+    <row r="38" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A38" s="69" t="s">
         <v>2174</v>
       </c>
       <c r="B38" s="67" t="s">
@@ -10889,24 +10739,21 @@
       <c r="G38" s="67" t="s">
         <v>2177</v>
       </c>
-      <c r="H38" s="67" t="s">
-        <v>2174</v>
-      </c>
-      <c r="I38" s="68" t="s">
+      <c r="H38" s="75" t="s">
         <v>2197</v>
       </c>
-      <c r="J38" s="70" t="s">
+      <c r="I38" s="76" t="s">
         <v>2208</v>
       </c>
-      <c r="K38" s="67">
+      <c r="J38" s="67">
         <v>31</v>
       </c>
-      <c r="L38" s="67" t="s">
+      <c r="K38" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="39" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A39" s="71" t="s">
+    <row r="39" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A39" s="69" t="s">
         <v>379</v>
       </c>
       <c r="B39" s="67" t="s">
@@ -10927,24 +10774,21 @@
       <c r="G39" s="67" t="s">
         <v>378</v>
       </c>
-      <c r="H39" s="67" t="s">
-        <v>379</v>
-      </c>
-      <c r="I39" s="68" t="s">
+      <c r="H39" s="75" t="s">
         <v>384</v>
       </c>
-      <c r="J39" s="70" t="s">
+      <c r="I39" s="76" t="s">
         <v>385</v>
       </c>
-      <c r="K39" s="67">
+      <c r="J39" s="67">
         <v>20</v>
       </c>
-      <c r="L39" s="67" t="s">
+      <c r="K39" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A40" s="71" t="s">
+    <row r="40" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A40" s="69" t="s">
         <v>388</v>
       </c>
       <c r="B40" s="67" t="s">
@@ -10965,24 +10809,21 @@
       <c r="G40" s="67" t="s">
         <v>393</v>
       </c>
-      <c r="H40" s="67" t="s">
-        <v>388</v>
-      </c>
-      <c r="I40" s="68" t="s">
+      <c r="H40" s="75" t="s">
         <v>395</v>
       </c>
-      <c r="J40" s="70" t="s">
+      <c r="I40" s="76" t="s">
         <v>396</v>
       </c>
-      <c r="K40" s="67">
+      <c r="J40" s="67">
         <v>37</v>
       </c>
-      <c r="L40" s="67" t="s">
+      <c r="K40" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A41" s="71" t="s">
+    <row r="41" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A41" s="69" t="s">
         <v>398</v>
       </c>
       <c r="B41" s="67" t="s">
@@ -11003,24 +10844,21 @@
       <c r="G41" s="67" t="s">
         <v>397</v>
       </c>
-      <c r="H41" s="67" t="s">
-        <v>398</v>
-      </c>
-      <c r="I41" s="68" t="s">
+      <c r="H41" s="75" t="s">
         <v>403</v>
       </c>
-      <c r="J41" s="70" t="s">
+      <c r="I41" s="76" t="s">
         <v>405</v>
       </c>
-      <c r="K41" s="67">
+      <c r="J41" s="67">
         <v>33</v>
       </c>
-      <c r="L41" s="67" t="s">
+      <c r="K41" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A42" s="71" t="s">
+    <row r="42" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A42" s="69" t="s">
         <v>2178</v>
       </c>
       <c r="B42" s="67" t="s">
@@ -11041,24 +10879,21 @@
       <c r="G42" s="67" t="s">
         <v>2180</v>
       </c>
-      <c r="H42" s="67" t="s">
-        <v>2178</v>
-      </c>
-      <c r="I42" s="68" t="s">
+      <c r="H42" s="75" t="s">
         <v>2198</v>
       </c>
-      <c r="J42" s="70" t="s">
+      <c r="I42" s="76" t="s">
         <v>2209</v>
       </c>
-      <c r="K42" s="67">
+      <c r="J42" s="67">
         <v>43</v>
       </c>
-      <c r="L42" s="67" t="s">
+      <c r="K42" s="67" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="43" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A43" s="71" t="s">
+    <row r="43" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A43" s="69" t="s">
         <v>407</v>
       </c>
       <c r="B43" s="67" t="s">
@@ -11079,24 +10914,21 @@
       <c r="G43" s="67" t="s">
         <v>412</v>
       </c>
-      <c r="H43" s="67" t="s">
-        <v>407</v>
-      </c>
-      <c r="I43" s="68" t="s">
+      <c r="H43" s="75" t="s">
         <v>414</v>
       </c>
-      <c r="J43" s="70" t="s">
+      <c r="I43" s="76" t="s">
         <v>415</v>
       </c>
-      <c r="K43" s="67">
+      <c r="J43" s="67">
         <v>211</v>
       </c>
-      <c r="L43" s="67" t="s">
+      <c r="K43" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="44" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A44" s="71" t="s">
+    <row r="44" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A44" s="69" t="s">
         <v>417</v>
       </c>
       <c r="B44" s="67" t="s">
@@ -11117,24 +10949,21 @@
       <c r="G44" s="67" t="s">
         <v>421</v>
       </c>
-      <c r="H44" s="67" t="s">
-        <v>417</v>
-      </c>
-      <c r="I44" s="68" t="s">
+      <c r="H44" s="75" t="s">
         <v>422</v>
       </c>
-      <c r="J44" s="70" t="s">
+      <c r="I44" s="76" t="s">
         <v>423</v>
       </c>
-      <c r="K44" s="67">
+      <c r="J44" s="67">
         <v>40</v>
       </c>
-      <c r="L44" s="67" t="s">
+      <c r="K44" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="45" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A45" s="71" t="s">
+    <row r="45" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A45" s="69" t="s">
         <v>425</v>
       </c>
       <c r="B45" s="67" t="s">
@@ -11155,24 +10984,21 @@
       <c r="G45" s="67" t="s">
         <v>429</v>
       </c>
-      <c r="H45" s="67" t="s">
-        <v>425</v>
-      </c>
-      <c r="I45" s="68" t="s">
+      <c r="H45" s="75" t="s">
         <v>430</v>
       </c>
-      <c r="J45" s="70" t="s">
+      <c r="I45" s="76" t="s">
         <v>431</v>
       </c>
-      <c r="K45" s="67">
+      <c r="J45" s="67">
         <v>351</v>
       </c>
-      <c r="L45" s="67" t="s">
+      <c r="K45" s="67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A46" s="71" t="s">
+    <row r="46" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A46" s="69" t="s">
         <v>434</v>
       </c>
       <c r="B46" s="67" t="s">
@@ -11193,24 +11019,21 @@
       <c r="G46" s="67" t="s">
         <v>437</v>
       </c>
-      <c r="H46" s="67" t="s">
-        <v>434</v>
-      </c>
-      <c r="I46" s="68" t="s">
+      <c r="H46" s="75" t="s">
         <v>441</v>
       </c>
-      <c r="J46" s="70" t="s">
+      <c r="I46" s="76" t="s">
         <v>442</v>
       </c>
-      <c r="K46" s="67">
+      <c r="J46" s="67">
         <v>107</v>
       </c>
-      <c r="L46" s="67" t="s">
+      <c r="K46" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="47" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A47" s="71" t="s">
+    <row r="47" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A47" s="69" t="s">
         <v>444</v>
       </c>
       <c r="B47" s="67" t="s">
@@ -11231,24 +11054,21 @@
       <c r="G47" s="67" t="s">
         <v>449</v>
       </c>
-      <c r="H47" s="67" t="s">
-        <v>444</v>
-      </c>
-      <c r="I47" s="68" t="s">
+      <c r="H47" s="75" t="s">
         <v>451</v>
       </c>
-      <c r="J47" s="70" t="s">
+      <c r="I47" s="76" t="s">
         <v>452</v>
       </c>
-      <c r="K47" s="67">
+      <c r="J47" s="67">
         <v>32</v>
       </c>
-      <c r="L47" s="67" t="s">
+      <c r="K47" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="48" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A48" s="71" t="s">
+    <row r="48" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A48" s="69" t="s">
         <v>454</v>
       </c>
       <c r="B48" s="67" t="s">
@@ -11269,24 +11089,21 @@
       <c r="G48" s="67" t="s">
         <v>459</v>
       </c>
-      <c r="H48" s="67" t="s">
-        <v>454</v>
-      </c>
-      <c r="I48" s="68" t="s">
+      <c r="H48" s="75" t="s">
         <v>462</v>
       </c>
-      <c r="J48" s="70" t="s">
+      <c r="I48" s="76" t="s">
         <v>463</v>
       </c>
-      <c r="K48" s="67">
+      <c r="J48" s="67">
         <v>250</v>
       </c>
-      <c r="L48" s="67" t="s">
+      <c r="K48" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="49" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A49" s="71" t="s">
+    <row r="49" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A49" s="69" t="s">
         <v>467</v>
       </c>
       <c r="B49" s="67" t="s">
@@ -11307,24 +11124,21 @@
       <c r="G49" s="67" t="s">
         <v>470</v>
       </c>
-      <c r="H49" s="67" t="s">
-        <v>467</v>
-      </c>
-      <c r="I49" s="68" t="s">
+      <c r="H49" s="75" t="s">
         <v>473</v>
       </c>
-      <c r="J49" s="70" t="s">
+      <c r="I49" s="76" t="s">
         <v>474</v>
       </c>
-      <c r="K49" s="67">
+      <c r="J49" s="67">
         <v>46</v>
       </c>
-      <c r="L49" s="67" t="s">
+      <c r="K49" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="50" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A50" s="71" t="s">
+    <row r="50" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A50" s="69" t="s">
         <v>477</v>
       </c>
       <c r="B50" s="67" t="s">
@@ -11345,24 +11159,21 @@
       <c r="G50" s="67" t="s">
         <v>482</v>
       </c>
-      <c r="H50" s="67" t="s">
-        <v>477</v>
-      </c>
-      <c r="I50" s="68" t="s">
+      <c r="H50" s="75" t="s">
         <v>484</v>
       </c>
-      <c r="J50" s="70" t="s">
+      <c r="I50" s="76" t="s">
         <v>485</v>
       </c>
-      <c r="K50" s="67">
+      <c r="J50" s="67">
         <v>47</v>
       </c>
-      <c r="L50" s="67" t="s">
+      <c r="K50" s="67" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="51" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A51" s="71" t="s">
+    <row r="51" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A51" s="69" t="s">
         <v>487</v>
       </c>
       <c r="B51" s="67" t="s">
@@ -11383,24 +11194,21 @@
       <c r="G51" s="67" t="s">
         <v>491</v>
       </c>
-      <c r="H51" s="67" t="s">
-        <v>487</v>
-      </c>
-      <c r="I51" s="68" t="s">
+      <c r="H51" s="75" t="s">
         <v>493</v>
       </c>
-      <c r="J51" s="70" t="s">
+      <c r="I51" s="76" t="s">
         <v>494</v>
       </c>
-      <c r="K51" s="67">
+      <c r="J51" s="67">
         <v>44</v>
       </c>
-      <c r="L51" s="67" t="s">
+      <c r="K51" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A52" s="71" t="s">
+    <row r="52" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A52" s="69" t="s">
         <v>496</v>
       </c>
       <c r="B52" s="67" t="s">
@@ -11421,24 +11229,21 @@
       <c r="G52" s="67" t="s">
         <v>501</v>
       </c>
-      <c r="H52" s="67" t="s">
-        <v>496</v>
-      </c>
-      <c r="I52" s="68" t="s">
+      <c r="H52" s="75" t="s">
         <v>503</v>
       </c>
-      <c r="J52" s="70" t="s">
+      <c r="I52" s="76" t="s">
         <v>504</v>
       </c>
-      <c r="K52" s="67">
+      <c r="J52" s="67">
         <v>45</v>
       </c>
-      <c r="L52" s="67" t="s">
+      <c r="K52" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A53" s="71" t="s">
+    <row r="53" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A53" s="69" t="s">
         <v>506</v>
       </c>
       <c r="B53" s="67" t="s">
@@ -11459,24 +11264,21 @@
       <c r="G53" s="67" t="s">
         <v>511</v>
       </c>
-      <c r="H53" s="67" t="s">
-        <v>506</v>
-      </c>
-      <c r="I53" s="68" t="s">
+      <c r="H53" s="75" t="s">
         <v>513</v>
       </c>
-      <c r="J53" s="70" t="s">
+      <c r="I53" s="76" t="s">
         <v>514</v>
       </c>
-      <c r="K53" s="67">
+      <c r="J53" s="67">
         <v>35</v>
       </c>
-      <c r="L53" s="67" t="s">
+      <c r="K53" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="54" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A54" s="71" t="s">
+    <row r="54" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A54" s="69" t="s">
         <v>516</v>
       </c>
       <c r="B54" s="67" t="s">
@@ -11497,24 +11299,21 @@
       <c r="G54" s="67" t="s">
         <v>515</v>
       </c>
-      <c r="H54" s="67" t="s">
-        <v>516</v>
-      </c>
-      <c r="I54" s="68" t="s">
+      <c r="H54" s="75" t="s">
         <v>521</v>
       </c>
-      <c r="J54" s="70" t="s">
+      <c r="I54" s="76" t="s">
         <v>522</v>
       </c>
-      <c r="K54" s="67">
+      <c r="J54" s="67">
         <v>48</v>
       </c>
-      <c r="L54" s="67" t="s">
+      <c r="K54" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A55" s="71" t="s">
+    <row r="55" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A55" s="69" t="s">
         <v>524</v>
       </c>
       <c r="B55" s="67" t="s">
@@ -11535,24 +11334,21 @@
       <c r="G55" s="67" t="s">
         <v>523</v>
       </c>
-      <c r="H55" s="67" t="s">
-        <v>524</v>
-      </c>
-      <c r="I55" s="68" t="s">
+      <c r="H55" s="75" t="s">
         <v>528</v>
       </c>
-      <c r="J55" s="70" t="s">
+      <c r="I55" s="76" t="s">
         <v>529</v>
       </c>
-      <c r="K55" s="67">
+      <c r="J55" s="67">
         <v>49</v>
       </c>
-      <c r="L55" s="67" t="s">
+      <c r="K55" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A56" s="71" t="s">
+    <row r="56" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A56" s="69" t="s">
         <v>530</v>
       </c>
       <c r="B56" s="67" t="s">
@@ -11573,24 +11369,21 @@
       <c r="G56" s="67" t="s">
         <v>531</v>
       </c>
-      <c r="H56" s="67" t="s">
-        <v>530</v>
-      </c>
-      <c r="I56" s="68" t="s">
+      <c r="H56" s="75" t="s">
         <v>533</v>
       </c>
-      <c r="J56" s="70" t="s">
+      <c r="I56" s="76" t="s">
         <v>534</v>
       </c>
-      <c r="K56" s="67">
+      <c r="J56" s="67">
         <v>279</v>
       </c>
-      <c r="L56" s="67" t="s">
+      <c r="K56" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A57" s="71" t="s">
+    <row r="57" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A57" s="69" t="s">
         <v>2182</v>
       </c>
       <c r="B57" s="67" t="s">
@@ -11611,24 +11404,21 @@
       <c r="G57" s="66" t="s">
         <v>2223</v>
       </c>
-      <c r="H57" s="67" t="s">
-        <v>2182</v>
-      </c>
-      <c r="I57" s="68" t="s">
+      <c r="H57" s="75" t="s">
         <v>2199</v>
       </c>
-      <c r="J57" s="70" t="s">
+      <c r="I57" s="76" t="s">
         <v>2210</v>
       </c>
-      <c r="K57" s="67">
+      <c r="J57" s="67">
         <v>42</v>
       </c>
-      <c r="L57" s="67" t="s">
+      <c r="K57" s="67" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="58" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A58" s="71" t="s">
+    <row r="58" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A58" s="69" t="s">
         <v>536</v>
       </c>
       <c r="B58" s="67" t="s">
@@ -11649,24 +11439,21 @@
       <c r="G58" s="67" t="s">
         <v>539</v>
       </c>
-      <c r="H58" s="67" t="s">
-        <v>536</v>
-      </c>
-      <c r="I58" s="68" t="s">
+      <c r="H58" s="75" t="s">
         <v>541</v>
       </c>
-      <c r="J58" s="70" t="s">
+      <c r="I58" s="76" t="s">
         <v>542</v>
       </c>
-      <c r="K58" s="67">
+      <c r="J58" s="67">
         <v>36</v>
       </c>
-      <c r="L58" s="67" t="s">
+      <c r="K58" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A59" s="71" t="s">
+    <row r="59" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A59" s="69" t="s">
         <v>543</v>
       </c>
       <c r="B59" s="67" t="s">
@@ -11687,24 +11474,21 @@
       <c r="G59" s="67" t="s">
         <v>549</v>
       </c>
-      <c r="H59" s="67" t="s">
-        <v>543</v>
-      </c>
-      <c r="I59" s="68" t="s">
+      <c r="H59" s="75" t="s">
         <v>551</v>
       </c>
-      <c r="J59" s="70" t="s">
+      <c r="I59" s="76" t="s">
         <v>552</v>
       </c>
-      <c r="K59" s="67">
+      <c r="J59" s="67">
         <v>50</v>
       </c>
-      <c r="L59" s="67" t="s">
+      <c r="K59" s="67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="60" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A60" s="71" t="s">
+    <row r="60" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A60" s="69" t="s">
         <v>554</v>
       </c>
       <c r="B60" s="67" t="s">
@@ -11725,24 +11509,21 @@
       <c r="G60" s="67" t="s">
         <v>559</v>
       </c>
-      <c r="H60" s="67" t="s">
-        <v>554</v>
-      </c>
-      <c r="I60" s="68" t="s">
+      <c r="H60" s="75" t="s">
         <v>561</v>
       </c>
-      <c r="J60" s="70" t="s">
+      <c r="I60" s="76" t="s">
         <v>562</v>
       </c>
-      <c r="K60" s="67">
+      <c r="J60" s="67">
         <v>167</v>
       </c>
-      <c r="L60" s="67" t="s">
+      <c r="K60" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="61" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A61" s="71" t="s">
+    <row r="61" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A61" s="69" t="s">
         <v>564</v>
       </c>
       <c r="B61" s="67" t="s">
@@ -11763,24 +11544,21 @@
       <c r="G61" s="67" t="s">
         <v>569</v>
       </c>
-      <c r="H61" s="67" t="s">
-        <v>564</v>
-      </c>
-      <c r="I61" s="68" t="s">
+      <c r="H61" s="75" t="s">
         <v>572</v>
       </c>
-      <c r="J61" s="70" t="s">
+      <c r="I61" s="76" t="s">
         <v>573</v>
       </c>
-      <c r="K61" s="67">
+      <c r="J61" s="67">
         <v>79</v>
       </c>
-      <c r="L61" s="67" t="s">
+      <c r="K61" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="62" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A62" s="71" t="s">
+    <row r="62" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A62" s="69" t="s">
         <v>575</v>
       </c>
       <c r="B62" s="67" t="s">
@@ -11801,24 +11579,21 @@
       <c r="G62" s="67" t="s">
         <v>574</v>
       </c>
-      <c r="H62" s="67" t="s">
-        <v>575</v>
-      </c>
-      <c r="I62" s="68" t="s">
+      <c r="H62" s="75" t="s">
         <v>580</v>
       </c>
-      <c r="J62" s="70" t="s">
+      <c r="I62" s="76" t="s">
         <v>581</v>
       </c>
-      <c r="K62" s="67">
+      <c r="J62" s="67">
         <v>72</v>
       </c>
-      <c r="L62" s="67" t="s">
+      <c r="K62" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="63" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A63" s="71" t="s">
+    <row r="63" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A63" s="69" t="s">
         <v>583</v>
       </c>
       <c r="B63" s="67" t="s">
@@ -11839,24 +11614,21 @@
       <c r="G63" s="67" t="s">
         <v>587</v>
       </c>
-      <c r="H63" s="67" t="s">
-        <v>583</v>
-      </c>
-      <c r="I63" s="68" t="s">
+      <c r="H63" s="75" t="s">
         <v>589</v>
       </c>
-      <c r="J63" s="70" t="s">
+      <c r="I63" s="76" t="s">
         <v>590</v>
       </c>
-      <c r="K63" s="67">
+      <c r="J63" s="67">
         <v>55</v>
       </c>
-      <c r="L63" s="67" t="s">
+      <c r="K63" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="64" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A64" s="71" t="s">
+    <row r="64" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A64" s="69" t="s">
         <v>592</v>
       </c>
       <c r="B64" s="67" t="s">
@@ -11877,24 +11649,21 @@
       <c r="G64" s="67" t="s">
         <v>597</v>
       </c>
-      <c r="H64" s="67" t="s">
-        <v>592</v>
-      </c>
-      <c r="I64" s="68" t="s">
+      <c r="H64" s="75" t="s">
         <v>599</v>
       </c>
-      <c r="J64" s="70" t="s">
+      <c r="I64" s="76" t="s">
         <v>600</v>
       </c>
-      <c r="K64" s="67">
+      <c r="J64" s="67">
         <v>54</v>
       </c>
-      <c r="L64" s="67" t="s">
+      <c r="K64" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="65" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A65" s="71" t="s">
+    <row r="65" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A65" s="69" t="s">
         <v>602</v>
       </c>
       <c r="B65" s="67" t="s">
@@ -11915,24 +11684,21 @@
       <c r="G65" s="67" t="s">
         <v>607</v>
       </c>
-      <c r="H65" s="67" t="s">
-        <v>602</v>
-      </c>
-      <c r="I65" s="68" t="s">
+      <c r="H65" s="75" t="s">
         <v>609</v>
       </c>
-      <c r="J65" s="70" t="s">
+      <c r="I65" s="76" t="s">
         <v>610</v>
       </c>
-      <c r="K65" s="67">
+      <c r="J65" s="67">
         <v>56</v>
       </c>
-      <c r="L65" s="67" t="s">
+      <c r="K65" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="66" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A66" s="71" t="s">
+    <row r="66" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A66" s="69" t="s">
         <v>612</v>
       </c>
       <c r="B66" s="67" t="s">
@@ -11953,24 +11719,21 @@
       <c r="G66" s="67" t="s">
         <v>617</v>
       </c>
-      <c r="H66" s="67" t="s">
-        <v>612</v>
-      </c>
-      <c r="I66" s="68" t="s">
+      <c r="H66" s="75" t="s">
         <v>619</v>
       </c>
-      <c r="J66" s="70" t="s">
+      <c r="I66" s="76" t="s">
         <v>620</v>
       </c>
-      <c r="K66" s="67">
+      <c r="J66" s="67">
         <v>4</v>
       </c>
-      <c r="L66" s="67" t="s">
+      <c r="K66" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="67" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A67" s="71" t="s">
+    <row r="67" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A67" s="69" t="s">
         <v>623</v>
       </c>
       <c r="B67" s="67" t="s">
@@ -11991,24 +11754,21 @@
       <c r="G67" s="67" t="s">
         <v>627</v>
       </c>
-      <c r="H67" s="67" t="s">
-        <v>623</v>
-      </c>
-      <c r="I67" s="68" t="s">
+      <c r="H67" s="75" t="s">
         <v>629</v>
       </c>
-      <c r="J67" s="70" t="s">
+      <c r="I67" s="76" t="s">
         <v>630</v>
       </c>
-      <c r="K67" s="67">
+      <c r="J67" s="67">
         <v>58</v>
       </c>
-      <c r="L67" s="67" t="s">
+      <c r="K67" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="68" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A68" s="71" t="s">
+    <row r="68" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A68" s="69" t="s">
         <v>632</v>
       </c>
       <c r="B68" s="67" t="s">
@@ -12029,24 +11789,21 @@
       <c r="G68" s="67" t="s">
         <v>637</v>
       </c>
-      <c r="H68" s="67" t="s">
-        <v>632</v>
-      </c>
-      <c r="I68" s="68" t="s">
+      <c r="H68" s="75" t="s">
         <v>638</v>
       </c>
-      <c r="J68" s="70" t="s">
+      <c r="I68" s="76" t="s">
         <v>639</v>
       </c>
-      <c r="K68" s="67">
+      <c r="J68" s="67">
         <v>59</v>
       </c>
-      <c r="L68" s="67" t="s">
+      <c r="K68" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="69" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A69" s="71" t="s">
+    <row r="69" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A69" s="69" t="s">
         <v>641</v>
       </c>
       <c r="B69" s="67" t="s">
@@ -12067,24 +11824,21 @@
       <c r="G69" s="67" t="s">
         <v>643</v>
       </c>
-      <c r="H69" s="67" t="s">
-        <v>641</v>
-      </c>
-      <c r="I69" s="68" t="s">
+      <c r="H69" s="75" t="s">
         <v>645</v>
       </c>
-      <c r="J69" s="70" t="s">
+      <c r="I69" s="76" t="s">
         <v>646</v>
       </c>
-      <c r="K69" s="67">
+      <c r="J69" s="67">
         <v>178</v>
       </c>
-      <c r="L69" s="67" t="s">
+      <c r="K69" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="70" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A70" s="71" t="s">
+    <row r="70" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A70" s="69" t="s">
         <v>1648</v>
       </c>
       <c r="B70" s="67" t="s">
@@ -12105,24 +11859,21 @@
       <c r="G70" s="67" t="s">
         <v>2162</v>
       </c>
-      <c r="H70" s="67" t="s">
-        <v>1648</v>
-      </c>
-      <c r="I70" s="68" t="s">
+      <c r="H70" s="75" t="s">
         <v>1647</v>
       </c>
-      <c r="J70" s="70" t="s">
+      <c r="I70" s="76" t="s">
         <v>1649</v>
       </c>
-      <c r="K70" s="67">
+      <c r="J70" s="67">
         <v>205</v>
       </c>
-      <c r="L70" s="67" t="s">
+      <c r="K70" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="71" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A71" s="71" t="s">
+    <row r="71" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A71" s="69" t="s">
         <v>648</v>
       </c>
       <c r="B71" s="67" t="s">
@@ -12143,24 +11894,21 @@
       <c r="G71" s="67" t="s">
         <v>653</v>
       </c>
-      <c r="H71" s="67" t="s">
-        <v>648</v>
-      </c>
-      <c r="I71" s="68" t="s">
+      <c r="H71" s="75" t="s">
         <v>656</v>
       </c>
-      <c r="J71" s="70" t="s">
+      <c r="I71" s="76" t="s">
         <v>657</v>
       </c>
-      <c r="K71" s="67">
+      <c r="J71" s="67">
         <v>203</v>
       </c>
-      <c r="L71" s="67" t="s">
+      <c r="K71" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="72" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A72" s="71" t="s">
+    <row r="72" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A72" s="69" t="s">
         <v>659</v>
       </c>
       <c r="B72" s="67" t="s">
@@ -12181,24 +11929,21 @@
       <c r="G72" s="67" t="s">
         <v>663</v>
       </c>
-      <c r="H72" s="67" t="s">
-        <v>659</v>
-      </c>
-      <c r="I72" s="68" t="s">
+      <c r="H72" s="75" t="s">
         <v>665</v>
       </c>
-      <c r="J72" s="70" t="s">
+      <c r="I72" s="76" t="s">
         <v>666</v>
       </c>
-      <c r="K72" s="67">
+      <c r="J72" s="67">
         <v>63</v>
       </c>
-      <c r="L72" s="67" t="s">
+      <c r="K72" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="73" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A73" s="71" t="s">
+    <row r="73" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A73" s="69" t="s">
         <v>668</v>
       </c>
       <c r="B73" s="67" t="s">
@@ -12219,24 +11964,21 @@
       <c r="G73" s="67" t="s">
         <v>673</v>
       </c>
-      <c r="H73" s="67" t="s">
-        <v>668</v>
-      </c>
-      <c r="I73" s="68" t="s">
+      <c r="H73" s="75" t="s">
         <v>675</v>
       </c>
-      <c r="J73" s="70" t="s">
+      <c r="I73" s="76" t="s">
         <v>676</v>
       </c>
-      <c r="K73" s="67">
+      <c r="J73" s="67">
         <v>238</v>
       </c>
-      <c r="L73" s="67" t="s">
+      <c r="K73" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="74" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A74" s="71" t="s">
+    <row r="74" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A74" s="69" t="s">
         <v>677</v>
       </c>
       <c r="B74" s="67" t="s">
@@ -12257,24 +11999,21 @@
       <c r="G74" s="67" t="s">
         <v>682</v>
       </c>
-      <c r="H74" s="67" t="s">
-        <v>677</v>
-      </c>
-      <c r="I74" s="68" t="s">
+      <c r="H74" s="75" t="s">
         <v>684</v>
       </c>
-      <c r="J74" s="70" t="s">
+      <c r="I74" s="76" t="s">
         <v>685</v>
       </c>
-      <c r="K74" s="67">
+      <c r="J74" s="67">
         <v>67</v>
       </c>
-      <c r="L74" s="67" t="s">
+      <c r="K74" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="75" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A75" s="71" t="s">
+    <row r="75" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A75" s="69" t="s">
         <v>687</v>
       </c>
       <c r="B75" s="67" t="s">
@@ -12295,24 +12034,21 @@
       <c r="G75" s="67" t="s">
         <v>691</v>
       </c>
-      <c r="H75" s="67" t="s">
-        <v>687</v>
-      </c>
-      <c r="I75" s="68" t="s">
+      <c r="H75" s="75" t="s">
         <v>692</v>
       </c>
-      <c r="J75" s="70" t="s">
+      <c r="I75" s="76" t="s">
         <v>693</v>
       </c>
-      <c r="K75" s="67">
+      <c r="J75" s="67">
         <v>66</v>
       </c>
-      <c r="L75" s="67" t="s">
+      <c r="K75" s="67" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="76" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A76" s="71" t="s">
+    <row r="76" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A76" s="69" t="s">
         <v>696</v>
       </c>
       <c r="B76" s="67" t="s">
@@ -12333,24 +12069,21 @@
       <c r="G76" s="67" t="s">
         <v>701</v>
       </c>
-      <c r="H76" s="67" t="s">
-        <v>696</v>
-      </c>
-      <c r="I76" s="68" t="s">
+      <c r="H76" s="75" t="s">
         <v>703</v>
       </c>
-      <c r="J76" s="70" t="s">
+      <c r="I76" s="76" t="s">
         <v>704</v>
       </c>
-      <c r="K76" s="67">
+      <c r="J76" s="67">
         <v>65</v>
       </c>
-      <c r="L76" s="67" t="s">
+      <c r="K76" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="77" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A77" s="71" t="s">
+    <row r="77" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A77" s="69" t="s">
         <v>705</v>
       </c>
       <c r="B77" s="67" t="s">
@@ -12371,24 +12104,21 @@
       <c r="G77" s="67" t="s">
         <v>181</v>
       </c>
-      <c r="H77" s="67" t="s">
-        <v>705</v>
-      </c>
-      <c r="I77" s="68" t="s">
+      <c r="H77" s="75" t="s">
         <v>712</v>
       </c>
-      <c r="J77" s="70" t="s">
+      <c r="I77" s="76" t="s">
         <v>713</v>
       </c>
-      <c r="K77" s="67">
+      <c r="J77" s="67">
         <v>68</v>
       </c>
-      <c r="L77" s="67" t="s">
+      <c r="K77" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="78" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A78" s="71" t="s">
+    <row r="78" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A78" s="69" t="s">
         <v>715</v>
       </c>
       <c r="B78" s="67" t="s">
@@ -12409,24 +12139,21 @@
       <c r="G78" s="67" t="s">
         <v>719</v>
       </c>
-      <c r="H78" s="67" t="s">
-        <v>715</v>
-      </c>
-      <c r="I78" s="68" t="s">
+      <c r="H78" s="75" t="s">
         <v>722</v>
       </c>
-      <c r="J78" s="70" t="s">
+      <c r="I78" s="76" t="s">
         <v>723</v>
       </c>
-      <c r="K78" s="67">
+      <c r="J78" s="67">
         <v>64</v>
       </c>
-      <c r="L78" s="67" t="s">
+      <c r="K78" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="79" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A79" s="71" t="s">
+    <row r="79" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A79" s="69" t="s">
         <v>725</v>
       </c>
       <c r="B79" s="67" t="s">
@@ -12447,24 +12174,21 @@
       <c r="G79" s="67" t="s">
         <v>730</v>
       </c>
-      <c r="H79" s="67" t="s">
-        <v>725</v>
-      </c>
-      <c r="I79" s="68" t="s">
+      <c r="H79" s="75" t="s">
         <v>732</v>
       </c>
-      <c r="J79" s="70" t="s">
+      <c r="I79" s="76" t="s">
         <v>733</v>
       </c>
-      <c r="K79" s="67">
+      <c r="J79" s="67">
         <v>145</v>
       </c>
-      <c r="L79" s="67" t="s">
+      <c r="K79" s="67" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="80" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A80" s="71" t="s">
+    <row r="80" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A80" s="69" t="s">
         <v>735</v>
       </c>
       <c r="B80" s="67" t="s">
@@ -12485,24 +12209,21 @@
       <c r="G80" s="67" t="s">
         <v>734</v>
       </c>
-      <c r="H80" s="67" t="s">
-        <v>735</v>
-      </c>
-      <c r="I80" s="68" t="s">
+      <c r="H80" s="75" t="s">
         <v>740</v>
       </c>
-      <c r="J80" s="70" t="s">
+      <c r="I80" s="76" t="s">
         <v>741</v>
       </c>
-      <c r="K80" s="67">
+      <c r="J80" s="67">
         <v>74</v>
       </c>
-      <c r="L80" s="67" t="s">
+      <c r="K80" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="81" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A81" s="71" t="s">
+    <row r="81" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A81" s="69" t="s">
         <v>742</v>
       </c>
       <c r="B81" s="67" t="s">
@@ -12523,24 +12244,21 @@
       <c r="G81" s="67" t="s">
         <v>747</v>
       </c>
-      <c r="H81" s="67" t="s">
-        <v>742</v>
-      </c>
-      <c r="I81" s="68" t="s">
+      <c r="H81" s="75" t="s">
         <v>749</v>
       </c>
-      <c r="J81" s="70" t="s">
+      <c r="I81" s="76" t="s">
         <v>750</v>
       </c>
-      <c r="K81" s="67">
+      <c r="J81" s="67">
         <v>229</v>
       </c>
-      <c r="L81" s="67" t="s">
+      <c r="K81" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="82" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A82" s="71" t="s">
+    <row r="82" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A82" s="69" t="s">
         <v>752</v>
       </c>
       <c r="B82" s="67" t="s">
@@ -12561,27 +12279,24 @@
       <c r="G82" s="67" t="s">
         <v>754</v>
       </c>
-      <c r="H82" s="67" t="s">
-        <v>752</v>
-      </c>
-      <c r="I82" s="68" t="s">
+      <c r="H82" s="75" t="s">
         <v>756</v>
       </c>
-      <c r="J82" s="70" t="s">
+      <c r="I82" s="76" t="s">
         <v>757</v>
       </c>
-      <c r="K82" s="67">
+      <c r="J82" s="67">
         <v>73</v>
       </c>
-      <c r="L82" s="67" t="s">
+      <c r="K82" s="67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="83" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A83" s="71" t="s">
+    <row r="83" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A83" s="69" t="s">
         <v>759</v>
       </c>
-      <c r="B83" s="72" t="s">
+      <c r="B83" s="70" t="s">
         <v>758</v>
       </c>
       <c r="C83" s="67" t="s">
@@ -12599,20 +12314,19 @@
       <c r="G83" s="67" t="s">
         <v>2143</v>
       </c>
-      <c r="H83" s="69"/>
-      <c r="I83" s="68" t="s">
+      <c r="H83" s="75" t="s">
         <v>761</v>
       </c>
-      <c r="J83" s="70" t="s">
+      <c r="I83" s="76" t="s">
         <v>762</v>
       </c>
-      <c r="K83" s="69"/>
-      <c r="L83" s="67" t="s">
+      <c r="J83" s="68"/>
+      <c r="K83" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="84" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A84" s="71" t="s">
+    <row r="84" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A84" s="69" t="s">
         <v>766</v>
       </c>
       <c r="B84" s="67" t="s">
@@ -12633,24 +12347,21 @@
       <c r="G84" s="67" t="s">
         <v>765</v>
       </c>
-      <c r="H84" s="67" t="s">
-        <v>766</v>
-      </c>
-      <c r="I84" s="68" t="s">
+      <c r="H84" s="75" t="s">
         <v>770</v>
       </c>
-      <c r="J84" s="70" t="s">
+      <c r="I84" s="76" t="s">
         <v>771</v>
       </c>
-      <c r="K84" s="67">
+      <c r="J84" s="67">
         <v>81</v>
       </c>
-      <c r="L84" s="67" t="s">
+      <c r="K84" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="85" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A85" s="71" t="s">
+    <row r="85" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A85" s="69" t="s">
         <v>772</v>
       </c>
       <c r="B85" s="67" t="s">
@@ -12671,24 +12382,21 @@
       <c r="G85" s="67" t="s">
         <v>773</v>
       </c>
-      <c r="H85" s="67" t="s">
-        <v>772</v>
-      </c>
-      <c r="I85" s="68" t="s">
+      <c r="H85" s="75" t="s">
         <v>2200</v>
       </c>
-      <c r="J85" s="70" t="s">
+      <c r="I85" s="76" t="s">
         <v>2213</v>
       </c>
-      <c r="K85" s="67">
+      <c r="J85" s="67">
         <v>82</v>
       </c>
-      <c r="L85" s="67" t="s">
+      <c r="K85" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="86" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A86" s="71" t="s">
+    <row r="86" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A86" s="69" t="s">
         <v>775</v>
       </c>
       <c r="B86" s="67" t="s">
@@ -12709,24 +12417,21 @@
       <c r="G86" s="67" t="s">
         <v>779</v>
       </c>
-      <c r="H86" s="67" t="s">
-        <v>775</v>
-      </c>
-      <c r="I86" s="68" t="s">
+      <c r="H86" s="75" t="s">
         <v>781</v>
       </c>
-      <c r="J86" s="70" t="s">
+      <c r="I86" s="76" t="s">
         <v>782</v>
       </c>
-      <c r="K86" s="67">
+      <c r="J86" s="67">
         <v>90</v>
       </c>
-      <c r="L86" s="67" t="s">
+      <c r="K86" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="87" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A87" s="71" t="s">
+    <row r="87" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A87" s="69" t="s">
         <v>783</v>
       </c>
       <c r="B87" s="67" t="s">
@@ -12747,24 +12452,21 @@
       <c r="G87" s="67" t="s">
         <v>784</v>
       </c>
-      <c r="H87" s="67" t="s">
-        <v>783</v>
-      </c>
-      <c r="I87" s="68" t="s">
+      <c r="H87" s="75" t="s">
         <v>2201</v>
       </c>
-      <c r="J87" s="70" t="s">
+      <c r="I87" s="76" t="s">
         <v>2214</v>
       </c>
-      <c r="K87" s="67">
+      <c r="J87" s="67">
         <v>87</v>
       </c>
-      <c r="L87" s="67" t="s">
+      <c r="K87" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="88" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A88" s="71" t="s">
+    <row r="88" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A88" s="69" t="s">
         <v>788</v>
       </c>
       <c r="B88" s="67" t="s">
@@ -12785,24 +12487,21 @@
       <c r="G88" s="67" t="s">
         <v>792</v>
       </c>
-      <c r="H88" s="67" t="s">
-        <v>788</v>
-      </c>
-      <c r="I88" s="68" t="s">
+      <c r="H88" s="75" t="s">
         <v>794</v>
       </c>
-      <c r="J88" s="70" t="s">
+      <c r="I88" s="76" t="s">
         <v>795</v>
       </c>
-      <c r="K88" s="67">
+      <c r="J88" s="67">
         <v>75</v>
       </c>
-      <c r="L88" s="67" t="s">
+      <c r="K88" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="89" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A89" s="71" t="s">
+    <row r="89" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A89" s="69" t="s">
         <v>797</v>
       </c>
       <c r="B89" s="67" t="s">
@@ -12823,24 +12522,21 @@
       <c r="G89" s="67" t="s">
         <v>802</v>
       </c>
-      <c r="H89" s="67" t="s">
-        <v>797</v>
-      </c>
-      <c r="I89" s="68" t="s">
+      <c r="H89" s="75" t="s">
         <v>804</v>
       </c>
-      <c r="J89" s="70" t="s">
+      <c r="I89" s="76" t="s">
         <v>805</v>
       </c>
-      <c r="K89" s="67">
+      <c r="J89" s="67">
         <v>175</v>
       </c>
-      <c r="L89" s="67" t="s">
+      <c r="K89" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="90" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A90" s="71" t="s">
+    <row r="90" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A90" s="69" t="s">
         <v>807</v>
       </c>
       <c r="B90" s="67" t="s">
@@ -12861,24 +12557,21 @@
       <c r="G90" s="67" t="s">
         <v>812</v>
       </c>
-      <c r="H90" s="67" t="s">
-        <v>807</v>
-      </c>
-      <c r="I90" s="68" t="s">
+      <c r="H90" s="75" t="s">
         <v>814</v>
       </c>
-      <c r="J90" s="70" t="s">
+      <c r="I90" s="76" t="s">
         <v>815</v>
       </c>
-      <c r="K90" s="67">
+      <c r="J90" s="67">
         <v>61</v>
       </c>
-      <c r="L90" s="67" t="s">
+      <c r="K90" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="91" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A91" s="71" t="s">
+    <row r="91" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A91" s="69" t="s">
         <v>817</v>
       </c>
       <c r="B91" s="67" t="s">
@@ -12899,24 +12592,21 @@
       <c r="G91" s="67" t="s">
         <v>822</v>
       </c>
-      <c r="H91" s="67" t="s">
-        <v>817</v>
-      </c>
-      <c r="I91" s="68" t="s">
+      <c r="H91" s="75" t="s">
         <v>823</v>
       </c>
-      <c r="J91" s="70" t="s">
+      <c r="I91" s="76" t="s">
         <v>824</v>
       </c>
-      <c r="K91" s="67">
+      <c r="J91" s="67">
         <v>84</v>
       </c>
-      <c r="L91" s="67" t="s">
+      <c r="K91" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="92" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A92" s="71" t="s">
+    <row r="92" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A92" s="69" t="s">
         <v>826</v>
       </c>
       <c r="B92" s="67" t="s">
@@ -12937,27 +12627,24 @@
       <c r="G92" s="67" t="s">
         <v>829</v>
       </c>
-      <c r="H92" s="67" t="s">
-        <v>826</v>
-      </c>
-      <c r="I92" s="68" t="s">
+      <c r="H92" s="75" t="s">
         <v>831</v>
       </c>
-      <c r="J92" s="70" t="s">
+      <c r="I92" s="76" t="s">
         <v>832</v>
       </c>
-      <c r="K92" s="67">
+      <c r="J92" s="67">
         <v>86</v>
       </c>
-      <c r="L92" s="67" t="s">
+      <c r="K92" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="93" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A93" s="71" t="s">
+    <row r="93" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A93" s="69" t="s">
         <v>834</v>
       </c>
-      <c r="B93" s="72" t="s">
+      <c r="B93" s="70" t="s">
         <v>833</v>
       </c>
       <c r="C93" s="67" t="s">
@@ -12975,24 +12662,21 @@
       <c r="G93" s="67" t="s">
         <v>2145</v>
       </c>
-      <c r="H93" s="67" t="s">
-        <v>834</v>
-      </c>
-      <c r="I93" s="68" t="s">
+      <c r="H93" s="75" t="s">
         <v>836</v>
       </c>
-      <c r="J93" s="70" t="s">
+      <c r="I93" s="76" t="s">
         <v>837</v>
       </c>
-      <c r="K93" s="67">
+      <c r="J93" s="67">
         <v>85</v>
       </c>
-      <c r="L93" s="67" t="s">
+      <c r="K93" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="94" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A94" s="71" t="s">
+    <row r="94" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A94" s="69" t="s">
         <v>839</v>
       </c>
       <c r="B94" s="67" t="s">
@@ -13013,24 +12697,21 @@
       <c r="G94" s="67" t="s">
         <v>838</v>
       </c>
-      <c r="H94" s="67" t="s">
-        <v>839</v>
-      </c>
-      <c r="I94" s="68" t="s">
+      <c r="H94" s="75" t="s">
         <v>844</v>
       </c>
-      <c r="J94" s="70" t="s">
+      <c r="I94" s="76" t="s">
         <v>845</v>
       </c>
-      <c r="K94" s="67">
+      <c r="J94" s="67">
         <v>89</v>
       </c>
-      <c r="L94" s="67" t="s">
+      <c r="K94" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="95" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A95" s="71" t="s">
+    <row r="95" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A95" s="69" t="s">
         <v>853</v>
       </c>
       <c r="B95" s="67" t="s">
@@ -13051,24 +12732,21 @@
       <c r="G95" s="67" t="s">
         <v>850</v>
       </c>
-      <c r="H95" s="67" t="s">
-        <v>853</v>
-      </c>
-      <c r="I95" s="68" t="s">
+      <c r="H95" s="75" t="s">
         <v>2202</v>
       </c>
-      <c r="J95" s="70" t="s">
+      <c r="I95" s="76" t="s">
         <v>2215</v>
       </c>
-      <c r="K95" s="67">
+      <c r="J95" s="67">
         <v>69</v>
       </c>
-      <c r="L95" s="67" t="s">
+      <c r="K95" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="96" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A96" s="71" t="s">
+    <row r="96" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A96" s="69" t="s">
         <v>847</v>
       </c>
       <c r="B96" s="67" t="s">
@@ -13089,24 +12767,21 @@
       <c r="G96" s="67" t="s">
         <v>846</v>
       </c>
-      <c r="H96" s="67" t="s">
-        <v>847</v>
-      </c>
-      <c r="I96" s="68" t="s">
+      <c r="H96" s="75" t="s">
         <v>851</v>
       </c>
-      <c r="J96" s="70" t="s">
+      <c r="I96" s="76" t="s">
         <v>852</v>
       </c>
-      <c r="K96" s="67">
+      <c r="J96" s="67">
         <v>88</v>
       </c>
-      <c r="L96" s="67" t="s">
+      <c r="K96" s="67" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="97" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A97" s="71" t="s">
+    <row r="97" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A97" s="69" t="s">
         <v>856</v>
       </c>
       <c r="B97" s="67" t="s">
@@ -13127,24 +12802,21 @@
       <c r="G97" s="67" t="s">
         <v>855</v>
       </c>
-      <c r="H97" s="67" t="s">
-        <v>856</v>
-      </c>
-      <c r="I97" s="68" t="s">
+      <c r="H97" s="75" t="s">
         <v>861</v>
       </c>
-      <c r="J97" s="70" t="s">
+      <c r="I97" s="76" t="s">
         <v>862</v>
       </c>
-      <c r="K97" s="67">
+      <c r="J97" s="67">
         <v>91</v>
       </c>
-      <c r="L97" s="67" t="s">
+      <c r="K97" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="98" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A98" s="71" t="s">
+    <row r="98" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A98" s="69" t="s">
         <v>864</v>
       </c>
       <c r="B98" s="67" t="s">
@@ -13165,24 +12837,21 @@
       <c r="G98" s="67" t="s">
         <v>865</v>
       </c>
-      <c r="H98" s="67" t="s">
-        <v>864</v>
-      </c>
-      <c r="I98" s="68" t="s">
+      <c r="H98" s="75" t="s">
         <v>867</v>
       </c>
-      <c r="J98" s="70" t="s">
+      <c r="I98" s="76" t="s">
         <v>868</v>
       </c>
-      <c r="K98" s="67">
+      <c r="J98" s="67">
         <v>96</v>
       </c>
-      <c r="L98" s="67" t="s">
+      <c r="K98" s="67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="99" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A99" s="71" t="s">
+    <row r="99" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A99" s="69" t="s">
         <v>870</v>
       </c>
       <c r="B99" s="67" t="s">
@@ -13203,24 +12872,21 @@
       <c r="G99" s="67" t="s">
         <v>2149</v>
       </c>
-      <c r="H99" s="67" t="s">
-        <v>870</v>
-      </c>
-      <c r="I99" s="68" t="s">
+      <c r="H99" s="75" t="s">
         <v>873</v>
       </c>
-      <c r="J99" s="70" t="s">
+      <c r="I99" s="76" t="s">
         <v>874</v>
       </c>
-      <c r="K99" s="67">
+      <c r="J99" s="67">
         <v>92</v>
       </c>
-      <c r="L99" s="67" t="s">
+      <c r="K99" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="100" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A100" s="71" t="s">
+    <row r="100" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A100" s="69" t="s">
         <v>876</v>
       </c>
       <c r="B100" s="67" t="s">
@@ -13241,24 +12907,21 @@
       <c r="G100" s="67" t="s">
         <v>875</v>
       </c>
-      <c r="H100" s="67" t="s">
-        <v>876</v>
-      </c>
-      <c r="I100" s="68" t="s">
+      <c r="H100" s="75" t="s">
         <v>881</v>
       </c>
-      <c r="J100" s="70" t="s">
+      <c r="I100" s="76" t="s">
         <v>882</v>
       </c>
-      <c r="K100" s="67">
+      <c r="J100" s="67">
         <v>95</v>
       </c>
-      <c r="L100" s="67" t="s">
+      <c r="K100" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="101" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A101" s="71" t="s">
+    <row r="101" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A101" s="69" t="s">
         <v>884</v>
       </c>
       <c r="B101" s="67" t="s">
@@ -13279,24 +12942,21 @@
       <c r="G101" s="67" t="s">
         <v>889</v>
       </c>
-      <c r="H101" s="67" t="s">
-        <v>884</v>
-      </c>
-      <c r="I101" s="68" t="s">
+      <c r="H101" s="75" t="s">
         <v>891</v>
       </c>
-      <c r="J101" s="70" t="s">
+      <c r="I101" s="76" t="s">
         <v>892</v>
       </c>
-      <c r="K101" s="67">
+      <c r="J101" s="67">
         <v>98</v>
       </c>
-      <c r="L101" s="67" t="s">
+      <c r="K101" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="102" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A102" s="71" t="s">
+    <row r="102" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A102" s="69" t="s">
         <v>894</v>
       </c>
       <c r="B102" s="67" t="s">
@@ -13317,24 +12977,21 @@
       <c r="G102" s="67" t="s">
         <v>899</v>
       </c>
-      <c r="H102" s="67" t="s">
-        <v>894</v>
-      </c>
-      <c r="I102" s="68" t="s">
+      <c r="H102" s="75" t="s">
         <v>900</v>
       </c>
-      <c r="J102" s="70" t="s">
+      <c r="I102" s="76" t="s">
         <v>901</v>
       </c>
-      <c r="K102" s="67">
+      <c r="J102" s="67">
         <v>93</v>
       </c>
-      <c r="L102" s="67" t="s">
+      <c r="K102" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="103" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A103" s="71" t="s">
+    <row r="103" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A103" s="69" t="s">
         <v>903</v>
       </c>
       <c r="B103" s="67" t="s">
@@ -13355,24 +13012,21 @@
       <c r="G103" s="67" t="s">
         <v>906</v>
       </c>
-      <c r="H103" s="67" t="s">
-        <v>903</v>
-      </c>
-      <c r="I103" s="68" t="s">
+      <c r="H103" s="75" t="s">
         <v>908</v>
       </c>
-      <c r="J103" s="70" t="s">
+      <c r="I103" s="76" t="s">
         <v>909</v>
       </c>
-      <c r="K103" s="67">
+      <c r="J103" s="67">
         <v>97</v>
       </c>
-      <c r="L103" s="67" t="s">
+      <c r="K103" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="104" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A104" s="71" t="s">
+    <row r="104" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A104" s="69" t="s">
         <v>911</v>
       </c>
       <c r="B104" s="67" t="s">
@@ -13393,24 +13047,21 @@
       <c r="G104" s="67" t="s">
         <v>915</v>
       </c>
-      <c r="H104" s="67" t="s">
-        <v>911</v>
-      </c>
-      <c r="I104" s="68" t="s">
+      <c r="H104" s="75" t="s">
         <v>919</v>
       </c>
-      <c r="J104" s="70" t="s">
+      <c r="I104" s="76" t="s">
         <v>920</v>
       </c>
-      <c r="K104" s="67">
+      <c r="J104" s="67">
         <v>101</v>
       </c>
-      <c r="L104" s="67" t="s">
+      <c r="K104" s="67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="105" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A105" s="71" t="s">
+    <row r="105" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A105" s="69" t="s">
         <v>922</v>
       </c>
       <c r="B105" s="67" t="s">
@@ -13431,24 +13082,21 @@
       <c r="G105" s="67" t="s">
         <v>2151</v>
       </c>
-      <c r="H105" s="67" t="s">
-        <v>922</v>
-      </c>
-      <c r="I105" s="68" t="s">
+      <c r="H105" s="75" t="s">
         <v>924</v>
       </c>
-      <c r="J105" s="70" t="s">
+      <c r="I105" s="76" t="s">
         <v>925</v>
       </c>
-      <c r="K105" s="67">
+      <c r="J105" s="67">
         <v>264</v>
       </c>
-      <c r="L105" s="67" t="s">
+      <c r="K105" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="106" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A106" s="71" t="s">
+    <row r="106" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A106" s="69" t="s">
         <v>928</v>
       </c>
       <c r="B106" s="67" t="s">
@@ -13469,24 +13117,21 @@
       <c r="G106" s="67" t="s">
         <v>932</v>
       </c>
-      <c r="H106" s="67" t="s">
-        <v>928</v>
-      </c>
-      <c r="I106" s="68" t="s">
+      <c r="H106" s="75" t="s">
         <v>933</v>
       </c>
-      <c r="J106" s="70" t="s">
+      <c r="I106" s="76" t="s">
         <v>934</v>
       </c>
-      <c r="K106" s="67">
+      <c r="J106" s="67">
         <v>100</v>
       </c>
-      <c r="L106" s="67" t="s">
+      <c r="K106" s="67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="107" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A107" s="71" t="s">
+    <row r="107" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A107" s="69" t="s">
         <v>935</v>
       </c>
       <c r="B107" s="67" t="s">
@@ -13507,24 +13152,21 @@
       <c r="G107" s="67" t="s">
         <v>2153</v>
       </c>
-      <c r="H107" s="67" t="s">
-        <v>935</v>
-      </c>
-      <c r="I107" s="68" t="s">
+      <c r="H107" s="75" t="s">
         <v>938</v>
       </c>
-      <c r="J107" s="70" t="s">
+      <c r="I107" s="76" t="s">
         <v>939</v>
       </c>
-      <c r="K107" s="67">
+      <c r="J107" s="67">
         <v>24</v>
       </c>
-      <c r="L107" s="67" t="s">
+      <c r="K107" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="108" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A108" s="71" t="s">
+    <row r="108" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A108" s="69" t="s">
         <v>941</v>
       </c>
       <c r="B108" s="67" t="s">
@@ -13545,24 +13187,21 @@
       <c r="G108" s="67" t="s">
         <v>944</v>
       </c>
-      <c r="H108" s="67" t="s">
-        <v>941</v>
-      </c>
-      <c r="I108" s="68" t="s">
+      <c r="H108" s="75" t="s">
         <v>946</v>
       </c>
-      <c r="J108" s="70" t="s">
+      <c r="I108" s="76" t="s">
         <v>947</v>
       </c>
-      <c r="K108" s="67">
+      <c r="J108" s="67">
         <v>104</v>
       </c>
-      <c r="L108" s="67" t="s">
+      <c r="K108" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="109" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A109" s="71" t="s">
+    <row r="109" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A109" s="69" t="s">
         <v>949</v>
       </c>
       <c r="B109" s="67" t="s">
@@ -13583,24 +13222,21 @@
       <c r="G109" s="67" t="s">
         <v>948</v>
       </c>
-      <c r="H109" s="67" t="s">
-        <v>949</v>
-      </c>
-      <c r="I109" s="68" t="s">
+      <c r="H109" s="75" t="s">
         <v>954</v>
       </c>
-      <c r="J109" s="70" t="s">
+      <c r="I109" s="76" t="s">
         <v>955</v>
       </c>
-      <c r="K109" s="67">
+      <c r="J109" s="67">
         <v>102</v>
       </c>
-      <c r="L109" s="67" t="s">
+      <c r="K109" s="67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="110" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A110" s="71" t="s">
+    <row r="110" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A110" s="69" t="s">
         <v>957</v>
       </c>
       <c r="B110" s="67" t="s">
@@ -13621,24 +13257,21 @@
       <c r="G110" s="67" t="s">
         <v>956</v>
       </c>
-      <c r="H110" s="67" t="s">
-        <v>957</v>
-      </c>
-      <c r="I110" s="68" t="s">
+      <c r="H110" s="75" t="s">
         <v>962</v>
       </c>
-      <c r="J110" s="70" t="s">
+      <c r="I110" s="76" t="s">
         <v>963</v>
       </c>
-      <c r="K110" s="67">
+      <c r="J110" s="67">
         <v>103</v>
       </c>
-      <c r="L110" s="67" t="s">
+      <c r="K110" s="67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="111" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A111" s="71" t="s">
+    <row r="111" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A111" s="69" t="s">
         <v>965</v>
       </c>
       <c r="B111" s="67" t="s">
@@ -13659,24 +13292,21 @@
       <c r="G111" s="67" t="s">
         <v>970</v>
       </c>
-      <c r="H111" s="67" t="s">
-        <v>965</v>
-      </c>
-      <c r="I111" s="68" t="s">
+      <c r="H111" s="75" t="s">
         <v>971</v>
       </c>
-      <c r="J111" s="70" t="s">
+      <c r="I111" s="76" t="s">
         <v>972</v>
       </c>
-      <c r="K111" s="67">
+      <c r="J111" s="67">
         <v>99</v>
       </c>
-      <c r="L111" s="67" t="s">
+      <c r="K111" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="112" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A112" s="71" t="s">
+    <row r="112" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A112" s="69" t="s">
         <v>974</v>
       </c>
       <c r="B112" s="67" t="s">
@@ -13697,24 +13327,21 @@
       <c r="G112" s="67" t="s">
         <v>978</v>
       </c>
-      <c r="H112" s="67" t="s">
-        <v>974</v>
-      </c>
-      <c r="I112" s="68" t="s">
+      <c r="H112" s="75" t="s">
         <v>980</v>
       </c>
-      <c r="J112" s="70" t="s">
+      <c r="I112" s="76" t="s">
         <v>981</v>
       </c>
-      <c r="K112" s="67">
+      <c r="J112" s="67">
         <v>105</v>
       </c>
-      <c r="L112" s="67" t="s">
+      <c r="K112" s="67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="113" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A113" s="71" t="s">
+    <row r="113" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A113" s="69" t="s">
         <v>983</v>
       </c>
       <c r="B113" s="67" t="s">
@@ -13735,24 +13362,21 @@
       <c r="G113" s="67" t="s">
         <v>988</v>
       </c>
-      <c r="H113" s="67" t="s">
-        <v>983</v>
-      </c>
-      <c r="I113" s="68" t="s">
+      <c r="H113" s="75" t="s">
         <v>990</v>
       </c>
-      <c r="J113" s="70" t="s">
+      <c r="I113" s="76" t="s">
         <v>991</v>
       </c>
-      <c r="K113" s="67">
+      <c r="J113" s="67">
         <v>106</v>
       </c>
-      <c r="L113" s="67" t="s">
+      <c r="K113" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="114" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A114" s="71" t="s">
+    <row r="114" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A114" s="69" t="s">
         <v>993</v>
       </c>
       <c r="B114" s="67" t="s">
@@ -13773,24 +13397,21 @@
       <c r="G114" s="67" t="s">
         <v>995</v>
       </c>
-      <c r="H114" s="67" t="s">
-        <v>993</v>
-      </c>
-      <c r="I114" s="68" t="s">
+      <c r="H114" s="75" t="s">
         <v>998</v>
       </c>
-      <c r="J114" s="70" t="s">
+      <c r="I114" s="76" t="s">
         <v>999</v>
       </c>
-      <c r="K114" s="67">
+      <c r="J114" s="67">
         <v>109</v>
       </c>
-      <c r="L114" s="67" t="s">
+      <c r="K114" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="115" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A115" s="71" t="s">
+    <row r="115" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A115" s="69" t="s">
         <v>1001</v>
       </c>
       <c r="B115" s="67" t="s">
@@ -13811,24 +13432,21 @@
       <c r="G115" s="67" t="s">
         <v>1000</v>
       </c>
-      <c r="H115" s="67" t="s">
-        <v>1001</v>
-      </c>
-      <c r="I115" s="68" t="s">
+      <c r="H115" s="75" t="s">
         <v>1003</v>
       </c>
-      <c r="J115" s="70" t="s">
+      <c r="I115" s="76" t="s">
         <v>1004</v>
       </c>
-      <c r="K115" s="67">
+      <c r="J115" s="67">
         <v>283</v>
       </c>
-      <c r="L115" s="67" t="s">
+      <c r="K115" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="116" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A116" s="71" t="s">
+    <row r="116" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A116" s="69" t="s">
         <v>1006</v>
       </c>
       <c r="B116" s="67" t="s">
@@ -13849,24 +13467,21 @@
       <c r="G116" s="67" t="s">
         <v>1011</v>
       </c>
-      <c r="H116" s="67" t="s">
-        <v>1006</v>
-      </c>
-      <c r="I116" s="68" t="s">
+      <c r="H116" s="75" t="s">
         <v>1013</v>
       </c>
-      <c r="J116" s="70" t="s">
+      <c r="I116" s="76" t="s">
         <v>1014</v>
       </c>
-      <c r="K116" s="67">
+      <c r="J116" s="67">
         <v>112</v>
       </c>
-      <c r="L116" s="67" t="s">
+      <c r="K116" s="67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="117" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A117" s="71" t="s">
+    <row r="117" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A117" s="69" t="s">
         <v>1016</v>
       </c>
       <c r="B117" s="67" t="s">
@@ -13887,24 +13502,21 @@
       <c r="G117" s="67" t="s">
         <v>1020</v>
       </c>
-      <c r="H117" s="67" t="s">
-        <v>1016</v>
-      </c>
-      <c r="I117" s="68" t="s">
+      <c r="H117" s="75" t="s">
         <v>1021</v>
       </c>
-      <c r="J117" s="70" t="s">
+      <c r="I117" s="76" t="s">
         <v>1022</v>
       </c>
-      <c r="K117" s="67">
+      <c r="J117" s="67">
         <v>110</v>
       </c>
-      <c r="L117" s="67" t="s">
+      <c r="K117" s="67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="118" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A118" s="71" t="s">
+    <row r="118" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A118" s="69" t="s">
         <v>1025</v>
       </c>
       <c r="B118" s="67" t="s">
@@ -13925,24 +13537,21 @@
       <c r="G118" s="67" t="s">
         <v>1024</v>
       </c>
-      <c r="H118" s="67" t="s">
-        <v>1025</v>
-      </c>
-      <c r="I118" s="68" t="s">
+      <c r="H118" s="75" t="s">
         <v>1031</v>
       </c>
-      <c r="J118" s="70" t="s">
+      <c r="I118" s="76" t="s">
         <v>1032</v>
       </c>
-      <c r="K118" s="67">
+      <c r="J118" s="67">
         <v>108</v>
       </c>
-      <c r="L118" s="67" t="s">
+      <c r="K118" s="67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="119" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A119" s="71" t="s">
+    <row r="119" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A119" s="69" t="s">
         <v>1035</v>
       </c>
       <c r="B119" s="67" t="s">
@@ -13963,24 +13572,21 @@
       <c r="G119" s="67" t="s">
         <v>1034</v>
       </c>
-      <c r="H119" s="67" t="s">
-        <v>1035</v>
-      </c>
-      <c r="I119" s="68" t="s">
+      <c r="H119" s="75" t="s">
         <v>1040</v>
       </c>
-      <c r="J119" s="70" t="s">
+      <c r="I119" s="76" t="s">
         <v>1041</v>
       </c>
-      <c r="K119" s="67">
+      <c r="J119" s="67">
         <v>114</v>
       </c>
-      <c r="L119" s="67" t="s">
+      <c r="K119" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="120" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A120" s="71" t="s">
+    <row r="120" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A120" s="69" t="s">
         <v>1043</v>
       </c>
       <c r="B120" s="67" t="s">
@@ -14001,24 +13607,21 @@
       <c r="G120" s="67" t="s">
         <v>1048</v>
       </c>
-      <c r="H120" s="67" t="s">
-        <v>1043</v>
-      </c>
-      <c r="I120" s="68" t="s">
+      <c r="H120" s="75" t="s">
         <v>1050</v>
       </c>
-      <c r="J120" s="70" t="s">
+      <c r="I120" s="76" t="s">
         <v>1051</v>
       </c>
-      <c r="K120" s="67">
+      <c r="J120" s="67">
         <v>113</v>
       </c>
-      <c r="L120" s="67" t="s">
+      <c r="K120" s="67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="121" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A121" s="71" t="s">
+    <row r="121" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A121" s="69" t="s">
         <v>1053</v>
       </c>
       <c r="B121" s="67" t="s">
@@ -14039,24 +13642,21 @@
       <c r="G121" s="67" t="s">
         <v>1058</v>
       </c>
-      <c r="H121" s="67" t="s">
-        <v>1053</v>
-      </c>
-      <c r="I121" s="68" t="s">
+      <c r="H121" s="75" t="s">
         <v>1060</v>
       </c>
-      <c r="J121" s="70" t="s">
+      <c r="I121" s="76" t="s">
         <v>1061</v>
       </c>
-      <c r="K121" s="67">
+      <c r="J121" s="67">
         <v>115</v>
       </c>
-      <c r="L121" s="67" t="s">
+      <c r="K121" s="67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="122" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A122" s="71" t="s">
+    <row r="122" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A122" s="69" t="s">
         <v>1063</v>
       </c>
       <c r="B122" s="67" t="s">
@@ -14077,24 +13677,21 @@
       <c r="G122" s="67" t="s">
         <v>1062</v>
       </c>
-      <c r="H122" s="67" t="s">
-        <v>1063</v>
-      </c>
-      <c r="I122" s="68" t="s">
+      <c r="H122" s="75" t="s">
         <v>1068</v>
       </c>
-      <c r="J122" s="70" t="s">
+      <c r="I122" s="76" t="s">
         <v>1069</v>
       </c>
-      <c r="K122" s="67">
+      <c r="J122" s="67">
         <v>83</v>
       </c>
-      <c r="L122" s="67" t="s">
+      <c r="K122" s="67" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="123" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A123" s="71" t="s">
+    <row r="123" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A123" s="69" t="s">
         <v>1071</v>
       </c>
       <c r="B123" s="67" t="s">
@@ -14115,24 +13712,21 @@
       <c r="G123" s="67" t="s">
         <v>1073</v>
       </c>
-      <c r="H123" s="67" t="s">
-        <v>1071</v>
-      </c>
-      <c r="I123" s="68" t="s">
+      <c r="H123" s="75" t="s">
         <v>1075</v>
       </c>
-      <c r="J123" s="70" t="s">
+      <c r="I123" s="76" t="s">
         <v>1076</v>
       </c>
-      <c r="K123" s="67">
+      <c r="J123" s="67">
         <v>188</v>
       </c>
-      <c r="L123" s="67" t="s">
+      <c r="K123" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="124" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A124" s="71" t="s">
+    <row r="124" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A124" s="69" t="s">
         <v>1078</v>
       </c>
       <c r="B124" s="67" t="s">
@@ -14153,24 +13747,21 @@
       <c r="G124" s="67" t="s">
         <v>1083</v>
       </c>
-      <c r="H124" s="67" t="s">
-        <v>1078</v>
-      </c>
-      <c r="I124" s="68" t="s">
+      <c r="H124" s="75" t="s">
         <v>1086</v>
       </c>
-      <c r="J124" s="70" t="s">
+      <c r="I124" s="76" t="s">
         <v>1087</v>
       </c>
-      <c r="K124" s="67">
+      <c r="J124" s="67">
         <v>117</v>
       </c>
-      <c r="L124" s="67" t="s">
+      <c r="K124" s="67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="125" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A125" s="71" t="s">
+    <row r="125" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A125" s="69" t="s">
         <v>1090</v>
       </c>
       <c r="B125" s="67" t="s">
@@ -14191,24 +13782,21 @@
       <c r="G125" s="67" t="s">
         <v>1094</v>
       </c>
-      <c r="H125" s="67" t="s">
-        <v>1090</v>
-      </c>
-      <c r="I125" s="68" t="s">
+      <c r="H125" s="75" t="s">
         <v>1096</v>
       </c>
-      <c r="J125" s="70" t="s">
+      <c r="I125" s="76" t="s">
         <v>1097</v>
       </c>
-      <c r="K125" s="67">
+      <c r="J125" s="67">
         <v>118</v>
       </c>
-      <c r="L125" s="67" t="s">
+      <c r="K125" s="67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="126" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A126" s="71" t="s">
+    <row r="126" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A126" s="69" t="s">
         <v>1099</v>
       </c>
       <c r="B126" s="67" t="s">
@@ -14229,24 +13817,21 @@
       <c r="G126" s="67" t="s">
         <v>1102</v>
       </c>
-      <c r="H126" s="67" t="s">
-        <v>1099</v>
-      </c>
-      <c r="I126" s="68" t="s">
+      <c r="H126" s="75" t="s">
         <v>1105</v>
       </c>
-      <c r="J126" s="70" t="s">
+      <c r="I126" s="76" t="s">
         <v>1106</v>
       </c>
-      <c r="K126" s="67">
+      <c r="J126" s="67">
         <v>120</v>
       </c>
-      <c r="L126" s="67" t="s">
+      <c r="K126" s="67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="127" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A127" s="71" t="s">
+    <row r="127" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A127" s="69" t="s">
         <v>1108</v>
       </c>
       <c r="B127" s="67" t="s">
@@ -14267,24 +13852,21 @@
       <c r="G127" s="67" t="s">
         <v>1113</v>
       </c>
-      <c r="H127" s="67" t="s">
-        <v>1108</v>
-      </c>
-      <c r="I127" s="68" t="s">
+      <c r="H127" s="75" t="s">
         <v>1115</v>
       </c>
-      <c r="J127" s="70" t="s">
+      <c r="I127" s="76" t="s">
         <v>1116</v>
       </c>
-      <c r="K127" s="67">
+      <c r="J127" s="67">
         <v>121</v>
       </c>
-      <c r="L127" s="67" t="s">
+      <c r="K127" s="67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="128" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A128" s="71" t="s">
+    <row r="128" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A128" s="69" t="s">
         <v>1118</v>
       </c>
       <c r="B128" s="67" t="s">
@@ -14305,24 +13887,21 @@
       <c r="G128" s="67" t="s">
         <v>1122</v>
       </c>
-      <c r="H128" s="67" t="s">
-        <v>1118</v>
-      </c>
-      <c r="I128" s="68" t="s">
+      <c r="H128" s="75" t="s">
         <v>1123</v>
       </c>
-      <c r="J128" s="70" t="s">
+      <c r="I128" s="76" t="s">
         <v>1124</v>
       </c>
-      <c r="K128" s="67">
+      <c r="J128" s="67">
         <v>123</v>
       </c>
-      <c r="L128" s="67" t="s">
+      <c r="K128" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="129" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A129" s="71" t="s">
+    <row r="129" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A129" s="69" t="s">
         <v>1126</v>
       </c>
       <c r="B129" s="67" t="s">
@@ -14343,24 +13922,21 @@
       <c r="G129" s="67" t="s">
         <v>1128</v>
       </c>
-      <c r="H129" s="67" t="s">
-        <v>1126</v>
-      </c>
-      <c r="I129" s="68" t="s">
+      <c r="H129" s="75" t="s">
         <v>1129</v>
       </c>
-      <c r="J129" s="70" t="s">
+      <c r="I129" s="76" t="s">
         <v>1130</v>
       </c>
-      <c r="K129" s="67">
+      <c r="J129" s="67">
         <v>124</v>
       </c>
-      <c r="L129" s="67" t="s">
+      <c r="K129" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="130" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A130" s="71" t="s">
+    <row r="130" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A130" s="69" t="s">
         <v>1132</v>
       </c>
       <c r="B130" s="67" t="s">
@@ -14381,24 +13957,21 @@
       <c r="G130" s="67" t="s">
         <v>1134</v>
       </c>
-      <c r="H130" s="67" t="s">
-        <v>1132</v>
-      </c>
-      <c r="I130" s="68" t="s">
+      <c r="H130" s="75" t="s">
         <v>1136</v>
       </c>
-      <c r="J130" s="70" t="s">
+      <c r="I130" s="76" t="s">
         <v>1137</v>
       </c>
-      <c r="K130" s="67">
+      <c r="J130" s="67">
         <v>189</v>
       </c>
-      <c r="L130" s="67" t="s">
+      <c r="K130" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="131" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A131" s="71" t="s">
+    <row r="131" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A131" s="69" t="s">
         <v>1139</v>
       </c>
       <c r="B131" s="67" t="s">
@@ -14419,24 +13992,21 @@
       <c r="G131" s="67" t="s">
         <v>1138</v>
       </c>
-      <c r="H131" s="67" t="s">
-        <v>1139</v>
-      </c>
-      <c r="I131" s="68" t="s">
+      <c r="H131" s="75" t="s">
         <v>1145</v>
       </c>
-      <c r="J131" s="70" t="s">
+      <c r="I131" s="76" t="s">
         <v>1146</v>
       </c>
-      <c r="K131" s="67">
+      <c r="J131" s="67">
         <v>125</v>
       </c>
-      <c r="L131" s="67" t="s">
+      <c r="K131" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="132" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A132" s="71" t="s">
+    <row r="132" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A132" s="69" t="s">
         <v>1148</v>
       </c>
       <c r="B132" s="67" t="s">
@@ -14457,24 +14027,21 @@
       <c r="G132" s="67" t="s">
         <v>1147</v>
       </c>
-      <c r="H132" s="67" t="s">
-        <v>1148</v>
-      </c>
-      <c r="I132" s="68" t="s">
+      <c r="H132" s="75" t="s">
         <v>1153</v>
       </c>
-      <c r="J132" s="70" t="s">
+      <c r="I132" s="76" t="s">
         <v>1154</v>
       </c>
-      <c r="K132" s="67">
+      <c r="J132" s="67">
         <v>38</v>
       </c>
-      <c r="L132" s="67" t="s">
+      <c r="K132" s="67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="133" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A133" s="71" t="s">
+    <row r="133" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A133" s="69" t="s">
         <v>1156</v>
       </c>
       <c r="B133" s="67" t="s">
@@ -14495,24 +14062,21 @@
       <c r="G133" s="67" t="s">
         <v>1155</v>
       </c>
-      <c r="H133" s="67" t="s">
-        <v>1156</v>
-      </c>
-      <c r="I133" s="68" t="s">
+      <c r="H133" s="75" t="s">
         <v>1161</v>
       </c>
-      <c r="J133" s="70" t="s">
+      <c r="I133" s="76" t="s">
         <v>1162</v>
       </c>
-      <c r="K133" s="67">
+      <c r="J133" s="67">
         <v>122</v>
       </c>
-      <c r="L133" s="67" t="s">
+      <c r="K133" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="134" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A134" s="71" t="s">
+    <row r="134" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A134" s="69" t="s">
         <v>1164</v>
       </c>
       <c r="B134" s="67" t="s">
@@ -14533,24 +14097,21 @@
       <c r="G134" s="67" t="s">
         <v>1169</v>
       </c>
-      <c r="H134" s="67" t="s">
-        <v>1164</v>
-      </c>
-      <c r="I134" s="68" t="s">
+      <c r="H134" s="75" t="s">
         <v>1171</v>
       </c>
-      <c r="J134" s="70" t="s">
+      <c r="I134" s="76" t="s">
         <v>1172</v>
       </c>
-      <c r="K134" s="67">
+      <c r="J134" s="67">
         <v>126</v>
       </c>
-      <c r="L134" s="67" t="s">
+      <c r="K134" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="135" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A135" s="71" t="s">
+    <row r="135" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A135" s="69" t="s">
         <v>1174</v>
       </c>
       <c r="B135" s="67" t="s">
@@ -14571,24 +14132,21 @@
       <c r="G135" s="67" t="s">
         <v>1173</v>
       </c>
-      <c r="H135" s="67" t="s">
-        <v>1174</v>
-      </c>
-      <c r="I135" s="68" t="s">
+      <c r="H135" s="75" t="s">
         <v>1181</v>
       </c>
-      <c r="J135" s="70" t="s">
+      <c r="I135" s="76" t="s">
         <v>1182</v>
       </c>
-      <c r="K135" s="67">
+      <c r="J135" s="67">
         <v>256</v>
       </c>
-      <c r="L135" s="67" t="s">
+      <c r="K135" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="136" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A136" s="71" t="s">
+    <row r="136" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A136" s="69" t="s">
         <v>1184</v>
       </c>
       <c r="B136" s="67" t="s">
@@ -14609,24 +14167,21 @@
       <c r="G136" s="67" t="s">
         <v>1189</v>
       </c>
-      <c r="H136" s="67" t="s">
-        <v>1184</v>
-      </c>
-      <c r="I136" s="68" t="s">
+      <c r="H136" s="75" t="s">
         <v>1191</v>
       </c>
-      <c r="J136" s="70" t="s">
+      <c r="I136" s="76" t="s">
         <v>1192</v>
       </c>
-      <c r="K136" s="67">
+      <c r="J136" s="67">
         <v>119</v>
       </c>
-      <c r="L136" s="67" t="s">
+      <c r="K136" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="137" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A137" s="71" t="s">
+    <row r="137" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A137" s="69" t="s">
         <v>1194</v>
       </c>
       <c r="B137" s="67" t="s">
@@ -14647,24 +14202,21 @@
       <c r="G137" s="67" t="s">
         <v>1195</v>
       </c>
-      <c r="H137" s="67" t="s">
-        <v>1194</v>
-      </c>
-      <c r="I137" s="68" t="s">
+      <c r="H137" s="75" t="s">
         <v>1197</v>
       </c>
-      <c r="J137" s="70" t="s">
+      <c r="I137" s="76" t="s">
         <v>1198</v>
       </c>
-      <c r="K137" s="67">
+      <c r="J137" s="67">
         <v>128</v>
       </c>
-      <c r="L137" s="67" t="s">
+      <c r="K137" s="67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="138" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A138" s="71" t="s">
+    <row r="138" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A138" s="69" t="s">
         <v>1200</v>
       </c>
       <c r="B138" s="67" t="s">
@@ -14685,24 +14237,21 @@
       <c r="G138" s="67" t="s">
         <v>1203</v>
       </c>
-      <c r="H138" s="67" t="s">
-        <v>1200</v>
-      </c>
-      <c r="I138" s="68" t="s">
+      <c r="H138" s="75" t="s">
         <v>1206</v>
       </c>
-      <c r="J138" s="70" t="s">
+      <c r="I138" s="76" t="s">
         <v>1207</v>
       </c>
-      <c r="K138" s="67">
+      <c r="J138" s="67">
         <v>281</v>
       </c>
-      <c r="L138" s="67" t="s">
+      <c r="K138" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="139" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A139" s="71" t="s">
+    <row r="139" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A139" s="69" t="s">
         <v>1209</v>
       </c>
       <c r="B139" s="67" t="s">
@@ -14723,24 +14272,21 @@
       <c r="G139" s="67" t="s">
         <v>1214</v>
       </c>
-      <c r="H139" s="67" t="s">
-        <v>1209</v>
-      </c>
-      <c r="I139" s="68" t="s">
+      <c r="H139" s="75" t="s">
         <v>1216</v>
       </c>
-      <c r="J139" s="70" t="s">
+      <c r="I139" s="76" t="s">
         <v>1217</v>
       </c>
-      <c r="K139" s="67">
+      <c r="J139" s="67">
         <v>143</v>
       </c>
-      <c r="L139" s="67" t="s">
+      <c r="K139" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="140" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A140" s="71" t="s">
+    <row r="140" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A140" s="69" t="s">
         <v>1219</v>
       </c>
       <c r="B140" s="67" t="s">
@@ -14761,24 +14307,21 @@
       <c r="G140" s="67" t="s">
         <v>1218</v>
       </c>
-      <c r="H140" s="67" t="s">
-        <v>1219</v>
-      </c>
-      <c r="I140" s="68" t="s">
+      <c r="H140" s="75" t="s">
         <v>1225</v>
       </c>
-      <c r="J140" s="70" t="s">
+      <c r="I140" s="76" t="s">
         <v>1226</v>
       </c>
-      <c r="K140" s="67">
+      <c r="J140" s="67">
         <v>140</v>
       </c>
-      <c r="L140" s="67" t="s">
+      <c r="K140" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="141" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A141" s="71" t="s">
+    <row r="141" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A141" s="69" t="s">
         <v>1228</v>
       </c>
       <c r="B141" s="67" t="s">
@@ -14799,24 +14342,21 @@
       <c r="G141" s="67" t="s">
         <v>1227</v>
       </c>
-      <c r="H141" s="67" t="s">
-        <v>1228</v>
-      </c>
-      <c r="I141" s="68" t="s">
+      <c r="H141" s="75" t="s">
         <v>1233</v>
       </c>
-      <c r="J141" s="70" t="s">
+      <c r="I141" s="76" t="s">
         <v>1234</v>
       </c>
-      <c r="K141" s="67">
+      <c r="J141" s="67">
         <v>146</v>
       </c>
-      <c r="L141" s="67" t="s">
+      <c r="K141" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="142" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A142" s="71" t="s">
+    <row r="142" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A142" s="69" t="s">
         <v>1236</v>
       </c>
       <c r="B142" s="67" t="s">
@@ -14837,24 +14377,21 @@
       <c r="G142" s="67" t="s">
         <v>1235</v>
       </c>
-      <c r="H142" s="67" t="s">
-        <v>1236</v>
-      </c>
-      <c r="I142" s="68" t="s">
+      <c r="H142" s="75" t="s">
         <v>1241</v>
       </c>
-      <c r="J142" s="70" t="s">
+      <c r="I142" s="76" t="s">
         <v>1242</v>
       </c>
-      <c r="K142" s="67">
+      <c r="J142" s="67">
         <v>129</v>
       </c>
-      <c r="L142" s="67" t="s">
+      <c r="K142" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="143" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A143" s="71" t="s">
+    <row r="143" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A143" s="69" t="s">
         <v>1244</v>
       </c>
       <c r="B143" s="67" t="s">
@@ -14875,24 +14412,21 @@
       <c r="G143" s="67" t="s">
         <v>1243</v>
       </c>
-      <c r="H143" s="67" t="s">
-        <v>1244</v>
-      </c>
-      <c r="I143" s="68" t="s">
+      <c r="H143" s="75" t="s">
         <v>1250</v>
       </c>
-      <c r="J143" s="70" t="s">
+      <c r="I143" s="76" t="s">
         <v>1251</v>
       </c>
-      <c r="K143" s="67">
+      <c r="J143" s="67">
         <v>132</v>
       </c>
-      <c r="L143" s="67" t="s">
+      <c r="K143" s="67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="144" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A144" s="71" t="s">
+    <row r="144" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A144" s="69" t="s">
         <v>1254</v>
       </c>
       <c r="B144" s="67" t="s">
@@ -14913,24 +14447,21 @@
       <c r="G144" s="67" t="s">
         <v>1259</v>
       </c>
-      <c r="H144" s="67" t="s">
-        <v>1254</v>
-      </c>
-      <c r="I144" s="68" t="s">
+      <c r="H144" s="75" t="s">
         <v>1261</v>
       </c>
-      <c r="J144" s="70" t="s">
+      <c r="I144" s="76" t="s">
         <v>1262</v>
       </c>
-      <c r="K144" s="67">
+      <c r="J144" s="67">
         <v>138</v>
       </c>
-      <c r="L144" s="67" t="s">
+      <c r="K144" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="145" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A145" s="71" t="s">
+    <row r="145" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A145" s="69" t="s">
         <v>1264</v>
       </c>
       <c r="B145" s="67" t="s">
@@ -14951,24 +14482,21 @@
       <c r="G145" s="67" t="s">
         <v>1269</v>
       </c>
-      <c r="H145" s="67" t="s">
-        <v>1264</v>
-      </c>
-      <c r="I145" s="68" t="s">
+      <c r="H145" s="75" t="s">
         <v>1271</v>
       </c>
-      <c r="J145" s="70" t="s">
+      <c r="I145" s="76" t="s">
         <v>1272</v>
       </c>
-      <c r="K145" s="67">
+      <c r="J145" s="67">
         <v>127</v>
       </c>
-      <c r="L145" s="67" t="s">
+      <c r="K145" s="67" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="146" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A146" s="71" t="s">
+    <row r="146" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A146" s="69" t="s">
         <v>1274</v>
       </c>
       <c r="B146" s="67" t="s">
@@ -14989,24 +14517,21 @@
       <c r="G146" s="67" t="s">
         <v>1278</v>
       </c>
-      <c r="H146" s="67" t="s">
-        <v>1274</v>
-      </c>
-      <c r="I146" s="68" t="s">
+      <c r="H146" s="75" t="s">
         <v>1280</v>
       </c>
-      <c r="J146" s="70" t="s">
+      <c r="I146" s="76" t="s">
         <v>1281</v>
       </c>
-      <c r="K146" s="67">
+      <c r="J146" s="67">
         <v>154</v>
       </c>
-      <c r="L146" s="67" t="s">
+      <c r="K146" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="147" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A147" s="71" t="s">
+    <row r="147" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A147" s="69" t="s">
         <v>1283</v>
       </c>
       <c r="B147" s="67" t="s">
@@ -15027,24 +14552,21 @@
       <c r="G147" s="67" t="s">
         <v>1282</v>
       </c>
-      <c r="H147" s="67" t="s">
-        <v>1283</v>
-      </c>
-      <c r="I147" s="68" t="s">
+      <c r="H147" s="75" t="s">
         <v>1288</v>
       </c>
-      <c r="J147" s="70" t="s">
+      <c r="I147" s="76" t="s">
         <v>1289</v>
       </c>
-      <c r="K147" s="67">
+      <c r="J147" s="67">
         <v>133</v>
       </c>
-      <c r="L147" s="67" t="s">
+      <c r="K147" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="148" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A148" s="71" t="s">
+    <row r="148" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A148" s="69" t="s">
         <v>1291</v>
       </c>
       <c r="B148" s="67" t="s">
@@ -15065,24 +14587,21 @@
       <c r="G148" s="67" t="s">
         <v>1295</v>
       </c>
-      <c r="H148" s="67" t="s">
-        <v>1291</v>
-      </c>
-      <c r="I148" s="68" t="s">
+      <c r="H148" s="75" t="s">
         <v>1297</v>
       </c>
-      <c r="J148" s="70" t="s">
+      <c r="I148" s="76" t="s">
         <v>1298</v>
       </c>
-      <c r="K148" s="67">
+      <c r="J148" s="67">
         <v>134</v>
       </c>
-      <c r="L148" s="67" t="s">
+      <c r="K148" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="149" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A149" s="71" t="s">
+    <row r="149" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A149" s="69" t="s">
         <v>1300</v>
       </c>
       <c r="B149" s="67" t="s">
@@ -15103,24 +14622,21 @@
       <c r="G149" s="67" t="s">
         <v>1299</v>
       </c>
-      <c r="H149" s="67" t="s">
-        <v>1300</v>
-      </c>
-      <c r="I149" s="68" t="s">
+      <c r="H149" s="75" t="s">
         <v>1305</v>
       </c>
-      <c r="J149" s="70" t="s">
+      <c r="I149" s="76" t="s">
         <v>1306</v>
       </c>
-      <c r="K149" s="67">
+      <c r="J149" s="67">
         <v>28</v>
       </c>
-      <c r="L149" s="67" t="s">
+      <c r="K149" s="67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="150" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A150" s="71" t="s">
+    <row r="150" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A150" s="69" t="s">
         <v>1308</v>
       </c>
       <c r="B150" s="67" t="s">
@@ -15141,24 +14657,21 @@
       <c r="G150" s="67" t="s">
         <v>1310</v>
       </c>
-      <c r="H150" s="67" t="s">
-        <v>1308</v>
-      </c>
-      <c r="I150" s="68" t="s">
+      <c r="H150" s="75" t="s">
         <v>1312</v>
       </c>
-      <c r="J150" s="70" t="s">
+      <c r="I150" s="76" t="s">
         <v>1313</v>
       </c>
-      <c r="K150" s="67">
+      <c r="J150" s="67">
         <v>273</v>
       </c>
-      <c r="L150" s="67" t="s">
+      <c r="K150" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="151" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A151" s="71" t="s">
+    <row r="151" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A151" s="69" t="s">
         <v>1315</v>
       </c>
       <c r="B151" s="67" t="s">
@@ -15179,24 +14692,21 @@
       <c r="G151" s="67" t="s">
         <v>1317</v>
       </c>
-      <c r="H151" s="67" t="s">
-        <v>1315</v>
-      </c>
-      <c r="I151" s="68" t="s">
+      <c r="H151" s="75" t="s">
         <v>1319</v>
       </c>
-      <c r="J151" s="70" t="s">
+      <c r="I151" s="76" t="s">
         <v>1320</v>
       </c>
-      <c r="K151" s="67">
+      <c r="J151" s="67">
         <v>141</v>
       </c>
-      <c r="L151" s="67" t="s">
+      <c r="K151" s="67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="152" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A152" s="71" t="s">
+    <row r="152" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A152" s="69" t="s">
         <v>1322</v>
       </c>
       <c r="B152" s="67" t="s">
@@ -15217,24 +14727,21 @@
       <c r="G152" s="67" t="s">
         <v>2155</v>
       </c>
-      <c r="H152" s="67" t="s">
-        <v>1322</v>
-      </c>
-      <c r="I152" s="68" t="s">
+      <c r="H152" s="75" t="s">
         <v>1324</v>
       </c>
-      <c r="J152" s="70" t="s">
+      <c r="I152" s="76" t="s">
         <v>1325</v>
       </c>
-      <c r="K152" s="67">
+      <c r="J152" s="67">
         <v>163</v>
       </c>
-      <c r="L152" s="67" t="s">
+      <c r="K152" s="67" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="153" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A153" s="71" t="s">
+    <row r="153" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A153" s="69" t="s">
         <v>1327</v>
       </c>
       <c r="B153" s="67" t="s">
@@ -15255,24 +14762,21 @@
       <c r="G153" s="67" t="s">
         <v>1326</v>
       </c>
-      <c r="H153" s="67" t="s">
-        <v>1327</v>
-      </c>
-      <c r="I153" s="68" t="s">
+      <c r="H153" s="75" t="s">
         <v>1332</v>
       </c>
-      <c r="J153" s="70" t="s">
+      <c r="I153" s="76" t="s">
         <v>1333</v>
       </c>
-      <c r="K153" s="67">
+      <c r="J153" s="67">
         <v>144</v>
       </c>
-      <c r="L153" s="67" t="s">
+      <c r="K153" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="154" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A154" s="71" t="s">
+    <row r="154" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A154" s="69" t="s">
         <v>1335</v>
       </c>
       <c r="B154" s="67" t="s">
@@ -15293,24 +14797,21 @@
       <c r="G154" s="67" t="s">
         <v>1339</v>
       </c>
-      <c r="H154" s="67" t="s">
-        <v>1335</v>
-      </c>
-      <c r="I154" s="68" t="s">
+      <c r="H154" s="75" t="s">
         <v>1341</v>
       </c>
-      <c r="J154" s="70" t="s">
+      <c r="I154" s="76" t="s">
         <v>1342</v>
       </c>
-      <c r="K154" s="67">
+      <c r="J154" s="67">
         <v>136</v>
       </c>
-      <c r="L154" s="67" t="s">
+      <c r="K154" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="155" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A155" s="71" t="s">
+    <row r="155" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A155" s="69" t="s">
         <v>1344</v>
       </c>
       <c r="B155" s="67" t="s">
@@ -15331,24 +14832,21 @@
       <c r="G155" s="67" t="s">
         <v>1343</v>
       </c>
-      <c r="H155" s="67" t="s">
-        <v>1344</v>
-      </c>
-      <c r="I155" s="68" t="s">
+      <c r="H155" s="75" t="s">
         <v>1346</v>
       </c>
-      <c r="J155" s="70" t="s">
+      <c r="I155" s="76" t="s">
         <v>1347</v>
       </c>
-      <c r="K155" s="67">
+      <c r="J155" s="67">
         <v>142</v>
       </c>
-      <c r="L155" s="67" t="s">
+      <c r="K155" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="156" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A156" s="71" t="s">
+    <row r="156" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A156" s="69" t="s">
         <v>1348</v>
       </c>
       <c r="B156" s="67" t="s">
@@ -15369,24 +14867,21 @@
       <c r="G156" s="67" t="s">
         <v>1349</v>
       </c>
-      <c r="H156" s="67" t="s">
-        <v>1348</v>
-      </c>
-      <c r="I156" s="68" t="s">
+      <c r="H156" s="75" t="s">
         <v>2203</v>
       </c>
-      <c r="J156" s="70" t="s">
+      <c r="I156" s="76" t="s">
         <v>2216</v>
       </c>
-      <c r="K156" s="67">
+      <c r="J156" s="67">
         <v>135</v>
       </c>
-      <c r="L156" s="67" t="s">
+      <c r="K156" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="157" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A157" s="71" t="s">
+    <row r="157" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A157" s="69" t="s">
         <v>1353</v>
       </c>
       <c r="B157" s="67" t="s">
@@ -15407,24 +14902,21 @@
       <c r="G157" s="67" t="s">
         <v>1357</v>
       </c>
-      <c r="H157" s="67" t="s">
-        <v>1353</v>
-      </c>
-      <c r="I157" s="68" t="s">
+      <c r="H157" s="75" t="s">
         <v>1359</v>
       </c>
-      <c r="J157" s="70" t="s">
+      <c r="I157" s="76" t="s">
         <v>1360</v>
       </c>
-      <c r="K157" s="67">
+      <c r="J157" s="67">
         <v>137</v>
       </c>
-      <c r="L157" s="67" t="s">
+      <c r="K157" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="158" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A158" s="71" t="s">
+    <row r="158" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A158" s="69" t="s">
         <v>1362</v>
       </c>
       <c r="B158" s="67" t="s">
@@ -15445,24 +14937,21 @@
       <c r="G158" s="67" t="s">
         <v>1361</v>
       </c>
-      <c r="H158" s="67" t="s">
-        <v>1362</v>
-      </c>
-      <c r="I158" s="68" t="s">
+      <c r="H158" s="75" t="s">
         <v>1367</v>
       </c>
-      <c r="J158" s="70" t="s">
+      <c r="I158" s="76" t="s">
         <v>1368</v>
       </c>
-      <c r="K158" s="67">
+      <c r="J158" s="67">
         <v>130</v>
       </c>
-      <c r="L158" s="67" t="s">
+      <c r="K158" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="159" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A159" s="71" t="s">
+    <row r="159" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A159" s="69" t="s">
         <v>1370</v>
       </c>
       <c r="B159" s="67" t="s">
@@ -15483,24 +14972,21 @@
       <c r="G159" s="67" t="s">
         <v>1373</v>
       </c>
-      <c r="H159" s="67" t="s">
-        <v>1370</v>
-      </c>
-      <c r="I159" s="68" t="s">
+      <c r="H159" s="75" t="s">
         <v>1375</v>
       </c>
-      <c r="J159" s="70" t="s">
+      <c r="I159" s="76" t="s">
         <v>1376</v>
       </c>
-      <c r="K159" s="67">
+      <c r="J159" s="67">
         <v>131</v>
       </c>
-      <c r="L159" s="67" t="s">
+      <c r="K159" s="67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="160" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A160" s="71" t="s">
+    <row r="160" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A160" s="69" t="s">
         <v>2184</v>
       </c>
       <c r="B160" s="67" t="s">
@@ -15521,24 +15007,21 @@
       <c r="G160" s="67" t="s">
         <v>2185</v>
       </c>
-      <c r="H160" s="67" t="s">
-        <v>2184</v>
-      </c>
-      <c r="I160" s="68" t="s">
+      <c r="H160" s="75" t="s">
         <v>2204</v>
       </c>
-      <c r="J160" s="70" t="s">
+      <c r="I160" s="76" t="s">
         <v>2217</v>
       </c>
-      <c r="K160" s="67">
+      <c r="J160" s="67">
         <v>270</v>
       </c>
-      <c r="L160" s="67" t="s">
+      <c r="K160" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="161" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A161" s="71" t="s">
+    <row r="161" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A161" s="69" t="s">
         <v>1378</v>
       </c>
       <c r="B161" s="67" t="s">
@@ -15559,24 +15042,21 @@
       <c r="G161" s="67" t="s">
         <v>1382</v>
       </c>
-      <c r="H161" s="67" t="s">
-        <v>1378</v>
-      </c>
-      <c r="I161" s="68" t="s">
+      <c r="H161" s="75" t="s">
         <v>1384</v>
       </c>
-      <c r="J161" s="70" t="s">
+      <c r="I161" s="76" t="s">
         <v>1385</v>
       </c>
-      <c r="K161" s="67">
+      <c r="J161" s="67">
         <v>147</v>
       </c>
-      <c r="L161" s="67" t="s">
+      <c r="K161" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="162" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A162" s="71" t="s">
+    <row r="162" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A162" s="69" t="s">
         <v>1387</v>
       </c>
       <c r="B162" s="67" t="s">
@@ -15597,24 +15077,21 @@
       <c r="G162" s="67" t="s">
         <v>1390</v>
       </c>
-      <c r="H162" s="67" t="s">
-        <v>1387</v>
-      </c>
-      <c r="I162" s="68" t="s">
+      <c r="H162" s="75" t="s">
         <v>1392</v>
       </c>
-      <c r="J162" s="70" t="s">
+      <c r="I162" s="76" t="s">
         <v>1393</v>
       </c>
-      <c r="K162" s="67">
+      <c r="J162" s="67">
         <v>153</v>
       </c>
-      <c r="L162" s="67" t="s">
+      <c r="K162" s="67" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="163" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A163" s="71" t="s">
+    <row r="163" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A163" s="69" t="s">
         <v>1395</v>
       </c>
       <c r="B163" s="67" t="s">
@@ -15635,24 +15112,21 @@
       <c r="G163" s="67" t="s">
         <v>1394</v>
       </c>
-      <c r="H163" s="67" t="s">
-        <v>1395</v>
-      </c>
-      <c r="I163" s="68" t="s">
+      <c r="H163" s="75" t="s">
         <v>1400</v>
       </c>
-      <c r="J163" s="70" t="s">
+      <c r="I163" s="76" t="s">
         <v>1401</v>
       </c>
-      <c r="K163" s="67">
+      <c r="J163" s="67">
         <v>158</v>
       </c>
-      <c r="L163" s="67" t="s">
+      <c r="K163" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="164" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A164" s="71" t="s">
+    <row r="164" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A164" s="69" t="s">
         <v>1403</v>
       </c>
       <c r="B164" s="67" t="s">
@@ -15673,24 +15147,21 @@
       <c r="G164" s="67" t="s">
         <v>2157</v>
       </c>
-      <c r="H164" s="67" t="s">
-        <v>1403</v>
-      </c>
-      <c r="I164" s="68" t="s">
+      <c r="H164" s="75" t="s">
         <v>1405</v>
       </c>
-      <c r="J164" s="70" t="s">
+      <c r="I164" s="76" t="s">
         <v>1406</v>
       </c>
-      <c r="K164" s="67">
+      <c r="J164" s="67">
         <v>161</v>
       </c>
-      <c r="L164" s="67" t="s">
+      <c r="K164" s="67" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="165" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A165" s="71" t="s">
+    <row r="165" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A165" s="69" t="s">
         <v>1408</v>
       </c>
       <c r="B165" s="67" t="s">
@@ -15711,24 +15182,21 @@
       <c r="G165" s="67" t="s">
         <v>1412</v>
       </c>
-      <c r="H165" s="67" t="s">
-        <v>1408</v>
-      </c>
-      <c r="I165" s="68" t="s">
+      <c r="H165" s="75" t="s">
         <v>1413</v>
       </c>
-      <c r="J165" s="70" t="s">
+      <c r="I165" s="76" t="s">
         <v>1414</v>
       </c>
-      <c r="K165" s="67">
+      <c r="J165" s="67">
         <v>159</v>
       </c>
-      <c r="L165" s="67" t="s">
+      <c r="K165" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="166" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A166" s="71" t="s">
+    <row r="166" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A166" s="69" t="s">
         <v>1416</v>
       </c>
       <c r="B166" s="67" t="s">
@@ -15749,24 +15217,21 @@
       <c r="G166" s="67" t="s">
         <v>1415</v>
       </c>
-      <c r="H166" s="67" t="s">
-        <v>1416</v>
-      </c>
-      <c r="I166" s="68" t="s">
+      <c r="H166" s="75" t="s">
         <v>1421</v>
       </c>
-      <c r="J166" s="70" t="s">
+      <c r="I166" s="76" t="s">
         <v>1422</v>
       </c>
-      <c r="K166" s="67">
+      <c r="J166" s="67">
         <v>157</v>
       </c>
-      <c r="L166" s="67" t="s">
+      <c r="K166" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="167" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A167" s="71" t="s">
+    <row r="167" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A167" s="69" t="s">
         <v>1424</v>
       </c>
       <c r="B167" s="67" t="s">
@@ -15787,24 +15252,21 @@
       <c r="G167" s="67" t="s">
         <v>1428</v>
       </c>
-      <c r="H167" s="67" t="s">
-        <v>1424</v>
-      </c>
-      <c r="I167" s="68" t="s">
+      <c r="H167" s="75" t="s">
         <v>1429</v>
       </c>
-      <c r="J167" s="70" t="s">
+      <c r="I167" s="76" t="s">
         <v>1430</v>
       </c>
-      <c r="K167" s="67">
+      <c r="J167" s="67">
         <v>160</v>
       </c>
-      <c r="L167" s="67" t="s">
+      <c r="K167" s="67" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="168" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A168" s="71" t="s">
+    <row r="168" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A168" s="69" t="s">
         <v>1431</v>
       </c>
       <c r="B168" s="67" t="s">
@@ -15825,24 +15287,21 @@
       <c r="G168" s="67" t="s">
         <v>1436</v>
       </c>
-      <c r="H168" s="67" t="s">
-        <v>1431</v>
-      </c>
-      <c r="I168" s="68" t="s">
+      <c r="H168" s="75" t="s">
         <v>1438</v>
       </c>
-      <c r="J168" s="70" t="s">
+      <c r="I168" s="76" t="s">
         <v>1439</v>
       </c>
-      <c r="K168" s="67">
+      <c r="J168" s="67">
         <v>150</v>
       </c>
-      <c r="L168" s="67" t="s">
+      <c r="K168" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="169" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A169" s="71" t="s">
+    <row r="169" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A169" s="69" t="s">
         <v>1441</v>
       </c>
       <c r="B169" s="67" t="s">
@@ -15863,24 +15322,21 @@
       <c r="G169" s="67" t="s">
         <v>1446</v>
       </c>
-      <c r="H169" s="67" t="s">
-        <v>1441</v>
-      </c>
-      <c r="I169" s="68" t="s">
+      <c r="H169" s="75" t="s">
         <v>1449</v>
       </c>
-      <c r="J169" s="70" t="s">
+      <c r="I169" s="76" t="s">
         <v>1450</v>
       </c>
-      <c r="K169" s="67">
+      <c r="J169" s="67">
         <v>162</v>
       </c>
-      <c r="L169" s="67" t="s">
+      <c r="K169" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="170" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A170" s="71" t="s">
+    <row r="170" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A170" s="69" t="s">
         <v>1452</v>
       </c>
       <c r="B170" s="67" t="s">
@@ -15901,24 +15357,21 @@
       <c r="G170" s="67" t="s">
         <v>1456</v>
       </c>
-      <c r="H170" s="67" t="s">
-        <v>1452</v>
-      </c>
-      <c r="I170" s="68" t="s">
+      <c r="H170" s="75" t="s">
         <v>1457</v>
       </c>
-      <c r="J170" s="70" t="s">
+      <c r="I170" s="76" t="s">
         <v>1458</v>
       </c>
-      <c r="K170" s="67">
+      <c r="J170" s="67">
         <v>149</v>
       </c>
-      <c r="L170" s="67" t="s">
+      <c r="K170" s="67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="171" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A171" s="71" t="s">
+    <row r="171" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A171" s="69" t="s">
         <v>1460</v>
       </c>
       <c r="B171" s="67" t="s">
@@ -15939,24 +15392,21 @@
       <c r="G171" s="67" t="s">
         <v>1459</v>
       </c>
-      <c r="H171" s="67" t="s">
-        <v>1460</v>
-      </c>
-      <c r="I171" s="68" t="s">
+      <c r="H171" s="75" t="s">
         <v>1464</v>
       </c>
-      <c r="J171" s="70" t="s">
+      <c r="I171" s="76" t="s">
         <v>1465</v>
       </c>
-      <c r="K171" s="67">
+      <c r="J171" s="67">
         <v>148</v>
       </c>
-      <c r="L171" s="67" t="s">
+      <c r="K171" s="67" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="172" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A172" s="71" t="s">
+    <row r="172" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A172" s="69" t="s">
         <v>1466</v>
       </c>
       <c r="B172" s="67" t="s">
@@ -15977,24 +15427,21 @@
       <c r="G172" s="67" t="s">
         <v>1469</v>
       </c>
-      <c r="H172" s="67" t="s">
-        <v>1466</v>
-      </c>
-      <c r="I172" s="68" t="s">
+      <c r="H172" s="75" t="s">
         <v>1471</v>
       </c>
-      <c r="J172" s="70" t="s">
+      <c r="I172" s="76" t="s">
         <v>1472</v>
       </c>
-      <c r="K172" s="67">
+      <c r="J172" s="67">
         <v>156</v>
       </c>
-      <c r="L172" s="67" t="s">
+      <c r="K172" s="67" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="173" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A173" s="71" t="s">
+    <row r="173" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A173" s="69" t="s">
         <v>1474</v>
       </c>
       <c r="B173" s="67" t="s">
@@ -16015,24 +15462,21 @@
       <c r="G173" s="67" t="s">
         <v>1473</v>
       </c>
-      <c r="H173" s="67" t="s">
-        <v>1474</v>
-      </c>
-      <c r="I173" s="68" t="s">
+      <c r="H173" s="75" t="s">
         <v>1479</v>
       </c>
-      <c r="J173" s="70" t="s">
+      <c r="I173" s="76" t="s">
         <v>1480</v>
       </c>
-      <c r="K173" s="67">
+      <c r="J173" s="67">
         <v>221</v>
       </c>
-      <c r="L173" s="67" t="s">
+      <c r="K173" s="67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="174" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A174" s="71" t="s">
+    <row r="174" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A174" s="69" t="s">
         <v>1482</v>
       </c>
       <c r="B174" s="67" t="s">
@@ -16053,24 +15497,21 @@
       <c r="G174" s="67" t="s">
         <v>1481</v>
       </c>
-      <c r="H174" s="67" t="s">
-        <v>1482</v>
-      </c>
-      <c r="I174" s="68" t="s">
+      <c r="H174" s="75" t="s">
         <v>1488</v>
       </c>
-      <c r="J174" s="70" t="s">
+      <c r="I174" s="76" t="s">
         <v>1489</v>
       </c>
-      <c r="K174" s="67">
+      <c r="J174" s="67">
         <v>165</v>
       </c>
-      <c r="L174" s="67" t="s">
+      <c r="K174" s="67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="175" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A175" s="71" t="s">
+    <row r="175" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A175" s="69" t="s">
         <v>1491</v>
       </c>
       <c r="B175" s="67" t="s">
@@ -16091,24 +15532,21 @@
       <c r="G175" s="67" t="s">
         <v>1490</v>
       </c>
-      <c r="H175" s="67" t="s">
-        <v>1491</v>
-      </c>
-      <c r="I175" s="68" t="s">
+      <c r="H175" s="75" t="s">
         <v>1497</v>
       </c>
-      <c r="J175" s="70" t="s">
+      <c r="I175" s="76" t="s">
         <v>1498</v>
       </c>
-      <c r="K175" s="67">
+      <c r="J175" s="67">
         <v>166</v>
       </c>
-      <c r="L175" s="67" t="s">
+      <c r="K175" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="176" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A176" s="71" t="s">
+    <row r="176" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A176" s="69" t="s">
         <v>1500</v>
       </c>
       <c r="B176" s="67" t="s">
@@ -16129,24 +15567,21 @@
       <c r="G176" s="67" t="s">
         <v>2159</v>
       </c>
-      <c r="H176" s="67" t="s">
-        <v>1500</v>
-      </c>
-      <c r="I176" s="68" t="s">
+      <c r="H176" s="75" t="s">
         <v>1502</v>
       </c>
-      <c r="J176" s="70" t="s">
+      <c r="I176" s="76" t="s">
         <v>1503</v>
       </c>
-      <c r="K176" s="67">
+      <c r="J176" s="67">
         <v>172</v>
       </c>
-      <c r="L176" s="67" t="s">
+      <c r="K176" s="67" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="177" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A177" s="71" t="s">
+    <row r="177" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A177" s="69" t="s">
         <v>1505</v>
       </c>
       <c r="B177" s="67" t="s">
@@ -16167,24 +15602,21 @@
       <c r="G177" s="67" t="s">
         <v>1510</v>
       </c>
-      <c r="H177" s="67" t="s">
-        <v>1505</v>
-      </c>
-      <c r="I177" s="68" t="s">
+      <c r="H177" s="75" t="s">
         <v>1511</v>
       </c>
-      <c r="J177" s="70" t="s">
+      <c r="I177" s="76" t="s">
         <v>1512</v>
       </c>
-      <c r="K177" s="67">
+      <c r="J177" s="67">
         <v>170</v>
       </c>
-      <c r="L177" s="67" t="s">
+      <c r="K177" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="178" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A178" s="71" t="s">
+    <row r="178" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A178" s="69" t="s">
         <v>1514</v>
       </c>
       <c r="B178" s="67" t="s">
@@ -16205,24 +15637,21 @@
       <c r="G178" s="67" t="s">
         <v>1513</v>
       </c>
-      <c r="H178" s="67" t="s">
-        <v>1514</v>
-      </c>
-      <c r="I178" s="68" t="s">
+      <c r="H178" s="75" t="s">
         <v>1520</v>
       </c>
-      <c r="J178" s="70" t="s">
+      <c r="I178" s="76" t="s">
         <v>1521</v>
       </c>
-      <c r="K178" s="67">
+      <c r="J178" s="67">
         <v>171</v>
       </c>
-      <c r="L178" s="67" t="s">
+      <c r="K178" s="67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="179" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A179" s="71" t="s">
+    <row r="179" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A179" s="69" t="s">
         <v>1523</v>
       </c>
       <c r="B179" s="67" t="s">
@@ -16243,24 +15672,21 @@
       <c r="G179" s="67" t="s">
         <v>1527</v>
       </c>
-      <c r="H179" s="67" t="s">
-        <v>1523</v>
-      </c>
-      <c r="I179" s="68" t="s">
+      <c r="H179" s="75" t="s">
         <v>1528</v>
       </c>
-      <c r="J179" s="70" t="s">
+      <c r="I179" s="76" t="s">
         <v>1529</v>
       </c>
-      <c r="K179" s="67">
+      <c r="J179" s="67">
         <v>180</v>
       </c>
-      <c r="L179" s="67" t="s">
+      <c r="K179" s="67" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="180" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A180" s="71" t="s">
+    <row r="180" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A180" s="69" t="s">
         <v>1531</v>
       </c>
       <c r="B180" s="67" t="s">
@@ -16281,24 +15707,21 @@
       <c r="G180" s="67" t="s">
         <v>1534</v>
       </c>
-      <c r="H180" s="67" t="s">
-        <v>1531</v>
-      </c>
-      <c r="I180" s="68" t="s">
+      <c r="H180" s="75" t="s">
         <v>1536</v>
       </c>
-      <c r="J180" s="70" t="s">
+      <c r="I180" s="76" t="s">
         <v>1537</v>
       </c>
-      <c r="K180" s="67">
+      <c r="J180" s="67">
         <v>168</v>
       </c>
-      <c r="L180" s="67" t="s">
+      <c r="K180" s="67" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="181" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A181" s="71" t="s">
+    <row r="181" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A181" s="69" t="s">
         <v>1539</v>
       </c>
       <c r="B181" s="67" t="s">
@@ -16319,24 +15742,21 @@
       <c r="G181" s="67" t="s">
         <v>1544</v>
       </c>
-      <c r="H181" s="67" t="s">
-        <v>1539</v>
-      </c>
-      <c r="I181" s="68" t="s">
+      <c r="H181" s="75" t="s">
         <v>1546</v>
       </c>
-      <c r="J181" s="70" t="s">
+      <c r="I181" s="76" t="s">
         <v>1547</v>
       </c>
-      <c r="K181" s="67">
+      <c r="J181" s="67">
         <v>173</v>
       </c>
-      <c r="L181" s="67" t="s">
+      <c r="K181" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="182" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A182" s="71" t="s">
+    <row r="182" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A182" s="69" t="s">
         <v>1549</v>
       </c>
       <c r="B182" s="67" t="s">
@@ -16357,24 +15777,21 @@
       <c r="G182" s="67" t="s">
         <v>1553</v>
       </c>
-      <c r="H182" s="67" t="s">
-        <v>1549</v>
-      </c>
-      <c r="I182" s="68" t="s">
+      <c r="H182" s="75" t="s">
         <v>1555</v>
       </c>
-      <c r="J182" s="70" t="s">
+      <c r="I182" s="76" t="s">
         <v>1556</v>
       </c>
-      <c r="K182" s="67">
+      <c r="J182" s="67">
         <v>177</v>
       </c>
-      <c r="L182" s="67" t="s">
+      <c r="K182" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="183" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A183" s="71" t="s">
+    <row r="183" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A183" s="69" t="s">
         <v>1558</v>
       </c>
       <c r="B183" s="67" t="s">
@@ -16395,24 +15812,21 @@
       <c r="G183" s="67" t="s">
         <v>1563</v>
       </c>
-      <c r="H183" s="67" t="s">
-        <v>1558</v>
-      </c>
-      <c r="I183" s="68" t="s">
+      <c r="H183" s="75" t="s">
         <v>1566</v>
       </c>
-      <c r="J183" s="70" t="s">
+      <c r="I183" s="76" t="s">
         <v>1567</v>
       </c>
-      <c r="K183" s="67">
+      <c r="J183" s="67">
         <v>116</v>
       </c>
-      <c r="L183" s="67" t="s">
+      <c r="K183" s="67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="184" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A184" s="71" t="s">
+    <row r="184" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A184" s="69" t="s">
         <v>1569</v>
       </c>
       <c r="B184" s="67" t="s">
@@ -16433,24 +15847,21 @@
       <c r="G184" s="67" t="s">
         <v>1568</v>
       </c>
-      <c r="H184" s="67" t="s">
-        <v>1569</v>
-      </c>
-      <c r="I184" s="68" t="s">
+      <c r="H184" s="75" t="s">
         <v>1575</v>
       </c>
-      <c r="J184" s="70" t="s">
+      <c r="I184" s="76" t="s">
         <v>1576</v>
       </c>
-      <c r="K184" s="67">
+      <c r="J184" s="67">
         <v>174</v>
       </c>
-      <c r="L184" s="67" t="s">
+      <c r="K184" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="185" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A185" s="71" t="s">
+    <row r="185" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A185" s="69" t="s">
         <v>1578</v>
       </c>
       <c r="B185" s="67" t="s">
@@ -16471,24 +15882,21 @@
       <c r="G185" s="67" t="s">
         <v>1577</v>
       </c>
-      <c r="H185" s="67" t="s">
-        <v>1578</v>
-      </c>
-      <c r="I185" s="68" t="s">
+      <c r="H185" s="75" t="s">
         <v>1583</v>
       </c>
-      <c r="J185" s="70" t="s">
+      <c r="I185" s="76" t="s">
         <v>1584</v>
       </c>
-      <c r="K185" s="67">
+      <c r="J185" s="67">
         <v>169</v>
       </c>
-      <c r="L185" s="67" t="s">
+      <c r="K185" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="186" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A186" s="71" t="s">
+    <row r="186" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A186" s="69" t="s">
         <v>1591</v>
       </c>
       <c r="B186" s="67" t="s">
@@ -16509,24 +15917,21 @@
       <c r="G186" s="67" t="s">
         <v>1586</v>
       </c>
-      <c r="H186" s="67" t="s">
-        <v>1591</v>
-      </c>
-      <c r="I186" s="68" t="s">
+      <c r="H186" s="75" t="s">
         <v>1590</v>
       </c>
-      <c r="J186" s="70" t="s">
+      <c r="I186" s="76" t="s">
         <v>1592</v>
       </c>
-      <c r="K186" s="67">
+      <c r="J186" s="67">
         <v>299</v>
       </c>
-      <c r="L186" s="67" t="s">
+      <c r="K186" s="67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="187" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A187" s="71" t="s">
+    <row r="187" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A187" s="69" t="s">
         <v>1596</v>
       </c>
       <c r="B187" s="67" t="s">
@@ -16547,24 +15952,21 @@
       <c r="G187" s="67" t="s">
         <v>1599</v>
       </c>
-      <c r="H187" s="67" t="s">
-        <v>1596</v>
-      </c>
-      <c r="I187" s="68" t="s">
+      <c r="H187" s="75" t="s">
         <v>1601</v>
       </c>
-      <c r="J187" s="70" t="s">
+      <c r="I187" s="76" t="s">
         <v>1602</v>
       </c>
-      <c r="K187" s="67">
+      <c r="J187" s="67">
         <v>70</v>
       </c>
-      <c r="L187" s="67" t="s">
+      <c r="K187" s="67" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="188" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A188" s="71" t="s">
+    <row r="188" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A188" s="69" t="s">
         <v>1604</v>
       </c>
       <c r="B188" s="67" t="s">
@@ -16585,24 +15987,21 @@
       <c r="G188" s="67" t="s">
         <v>1603</v>
       </c>
-      <c r="H188" s="67" t="s">
-        <v>1604</v>
-      </c>
-      <c r="I188" s="68" t="s">
+      <c r="H188" s="75" t="s">
         <v>1608</v>
       </c>
-      <c r="J188" s="70" t="s">
+      <c r="I188" s="76" t="s">
         <v>1609</v>
       </c>
-      <c r="K188" s="67">
+      <c r="J188" s="67">
         <v>179</v>
       </c>
-      <c r="L188" s="67" t="s">
+      <c r="K188" s="67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="189" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A189" s="71" t="s">
+    <row r="189" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A189" s="69" t="s">
         <v>1610</v>
       </c>
       <c r="B189" s="67" t="s">
@@ -16623,24 +16022,21 @@
       <c r="G189" s="67" t="s">
         <v>1611</v>
       </c>
-      <c r="H189" s="67" t="s">
-        <v>1610</v>
-      </c>
-      <c r="I189" s="68" t="s">
+      <c r="H189" s="75" t="s">
         <v>2205</v>
       </c>
-      <c r="J189" s="70" t="s">
+      <c r="I189" s="76" t="s">
         <v>2218</v>
       </c>
-      <c r="K189" s="67">
+      <c r="J189" s="67">
         <v>182</v>
       </c>
-      <c r="L189" s="67" t="s">
+      <c r="K189" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="190" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A190" s="71" t="s">
+    <row r="190" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A190" s="69" t="s">
         <v>1615</v>
       </c>
       <c r="B190" s="67" t="s">
@@ -16661,24 +16057,21 @@
       <c r="G190" s="67" t="s">
         <v>1619</v>
       </c>
-      <c r="H190" s="67" t="s">
-        <v>1615</v>
-      </c>
-      <c r="I190" s="68" t="s">
+      <c r="H190" s="75" t="s">
         <v>1621</v>
       </c>
-      <c r="J190" s="70" t="s">
+      <c r="I190" s="76" t="s">
         <v>1622</v>
       </c>
-      <c r="K190" s="67">
+      <c r="J190" s="67">
         <v>183</v>
       </c>
-      <c r="L190" s="67" t="s">
+      <c r="K190" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="191" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A191" s="71" t="s">
+    <row r="191" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A191" s="69" t="s">
         <v>1625</v>
       </c>
       <c r="B191" s="67" t="s">
@@ -16699,24 +16092,21 @@
       <c r="G191" s="67" t="s">
         <v>1630</v>
       </c>
-      <c r="H191" s="67" t="s">
-        <v>1625</v>
-      </c>
-      <c r="I191" s="68" t="s">
+      <c r="H191" s="75" t="s">
         <v>1633</v>
       </c>
-      <c r="J191" s="70" t="s">
+      <c r="I191" s="76" t="s">
         <v>1634</v>
       </c>
-      <c r="K191" s="67">
+      <c r="J191" s="67">
         <v>185</v>
       </c>
-      <c r="L191" s="67" t="s">
+      <c r="K191" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="192" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A192" s="71" t="s">
+    <row r="192" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A192" s="69" t="s">
         <v>1636</v>
       </c>
       <c r="B192" s="67" t="s">
@@ -16737,24 +16127,21 @@
       <c r="G192" s="67" t="s">
         <v>1635</v>
       </c>
-      <c r="H192" s="67" t="s">
-        <v>1636</v>
-      </c>
-      <c r="I192" s="68" t="s">
+      <c r="H192" s="75" t="s">
         <v>1641</v>
       </c>
-      <c r="J192" s="70" t="s">
+      <c r="I192" s="76" t="s">
         <v>1642</v>
       </c>
-      <c r="K192" s="67">
+      <c r="J192" s="67">
         <v>184</v>
       </c>
-      <c r="L192" s="67" t="s">
+      <c r="K192" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="193" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A193" s="71" t="s">
+    <row r="193" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A193" s="69" t="s">
         <v>1651</v>
       </c>
       <c r="B193" s="67" t="s">
@@ -16775,24 +16162,21 @@
       <c r="G193" s="67" t="s">
         <v>1656</v>
       </c>
-      <c r="H193" s="67" t="s">
-        <v>1651</v>
-      </c>
-      <c r="I193" s="68" t="s">
+      <c r="H193" s="75" t="s">
         <v>1658</v>
       </c>
-      <c r="J193" s="70" t="s">
+      <c r="I193" s="76" t="s">
         <v>1659</v>
       </c>
-      <c r="K193" s="67">
+      <c r="J193" s="67">
         <v>194</v>
       </c>
-      <c r="L193" s="67" t="s">
+      <c r="K193" s="67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="194" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A194" s="71" t="s">
+    <row r="194" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A194" s="69" t="s">
         <v>1661</v>
       </c>
       <c r="B194" s="67" t="s">
@@ -16813,24 +16197,21 @@
       <c r="G194" s="67" t="s">
         <v>1666</v>
       </c>
-      <c r="H194" s="67" t="s">
-        <v>1661</v>
-      </c>
-      <c r="I194" s="68" t="s">
+      <c r="H194" s="75" t="s">
         <v>1667</v>
       </c>
-      <c r="J194" s="68" t="s">
+      <c r="I194" s="75" t="s">
         <v>1668</v>
       </c>
-      <c r="K194" s="67">
+      <c r="J194" s="67">
         <v>276</v>
       </c>
-      <c r="L194" s="67" t="s">
+      <c r="K194" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="195" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A195" s="71" t="s">
+    <row r="195" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A195" s="69" t="s">
         <v>1670</v>
       </c>
       <c r="B195" s="67" t="s">
@@ -16851,24 +16232,21 @@
       <c r="G195" s="67" t="s">
         <v>1674</v>
       </c>
-      <c r="H195" s="67" t="s">
-        <v>1670</v>
-      </c>
-      <c r="I195" s="68" t="s">
+      <c r="H195" s="75" t="s">
         <v>1676</v>
       </c>
-      <c r="J195" s="70" t="s">
+      <c r="I195" s="76" t="s">
         <v>1677</v>
       </c>
-      <c r="K195" s="67">
+      <c r="J195" s="67">
         <v>195</v>
       </c>
-      <c r="L195" s="67" t="s">
+      <c r="K195" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="196" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A196" s="71" t="s">
+    <row r="196" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A196" s="69" t="s">
         <v>1679</v>
       </c>
       <c r="B196" s="67" t="s">
@@ -16889,24 +16267,21 @@
       <c r="G196" s="67" t="s">
         <v>1684</v>
       </c>
-      <c r="H196" s="67" t="s">
-        <v>1679</v>
-      </c>
-      <c r="I196" s="68" t="s">
+      <c r="H196" s="75" t="s">
         <v>1023</v>
       </c>
-      <c r="J196" s="70" t="s">
+      <c r="I196" s="76" t="s">
         <v>1686</v>
       </c>
-      <c r="K196" s="67">
+      <c r="J196" s="67">
         <v>200</v>
       </c>
-      <c r="L196" s="67" t="s">
+      <c r="K196" s="67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="197" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A197" s="71" t="s">
+    <row r="197" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A197" s="69" t="s">
         <v>1688</v>
       </c>
       <c r="B197" s="67" t="s">
@@ -16927,24 +16302,21 @@
       <c r="G197" s="67" t="s">
         <v>2164</v>
       </c>
-      <c r="H197" s="67" t="s">
-        <v>1688</v>
-      </c>
-      <c r="I197" s="68" t="s">
+      <c r="H197" s="75" t="s">
         <v>1690</v>
       </c>
-      <c r="J197" s="70" t="s">
+      <c r="I197" s="76" t="s">
         <v>1691</v>
       </c>
-      <c r="K197" s="67">
+      <c r="J197" s="67">
         <v>271</v>
       </c>
-      <c r="L197" s="67" t="s">
+      <c r="K197" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="198" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A198" s="71" t="s">
+    <row r="198" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A198" s="69" t="s">
         <v>1693</v>
       </c>
       <c r="B198" s="67" t="s">
@@ -16965,24 +16337,21 @@
       <c r="G198" s="67" t="s">
         <v>1696</v>
       </c>
-      <c r="H198" s="67" t="s">
-        <v>1693</v>
-      </c>
-      <c r="I198" s="68" t="s">
+      <c r="H198" s="75" t="s">
         <v>1698</v>
       </c>
-      <c r="J198" s="70" t="s">
+      <c r="I198" s="76" t="s">
         <v>1699</v>
       </c>
-      <c r="K198" s="67">
+      <c r="J198" s="67">
         <v>187</v>
       </c>
-      <c r="L198" s="67" t="s">
+      <c r="K198" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="199" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A199" s="71" t="s">
+    <row r="199" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A199" s="69" t="s">
         <v>2186</v>
       </c>
       <c r="B199" s="67" t="s">
@@ -17003,24 +16372,21 @@
       <c r="G199" s="67" t="s">
         <v>2189</v>
       </c>
-      <c r="H199" s="67" t="s">
-        <v>2186</v>
-      </c>
-      <c r="I199" s="68" t="s">
+      <c r="H199" s="75" t="s">
         <v>2206</v>
       </c>
-      <c r="J199" s="70" t="s">
+      <c r="I199" s="76" t="s">
         <v>2219</v>
       </c>
-      <c r="K199" s="67">
+      <c r="J199" s="67">
         <v>260</v>
       </c>
-      <c r="L199" s="67" t="s">
+      <c r="K199" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="200" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A200" s="71" t="s">
+    <row r="200" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A200" s="69" t="s">
         <v>1701</v>
       </c>
       <c r="B200" s="67" t="s">
@@ -17041,24 +16407,21 @@
       <c r="G200" s="67" t="s">
         <v>1705</v>
       </c>
-      <c r="H200" s="67" t="s">
-        <v>1701</v>
-      </c>
-      <c r="I200" s="68" t="s">
+      <c r="H200" s="75" t="s">
         <v>1707</v>
       </c>
-      <c r="J200" s="70" t="s">
+      <c r="I200" s="76" t="s">
         <v>1708</v>
       </c>
-      <c r="K200" s="67">
+      <c r="J200" s="67">
         <v>25</v>
       </c>
-      <c r="L200" s="67" t="s">
+      <c r="K200" s="67" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="201" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A201" s="71" t="s">
+    <row r="201" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A201" s="69" t="s">
         <v>1710</v>
       </c>
       <c r="B201" s="67" t="s">
@@ -17079,24 +16442,21 @@
       <c r="G201" s="67" t="s">
         <v>1709</v>
       </c>
-      <c r="H201" s="67" t="s">
-        <v>1710</v>
-      </c>
-      <c r="I201" s="68" t="s">
+      <c r="H201" s="75" t="s">
         <v>1715</v>
       </c>
-      <c r="J201" s="70" t="s">
+      <c r="I201" s="76" t="s">
         <v>1716</v>
       </c>
-      <c r="K201" s="67">
+      <c r="J201" s="67">
         <v>197</v>
       </c>
-      <c r="L201" s="67" t="s">
+      <c r="K201" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="202" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A202" s="71" t="s">
+    <row r="202" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A202" s="69" t="s">
         <v>1718</v>
       </c>
       <c r="B202" s="67" t="s">
@@ -17117,24 +16477,21 @@
       <c r="G202" s="67" t="s">
         <v>1717</v>
       </c>
-      <c r="H202" s="67" t="s">
-        <v>1718</v>
-      </c>
-      <c r="I202" s="68" t="s">
+      <c r="H202" s="75" t="s">
         <v>1723</v>
       </c>
-      <c r="J202" s="70" t="s">
+      <c r="I202" s="76" t="s">
         <v>1724</v>
       </c>
-      <c r="K202" s="67">
+      <c r="J202" s="67">
         <v>60</v>
       </c>
-      <c r="L202" s="67" t="s">
+      <c r="K202" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="203" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A203" s="71" t="s">
+    <row r="203" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A203" s="69" t="s">
         <v>1726</v>
       </c>
       <c r="B203" s="67" t="s">
@@ -17155,24 +16512,21 @@
       <c r="G203" s="67" t="s">
         <v>1730</v>
       </c>
-      <c r="H203" s="67" t="s">
-        <v>1726</v>
-      </c>
-      <c r="I203" s="68" t="s">
+      <c r="H203" s="75" t="s">
         <v>1733</v>
       </c>
-      <c r="J203" s="70" t="s">
+      <c r="I203" s="76" t="s">
         <v>1734</v>
       </c>
-      <c r="K203" s="67">
+      <c r="J203" s="67">
         <v>192</v>
       </c>
-      <c r="L203" s="67" t="s">
+      <c r="K203" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="204" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A204" s="71" t="s">
+    <row r="204" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A204" s="69" t="s">
         <v>1735</v>
       </c>
       <c r="B204" s="67" t="s">
@@ -17193,24 +16547,21 @@
       <c r="G204" s="67" t="s">
         <v>1740</v>
       </c>
-      <c r="H204" s="67" t="s">
-        <v>1735</v>
-      </c>
-      <c r="I204" s="68" t="s">
+      <c r="H204" s="75" t="s">
         <v>1742</v>
       </c>
-      <c r="J204" s="70" t="s">
+      <c r="I204" s="76" t="s">
         <v>1743</v>
       </c>
-      <c r="K204" s="67">
+      <c r="J204" s="67">
         <v>201</v>
       </c>
-      <c r="L204" s="67" t="s">
+      <c r="K204" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="205" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A205" s="71" t="s">
+    <row r="205" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A205" s="69" t="s">
         <v>1745</v>
       </c>
       <c r="B205" s="67" t="s">
@@ -17231,24 +16582,21 @@
       <c r="G205" s="67" t="s">
         <v>1747</v>
       </c>
-      <c r="H205" s="67" t="s">
-        <v>1745</v>
-      </c>
-      <c r="I205" s="68" t="s">
+      <c r="H205" s="75" t="s">
         <v>1749</v>
       </c>
-      <c r="J205" s="70" t="s">
+      <c r="I205" s="76" t="s">
         <v>1750</v>
       </c>
-      <c r="K205" s="67">
+      <c r="J205" s="67">
         <v>190</v>
       </c>
-      <c r="L205" s="67" t="s">
+      <c r="K205" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="206" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A206" s="71" t="s">
+    <row r="206" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A206" s="69" t="s">
         <v>1088</v>
       </c>
       <c r="B206" s="67" t="s">
@@ -17269,24 +16617,21 @@
       <c r="G206" s="67" t="s">
         <v>1756</v>
       </c>
-      <c r="H206" s="67" t="s">
-        <v>1088</v>
-      </c>
-      <c r="I206" s="68" t="s">
+      <c r="H206" s="75" t="s">
         <v>1758</v>
       </c>
-      <c r="J206" s="70" t="s">
+      <c r="I206" s="76" t="s">
         <v>1759</v>
       </c>
-      <c r="K206" s="67">
+      <c r="J206" s="67">
         <v>272</v>
       </c>
-      <c r="L206" s="67" t="s">
+      <c r="K206" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="207" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A207" s="71" t="s">
+    <row r="207" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A207" s="69" t="s">
         <v>1762</v>
       </c>
       <c r="B207" s="67" t="s">
@@ -17307,24 +16652,21 @@
       <c r="G207" s="67" t="s">
         <v>1767</v>
       </c>
-      <c r="H207" s="67" t="s">
-        <v>1762</v>
-      </c>
-      <c r="I207" s="68" t="s">
+      <c r="H207" s="75" t="s">
         <v>1769</v>
       </c>
-      <c r="J207" s="70" t="s">
+      <c r="I207" s="76" t="s">
         <v>1770</v>
       </c>
-      <c r="K207" s="67">
+      <c r="J207" s="67">
         <v>277</v>
       </c>
-      <c r="L207" s="67" t="s">
+      <c r="K207" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="208" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A208" s="71" t="s">
+    <row r="208" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A208" s="69" t="s">
         <v>1773</v>
       </c>
       <c r="B208" s="67" t="s">
@@ -17345,24 +16687,21 @@
       <c r="G208" s="67" t="s">
         <v>1778</v>
       </c>
-      <c r="H208" s="67" t="s">
-        <v>1773</v>
-      </c>
-      <c r="I208" s="68" t="s">
+      <c r="H208" s="75" t="s">
         <v>1781</v>
       </c>
-      <c r="J208" s="70" t="s">
+      <c r="I208" s="76" t="s">
         <v>1782</v>
       </c>
-      <c r="K208" s="67">
+      <c r="J208" s="67">
         <v>193</v>
       </c>
-      <c r="L208" s="67" t="s">
+      <c r="K208" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="209" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A209" s="71" t="s">
+    <row r="209" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A209" s="69" t="s">
         <v>1784</v>
       </c>
       <c r="B209" s="67" t="s">
@@ -17383,24 +16722,21 @@
       <c r="G209" s="67" t="s">
         <v>1783</v>
       </c>
-      <c r="H209" s="67" t="s">
-        <v>1784</v>
-      </c>
-      <c r="I209" s="68" t="s">
+      <c r="H209" s="75" t="s">
         <v>1789</v>
       </c>
-      <c r="J209" s="70" t="s">
+      <c r="I209" s="76" t="s">
         <v>1790</v>
       </c>
-      <c r="K209" s="67">
+      <c r="J209" s="67">
         <v>207</v>
       </c>
-      <c r="L209" s="67" t="s">
+      <c r="K209" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="210" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A210" s="71" t="s">
+    <row r="210" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A210" s="69" t="s">
         <v>1792</v>
       </c>
       <c r="B210" s="67" t="s">
@@ -17421,24 +16757,21 @@
       <c r="G210" s="67" t="s">
         <v>1797</v>
       </c>
-      <c r="H210" s="67" t="s">
-        <v>1792</v>
-      </c>
-      <c r="I210" s="68" t="s">
+      <c r="H210" s="75" t="s">
         <v>1799</v>
       </c>
-      <c r="J210" s="70" t="s">
+      <c r="I210" s="76" t="s">
         <v>1800</v>
       </c>
-      <c r="K210" s="67">
+      <c r="J210" s="67">
         <v>199</v>
       </c>
-      <c r="L210" s="67" t="s">
+      <c r="K210" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="211" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A211" s="71" t="s">
+    <row r="211" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A211" s="69" t="s">
         <v>1802</v>
       </c>
       <c r="B211" s="67" t="s">
@@ -17459,24 +16792,21 @@
       <c r="G211" s="67" t="s">
         <v>1807</v>
       </c>
-      <c r="H211" s="67" t="s">
-        <v>1802</v>
-      </c>
-      <c r="I211" s="68" t="s">
+      <c r="H211" s="75" t="s">
         <v>1810</v>
       </c>
-      <c r="J211" s="70" t="s">
+      <c r="I211" s="76" t="s">
         <v>1811</v>
       </c>
-      <c r="K211" s="67">
+      <c r="J211" s="67">
         <v>198</v>
       </c>
-      <c r="L211" s="67" t="s">
+      <c r="K211" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="212" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A212" s="71" t="s">
+    <row r="212" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A212" s="69" t="s">
         <v>1813</v>
       </c>
       <c r="B212" s="67" t="s">
@@ -17497,24 +16827,21 @@
       <c r="G212" s="67" t="s">
         <v>1818</v>
       </c>
-      <c r="H212" s="67" t="s">
-        <v>1813</v>
-      </c>
-      <c r="I212" s="68" t="s">
+      <c r="H212" s="75" t="s">
         <v>1821</v>
       </c>
-      <c r="J212" s="70" t="s">
+      <c r="I212" s="76" t="s">
         <v>1822</v>
       </c>
-      <c r="K212" s="67">
+      <c r="J212" s="67">
         <v>210</v>
       </c>
-      <c r="L212" s="67" t="s">
+      <c r="K212" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="213" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A213" s="71" t="s">
+    <row r="213" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A213" s="69" t="s">
         <v>1824</v>
       </c>
       <c r="B213" s="67" t="s">
@@ -17535,24 +16862,21 @@
       <c r="G213" s="67" t="s">
         <v>1823</v>
       </c>
-      <c r="H213" s="67" t="s">
-        <v>1824</v>
-      </c>
-      <c r="I213" s="68" t="s">
+      <c r="H213" s="75" t="s">
         <v>1831</v>
       </c>
-      <c r="J213" s="70" t="s">
+      <c r="I213" s="76" t="s">
         <v>1832</v>
       </c>
-      <c r="K213" s="67">
+      <c r="J213" s="67">
         <v>209</v>
       </c>
-      <c r="L213" s="67" t="s">
+      <c r="K213" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="214" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A214" s="71" t="s">
+    <row r="214" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A214" s="69" t="s">
         <v>1834</v>
       </c>
       <c r="B214" s="67" t="s">
@@ -17573,24 +16897,21 @@
       <c r="G214" s="67" t="s">
         <v>1833</v>
       </c>
-      <c r="H214" s="67" t="s">
-        <v>1834</v>
-      </c>
-      <c r="I214" s="68" t="s">
+      <c r="H214" s="75" t="s">
         <v>1838</v>
       </c>
-      <c r="J214" s="70" t="s">
+      <c r="I214" s="76" t="s">
         <v>1839</v>
       </c>
-      <c r="K214" s="67">
+      <c r="J214" s="67">
         <v>280</v>
       </c>
-      <c r="L214" s="67" t="s">
+      <c r="K214" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="215" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A215" s="71" t="s">
+    <row r="215" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A215" s="69" t="s">
         <v>1841</v>
       </c>
       <c r="B215" s="67" t="s">
@@ -17611,24 +16932,21 @@
       <c r="G215" s="67" t="s">
         <v>1840</v>
       </c>
-      <c r="H215" s="67" t="s">
-        <v>1841</v>
-      </c>
-      <c r="I215" s="68" t="s">
+      <c r="H215" s="75" t="s">
         <v>1846</v>
       </c>
-      <c r="J215" s="70" t="s">
+      <c r="I215" s="76" t="s">
         <v>1847</v>
       </c>
-      <c r="K215" s="67">
+      <c r="J215" s="67">
         <v>196</v>
       </c>
-      <c r="L215" s="67" t="s">
+      <c r="K215" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="216" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A216" s="71" t="s">
+    <row r="216" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A216" s="69" t="s">
         <v>1849</v>
       </c>
       <c r="B216" s="67" t="s">
@@ -17649,24 +16967,21 @@
       <c r="G216" s="67" t="s">
         <v>1854</v>
       </c>
-      <c r="H216" s="67" t="s">
-        <v>1849</v>
-      </c>
-      <c r="I216" s="68" t="s">
+      <c r="H216" s="75" t="s">
         <v>1855</v>
       </c>
-      <c r="J216" s="70" t="s">
+      <c r="I216" s="76" t="s">
         <v>1856</v>
       </c>
-      <c r="K216" s="67">
+      <c r="J216" s="67">
         <v>212</v>
       </c>
-      <c r="L216" s="67" t="s">
+      <c r="K216" s="67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="217" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A217" s="71" t="s">
+    <row r="217" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A217" s="69" t="s">
         <v>1858</v>
       </c>
       <c r="B217" s="67" t="s">
@@ -17687,24 +17002,21 @@
       <c r="G217" s="67" t="s">
         <v>1861</v>
       </c>
-      <c r="H217" s="67" t="s">
-        <v>1858</v>
-      </c>
-      <c r="I217" s="68" t="s">
+      <c r="H217" s="75" t="s">
         <v>1863</v>
       </c>
-      <c r="J217" s="70" t="s">
+      <c r="I217" s="76" t="s">
         <v>1864</v>
       </c>
-      <c r="K217" s="67">
+      <c r="J217" s="67">
         <v>224</v>
       </c>
-      <c r="L217" s="67" t="s">
+      <c r="K217" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="218" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A218" s="71" t="s">
+    <row r="218" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A218" s="69" t="s">
         <v>1866</v>
       </c>
       <c r="B218" s="67" t="s">
@@ -17725,24 +17037,21 @@
       <c r="G218" s="67" t="s">
         <v>1870</v>
       </c>
-      <c r="H218" s="67" t="s">
-        <v>1866</v>
-      </c>
-      <c r="I218" s="68" t="s">
+      <c r="H218" s="75" t="s">
         <v>1871</v>
       </c>
-      <c r="J218" s="70" t="s">
+      <c r="I218" s="76" t="s">
         <v>1872</v>
       </c>
-      <c r="K218" s="67">
+      <c r="J218" s="67">
         <v>39</v>
       </c>
-      <c r="L218" s="67" t="s">
+      <c r="K218" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="219" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A219" s="71" t="s">
+    <row r="219" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A219" s="69" t="s">
         <v>1874</v>
       </c>
       <c r="B219" s="67" t="s">
@@ -17763,24 +17072,21 @@
       <c r="G219" s="67" t="s">
         <v>1873</v>
       </c>
-      <c r="H219" s="67" t="s">
-        <v>1874</v>
-      </c>
-      <c r="I219" s="68" t="s">
+      <c r="H219" s="75" t="s">
         <v>1878</v>
       </c>
-      <c r="J219" s="70" t="s">
+      <c r="I219" s="76" t="s">
         <v>1879</v>
       </c>
-      <c r="K219" s="67">
+      <c r="J219" s="67">
         <v>217</v>
       </c>
-      <c r="L219" s="67" t="s">
+      <c r="K219" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="220" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A220" s="71" t="s">
+    <row r="220" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A220" s="69" t="s">
         <v>1881</v>
       </c>
       <c r="B220" s="67" t="s">
@@ -17801,24 +17107,21 @@
       <c r="G220" s="67" t="s">
         <v>1886</v>
       </c>
-      <c r="H220" s="67" t="s">
-        <v>1881</v>
-      </c>
-      <c r="I220" s="68" t="s">
+      <c r="H220" s="75" t="s">
         <v>1888</v>
       </c>
-      <c r="J220" s="70" t="s">
+      <c r="I220" s="76" t="s">
         <v>1889</v>
       </c>
-      <c r="K220" s="67">
+      <c r="J220" s="67">
         <v>216</v>
       </c>
-      <c r="L220" s="67" t="s">
+      <c r="K220" s="67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="221" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A221" s="71" t="s">
+    <row r="221" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A221" s="69" t="s">
         <v>1891</v>
       </c>
       <c r="B221" s="67" t="s">
@@ -17839,24 +17142,21 @@
       <c r="G221" s="67" t="s">
         <v>1896</v>
       </c>
-      <c r="H221" s="67" t="s">
-        <v>1891</v>
-      </c>
-      <c r="I221" s="68" t="s">
+      <c r="H221" s="75" t="s">
         <v>1898</v>
       </c>
-      <c r="J221" s="70" t="s">
+      <c r="I221" s="76" t="s">
         <v>1899</v>
       </c>
-      <c r="K221" s="67">
+      <c r="J221" s="67">
         <v>208</v>
       </c>
-      <c r="L221" s="67" t="s">
+      <c r="K221" s="67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="222" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A222" s="71" t="s">
+    <row r="222" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A222" s="69" t="s">
         <v>1900</v>
       </c>
       <c r="B222" s="67" t="s">
@@ -17877,24 +17177,21 @@
       <c r="G222" s="67" t="s">
         <v>1902</v>
       </c>
-      <c r="H222" s="67" t="s">
-        <v>1900</v>
-      </c>
-      <c r="I222" s="68" t="s">
+      <c r="H222" s="75" t="s">
         <v>2172</v>
       </c>
-      <c r="J222" s="70" t="s">
+      <c r="I222" s="76" t="s">
         <v>2173</v>
       </c>
-      <c r="K222" s="67">
+      <c r="J222" s="67">
         <v>218</v>
       </c>
-      <c r="L222" s="67" t="s">
+      <c r="K222" s="67" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="223" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A223" s="71" t="s">
+    <row r="223" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A223" s="69" t="s">
         <v>1904</v>
       </c>
       <c r="B223" s="67" t="s">
@@ -17915,24 +17212,21 @@
       <c r="G223" s="67" t="s">
         <v>1907</v>
       </c>
-      <c r="H223" s="67" t="s">
-        <v>1904</v>
-      </c>
-      <c r="I223" s="68" t="s">
+      <c r="H223" s="75" t="s">
         <v>1909</v>
       </c>
-      <c r="J223" s="70" t="s">
+      <c r="I223" s="76" t="s">
         <v>1910</v>
       </c>
-      <c r="K223" s="67">
+      <c r="J223" s="67">
         <v>213</v>
       </c>
-      <c r="L223" s="67" t="s">
+      <c r="K223" s="67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="224" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A224" s="71" t="s">
+    <row r="224" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A224" s="69" t="s">
         <v>1912</v>
       </c>
       <c r="B224" s="67" t="s">
@@ -17953,24 +17247,21 @@
       <c r="G224" s="67" t="s">
         <v>1915</v>
       </c>
-      <c r="H224" s="67" t="s">
-        <v>1912</v>
-      </c>
-      <c r="I224" s="68" t="s">
+      <c r="H224" s="75" t="s">
         <v>1918</v>
       </c>
-      <c r="J224" s="70" t="s">
+      <c r="I224" s="76" t="s">
         <v>1919</v>
       </c>
-      <c r="K224" s="67">
+      <c r="J224" s="67">
         <v>176</v>
       </c>
-      <c r="L224" s="67" t="s">
+      <c r="K224" s="67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="225" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A225" s="71" t="s">
+    <row r="225" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A225" s="69" t="s">
         <v>1923</v>
       </c>
       <c r="B225" s="67" t="s">
@@ -17991,24 +17282,21 @@
       <c r="G225" s="67" t="s">
         <v>1922</v>
       </c>
-      <c r="H225" s="67" t="s">
-        <v>1923</v>
-      </c>
-      <c r="I225" s="68" t="s">
+      <c r="H225" s="75" t="s">
         <v>1928</v>
       </c>
-      <c r="J225" s="70" t="s">
+      <c r="I225" s="76" t="s">
         <v>1929</v>
       </c>
-      <c r="K225" s="67">
+      <c r="J225" s="67">
         <v>219</v>
       </c>
-      <c r="L225" s="67" t="s">
+      <c r="K225" s="67" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="226" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A226" s="71" t="s">
+    <row r="226" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A226" s="69" t="s">
         <v>1931</v>
       </c>
       <c r="B226" s="67" t="s">
@@ -18029,24 +17317,21 @@
       <c r="G226" s="67" t="s">
         <v>1936</v>
       </c>
-      <c r="H226" s="67" t="s">
-        <v>1931</v>
-      </c>
-      <c r="I226" s="68" t="s">
+      <c r="H226" s="75" t="s">
         <v>1938</v>
       </c>
-      <c r="J226" s="70" t="s">
+      <c r="I226" s="76" t="s">
         <v>1939</v>
       </c>
-      <c r="K226" s="67">
+      <c r="J226" s="67">
         <v>220</v>
       </c>
-      <c r="L226" s="67" t="s">
+      <c r="K226" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="227" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A227" s="71" t="s">
+    <row r="227" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A227" s="69" t="s">
         <v>1941</v>
       </c>
       <c r="B227" s="67" t="s">
@@ -18067,24 +17352,21 @@
       <c r="G227" s="67" t="s">
         <v>1946</v>
       </c>
-      <c r="H227" s="67" t="s">
-        <v>1941</v>
-      </c>
-      <c r="I227" s="68" t="s">
+      <c r="H227" s="75" t="s">
         <v>1948</v>
       </c>
-      <c r="J227" s="70" t="s">
+      <c r="I227" s="76" t="s">
         <v>1949</v>
       </c>
-      <c r="K227" s="67">
+      <c r="J227" s="67">
         <v>222</v>
       </c>
-      <c r="L227" s="67" t="s">
+      <c r="K227" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="228" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A228" s="71" t="s">
+    <row r="228" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A228" s="69" t="s">
         <v>1951</v>
       </c>
       <c r="B228" s="67" t="s">
@@ -18105,24 +17387,21 @@
       <c r="G228" s="67" t="s">
         <v>1956</v>
       </c>
-      <c r="H228" s="67" t="s">
-        <v>1951</v>
-      </c>
-      <c r="I228" s="68" t="s">
+      <c r="H228" s="75" t="s">
         <v>1958</v>
       </c>
-      <c r="J228" s="70" t="s">
+      <c r="I228" s="76" t="s">
         <v>1959</v>
       </c>
-      <c r="K228" s="67">
+      <c r="J228" s="67">
         <v>223</v>
       </c>
-      <c r="L228" s="67" t="s">
+      <c r="K228" s="67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="229" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A229" s="71" t="s">
+    <row r="229" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A229" s="69" t="s">
         <v>1962</v>
       </c>
       <c r="B229" s="67" t="s">
@@ -18143,24 +17422,21 @@
       <c r="G229" s="67" t="s">
         <v>1963</v>
       </c>
-      <c r="H229" s="67" t="s">
-        <v>1962</v>
-      </c>
-      <c r="I229" s="68" t="s">
+      <c r="H229" s="75" t="s">
         <v>2167</v>
       </c>
-      <c r="J229" s="70" t="s">
+      <c r="I229" s="76" t="s">
         <v>2169</v>
       </c>
-      <c r="K229" s="67">
+      <c r="J229" s="67">
         <v>227</v>
       </c>
-      <c r="L229" s="67" t="s">
+      <c r="K229" s="67" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="230" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A230" s="71" t="s">
+    <row r="230" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A230" s="69" t="s">
         <v>1961</v>
       </c>
       <c r="B230" s="67" t="s">
@@ -18181,24 +17457,21 @@
       <c r="G230" s="67" t="s">
         <v>1960</v>
       </c>
-      <c r="H230" s="67" t="s">
-        <v>1961</v>
-      </c>
-      <c r="I230" s="68" t="s">
+      <c r="H230" s="75" t="s">
         <v>1964</v>
       </c>
-      <c r="J230" s="70" t="s">
+      <c r="I230" s="76" t="s">
         <v>1965</v>
       </c>
-      <c r="K230" s="67">
+      <c r="J230" s="67">
         <v>214</v>
       </c>
-      <c r="L230" s="67" t="s">
+      <c r="K230" s="67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="231" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A231" s="71" t="s">
+    <row r="231" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A231" s="69" t="s">
         <v>1967</v>
       </c>
       <c r="B231" s="67" t="s">
@@ -18219,24 +17492,21 @@
       <c r="G231" s="67" t="s">
         <v>1972</v>
       </c>
-      <c r="H231" s="67" t="s">
-        <v>1967</v>
-      </c>
-      <c r="I231" s="68" t="s">
+      <c r="H231" s="75" t="s">
         <v>1975</v>
       </c>
-      <c r="J231" s="70" t="s">
+      <c r="I231" s="76" t="s">
         <v>1976</v>
       </c>
-      <c r="K231" s="67">
+      <c r="J231" s="67">
         <v>215</v>
       </c>
-      <c r="L231" s="67" t="s">
+      <c r="K231" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="232" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A232" s="71" t="s">
+    <row r="232" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A232" s="69" t="s">
         <v>1978</v>
       </c>
       <c r="B232" s="67" t="s">
@@ -18257,24 +17527,21 @@
       <c r="G232" s="67" t="s">
         <v>1982</v>
       </c>
-      <c r="H232" s="67" t="s">
-        <v>1978</v>
-      </c>
-      <c r="I232" s="68" t="s">
+      <c r="H232" s="75" t="s">
         <v>1984</v>
       </c>
-      <c r="J232" s="70" t="s">
+      <c r="I232" s="76" t="s">
         <v>1985</v>
       </c>
-      <c r="K232" s="67">
+      <c r="J232" s="67">
         <v>226</v>
       </c>
-      <c r="L232" s="67" t="s">
+      <c r="K232" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="233" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A233" s="71" t="s">
+    <row r="233" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A233" s="69" t="s">
         <v>1987</v>
       </c>
       <c r="B233" s="67" t="s">
@@ -18295,24 +17562,21 @@
       <c r="G233" s="67" t="s">
         <v>1986</v>
       </c>
-      <c r="H233" s="67" t="s">
-        <v>1987</v>
-      </c>
-      <c r="I233" s="68" t="s">
+      <c r="H233" s="75" t="s">
         <v>1991</v>
       </c>
-      <c r="J233" s="70" t="s">
+      <c r="I233" s="76" t="s">
         <v>1992</v>
       </c>
-      <c r="K233" s="67">
+      <c r="J233" s="67">
         <v>230</v>
       </c>
-      <c r="L233" s="67" t="s">
+      <c r="K233" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="234" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A234" s="71" t="s">
+    <row r="234" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A234" s="69" t="s">
         <v>2190</v>
       </c>
       <c r="B234" s="67" t="s">
@@ -18333,24 +17597,21 @@
       <c r="G234" s="67" t="s">
         <v>2192</v>
       </c>
-      <c r="H234" s="67" t="s">
-        <v>2190</v>
-      </c>
-      <c r="I234" s="68" t="s">
+      <c r="H234" s="75" t="s">
         <v>2207</v>
       </c>
-      <c r="J234" s="70" t="s">
+      <c r="I234" s="76" t="s">
         <v>2220</v>
       </c>
-      <c r="K234" s="67">
+      <c r="J234" s="67">
         <v>232</v>
       </c>
-      <c r="L234" s="67" t="s">
+      <c r="K234" s="67" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="235" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A235" s="71" t="s">
+    <row r="235" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A235" s="69" t="s">
         <v>1994</v>
       </c>
       <c r="B235" s="67" t="s">
@@ -18371,24 +17632,21 @@
       <c r="G235" s="67" t="s">
         <v>1993</v>
       </c>
-      <c r="H235" s="67" t="s">
-        <v>1994</v>
-      </c>
-      <c r="I235" s="68" t="s">
+      <c r="H235" s="75" t="s">
         <v>1999</v>
       </c>
-      <c r="J235" s="70" t="s">
+      <c r="I235" s="76" t="s">
         <v>2000</v>
       </c>
-      <c r="K235" s="67">
+      <c r="J235" s="67">
         <v>234</v>
       </c>
-      <c r="L235" s="67" t="s">
+      <c r="K235" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="236" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A236" s="71" t="s">
+    <row r="236" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A236" s="69" t="s">
         <v>2001</v>
       </c>
       <c r="B236" s="67" t="s">
@@ -18409,24 +17667,21 @@
       <c r="G236" s="67" t="s">
         <v>2006</v>
       </c>
-      <c r="H236" s="67" t="s">
-        <v>2001</v>
-      </c>
-      <c r="I236" s="68" t="s">
+      <c r="H236" s="75" t="s">
         <v>2009</v>
       </c>
-      <c r="J236" s="70" t="s">
+      <c r="I236" s="76" t="s">
         <v>2010</v>
       </c>
-      <c r="K236" s="67">
+      <c r="J236" s="67">
         <v>231</v>
       </c>
-      <c r="L236" s="67" t="s">
+      <c r="K236" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="237" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A237" s="71" t="s">
+    <row r="237" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A237" s="69" t="s">
         <v>2012</v>
       </c>
       <c r="B237" s="67" t="s">
@@ -18447,24 +17702,21 @@
       <c r="G237" s="67" t="s">
         <v>2017</v>
       </c>
-      <c r="H237" s="67" t="s">
-        <v>2012</v>
-      </c>
-      <c r="I237" s="68" t="s">
+      <c r="H237" s="75" t="s">
         <v>2019</v>
       </c>
-      <c r="J237" s="70" t="s">
+      <c r="I237" s="76" t="s">
         <v>2020</v>
       </c>
-      <c r="K237" s="67">
+      <c r="J237" s="67">
         <v>235</v>
       </c>
-      <c r="L237" s="67" t="s">
+      <c r="K237" s="67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="238" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A238" s="71" t="s">
+    <row r="238" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A238" s="69" t="s">
         <v>2022</v>
       </c>
       <c r="B238" s="67" t="s">
@@ -18485,24 +17737,21 @@
       <c r="G238" s="67" t="s">
         <v>2027</v>
       </c>
-      <c r="H238" s="67" t="s">
-        <v>2022</v>
-      </c>
-      <c r="I238" s="68" t="s">
+      <c r="H238" s="75" t="s">
         <v>2030</v>
       </c>
-      <c r="J238" s="70" t="s">
+      <c r="I238" s="76" t="s">
         <v>2031</v>
       </c>
-      <c r="K238" s="67">
+      <c r="J238" s="67">
         <v>94</v>
       </c>
-      <c r="L238" s="67" t="s">
+      <c r="K238" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="239" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A239" s="71" t="s">
+    <row r="239" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A239" s="69" t="s">
         <v>2033</v>
       </c>
       <c r="B239" s="67" t="s">
@@ -18523,24 +17772,21 @@
       <c r="G239" s="67" t="s">
         <v>2035</v>
       </c>
-      <c r="H239" s="67" t="s">
-        <v>2033</v>
-      </c>
-      <c r="I239" s="68" t="s">
+      <c r="H239" s="75" t="s">
         <v>2037</v>
       </c>
-      <c r="J239" s="70" t="s">
+      <c r="I239" s="76" t="s">
         <v>2038</v>
       </c>
-      <c r="K239" s="67">
+      <c r="J239" s="67">
         <v>191</v>
       </c>
-      <c r="L239" s="67" t="s">
+      <c r="K239" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="240" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A240" s="71" t="s">
+    <row r="240" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A240" s="69" t="s">
         <v>2040</v>
       </c>
       <c r="B240" s="67" t="s">
@@ -18561,24 +17807,21 @@
       <c r="G240" s="67" t="s">
         <v>2039</v>
       </c>
-      <c r="H240" s="67" t="s">
-        <v>2040</v>
-      </c>
-      <c r="I240" s="68" t="s">
+      <c r="H240" s="75" t="s">
         <v>2045</v>
       </c>
-      <c r="J240" s="70" t="s">
+      <c r="I240" s="76" t="s">
         <v>2046</v>
       </c>
-      <c r="K240" s="67">
+      <c r="J240" s="67">
         <v>236</v>
       </c>
-      <c r="L240" s="67" t="s">
+      <c r="K240" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="241" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A241" s="71" t="s">
+    <row r="241" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A241" s="69" t="s">
         <v>2048</v>
       </c>
       <c r="B241" s="67" t="s">
@@ -18599,24 +17842,21 @@
       <c r="G241" s="67" t="s">
         <v>2053</v>
       </c>
-      <c r="H241" s="67" t="s">
-        <v>2048</v>
-      </c>
-      <c r="I241" s="68" t="s">
+      <c r="H241" s="75" t="s">
         <v>2055</v>
       </c>
-      <c r="J241" s="70" t="s">
+      <c r="I241" s="76" t="s">
         <v>2056</v>
       </c>
-      <c r="K241" s="67">
+      <c r="J241" s="67">
         <v>239</v>
       </c>
-      <c r="L241" s="67" t="s">
+      <c r="K241" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="242" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A242" s="71" t="s">
+    <row r="242" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A242" s="69" t="s">
         <v>2058</v>
       </c>
       <c r="B242" s="67" t="s">
@@ -18637,24 +17877,21 @@
       <c r="G242" s="67" t="s">
         <v>2166</v>
       </c>
-      <c r="H242" s="67" t="s">
-        <v>2058</v>
-      </c>
-      <c r="I242" s="68" t="s">
+      <c r="H242" s="75" t="s">
         <v>2060</v>
       </c>
-      <c r="J242" s="70" t="s">
+      <c r="I242" s="76" t="s">
         <v>2061</v>
       </c>
-      <c r="K242" s="67">
+      <c r="J242" s="67">
         <v>240</v>
       </c>
-      <c r="L242" s="67" t="s">
+      <c r="K242" s="67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="243" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A243" s="71" t="s">
+    <row r="243" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A243" s="69" t="s">
         <v>2063</v>
       </c>
       <c r="B243" s="67" t="s">
@@ -18675,24 +17912,21 @@
       <c r="G243" s="67" t="s">
         <v>2066</v>
       </c>
-      <c r="H243" s="67" t="s">
-        <v>2063</v>
-      </c>
-      <c r="I243" s="68" t="s">
+      <c r="H243" s="75" t="s">
         <v>2069</v>
       </c>
-      <c r="J243" s="70" t="s">
+      <c r="I243" s="76" t="s">
         <v>2070</v>
       </c>
-      <c r="K243" s="67">
+      <c r="J243" s="67">
         <v>237</v>
       </c>
-      <c r="L243" s="67" t="s">
+      <c r="K243" s="67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="244" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A244" s="71" t="s">
+    <row r="244" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A244" s="69" t="s">
         <v>2072</v>
       </c>
       <c r="B244" s="67" t="s">
@@ -18713,24 +17947,21 @@
       <c r="G244" s="67" t="s">
         <v>2071</v>
       </c>
-      <c r="H244" s="67" t="s">
-        <v>2072</v>
-      </c>
-      <c r="I244" s="68" t="s">
+      <c r="H244" s="75" t="s">
         <v>2077</v>
       </c>
-      <c r="J244" s="70" t="s">
+      <c r="I244" s="76" t="s">
         <v>2078</v>
       </c>
-      <c r="K244" s="67">
+      <c r="J244" s="67">
         <v>155</v>
       </c>
-      <c r="L244" s="67" t="s">
+      <c r="K244" s="67" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="245" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A245" s="71" t="s">
+    <row r="245" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A245" s="69" t="s">
         <v>2080</v>
       </c>
       <c r="B245" s="67" t="s">
@@ -18751,24 +17982,21 @@
       <c r="G245" s="67" t="s">
         <v>2084</v>
       </c>
-      <c r="H245" s="67" t="s">
-        <v>2080</v>
-      </c>
-      <c r="I245" s="68" t="s">
+      <c r="H245" s="75" t="s">
         <v>2086</v>
       </c>
-      <c r="J245" s="70" t="s">
+      <c r="I245" s="76" t="s">
         <v>2087</v>
       </c>
-      <c r="K245" s="67">
+      <c r="J245" s="67">
         <v>243</v>
       </c>
-      <c r="L245" s="67" t="s">
+      <c r="K245" s="67" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="246" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A246" s="71" t="s">
+    <row r="246" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A246" s="69" t="s">
         <v>2089</v>
       </c>
       <c r="B246" s="67" t="s">
@@ -18789,24 +18017,21 @@
       <c r="G246" s="67" t="s">
         <v>2088</v>
       </c>
-      <c r="H246" s="67" t="s">
-        <v>2089</v>
-      </c>
-      <c r="I246" s="68" t="s">
+      <c r="H246" s="75" t="s">
         <v>1646</v>
       </c>
-      <c r="J246" s="70" t="s">
+      <c r="I246" s="76" t="s">
         <v>2093</v>
       </c>
-      <c r="K246" s="67">
+      <c r="J246" s="67">
         <v>244</v>
       </c>
-      <c r="L246" s="67" t="s">
+      <c r="K246" s="67" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="247" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A247" s="71" t="s">
+    <row r="247" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A247" s="69" t="s">
         <v>2095</v>
       </c>
       <c r="B247" s="67" t="s">
@@ -18827,24 +18052,21 @@
       <c r="G247" s="67" t="s">
         <v>2100</v>
       </c>
-      <c r="H247" s="67" t="s">
-        <v>2095</v>
-      </c>
-      <c r="I247" s="68" t="s">
+      <c r="H247" s="75" t="s">
         <v>2102</v>
       </c>
-      <c r="J247" s="70" t="s">
+      <c r="I247" s="76" t="s">
         <v>2103</v>
       </c>
-      <c r="K247" s="67">
+      <c r="J247" s="67">
         <v>249</v>
       </c>
-      <c r="L247" s="67" t="s">
+      <c r="K247" s="67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="248" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A248" s="71" t="s">
+    <row r="248" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A248" s="69" t="s">
         <v>2106</v>
       </c>
       <c r="B248" s="67" t="s">
@@ -18865,24 +18087,21 @@
       <c r="G248" s="67" t="s">
         <v>2111</v>
       </c>
-      <c r="H248" s="67" t="s">
-        <v>2106</v>
-      </c>
-      <c r="I248" s="68" t="s">
+      <c r="H248" s="75" t="s">
         <v>2113</v>
       </c>
-      <c r="J248" s="70" t="s">
+      <c r="I248" s="76" t="s">
         <v>2114</v>
       </c>
-      <c r="K248" s="67">
+      <c r="J248" s="67">
         <v>202</v>
       </c>
-      <c r="L248" s="67" t="s">
+      <c r="K248" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="249" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A249" s="71" t="s">
+    <row r="249" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A249" s="69" t="s">
         <v>2116</v>
       </c>
       <c r="B249" s="67" t="s">
@@ -18903,24 +18122,21 @@
       <c r="G249" s="67" t="s">
         <v>2120</v>
       </c>
-      <c r="H249" s="67" t="s">
-        <v>2116</v>
-      </c>
-      <c r="I249" s="68" t="s">
+      <c r="H249" s="75" t="s">
         <v>2121</v>
       </c>
-      <c r="J249" s="70" t="s">
+      <c r="I249" s="76" t="s">
         <v>2122</v>
       </c>
-      <c r="K249" s="67">
+      <c r="J249" s="67">
         <v>251</v>
       </c>
-      <c r="L249" s="67" t="s">
+      <c r="K249" s="67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="250" spans="1:12" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A250" s="71" t="s">
+    <row r="250" spans="1:11" s="67" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A250" s="69" t="s">
         <v>2124</v>
       </c>
       <c r="B250" s="67" t="s">
@@ -18941,25 +18157,26 @@
       <c r="G250" s="67" t="s">
         <v>2123</v>
       </c>
-      <c r="H250" s="67" t="s">
-        <v>2124</v>
-      </c>
-      <c r="I250" s="68" t="s">
+      <c r="H250" s="75" t="s">
         <v>2129</v>
       </c>
-      <c r="J250" s="70" t="s">
+      <c r="I250" s="76" t="s">
         <v>2130</v>
       </c>
-      <c r="K250" s="67">
+      <c r="J250" s="67">
         <v>181</v>
       </c>
-      <c r="L250" s="67" t="s">
+      <c r="K250" s="67" t="s">
         <v>81</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="I2:I13 I15:I250" numberStoredAsText="1"/>
+  </ignoredErrors>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -54681,15 +53898,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="71" t="s">
         <v>2194</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="71" t="s">
         <v>2226</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="69" t="s">
         <v>111</v>
       </c>
       <c r="B2" s="67" t="s">
@@ -54697,7 +53914,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="69" t="s">
         <v>362</v>
       </c>
       <c r="B3" s="67" t="s">
@@ -54705,7 +53922,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="69" t="s">
         <v>1558</v>
       </c>
       <c r="B4" s="67" t="s">
@@ -54713,7 +53930,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="71" t="s">
+      <c r="A5" s="69" t="s">
         <v>1912</v>
       </c>
       <c r="B5" s="67" t="s">
@@ -54721,7 +53938,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="71" t="s">
+      <c r="A6" s="69" t="s">
         <v>715</v>
       </c>
       <c r="B6" s="67" t="s">
@@ -54729,7 +53946,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="71" t="s">
+      <c r="A7" s="69" t="s">
         <v>725</v>
       </c>
       <c r="B7" s="67" t="s">
@@ -54737,7 +53954,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="71" t="s">
+      <c r="A8" s="69" t="s">
         <v>870</v>
       </c>
       <c r="B8" s="67" t="s">
@@ -54745,7 +53962,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="71" t="s">
+      <c r="A9" s="69" t="s">
         <v>864</v>
       </c>
       <c r="B9" s="67" t="s">
@@ -54753,7 +53970,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="71" t="s">
+      <c r="A10" s="69" t="s">
         <v>434</v>
       </c>
       <c r="B10" s="67" t="s">
@@ -54761,7 +53978,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="71" t="s">
+      <c r="A11" s="69" t="s">
         <v>1099</v>
       </c>
       <c r="B11" s="67" t="s">
@@ -54769,7 +53986,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="71" t="s">
+      <c r="A12" s="69" t="s">
         <v>1194</v>
       </c>
       <c r="B12" s="67" t="s">
@@ -54777,7 +53994,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="71" t="s">
+      <c r="A13" s="69" t="s">
         <v>1228</v>
       </c>
       <c r="B13" s="67" t="s">
@@ -54785,7 +54002,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="71" t="s">
+      <c r="A14" s="69" t="s">
         <v>467</v>
       </c>
       <c r="B14" s="67" t="s">
@@ -54793,7 +54010,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="71" t="s">
+      <c r="A15" s="69" t="s">
         <v>1088</v>
       </c>
       <c r="B15" s="67" t="s">
@@ -54801,7 +54018,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="71" t="s">
+      <c r="A16" s="69" t="s">
         <v>1625</v>
       </c>
       <c r="B16" s="67" t="s">
@@ -54809,7 +54026,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="71" t="s">
+      <c r="A17" s="69" t="s">
         <v>302</v>
       </c>
       <c r="B17" s="67" t="s">
@@ -54817,7 +54034,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="71" t="s">
+      <c r="A18" s="69" t="s">
         <v>1693</v>
       </c>
       <c r="B18" s="67" t="s">
@@ -54825,7 +54042,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="71" t="s">
+      <c r="A19" s="69" t="s">
         <v>1200</v>
       </c>
       <c r="B19" s="67" t="s">
@@ -54833,7 +54050,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="71" t="s">
+      <c r="A20" s="69" t="s">
         <v>1078</v>
       </c>
       <c r="B20" s="67" t="s">
@@ -54841,7 +54058,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="71" t="s">
+      <c r="A21" s="69" t="s">
         <v>1849</v>
       </c>
       <c r="B21" s="67" t="s">
@@ -54849,7 +54066,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="71" t="s">
+      <c r="A22" s="69" t="s">
         <v>1967</v>
       </c>
       <c r="B22" s="67" t="s">
@@ -54857,7 +54074,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="71" t="s">
+      <c r="A23" s="69" t="s">
         <v>284</v>
       </c>
       <c r="B23" s="67" t="s">
@@ -54865,7 +54082,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="71" t="s">
+      <c r="A24" s="69" t="s">
         <v>788</v>
       </c>
       <c r="B24" s="67" t="s">
@@ -54873,7 +54090,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="71" t="s">
+      <c r="A25" s="69" t="s">
         <v>2001</v>
       </c>
       <c r="B25" s="67" t="s">
@@ -54881,7 +54098,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="71" t="s">
+      <c r="A26" s="69" t="s">
         <v>2022</v>
       </c>
       <c r="B26" s="67" t="s">
@@ -54889,7 +54106,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A27" s="71" t="s">
+      <c r="A27" s="69" t="s">
         <v>2063</v>
       </c>
       <c r="B27" s="67" t="s">
@@ -54897,7 +54114,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="71" t="s">
+      <c r="A28" s="69" t="s">
         <v>2080</v>
       </c>
       <c r="B28" s="67" t="s">

--- a/CountryReconciler/reconciler/files/country_list.xlsx
+++ b/CountryReconciler/reconciler/files/country_list.xlsx
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9316" uniqueCount="2227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9325" uniqueCount="2230">
   <si>
     <t>sovereignt,C,254</t>
   </si>
@@ -6763,6 +6763,15 @@
   </si>
   <si>
     <t>alternative EN name 1</t>
+  </si>
+  <si>
+    <t>XKX</t>
+  </si>
+  <si>
+    <t>Kosovo</t>
+  </si>
+  <si>
+    <t>XK</t>
   </si>
 </sst>
 </file>
@@ -7655,7 +7664,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -7823,6 +7832,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="152" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="43" fillId="0" borderId="0" xfId="152" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" xfId="154" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" xfId="154" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -9405,10 +9420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K250"/>
+  <dimension ref="A1:K251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A214" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C233" sqref="C233"/>
+    <sheetView tabSelected="1" topLeftCell="A215" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D236" sqref="D236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -18168,6 +18183,35 @@
       </c>
       <c r="K250" s="67" t="s">
         <v>81</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" s="77" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A251" s="77" t="s">
+        <v>2227</v>
+      </c>
+      <c r="B251" s="77" t="s">
+        <v>2228</v>
+      </c>
+      <c r="C251" s="77" t="s">
+        <v>2228</v>
+      </c>
+      <c r="D251" s="77" t="s">
+        <v>2228</v>
+      </c>
+      <c r="E251" s="77" t="s">
+        <v>2228</v>
+      </c>
+      <c r="F251" s="77" t="s">
+        <v>2228</v>
+      </c>
+      <c r="G251" s="77" t="s">
+        <v>2228</v>
+      </c>
+      <c r="H251" s="77" t="s">
+        <v>2229</v>
+      </c>
+      <c r="K251" s="78" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/CountryReconciler/reconciler/files/country_list.xlsx
+++ b/CountryReconciler/reconciler/files/country_list.xlsx
@@ -9422,8 +9422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A215" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D236" sqref="D236"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -13818,19 +13818,19 @@
         <v>1100</v>
       </c>
       <c r="C126" s="67" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="D126" s="67" t="s">
         <v>1101</v>
       </c>
       <c r="E126" s="67" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="F126" s="67" t="s">
         <v>1103</v>
       </c>
       <c r="G126" s="67" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="H126" s="75" t="s">
         <v>1105</v>
